--- a/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2625" yWindow="1965" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4875" yWindow="1785" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="_RarityConfig" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -444,7 +445,7 @@
   <dimension ref="A1:K353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E353"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -529,11 +530,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
@@ -550,11 +549,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C3" s="3" t="n"/>
       <c r="D3" s="3" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -568,11 +565,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -586,11 +581,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="n">
-        <v>8.970000000000001</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="6">
@@ -604,11 +597,9 @@
           <t>Special Illustration Rare</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>1440</v>
-      </c>
+      <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="n">
-        <v>40.46</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="7">
@@ -622,11 +613,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n">
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8">
@@ -640,11 +629,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="9">
@@ -658,11 +645,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C9" s="3" t="n"/>
       <c r="D9" s="3" t="n">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="10">
@@ -676,11 +661,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n">
-        <v>0.99</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="11">
@@ -694,11 +677,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="n">
-        <v>5.81</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="12">
@@ -712,11 +693,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13">
@@ -730,11 +709,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="n">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14">
@@ -748,11 +725,9 @@
           <t>Hyper Rare</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>900</v>
-      </c>
+      <c r="C14" s="3" t="n"/>
       <c r="D14" s="3" t="n">
-        <v>5.24</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="15">
@@ -766,11 +741,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C15" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16">
@@ -784,11 +757,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C16" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
@@ -802,11 +773,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C17" s="3" t="n"/>
       <c r="D17" s="3" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="18">
@@ -820,11 +789,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="19">
@@ -838,11 +805,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C19" s="3" t="n"/>
       <c r="D19" s="3" t="n">
-        <v>3.61</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="20">
@@ -856,11 +821,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n">
-        <v>0.97</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="21">
@@ -874,11 +837,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C21" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C21" s="3" t="n"/>
       <c r="D21" s="3" t="n">
-        <v>13.45</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="22">
@@ -892,11 +853,9 @@
           <t>Special Illustration Rare</t>
         </is>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>1440</v>
-      </c>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n">
-        <v>70.53</v>
+        <v>69.04000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -910,11 +869,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C23" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C23" s="3" t="n"/>
       <c r="D23" s="3" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="24">
@@ -928,11 +885,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C24" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n">
-        <v>37.23</v>
+        <v>37.68</v>
       </c>
     </row>
     <row r="25">
@@ -946,11 +901,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C25" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C25" s="3" t="n"/>
       <c r="D25" s="3" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="26">
@@ -964,11 +917,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C26" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="27">
@@ -982,11 +933,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C27" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n">
-        <v>9.65</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="28">
@@ -1000,11 +949,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C28" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n">
-        <v>1.01</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="29">
@@ -1018,11 +965,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C29" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n">
-        <v>5.13</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="30">
@@ -1036,11 +981,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C30" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n">
-        <v>30.95</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="31">
@@ -1054,11 +997,9 @@
           <t>Special Illustration Rare</t>
         </is>
       </c>
-      <c r="C31" s="3" t="n">
-        <v>1440</v>
-      </c>
+      <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n">
-        <v>208.89</v>
+        <v>204.44</v>
       </c>
     </row>
     <row r="32">
@@ -1072,11 +1013,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C32" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="33">
@@ -1090,11 +1029,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C33" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n">
-        <v>49.26</v>
+        <v>51.48</v>
       </c>
     </row>
     <row r="34">
@@ -1108,11 +1045,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C34" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="35">
@@ -1126,11 +1061,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C35" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C35" s="3" t="n"/>
       <c r="D35" s="3" t="n">
-        <v>33.43</v>
+        <v>32.05</v>
       </c>
     </row>
     <row r="36">
@@ -1144,11 +1077,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C36" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C36" s="3" t="n"/>
       <c r="D36" s="3" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="37">
@@ -1162,11 +1093,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C37" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="38">
@@ -1180,9 +1109,7 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C38" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="n">
         <v>0.15</v>
       </c>
@@ -1198,11 +1125,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C39" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="40">
@@ -1216,11 +1141,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C40" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="41">
@@ -1234,11 +1157,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C41" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C41" s="3" t="n"/>
       <c r="D41" s="3" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="42">
@@ -1252,11 +1173,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C42" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="n">
-        <v>3.9</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="43">
@@ -1270,11 +1189,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C43" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="44">
@@ -1288,11 +1205,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C44" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C44" s="3" t="n"/>
       <c r="D44" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="45">
@@ -1306,11 +1221,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C45" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1324,11 +1237,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C46" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C46" s="3" t="n"/>
       <c r="D46" s="3" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47">
@@ -1342,11 +1253,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C47" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C47" s="3" t="n"/>
       <c r="D47" s="3" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="48">
@@ -1360,11 +1269,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C48" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="49">
@@ -1378,11 +1285,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C49" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C49" s="3" t="n"/>
       <c r="D49" s="3" t="n">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="50">
@@ -1396,11 +1301,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C50" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C50" s="3" t="n"/>
       <c r="D50" s="3" t="n">
-        <v>26.7</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="51">
@@ -1414,11 +1317,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C51" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C51" s="3" t="n"/>
       <c r="D51" s="3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="52">
@@ -1432,9 +1333,7 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C52" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C52" s="3" t="n"/>
       <c r="D52" s="3" t="n">
         <v>0.18</v>
       </c>
@@ -1450,9 +1349,7 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C53" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C53" s="3" t="n"/>
       <c r="D53" s="3" t="n">
         <v>0.15</v>
       </c>
@@ -1468,9 +1365,7 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C54" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C54" s="3" t="n"/>
       <c r="D54" s="3" t="n">
         <v>0.16</v>
       </c>
@@ -1486,11 +1381,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C55" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C55" s="3" t="n"/>
       <c r="D55" s="3" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="56">
@@ -1504,11 +1397,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C56" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C56" s="3" t="n"/>
       <c r="D56" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="57">
@@ -1522,11 +1413,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C57" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C57" s="3" t="n"/>
       <c r="D57" s="3" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="58">
@@ -1540,11 +1429,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C58" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C58" s="3" t="n"/>
       <c r="D58" s="3" t="n">
-        <v>2.23</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="59">
@@ -1558,11 +1445,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C59" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C59" s="3" t="n"/>
       <c r="D59" s="3" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="60">
@@ -1576,11 +1461,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C60" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C60" s="3" t="n"/>
       <c r="D60" s="3" t="n">
-        <v>1.19</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="61">
@@ -1594,11 +1477,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C61" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C61" s="3" t="n"/>
       <c r="D61" s="3" t="n">
-        <v>7.76</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="62">
@@ -1612,11 +1493,9 @@
           <t>Special Illustration Rare</t>
         </is>
       </c>
-      <c r="C62" s="3" t="n">
-        <v>1440</v>
-      </c>
+      <c r="C62" s="3" t="n"/>
       <c r="D62" s="3" t="n">
-        <v>15.77</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="63">
@@ -1630,11 +1509,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C63" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C63" s="3" t="n"/>
       <c r="D63" s="3" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="64">
@@ -1648,11 +1525,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C64" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C64" s="3" t="n"/>
       <c r="D64" s="3" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="65">
@@ -1666,11 +1541,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C65" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C65" s="3" t="n"/>
       <c r="D65" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="66">
@@ -1684,11 +1557,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C66" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C66" s="3" t="n"/>
       <c r="D66" s="3" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="67">
@@ -1702,11 +1573,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C67" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C67" s="3" t="n"/>
       <c r="D67" s="3" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="68">
@@ -1720,11 +1589,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C68" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C68" s="3" t="n"/>
       <c r="D68" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="69">
@@ -1738,11 +1605,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C69" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C69" s="3" t="n"/>
       <c r="D69" s="3" t="n">
-        <v>2.99</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="70">
@@ -1756,9 +1621,7 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C70" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C70" s="3" t="n"/>
       <c r="D70" s="3" t="n">
         <v>0.14</v>
       </c>
@@ -1774,11 +1637,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C71" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C71" s="3" t="n"/>
       <c r="D71" s="3" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="72">
@@ -1792,11 +1653,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C72" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C72" s="3" t="n"/>
       <c r="D72" s="3" t="n">
-        <v>4.57</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="73">
@@ -1810,11 +1669,9 @@
           <t>Special Illustration Rare</t>
         </is>
       </c>
-      <c r="C73" s="3" t="n">
-        <v>1440</v>
-      </c>
+      <c r="C73" s="3" t="n"/>
       <c r="D73" s="3" t="n">
-        <v>15.06</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="74">
@@ -1828,11 +1685,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C74" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C74" s="3" t="n"/>
       <c r="D74" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="75">
@@ -1846,11 +1701,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C75" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C75" s="3" t="n"/>
       <c r="D75" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="76">
@@ -1864,11 +1717,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C76" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C76" s="3" t="n"/>
       <c r="D76" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="77">
@@ -1882,11 +1733,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C77" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C77" s="3" t="n"/>
       <c r="D77" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="78">
@@ -1900,11 +1749,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C78" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C78" s="3" t="n"/>
       <c r="D78" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79">
@@ -1918,11 +1765,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C79" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C79" s="3" t="n"/>
       <c r="D79" s="3" t="n">
-        <v>6.55</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="80">
@@ -1936,11 +1781,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C80" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C80" s="3" t="n"/>
       <c r="D80" s="3" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="81">
@@ -1954,11 +1797,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C81" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C81" s="3" t="n"/>
       <c r="D81" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="82">
@@ -1972,11 +1813,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C82" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C82" s="3" t="n"/>
       <c r="D82" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="83">
@@ -1990,9 +1829,7 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C83" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C83" s="3" t="n"/>
       <c r="D83" s="3" t="n">
         <v>0.2</v>
       </c>
@@ -2008,11 +1845,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C84" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C84" s="3" t="n"/>
       <c r="D84" s="3" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="85">
@@ -2026,11 +1861,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C85" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C85" s="3" t="n"/>
       <c r="D85" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="86">
@@ -2044,11 +1877,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C86" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C86" s="3" t="n"/>
       <c r="D86" s="3" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -2062,11 +1893,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C87" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C87" s="3" t="n"/>
       <c r="D87" s="3" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="88">
@@ -2080,11 +1909,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C88" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C88" s="3" t="n"/>
       <c r="D88" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="89">
@@ -2098,11 +1925,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C89" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C89" s="3" t="n"/>
       <c r="D89" s="3" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="90">
@@ -2116,11 +1941,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C90" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C90" s="3" t="n"/>
       <c r="D90" s="3" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="91">
@@ -2134,11 +1957,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C91" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C91" s="3" t="n"/>
       <c r="D91" s="3" t="n">
-        <v>29.73</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="92">
@@ -2152,9 +1973,7 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C92" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C92" s="3" t="n"/>
       <c r="D92" s="3" t="n">
         <v>0.19</v>
       </c>
@@ -2170,11 +1989,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C93" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C93" s="3" t="n"/>
       <c r="D93" s="3" t="n">
-        <v>2.53</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="94">
@@ -2188,11 +2005,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C94" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C94" s="3" t="n"/>
       <c r="D94" s="3" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="95">
@@ -2206,11 +2021,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C95" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C95" s="3" t="n"/>
       <c r="D95" s="3" t="n">
-        <v>5.22</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="96">
@@ -2224,11 +2037,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C96" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C96" s="3" t="n"/>
       <c r="D96" s="3" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="97">
@@ -2242,11 +2053,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C97" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C97" s="3" t="n"/>
       <c r="D97" s="3" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="98">
@@ -2260,11 +2069,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C98" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C98" s="3" t="n"/>
       <c r="D98" s="3" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="99">
@@ -2278,11 +2085,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C99" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C99" s="3" t="n"/>
       <c r="D99" s="3" t="n">
-        <v>2.76</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="100">
@@ -2296,11 +2101,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C100" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C100" s="3" t="n"/>
       <c r="D100" s="3" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="101">
@@ -2314,11 +2117,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C101" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C101" s="3" t="n"/>
       <c r="D101" s="3" t="n">
-        <v>6.58</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="102">
@@ -2332,11 +2133,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C102" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C102" s="3" t="n"/>
       <c r="D102" s="3" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="103">
@@ -2350,11 +2149,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C103" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C103" s="3" t="n"/>
       <c r="D103" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="104">
@@ -2368,11 +2165,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C104" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C104" s="3" t="n"/>
       <c r="D104" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="105">
@@ -2386,11 +2181,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C105" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C105" s="3" t="n"/>
       <c r="D105" s="3" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="106">
@@ -2404,11 +2197,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C106" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C106" s="3" t="n"/>
       <c r="D106" s="3" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="107">
@@ -2422,11 +2213,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C107" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C107" s="3" t="n"/>
       <c r="D107" s="3" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="108">
@@ -2440,9 +2229,7 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C108" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C108" s="3" t="n"/>
       <c r="D108" s="3" t="n">
         <v>0.6</v>
       </c>
@@ -2458,11 +2245,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C109" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C109" s="3" t="n"/>
       <c r="D109" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="110">
@@ -2476,11 +2261,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C110" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C110" s="3" t="n"/>
       <c r="D110" s="3" t="n">
-        <v>12.04</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="111">
@@ -2494,11 +2277,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C111" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C111" s="3" t="n"/>
       <c r="D111" s="3" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="112">
@@ -2512,11 +2293,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C112" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C112" s="3" t="n"/>
       <c r="D112" s="3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="113">
@@ -2530,11 +2309,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C113" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C113" s="3" t="n"/>
       <c r="D113" s="3" t="n">
-        <v>2.07</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="114">
@@ -2548,11 +2325,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C114" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C114" s="3" t="n"/>
       <c r="D114" s="3" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="115">
@@ -2566,9 +2341,7 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C115" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C115" s="3" t="n"/>
       <c r="D115" s="3" t="n">
         <v>0.14</v>
       </c>
@@ -2584,11 +2357,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C116" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C116" s="3" t="n"/>
       <c r="D116" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="117">
@@ -2602,11 +2373,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C117" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C117" s="3" t="n"/>
       <c r="D117" s="3" t="n">
-        <v>0.75</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="118">
@@ -2620,9 +2389,7 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C118" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C118" s="3" t="n"/>
       <c r="D118" s="3" t="n">
         <v>0.17</v>
       </c>
@@ -2638,11 +2405,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C119" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C119" s="3" t="n"/>
       <c r="D119" s="3" t="n">
-        <v>2.71</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="120">
@@ -2656,11 +2421,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C120" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C120" s="3" t="n"/>
       <c r="D120" s="3" t="n">
-        <v>7.31</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="121">
@@ -2674,11 +2437,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C121" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C121" s="3" t="n"/>
       <c r="D121" s="3" t="n">
-        <v>19.15</v>
+        <v>18.38</v>
       </c>
     </row>
     <row r="122">
@@ -2692,11 +2453,9 @@
           <t>Hyper Rare</t>
         </is>
       </c>
-      <c r="C122" s="3" t="n">
-        <v>900</v>
-      </c>
+      <c r="C122" s="3" t="n"/>
       <c r="D122" s="3" t="n">
-        <v>12.33</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="123">
@@ -2710,11 +2469,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C123" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C123" s="3" t="n"/>
       <c r="D123" s="3" t="n">
-        <v>11</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="124">
@@ -2728,11 +2485,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C124" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C124" s="3" t="n"/>
       <c r="D124" s="3" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="125">
@@ -2746,11 +2501,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C125" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C125" s="3" t="n"/>
       <c r="D125" s="3" t="n">
-        <v>1.22</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="126">
@@ -2764,11 +2517,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C126" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C126" s="3" t="n"/>
       <c r="D126" s="3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="127">
@@ -2782,11 +2533,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C127" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C127" s="3" t="n"/>
       <c r="D127" s="3" t="n">
-        <v>7</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="128">
@@ -2800,11 +2549,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C128" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C128" s="3" t="n"/>
       <c r="D128" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="129">
@@ -2818,11 +2565,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C129" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C129" s="3" t="n"/>
       <c r="D129" s="3" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="130">
@@ -2836,11 +2581,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C130" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C130" s="3" t="n"/>
       <c r="D130" s="3" t="n">
-        <v>10.76</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="131">
@@ -2854,11 +2597,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C131" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C131" s="3" t="n"/>
       <c r="D131" s="3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="132">
@@ -2872,11 +2613,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C132" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C132" s="3" t="n"/>
       <c r="D132" s="3" t="n">
-        <v>2.57</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="133">
@@ -2890,11 +2629,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C133" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C133" s="3" t="n"/>
       <c r="D133" s="3" t="n">
-        <v>2.79</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="134">
@@ -2908,11 +2645,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C134" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C134" s="3" t="n"/>
       <c r="D134" s="3" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="135">
@@ -2926,11 +2661,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C135" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C135" s="3" t="n"/>
       <c r="D135" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="136">
@@ -2944,11 +2677,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C136" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C136" s="3" t="n"/>
       <c r="D136" s="3" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="137">
@@ -2962,11 +2693,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C137" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C137" s="3" t="n"/>
       <c r="D137" s="3" t="n">
-        <v>9.210000000000001</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="138">
@@ -2980,11 +2709,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C138" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C138" s="3" t="n"/>
       <c r="D138" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="139">
@@ -2998,11 +2725,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C139" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C139" s="3" t="n"/>
       <c r="D139" s="3" t="n">
-        <v>2.33</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="140">
@@ -3016,11 +2741,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C140" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C140" s="3" t="n"/>
       <c r="D140" s="3" t="n">
-        <v>6.55</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="141">
@@ -3034,11 +2757,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C141" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C141" s="3" t="n"/>
       <c r="D141" s="3" t="n">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="142">
@@ -3052,11 +2773,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C142" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C142" s="3" t="n"/>
       <c r="D142" s="3" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="143">
@@ -3070,11 +2789,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C143" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C143" s="3" t="n"/>
       <c r="D143" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="144">
@@ -3088,9 +2805,7 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C144" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C144" s="3" t="n"/>
       <c r="D144" s="3" t="n">
         <v>0.12</v>
       </c>
@@ -3106,11 +2821,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C145" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C145" s="3" t="n"/>
       <c r="D145" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="146">
@@ -3124,11 +2837,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C146" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C146" s="3" t="n"/>
       <c r="D146" s="3" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="147">
@@ -3142,11 +2853,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C147" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C147" s="3" t="n"/>
       <c r="D147" s="3" t="n">
-        <v>4.52</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="148">
@@ -3160,11 +2869,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C148" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C148" s="3" t="n"/>
       <c r="D148" s="3" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="149">
@@ -3178,11 +2885,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C149" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C149" s="3" t="n"/>
       <c r="D149" s="3" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="150">
@@ -3196,11 +2901,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C150" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C150" s="3" t="n"/>
       <c r="D150" s="3" t="n">
-        <v>31.52</v>
+        <v>31.45</v>
       </c>
     </row>
     <row r="151">
@@ -3214,11 +2917,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C151" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C151" s="3" t="n"/>
       <c r="D151" s="3" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="152">
@@ -3232,11 +2933,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C152" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C152" s="3" t="n"/>
       <c r="D152" s="3" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="153">
@@ -3250,11 +2949,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C153" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C153" s="3" t="n"/>
       <c r="D153" s="3" t="n">
-        <v>2.16</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="154">
@@ -3268,11 +2965,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C154" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C154" s="3" t="n"/>
       <c r="D154" s="3" t="n">
-        <v>17.7</v>
+        <v>16.88</v>
       </c>
     </row>
     <row r="155">
@@ -3286,11 +2981,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C155" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C155" s="3" t="n"/>
       <c r="D155" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="156">
@@ -3304,11 +2997,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C156" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C156" s="3" t="n"/>
       <c r="D156" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="157">
@@ -3322,9 +3013,7 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C157" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C157" s="3" t="n"/>
       <c r="D157" s="3" t="n">
         <v>0.11</v>
       </c>
@@ -3340,9 +3029,7 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C158" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C158" s="3" t="n"/>
       <c r="D158" s="3" t="n">
         <v>0.15</v>
       </c>
@@ -3358,11 +3045,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C159" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C159" s="3" t="n"/>
       <c r="D159" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="160">
@@ -3376,11 +3061,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C160" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C160" s="3" t="n"/>
       <c r="D160" s="3" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="161">
@@ -3394,11 +3077,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C161" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C161" s="3" t="n"/>
       <c r="D161" s="3" t="n">
-        <v>25.21</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="162">
@@ -3412,11 +3093,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C162" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C162" s="3" t="n"/>
       <c r="D162" s="3" t="n">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="163">
@@ -3430,11 +3109,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C163" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C163" s="3" t="n"/>
       <c r="D163" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="164">
@@ -3448,9 +3125,7 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C164" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C164" s="3" t="n"/>
       <c r="D164" s="3" t="n">
         <v>0.18</v>
       </c>
@@ -3466,11 +3141,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C165" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C165" s="3" t="n"/>
       <c r="D165" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="166">
@@ -3484,11 +3157,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C166" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C166" s="3" t="n"/>
       <c r="D166" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="167">
@@ -3502,11 +3173,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C167" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C167" s="3" t="n"/>
       <c r="D167" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="168">
@@ -3520,11 +3189,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C168" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C168" s="3" t="n"/>
       <c r="D168" s="3" t="n">
-        <v>2.19</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="169">
@@ -3538,11 +3205,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C169" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C169" s="3" t="n"/>
       <c r="D169" s="3" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="170">
@@ -3556,11 +3221,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C170" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C170" s="3" t="n"/>
       <c r="D170" s="3" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="171">
@@ -3574,11 +3237,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C171" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C171" s="3" t="n"/>
       <c r="D171" s="3" t="n">
-        <v>2.9</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="172">
@@ -3592,11 +3253,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C172" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C172" s="3" t="n"/>
       <c r="D172" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="173">
@@ -3610,11 +3269,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C173" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C173" s="3" t="n"/>
       <c r="D173" s="3" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="174">
@@ -3628,11 +3285,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C174" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C174" s="3" t="n"/>
       <c r="D174" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="175">
@@ -3646,11 +3301,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C175" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C175" s="3" t="n"/>
       <c r="D175" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="176">
@@ -3664,9 +3317,7 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C176" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C176" s="3" t="n"/>
       <c r="D176" s="3" t="n">
         <v>0.18</v>
       </c>
@@ -3682,11 +3333,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C177" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C177" s="3" t="n"/>
       <c r="D177" s="3" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="178">
@@ -3700,11 +3349,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C178" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C178" s="3" t="n"/>
       <c r="D178" s="3" t="n">
-        <v>2.44</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="179">
@@ -3718,11 +3365,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C179" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C179" s="3" t="n"/>
       <c r="D179" s="3" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="180">
@@ -3736,11 +3381,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C180" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C180" s="3" t="n"/>
       <c r="D180" s="3" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="181">
@@ -3754,11 +3397,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C181" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C181" s="3" t="n"/>
       <c r="D181" s="3" t="n">
-        <v>45.81</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="182">
@@ -3772,11 +3413,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C182" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C182" s="3" t="n"/>
       <c r="D182" s="3" t="n">
-        <v>0.73</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="183">
@@ -3790,11 +3429,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C183" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C183" s="3" t="n"/>
       <c r="D183" s="3" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="184">
@@ -3808,11 +3445,9 @@
           <t>Hyper Rare</t>
         </is>
       </c>
-      <c r="C184" s="3" t="n">
-        <v>900</v>
-      </c>
+      <c r="C184" s="3" t="n"/>
       <c r="D184" s="3" t="n">
-        <v>3.22</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="185">
@@ -3826,9 +3461,7 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C185" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C185" s="3" t="n"/>
       <c r="D185" s="3" t="n">
         <v>0.16</v>
       </c>
@@ -3844,11 +3477,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C186" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C186" s="3" t="n"/>
       <c r="D186" s="3" t="n">
-        <v>8.390000000000001</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="187">
@@ -3862,11 +3493,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C187" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C187" s="3" t="n"/>
       <c r="D187" s="3" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="188">
@@ -3880,11 +3509,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C188" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C188" s="3" t="n"/>
       <c r="D188" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="189">
@@ -3898,11 +3525,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C189" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C189" s="3" t="n"/>
       <c r="D189" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="190">
@@ -3916,11 +3541,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C190" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C190" s="3" t="n"/>
       <c r="D190" s="3" t="n">
-        <v>2.31</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="191">
@@ -3934,11 +3557,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C191" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C191" s="3" t="n"/>
       <c r="D191" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="192">
@@ -3952,11 +3573,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C192" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C192" s="3" t="n"/>
       <c r="D192" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="193">
@@ -3970,11 +3589,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C193" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C193" s="3" t="n"/>
       <c r="D193" s="3" t="n">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="194">
@@ -3988,11 +3605,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C194" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C194" s="3" t="n"/>
       <c r="D194" s="3" t="n">
-        <v>11.52</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="195">
@@ -4006,11 +3621,9 @@
           <t>Special Illustration Rare</t>
         </is>
       </c>
-      <c r="C195" s="3" t="n">
-        <v>1440</v>
-      </c>
+      <c r="C195" s="3" t="n"/>
       <c r="D195" s="3" t="n">
-        <v>63.82</v>
+        <v>64.23999999999999</v>
       </c>
     </row>
     <row r="196">
@@ -4024,9 +3637,7 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C196" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C196" s="3" t="n"/>
       <c r="D196" s="3" t="n">
         <v>0.15</v>
       </c>
@@ -4042,11 +3653,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C197" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C197" s="3" t="n"/>
       <c r="D197" s="3" t="n">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="198">
@@ -4060,11 +3669,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C198" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C198" s="3" t="n"/>
       <c r="D198" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="199">
@@ -4078,11 +3685,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C199" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C199" s="3" t="n"/>
       <c r="D199" s="3" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="200">
@@ -4096,11 +3701,9 @@
           <t>Uncommon</t>
         </is>
       </c>
-      <c r="C200" s="3" t="n">
-        <v>33</v>
-      </c>
+      <c r="C200" s="3" t="n"/>
       <c r="D200" s="3" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="201">
@@ -4114,11 +3717,9 @@
           <t>Illustration Rare</t>
         </is>
       </c>
-      <c r="C201" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C201" s="3" t="n"/>
       <c r="D201" s="3" t="n">
-        <v>29.17</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="202">
@@ -4132,11 +3733,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C202" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C202" s="3" t="n"/>
       <c r="D202" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="203">
@@ -4150,11 +3749,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C203" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C203" s="3" t="n"/>
       <c r="D203" s="3" t="n">
-        <v>2.69</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="204">
@@ -4168,11 +3765,9 @@
           <t>Rare</t>
         </is>
       </c>
-      <c r="C204" s="3" t="n">
-        <v>21</v>
-      </c>
+      <c r="C204" s="3" t="n"/>
       <c r="D204" s="3" t="n">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="205">
@@ -4186,11 +3781,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C205" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C205" s="3" t="n"/>
       <c r="D205" s="3" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="206">
@@ -4204,11 +3797,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C206" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C206" s="3" t="n"/>
       <c r="D206" s="3" t="n">
-        <v>6.67</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="207">
@@ -4222,11 +3813,9 @@
           <t>Double Rare</t>
         </is>
       </c>
-      <c r="C207" s="3" t="n">
-        <v>106</v>
-      </c>
+      <c r="C207" s="3" t="n"/>
       <c r="D207" s="3" t="n">
-        <v>1.05</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="208">
@@ -4240,11 +3829,9 @@
           <t>Ultra Rare</t>
         </is>
       </c>
-      <c r="C208" s="3" t="n">
-        <v>161</v>
-      </c>
+      <c r="C208" s="3" t="n"/>
       <c r="D208" s="3" t="n">
-        <v>8.15</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="209">
@@ -4258,11 +3845,9 @@
           <t>Special Illustration Rare</t>
         </is>
       </c>
-      <c r="C209" s="3" t="n">
-        <v>1440</v>
-      </c>
+      <c r="C209" s="3" t="n"/>
       <c r="D209" s="3" t="n">
-        <v>53.44</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="210">
@@ -4276,11 +3861,9 @@
           <t>Common</t>
         </is>
       </c>
-      <c r="C210" s="3" t="n">
-        <v>46</v>
-      </c>
+      <c r="C210" s="3" t="n"/>
       <c r="D210" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="211">
@@ -5139,4 +4722,45 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="32.28515625" customWidth="1" min="1" max="1"/>
+    <col width="27.5703125" customWidth="1" min="2" max="2"/>
+    <col width="29.140625" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rarity Name (Column A)</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pull Rate (1/X) (Column B) </t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Notes (Column C - optional)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4875" yWindow="1785" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4725" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -444,16 +444,15 @@
   </sheetPr>
   <dimension ref="A1:K353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="39.6" customWidth="1" min="1" max="1"/>
+    <col width="39.5703125" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="4"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="33.5703125" customWidth="1" min="5" max="5"/>
     <col width="32.42578125" customWidth="1" min="6" max="7"/>
     <col width="39.42578125" customWidth="1" min="8" max="8"/>
@@ -4730,17 +4729,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="32.28515625" customWidth="1" min="1" max="1"/>
-    <col width="27.5703125" customWidth="1" min="2" max="2"/>
-    <col width="29.140625" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="32.4" customWidth="1" min="2" max="2"/>
+    <col width="32.4" customWidth="1" min="3" max="3"/>
+    <col width="39.6" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4759,6 +4759,3852 @@
           <t>Notes (Column C - optional)</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Card Name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Price ($)</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Rarity</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pull Rate (1/X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Abra</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Aerodactyl</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Alakazam ex - 065/165</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Alakazam ex - 188/165</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>248</v>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Alakazam ex - 201/165</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>39.96</v>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>Special Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>188</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Antique Dome Fossil</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Special Illustration Rare</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>225</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Antique Helix Fossil</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyper Rare </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>154</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Antique Old Amber</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Arbok ex - 024/165</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Arbok ex - 185/165</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Arcanine</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Articuno</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Basic Psychic Energy - 207/165</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>Hyper Rare</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Beedrill</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Bellsprout</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Big Air Balloon</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Bill's Transfer - 156/165</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Bill's Transfer - 194/165</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Blastoise ex - 009/165</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Blastoise ex - 184/165</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Blastoise ex - 200/165</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>69.68000000000001</v>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>Special Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Bulbasaur - 001/165</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Bulbasaur - 166/165</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>37.68</v>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Butterfree</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Caterpie - 010/165</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Caterpie - 172/165</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Chansey</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Charizard ex - 006/165</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>Charizard ex - 183/165</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>30.96</v>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Charizard ex - 199/165</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>204.44</v>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Special Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Charmander - 004/165</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Charmander - 168/165</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>51.48</v>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Charmeleon - 005/165</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Charmeleon - 169/165</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Clefable</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Clefairy</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Cloyster</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Cubone</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Cycling Road</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>Daisy's Help - 158/165</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>Daisy's Help - 195/165</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Dewgong</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>Diglett</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>Ditto</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>Ditto - 132/165 (Non-Holo)</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>Dodrio</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>Doduo</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>Dragonair - 148/165</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>Dragonair - 181/165</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>Dragonite</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>Dratini</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>Drowzee</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>Dugtrio</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>Eevee</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>Ekans</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>Electabuzz</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>Electrode</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>Energy Sticker</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>Erika's Invitation - 160/165</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>Erika's Invitation - 196/165</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>Erika's Invitation - 203/165</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>Special Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>Exeggcute</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>Exeggutor</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>Farfetch'd</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>Fearow</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>Flareon</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>Gastly</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>Gengar</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>Geodude</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>Giovanni's Charisma - 161/165</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>Giovanni's Charisma - 197/165</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>Giovanni's Charisma - 204/165</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>14.54</v>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>Special Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>Gloom</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>Golbat</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>Goldeen</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>Golduck</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>Golem ex - 076/165</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>Golem ex - 189/165</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>Grabber</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>Graveler</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>Grimer</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>Growlithe</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>Gyarados</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>Haunter</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>Hitmonchan</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>Hitmonlee</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>Horsea</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F88" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>Hypno</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>Ivysaur - 002/165</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>Ivysaur - 167/165</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>29.15</v>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>Jigglypuff</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F92" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>Jolteon</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F93" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>Jynx ex - 124/165</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>Jynx ex - 191/165</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>Kabuto</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>Kabutops</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>Kadabra</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>Kakuna</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F99" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>Kangaskhan ex - 115/165</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F100" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>Kangaskhan ex - 190/165</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F101" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>Kingler</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F102" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t>Koffing</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F103" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>Krabby</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F104" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G104" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>Lapras</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F105" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G105" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>Leftovers</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F106" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G106" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>Lickitung</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F107" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G107" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>Machamp</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F108" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G108" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>Machoke - 067/165</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F109" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G109" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>Machoke - 177/165</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F110" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G110" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>Machop</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F111" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>Magikarp</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F112" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>Magmar</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F113" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G113" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>Magnemite</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F114" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G114" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>Magneton</t>
+        </is>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G115" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>Mankey</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G116" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>Marowak</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F117" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G117" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>Meowth</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F118" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G118" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>Metapod</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t>Mew ex - 151/165</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="F120" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G120" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>Mew ex - 193/165</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>18.16</v>
+      </c>
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G121" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>Mew ex - 205/165</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>Hyper Rare</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>Mew ex - 205/165 (151 Metal Card)</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G123" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>Mewtwo</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F124" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G124" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>Moltres</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G125" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>Mr. Mime - 122/165</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F126" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G126" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>Mr. Mime - 179/165</t>
+        </is>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="F127" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G127" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>Muk</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F128" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G128" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t>Nidoking - 034/165</t>
+        </is>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F129" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G129" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t>Nidoking - 174/165</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F130" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G130" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>Nidoqueen</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F131" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G131" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="D132" s="3" t="inlineStr">
+        <is>
+          <t>Nidoran F</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F132" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G132" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t>Nidoran M</t>
+        </is>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F133" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G133" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t>Nidorina</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F134" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G134" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>Nidorino</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G135" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="D136" s="3" t="inlineStr">
+        <is>
+          <t>Ninetales ex - 038/165</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F136" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G136" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>Ninetales ex - 186/165</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F137" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G137" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t>Oddish</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F138" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>Omanyte - 138/165</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F139" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G139" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="D140" s="3" t="inlineStr">
+        <is>
+          <t>Omanyte - 180/165</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="F140" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G140" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t>Omastar</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F141" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G141" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="D142" s="3" t="inlineStr">
+        <is>
+          <t>Onix</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F142" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G142" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>Paras</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F143" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t>Parasect</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F144" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G144" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t>Persian</t>
+        </is>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F145" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G145" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="D146" s="3" t="inlineStr">
+        <is>
+          <t>Pidgeot</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F146" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G146" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>Pidgeotto</t>
+        </is>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F147" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G147" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t>Pidgey</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F148" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G148" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>Pikachu - 025/165</t>
+        </is>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F149" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G149" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>Pikachu - 173/165</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="F150" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G150" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>Pinsir</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F151" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G151" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="D152" s="3" t="inlineStr">
+        <is>
+          <t>Poliwag</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F152" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G152" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>Poliwhirl - 061/165</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F153" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G153" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="D154" s="3" t="inlineStr">
+        <is>
+          <t>Poliwhirl - 176/165</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="F154" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G154" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>Poliwrath</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F155" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G155" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t>Ponyta</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F156" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G156" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>Porygon</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F157" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G157" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t>Primeape</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F158" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G158" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>Protective Goggles</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F159" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G159" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="D160" s="3" t="inlineStr">
+        <is>
+          <t>Psyduck - 054/165</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F160" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G160" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t>Psyduck - 175/165</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="F161" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G161" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="D162" s="3" t="inlineStr">
+        <is>
+          <t>Raichu</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F162" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G162" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t>Rapidash</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F163" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G163" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="D164" s="3" t="inlineStr">
+        <is>
+          <t>Raticate</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F164" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G164" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>Rattata</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F165" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G165" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>Rhydon</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F166" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G166" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>Rhyhorn</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F167" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G167" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>Rigid Band</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F168" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G168" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>Sandshrew</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F169" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G169" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="D170" s="3" t="inlineStr">
+        <is>
+          <t>Sandslash</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F170" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G170" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>Scyther</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F171" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G171" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>Seadra</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F172" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G172" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t>Seaking</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F173" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G173" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="D174" s="3" t="inlineStr">
+        <is>
+          <t>Seel</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F174" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G174" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>Shellder</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F175" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G175" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t>Slowbro</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F176" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G176" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>Slowpoke</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F177" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G177" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t>Snorlax</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F178" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G178" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>Spearow</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F179" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G179" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="D180" s="3" t="inlineStr">
+        <is>
+          <t>Squirtle - 007/165</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F180" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G180" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t>Squirtle - 170/165</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="F181" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G181" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t>Starmie</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F182" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G182" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t>Staryu</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F183" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G183" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="D184" s="3" t="inlineStr">
+        <is>
+          <t>Switch - 206/165</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F184" s="3" t="inlineStr">
+        <is>
+          <t>Hyper Rare</t>
+        </is>
+      </c>
+      <c r="G184" s="3" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>Tangela - 114/165</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F185" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G185" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="D186" s="3" t="inlineStr">
+        <is>
+          <t>Tangela - 178/165</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="F186" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G186" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>Tauros</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F187" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G187" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="D188" s="3" t="inlineStr">
+        <is>
+          <t>Tentacool</t>
+        </is>
+      </c>
+      <c r="E188" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F188" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G188" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="D189" s="3" t="inlineStr">
+        <is>
+          <t>Tentacruel</t>
+        </is>
+      </c>
+      <c r="E189" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F189" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G189" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" s="3" t="inlineStr">
+        <is>
+          <t>Vaporeon</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F190" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G190" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="D191" s="3" t="inlineStr">
+        <is>
+          <t>Venomoth</t>
+        </is>
+      </c>
+      <c r="E191" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F191" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G191" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="D192" s="3" t="inlineStr">
+        <is>
+          <t>Venonat</t>
+        </is>
+      </c>
+      <c r="E192" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F192" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G192" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="D193" s="3" t="inlineStr">
+        <is>
+          <t>Venusaur ex - 003/165</t>
+        </is>
+      </c>
+      <c r="E193" s="3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F193" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G193" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="D194" s="3" t="inlineStr">
+        <is>
+          <t>Venusaur ex - 182/165</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="F194" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G194" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t>Venusaur ex - 198/165</t>
+        </is>
+      </c>
+      <c r="E195" s="3" t="n">
+        <v>64.23999999999999</v>
+      </c>
+      <c r="F195" s="3" t="inlineStr">
+        <is>
+          <t>Special Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G195" s="3" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="D196" s="3" t="inlineStr">
+        <is>
+          <t>Victreebel</t>
+        </is>
+      </c>
+      <c r="E196" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F196" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G196" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>Vileplume</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F197" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G197" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>Voltorb</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F198" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G198" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>Vulpix</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F199" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G199" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>Wartortle - 008/165</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F200" s="3" t="inlineStr">
+        <is>
+          <t>Uncommon</t>
+        </is>
+      </c>
+      <c r="G200" s="3" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>Wartortle - 171/165</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="n">
+        <v>30.13</v>
+      </c>
+      <c r="F201" s="3" t="inlineStr">
+        <is>
+          <t>Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G201" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="D202" s="3" t="inlineStr">
+        <is>
+          <t>Weedle</t>
+        </is>
+      </c>
+      <c r="E202" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F202" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G202" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>Weepinbell</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F203" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G203" s="3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>Weezing</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F204" s="3" t="inlineStr">
+        <is>
+          <t>Rare</t>
+        </is>
+      </c>
+      <c r="G204" s="3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="D205" s="3" t="inlineStr">
+        <is>
+          <t>Wigglytuff ex - 040/165</t>
+        </is>
+      </c>
+      <c r="E205" s="3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F205" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G205" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="D206" s="3" t="inlineStr">
+        <is>
+          <t>Wigglytuff ex - 187/165</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F206" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G206" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="D207" s="3" t="inlineStr">
+        <is>
+          <t>Zapdos ex - 145/165</t>
+        </is>
+      </c>
+      <c r="E207" s="3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F207" s="3" t="inlineStr">
+        <is>
+          <t>Double Rare</t>
+        </is>
+      </c>
+      <c r="G207" s="3" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="D208" s="3" t="inlineStr">
+        <is>
+          <t>Zapdos ex - 192/165</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="F208" s="3" t="inlineStr">
+        <is>
+          <t>Ultra Rare</t>
+        </is>
+      </c>
+      <c r="G208" s="3" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="D209" s="3" t="inlineStr">
+        <is>
+          <t>Zapdos ex - 202/165</t>
+        </is>
+      </c>
+      <c r="E209" s="3" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="F209" s="3" t="inlineStr">
+        <is>
+          <t>Special Illustration Rare</t>
+        </is>
+      </c>
+      <c r="G209" s="3" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="D210" s="3" t="inlineStr">
+        <is>
+          <t>Zubat</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F210" s="3" t="inlineStr">
+        <is>
+          <t>Common</t>
+        </is>
+      </c>
+      <c r="G210" s="3" t="n">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1350" yWindow="2325" windowWidth="21600" windowHeight="11385" tabRatio="797" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-27375" yWindow="90" windowWidth="25260" windowHeight="11385" tabRatio="797" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data'!$A$1:$N$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data'!$A$1:$K$210</definedName>
   </definedNames>
   <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
@@ -21,7 +21,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,10 +41,15 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -53,16 +58,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D9D9D9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -90,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -114,6 +139,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -481,10 +518,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1263"/>
+  <dimension ref="A1:K1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -498,9 +535,6 @@
     <col width="33.5703125" customWidth="1" min="7" max="8"/>
     <col width="32.42578125" customWidth="1" min="9" max="10"/>
     <col width="39.42578125" customWidth="1" min="11" max="11"/>
-    <col width="16.85546875" customWidth="1" min="12" max="12"/>
-    <col width="12" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -559,21 +593,6 @@
           <t>Current Market Price of ETB Promo Card</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>EV Component</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Total EV</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>EVR</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -590,21 +609,21 @@
         <v>46</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>0.15</v>
       </c>
       <c r="F2" s="3">
-        <f>IF(B2="common", 4, IF(B2="uncommon", 3, IF(B2="rare", 1.22, 1)))</f>
+        <f>IF(B2="common", 4, IF(B2="uncommon", 3, IF(B2="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="G2">
-        <f>SUMPRODUCT(F2:F210, D2:D210/ C2:C210)</f>
+        <f>SUM(H2:H10)</f>
         <v/>
       </c>
       <c r="H2">
-        <f>SUMPRODUCT((B2:B210="Common") * D2:D210 * F2:F210 / C2:C210)</f>
+        <f>SUMPRODUCT((B2:B217="Common") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
       <c r="I2" s="3" t="n">
@@ -632,21 +651,17 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="F3" s="3">
-        <f>IF(B3="common", 4, IF(B3="uncommon", 3, IF(B3="rare", 1.22, 1)))</f>
-        <v/>
-      </c>
-      <c r="G3">
-        <f>SUM(H2:H9)</f>
+        <f>IF(B3="common", 4, IF(B3="uncommon", 3, IF(B3="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="H3">
-        <f>SUMPRODUCT((B2:B210="Uncommon") * D2:D210 * F2:F210 / C2:C210)</f>
+        <f>SUMPRODUCT((B2:B217="Uncommon") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -665,11 +680,11 @@
         <v>90</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.74</v>
+        <v>1.12</v>
       </c>
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3">
-        <f>IF(B4="common", 4, IF(B4="uncommon", 3, IF(B4="rare", 1.22, 1)))</f>
+        <f>IF(B4="common", 4, IF(B4="uncommon", 3, IF(B4="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="H4">
@@ -692,15 +707,15 @@
         <v>248</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>7.64</v>
+        <v>7.46</v>
       </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3">
-        <f>IF(B5="common", 4, IF(B5="uncommon", 3, IF(B5="rare", 1.22, 1)))</f>
+        <f>IF(B5="common", 4, IF(B5="uncommon", 3, IF(B5="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="H5">
-        <f>SUMPRODUCT((B2:B210="Double Rare") * D2:D210 * F2:F210 / C2:C210)</f>
+        <f>SUMPRODUCT((B2:B217="Double Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -719,11 +734,11 @@
         <v>225</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>39.98</v>
+        <v>43.34</v>
       </c>
       <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3">
-        <f>IF(B6="common", 4, IF(B6="uncommon", 3, IF(B6="rare", 1.22, 1)))</f>
+        <f>IF(B6="common", 4, IF(B6="uncommon", 3, IF(B6="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="H6">
@@ -746,17 +761,17 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0.64</v>
       </c>
       <c r="F7" s="3">
-        <f>IF(B7="common", 4, IF(B7="uncommon", 3, IF(B7="rare", 1.22, 1)))</f>
+        <f>IF(B7="common", 4, IF(B7="uncommon", 3, IF(B7="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="H7">
-        <f>SUMPRODUCT((B2:B210="Illustration Rare") * D2:D210 * F2:F210 / C2:C210)</f>
+        <f>SUMPRODUCT((B2:B217="Illustration Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -775,17 +790,17 @@
         <v>46</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1.39</v>
+        <v>1.06</v>
       </c>
       <c r="F8" s="3">
-        <f>IF(B8="common", 4, IF(B8="uncommon", 3, IF(B8="rare", 1.22, 1)))</f>
+        <f>IF(B8="common", 4, IF(B8="uncommon", 3, IF(B8="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="H8">
-        <f>SUMPRODUCT((B2:B210="Special Illustration Rare") * D2:D210 * F2:F210 / C2:C210)</f>
+        <f>SUMPRODUCT((B2:B217="Special Illustration Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -804,17 +819,17 @@
         <v>46</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F9" s="3">
-        <f>IF(B9="common", 4, IF(B9="uncommon", 3, IF(B9="rare", 1.22, 1)))</f>
+        <f>IF(B9="common", 4, IF(B9="uncommon", 3, IF(B9="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="H9">
-        <f>SUMPRODUCT((B2:B210="Ultra Rare") * D2:D210 * F2:F210 / C2:C210)</f>
+        <f>SUMPRODUCT((B2:B217="Ultra Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -833,11 +848,15 @@
         <v>90</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="E10" s="3" t="inlineStr"/>
       <c r="F10" s="3">
-        <f>IF(B10="common", 4, IF(B10="uncommon", 3, IF(B10="rare", 1.22, 1)))</f>
+        <f>IF(B10="common", 4, IF(B10="uncommon", 3, IF(B10="rare", 1.74127216869152, 1)))</f>
+        <v/>
+      </c>
+      <c r="H10">
+        <f>1.88 * SUMPRODUCT((C2:C217&lt;&gt;"") * (E2:E217&lt;&gt;"") * (E2:E217 / C2:C217))</f>
         <v/>
       </c>
     </row>
@@ -856,11 +875,11 @@
         <v>248</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>5.46</v>
+        <v>4.89</v>
       </c>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3">
-        <f>IF(B11="common", 4, IF(B11="uncommon", 3, IF(B11="rare", 1.22, 1)))</f>
+        <f>IF(B11="common", 4, IF(B11="uncommon", 3, IF(B11="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -879,13 +898,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F12" s="3">
-        <f>IF(B12="common", 4, IF(B12="uncommon", 3, IF(B12="rare", 1.22, 1)))</f>
+        <f>IF(B12="common", 4, IF(B12="uncommon", 3, IF(B12="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -904,13 +923,13 @@
         <v>21</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="F13" s="3">
-        <f>IF(B13="common", 4, IF(B13="uncommon", 3, IF(B13="rare", 1.22, 1)))</f>
+        <f>IF(B13="common", 4, IF(B13="uncommon", 3, IF(B13="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -929,11 +948,11 @@
         <v>154</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>5.36</v>
+        <v>4.95</v>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3">
-        <f>IF(B14="common", 4, IF(B14="uncommon", 3, IF(B14="rare", 1.22, 1)))</f>
+        <f>IF(B14="common", 4, IF(B14="uncommon", 3, IF(B14="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -952,13 +971,13 @@
         <v>21</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F15" s="3">
-        <f>IF(B15="common", 4, IF(B15="uncommon", 3, IF(B15="rare", 1.22, 1)))</f>
+        <f>IF(B15="common", 4, IF(B15="uncommon", 3, IF(B15="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -977,13 +996,13 @@
         <v>46</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0.14</v>
       </c>
       <c r="F16" s="3">
-        <f>IF(B16="common", 4, IF(B16="uncommon", 3, IF(B16="rare", 1.22, 1)))</f>
+        <f>IF(B16="common", 4, IF(B16="uncommon", 3, IF(B16="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1002,13 +1021,13 @@
         <v>33</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="F17" s="3">
-        <f>IF(B17="common", 4, IF(B17="uncommon", 3, IF(B17="rare", 1.22, 1)))</f>
+        <f>IF(B17="common", 4, IF(B17="uncommon", 3, IF(B17="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1027,13 +1046,13 @@
         <v>33</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="F18" s="3">
-        <f>IF(B18="common", 4, IF(B18="uncommon", 3, IF(B18="rare", 1.22, 1)))</f>
+        <f>IF(B18="common", 4, IF(B18="uncommon", 3, IF(B18="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1052,11 +1071,11 @@
         <v>248</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3">
-        <f>IF(B19="common", 4, IF(B19="uncommon", 3, IF(B19="rare", 1.22, 1)))</f>
+        <f>IF(B19="common", 4, IF(B19="uncommon", 3, IF(B19="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1075,11 +1094,11 @@
         <v>90</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.66</v>
+        <v>1.18</v>
       </c>
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3">
-        <f>IF(B20="common", 4, IF(B20="uncommon", 3, IF(B20="rare", 1.22, 1)))</f>
+        <f>IF(B20="common", 4, IF(B20="uncommon", 3, IF(B20="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1098,11 +1117,11 @@
         <v>248</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>14.54</v>
+        <v>14.89</v>
       </c>
       <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3">
-        <f>IF(B21="common", 4, IF(B21="uncommon", 3, IF(B21="rare", 1.22, 1)))</f>
+        <f>IF(B21="common", 4, IF(B21="uncommon", 3, IF(B21="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1121,11 +1140,11 @@
         <v>225</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>70.20999999999999</v>
+        <v>73.55</v>
       </c>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3">
-        <f>IF(B22="common", 4, IF(B22="uncommon", 3, IF(B22="rare", 1.22, 1)))</f>
+        <f>IF(B22="common", 4, IF(B22="uncommon", 3, IF(B22="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1144,13 +1163,13 @@
         <v>46</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="F23" s="3">
-        <f>IF(B23="common", 4, IF(B23="uncommon", 3, IF(B23="rare", 1.22, 1)))</f>
+        <f>IF(B23="common", 4, IF(B23="uncommon", 3, IF(B23="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1169,11 +1188,11 @@
         <v>188</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>37.17</v>
+        <v>37.52</v>
       </c>
       <c r="E24" s="3" t="inlineStr"/>
       <c r="F24" s="3">
-        <f>IF(B24="common", 4, IF(B24="uncommon", 3, IF(B24="rare", 1.22, 1)))</f>
+        <f>IF(B24="common", 4, IF(B24="uncommon", 3, IF(B24="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1192,13 +1211,13 @@
         <v>33</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F25" s="3">
-        <f>IF(B25="common", 4, IF(B25="uncommon", 3, IF(B25="rare", 1.22, 1)))</f>
+        <f>IF(B25="common", 4, IF(B25="uncommon", 3, IF(B25="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1217,13 +1236,13 @@
         <v>46</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="F26" s="3">
-        <f>IF(B26="common", 4, IF(B26="uncommon", 3, IF(B26="rare", 1.22, 1)))</f>
+        <f>IF(B26="common", 4, IF(B26="uncommon", 3, IF(B26="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1242,11 +1261,11 @@
         <v>188</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>9.66</v>
+        <v>9.56</v>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3">
-        <f>IF(B27="common", 4, IF(B27="uncommon", 3, IF(B27="rare", 1.22, 1)))</f>
+        <f>IF(B27="common", 4, IF(B27="uncommon", 3, IF(B27="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1265,13 +1284,13 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="F28" s="3">
-        <f>IF(B28="common", 4, IF(B28="uncommon", 3, IF(B28="rare", 1.22, 1)))</f>
+        <f>IF(B28="common", 4, IF(B28="uncommon", 3, IF(B28="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1290,11 +1309,11 @@
         <v>90</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.54</v>
+        <v>4.71</v>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3">
-        <f>IF(B29="common", 4, IF(B29="uncommon", 3, IF(B29="rare", 1.22, 1)))</f>
+        <f>IF(B29="common", 4, IF(B29="uncommon", 3, IF(B29="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1313,11 +1332,11 @@
         <v>248</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>29.54</v>
+        <v>31.27</v>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3">
-        <f>IF(B30="common", 4, IF(B30="uncommon", 3, IF(B30="rare", 1.22, 1)))</f>
+        <f>IF(B30="common", 4, IF(B30="uncommon", 3, IF(B30="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1336,11 +1355,11 @@
         <v>225</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>210.03</v>
+        <v>210.14</v>
       </c>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3">
-        <f>IF(B31="common", 4, IF(B31="uncommon", 3, IF(B31="rare", 1.22, 1)))</f>
+        <f>IF(B31="common", 4, IF(B31="uncommon", 3, IF(B31="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1359,13 +1378,13 @@
         <v>46</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>0.19</v>
       </c>
       <c r="F32" s="3">
-        <f>IF(B32="common", 4, IF(B32="uncommon", 3, IF(B32="rare", 1.22, 1)))</f>
+        <f>IF(B32="common", 4, IF(B32="uncommon", 3, IF(B32="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1384,11 +1403,11 @@
         <v>188</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46.71</v>
+        <v>52.06</v>
       </c>
       <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3">
-        <f>IF(B33="common", 4, IF(B33="uncommon", 3, IF(B33="rare", 1.22, 1)))</f>
+        <f>IF(B33="common", 4, IF(B33="uncommon", 3, IF(B33="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1410,10 +1429,10 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="F34" s="3">
-        <f>IF(B34="common", 4, IF(B34="uncommon", 3, IF(B34="rare", 1.22, 1)))</f>
+        <f>IF(B34="common", 4, IF(B34="uncommon", 3, IF(B34="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1432,11 +1451,11 @@
         <v>188</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>32.96</v>
+        <v>34.86</v>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3">
-        <f>IF(B35="common", 4, IF(B35="uncommon", 3, IF(B35="rare", 1.22, 1)))</f>
+        <f>IF(B35="common", 4, IF(B35="uncommon", 3, IF(B35="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1455,13 +1474,13 @@
         <v>33</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F36" s="3">
-        <f>IF(B36="common", 4, IF(B36="uncommon", 3, IF(B36="rare", 1.22, 1)))</f>
+        <f>IF(B36="common", 4, IF(B36="uncommon", 3, IF(B36="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1480,13 +1499,13 @@
         <v>46</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F37" s="3">
-        <f>IF(B37="common", 4, IF(B37="uncommon", 3, IF(B37="rare", 1.22, 1)))</f>
+        <f>IF(B37="common", 4, IF(B37="uncommon", 3, IF(B37="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1505,13 +1524,13 @@
         <v>33</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F38" s="3">
-        <f>IF(B38="common", 4, IF(B38="uncommon", 3, IF(B38="rare", 1.22, 1)))</f>
+        <f>IF(B38="common", 4, IF(B38="uncommon", 3, IF(B38="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1530,13 +1549,13 @@
         <v>46</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="F39" s="3">
-        <f>IF(B39="common", 4, IF(B39="uncommon", 3, IF(B39="rare", 1.22, 1)))</f>
+        <f>IF(B39="common", 4, IF(B39="uncommon", 3, IF(B39="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1555,13 +1574,13 @@
         <v>33</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="F40" s="3">
-        <f>IF(B40="common", 4, IF(B40="uncommon", 3, IF(B40="rare", 1.22, 1)))</f>
+        <f>IF(B40="common", 4, IF(B40="uncommon", 3, IF(B40="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1583,10 +1602,10 @@
         <v>0.09</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="F41" s="3">
-        <f>IF(B41="common", 4, IF(B41="uncommon", 3, IF(B41="rare", 1.22, 1)))</f>
+        <f>IF(B41="common", 4, IF(B41="uncommon", 3, IF(B41="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1605,11 +1624,11 @@
         <v>248</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.42</v>
+        <v>4.04</v>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3">
-        <f>IF(B42="common", 4, IF(B42="uncommon", 3, IF(B42="rare", 1.22, 1)))</f>
+        <f>IF(B42="common", 4, IF(B42="uncommon", 3, IF(B42="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1631,10 +1650,10 @@
         <v>0.06</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F43" s="3">
-        <f>IF(B43="common", 4, IF(B43="uncommon", 3, IF(B43="rare", 1.22, 1)))</f>
+        <f>IF(B43="common", 4, IF(B43="uncommon", 3, IF(B43="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1656,10 +1675,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F44" s="3">
-        <f>IF(B44="common", 4, IF(B44="uncommon", 3, IF(B44="rare", 1.22, 1)))</f>
+        <f>IF(B44="common", 4, IF(B44="uncommon", 3, IF(B44="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1678,13 +1697,13 @@
         <v>21</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0.84</v>
+        <v>0.64</v>
       </c>
       <c r="F45" s="3">
-        <f>IF(B45="common", 4, IF(B45="uncommon", 3, IF(B45="rare", 1.22, 1)))</f>
+        <f>IF(B45="common", 4, IF(B45="uncommon", 3, IF(B45="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1703,11 +1722,11 @@
         <v>21</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3">
-        <f>IF(B46="common", 4, IF(B46="uncommon", 3, IF(B46="rare", 1.22, 1)))</f>
+        <f>IF(B46="common", 4, IF(B46="uncommon", 3, IF(B46="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1729,10 +1748,10 @@
         <v>0.14</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="F47" s="3">
-        <f>IF(B47="common", 4, IF(B47="uncommon", 3, IF(B47="rare", 1.22, 1)))</f>
+        <f>IF(B47="common", 4, IF(B47="uncommon", 3, IF(B47="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1754,10 +1773,10 @@
         <v>0.06</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F48" s="3">
-        <f>IF(B48="common", 4, IF(B48="uncommon", 3, IF(B48="rare", 1.22, 1)))</f>
+        <f>IF(B48="common", 4, IF(B48="uncommon", 3, IF(B48="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1779,10 +1798,10 @@
         <v>0.11</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3">
-        <f>IF(B49="common", 4, IF(B49="uncommon", 3, IF(B49="rare", 1.22, 1)))</f>
+        <f>IF(B49="common", 4, IF(B49="uncommon", 3, IF(B49="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1801,11 +1820,11 @@
         <v>188</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>22.83</v>
+        <v>25.78</v>
       </c>
       <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="3">
-        <f>IF(B50="common", 4, IF(B50="uncommon", 3, IF(B50="rare", 1.22, 1)))</f>
+        <f>IF(B50="common", 4, IF(B50="uncommon", 3, IF(B50="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1824,13 +1843,13 @@
         <v>21</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="F51" s="3">
-        <f>IF(B51="common", 4, IF(B51="uncommon", 3, IF(B51="rare", 1.22, 1)))</f>
+        <f>IF(B51="common", 4, IF(B51="uncommon", 3, IF(B51="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1849,13 +1868,13 @@
         <v>46</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F52" s="3">
-        <f>IF(B52="common", 4, IF(B52="uncommon", 3, IF(B52="rare", 1.22, 1)))</f>
+        <f>IF(B52="common", 4, IF(B52="uncommon", 3, IF(B52="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1874,13 +1893,13 @@
         <v>46</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F53" s="3">
-        <f>IF(B53="common", 4, IF(B53="uncommon", 3, IF(B53="rare", 1.22, 1)))</f>
+        <f>IF(B53="common", 4, IF(B53="uncommon", 3, IF(B53="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1902,10 +1921,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="F54" s="3">
-        <f>IF(B54="common", 4, IF(B54="uncommon", 3, IF(B54="rare", 1.22, 1)))</f>
+        <f>IF(B54="common", 4, IF(B54="uncommon", 3, IF(B54="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1924,13 +1943,13 @@
         <v>46</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="F55" s="3">
-        <f>IF(B55="common", 4, IF(B55="uncommon", 3, IF(B55="rare", 1.22, 1)))</f>
+        <f>IF(B55="common", 4, IF(B55="uncommon", 3, IF(B55="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1949,13 +1968,13 @@
         <v>46</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F56" s="3">
-        <f>IF(B56="common", 4, IF(B56="uncommon", 3, IF(B56="rare", 1.22, 1)))</f>
+        <f>IF(B56="common", 4, IF(B56="uncommon", 3, IF(B56="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -1974,13 +1993,13 @@
         <v>46</v>
       </c>
       <c r="D57" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F57" s="3">
-        <f>IF(B57="common", 4, IF(B57="uncommon", 3, IF(B57="rare", 1.22, 1)))</f>
+        <f>IF(B57="common", 4, IF(B57="uncommon", 3, IF(B57="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2002,10 +2021,10 @@
         <v>0.13</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>1.68</v>
+        <v>1.27</v>
       </c>
       <c r="F58" s="3">
-        <f>IF(B58="common", 4, IF(B58="uncommon", 3, IF(B58="rare", 1.22, 1)))</f>
+        <f>IF(B58="common", 4, IF(B58="uncommon", 3, IF(B58="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2024,13 +2043,13 @@
         <v>33</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="F59" s="3">
-        <f>IF(B59="common", 4, IF(B59="uncommon", 3, IF(B59="rare", 1.22, 1)))</f>
+        <f>IF(B59="common", 4, IF(B59="uncommon", 3, IF(B59="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2049,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F60" s="3">
-        <f>IF(B60="common", 4, IF(B60="uncommon", 3, IF(B60="rare", 1.22, 1)))</f>
+        <f>IF(B60="common", 4, IF(B60="uncommon", 3, IF(B60="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2074,11 +2093,11 @@
         <v>248</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>6.39</v>
+        <v>6.99</v>
       </c>
       <c r="E61" s="3" t="inlineStr"/>
       <c r="F61" s="3">
-        <f>IF(B61="common", 4, IF(B61="uncommon", 3, IF(B61="rare", 1.22, 1)))</f>
+        <f>IF(B61="common", 4, IF(B61="uncommon", 3, IF(B61="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2097,11 +2116,11 @@
         <v>225</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>14.75</v>
+        <v>14.98</v>
       </c>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3">
-        <f>IF(B62="common", 4, IF(B62="uncommon", 3, IF(B62="rare", 1.22, 1)))</f>
+        <f>IF(B62="common", 4, IF(B62="uncommon", 3, IF(B62="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2123,10 +2142,10 @@
         <v>0.05</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="F63" s="3">
-        <f>IF(B63="common", 4, IF(B63="uncommon", 3, IF(B63="rare", 1.22, 1)))</f>
+        <f>IF(B63="common", 4, IF(B63="uncommon", 3, IF(B63="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2145,13 +2164,13 @@
         <v>33</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="F64" s="3">
-        <f>IF(B64="common", 4, IF(B64="uncommon", 3, IF(B64="rare", 1.22, 1)))</f>
+        <f>IF(B64="common", 4, IF(B64="uncommon", 3, IF(B64="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2170,13 +2189,13 @@
         <v>46</v>
       </c>
       <c r="D65" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F65" s="3">
-        <f>IF(B65="common", 4, IF(B65="uncommon", 3, IF(B65="rare", 1.22, 1)))</f>
+        <f>IF(B65="common", 4, IF(B65="uncommon", 3, IF(B65="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2195,13 +2214,13 @@
         <v>33</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F66" s="3">
-        <f>IF(B66="common", 4, IF(B66="uncommon", 3, IF(B66="rare", 1.22, 1)))</f>
+        <f>IF(B66="common", 4, IF(B66="uncommon", 3, IF(B66="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2220,13 +2239,13 @@
         <v>21</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="F67" s="3">
-        <f>IF(B67="common", 4, IF(B67="uncommon", 3, IF(B67="rare", 1.22, 1)))</f>
+        <f>IF(B67="common", 4, IF(B67="uncommon", 3, IF(B67="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2245,13 +2264,13 @@
         <v>46</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F68" s="3">
-        <f>IF(B68="common", 4, IF(B68="uncommon", 3, IF(B68="rare", 1.22, 1)))</f>
+        <f>IF(B68="common", 4, IF(B68="uncommon", 3, IF(B68="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2270,13 +2289,13 @@
         <v>21</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="F69" s="3">
-        <f>IF(B69="common", 4, IF(B69="uncommon", 3, IF(B69="rare", 1.22, 1)))</f>
+        <f>IF(B69="common", 4, IF(B69="uncommon", 3, IF(B69="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2301,7 +2320,7 @@
         <v>0.15</v>
       </c>
       <c r="F70" s="3">
-        <f>IF(B70="common", 4, IF(B70="uncommon", 3, IF(B70="rare", 1.22, 1)))</f>
+        <f>IF(B70="common", 4, IF(B70="uncommon", 3, IF(B70="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2320,13 +2339,13 @@
         <v>33</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="F71" s="3">
-        <f>IF(B71="common", 4, IF(B71="uncommon", 3, IF(B71="rare", 1.22, 1)))</f>
+        <f>IF(B71="common", 4, IF(B71="uncommon", 3, IF(B71="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2345,11 +2364,11 @@
         <v>248</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>4.81</v>
+        <v>4.99</v>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3">
-        <f>IF(B72="common", 4, IF(B72="uncommon", 3, IF(B72="rare", 1.22, 1)))</f>
+        <f>IF(B72="common", 4, IF(B72="uncommon", 3, IF(B72="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2368,11 +2387,11 @@
         <v>225</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>13.81</v>
+        <v>15.6</v>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3">
-        <f>IF(B73="common", 4, IF(B73="uncommon", 3, IF(B73="rare", 1.22, 1)))</f>
+        <f>IF(B73="common", 4, IF(B73="uncommon", 3, IF(B73="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2391,13 +2410,13 @@
         <v>33</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="F74" s="3">
-        <f>IF(B74="common", 4, IF(B74="uncommon", 3, IF(B74="rare", 1.22, 1)))</f>
+        <f>IF(B74="common", 4, IF(B74="uncommon", 3, IF(B74="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2422,7 +2441,7 @@
         <v>0.18</v>
       </c>
       <c r="F75" s="3">
-        <f>IF(B75="common", 4, IF(B75="uncommon", 3, IF(B75="rare", 1.22, 1)))</f>
+        <f>IF(B75="common", 4, IF(B75="uncommon", 3, IF(B75="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2441,13 +2460,13 @@
         <v>46</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F76" s="3">
-        <f>IF(B76="common", 4, IF(B76="uncommon", 3, IF(B76="rare", 1.22, 1)))</f>
+        <f>IF(B76="common", 4, IF(B76="uncommon", 3, IF(B76="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2466,13 +2485,13 @@
         <v>33</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="F77" s="3">
-        <f>IF(B77="common", 4, IF(B77="uncommon", 3, IF(B77="rare", 1.22, 1)))</f>
+        <f>IF(B77="common", 4, IF(B77="uncommon", 3, IF(B77="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2491,11 +2510,11 @@
         <v>90</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3">
-        <f>IF(B78="common", 4, IF(B78="uncommon", 3, IF(B78="rare", 1.22, 1)))</f>
+        <f>IF(B78="common", 4, IF(B78="uncommon", 3, IF(B78="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2514,11 +2533,11 @@
         <v>248</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>5.64</v>
+        <v>5.18</v>
       </c>
       <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="3">
-        <f>IF(B79="common", 4, IF(B79="uncommon", 3, IF(B79="rare", 1.22, 1)))</f>
+        <f>IF(B79="common", 4, IF(B79="uncommon", 3, IF(B79="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2537,13 +2556,13 @@
         <v>33</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="F80" s="3">
-        <f>IF(B80="common", 4, IF(B80="uncommon", 3, IF(B80="rare", 1.22, 1)))</f>
+        <f>IF(B80="common", 4, IF(B80="uncommon", 3, IF(B80="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2562,13 +2581,13 @@
         <v>33</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F81" s="3">
-        <f>IF(B81="common", 4, IF(B81="uncommon", 3, IF(B81="rare", 1.22, 1)))</f>
+        <f>IF(B81="common", 4, IF(B81="uncommon", 3, IF(B81="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2587,13 +2606,13 @@
         <v>46</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F82" s="3">
-        <f>IF(B82="common", 4, IF(B82="uncommon", 3, IF(B82="rare", 1.22, 1)))</f>
+        <f>IF(B82="common", 4, IF(B82="uncommon", 3, IF(B82="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2612,13 +2631,13 @@
         <v>46</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="F83" s="3">
-        <f>IF(B83="common", 4, IF(B83="uncommon", 3, IF(B83="rare", 1.22, 1)))</f>
+        <f>IF(B83="common", 4, IF(B83="uncommon", 3, IF(B83="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2637,13 +2656,13 @@
         <v>21</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="F84" s="3">
-        <f>IF(B84="common", 4, IF(B84="uncommon", 3, IF(B84="rare", 1.22, 1)))</f>
+        <f>IF(B84="common", 4, IF(B84="uncommon", 3, IF(B84="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2665,10 +2684,10 @@
         <v>0.1</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="F85" s="3">
-        <f>IF(B85="common", 4, IF(B85="uncommon", 3, IF(B85="rare", 1.22, 1)))</f>
+        <f>IF(B85="common", 4, IF(B85="uncommon", 3, IF(B85="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2687,13 +2706,13 @@
         <v>33</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="F86" s="3">
-        <f>IF(B86="common", 4, IF(B86="uncommon", 3, IF(B86="rare", 1.22, 1)))</f>
+        <f>IF(B86="common", 4, IF(B86="uncommon", 3, IF(B86="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2715,10 +2734,10 @@
         <v>0.08</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="F87" s="3">
-        <f>IF(B87="common", 4, IF(B87="uncommon", 3, IF(B87="rare", 1.22, 1)))</f>
+        <f>IF(B87="common", 4, IF(B87="uncommon", 3, IF(B87="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2737,13 +2756,13 @@
         <v>46</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F88" s="3">
-        <f>IF(B88="common", 4, IF(B88="uncommon", 3, IF(B88="rare", 1.22, 1)))</f>
+        <f>IF(B88="common", 4, IF(B88="uncommon", 3, IF(B88="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2762,13 +2781,13 @@
         <v>33</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="F89" s="3">
-        <f>IF(B89="common", 4, IF(B89="uncommon", 3, IF(B89="rare", 1.22, 1)))</f>
+        <f>IF(B89="common", 4, IF(B89="uncommon", 3, IF(B89="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2787,13 +2806,13 @@
         <v>33</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F90" s="3">
-        <f>IF(B90="common", 4, IF(B90="uncommon", 3, IF(B90="rare", 1.22, 1)))</f>
+        <f>IF(B90="common", 4, IF(B90="uncommon", 3, IF(B90="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2812,11 +2831,11 @@
         <v>188</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>26.54</v>
+        <v>26.26</v>
       </c>
       <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3">
-        <f>IF(B91="common", 4, IF(B91="uncommon", 3, IF(B91="rare", 1.22, 1)))</f>
+        <f>IF(B91="common", 4, IF(B91="uncommon", 3, IF(B91="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2835,13 +2854,13 @@
         <v>46</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E92" s="3" t="n">
         <v>0.22</v>
       </c>
       <c r="F92" s="3">
-        <f>IF(B92="common", 4, IF(B92="uncommon", 3, IF(B92="rare", 1.22, 1)))</f>
+        <f>IF(B92="common", 4, IF(B92="uncommon", 3, IF(B92="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2860,13 +2879,13 @@
         <v>21</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>1.66</v>
+        <v>2.24</v>
       </c>
       <c r="F93" s="3">
-        <f>IF(B93="common", 4, IF(B93="uncommon", 3, IF(B93="rare", 1.22, 1)))</f>
+        <f>IF(B93="common", 4, IF(B93="uncommon", 3, IF(B93="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2885,11 +2904,11 @@
         <v>90</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3">
-        <f>IF(B94="common", 4, IF(B94="uncommon", 3, IF(B94="rare", 1.22, 1)))</f>
+        <f>IF(B94="common", 4, IF(B94="uncommon", 3, IF(B94="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2908,11 +2927,11 @@
         <v>248</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>4.76</v>
+        <v>5.3</v>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="3">
-        <f>IF(B95="common", 4, IF(B95="uncommon", 3, IF(B95="rare", 1.22, 1)))</f>
+        <f>IF(B95="common", 4, IF(B95="uncommon", 3, IF(B95="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2931,13 +2950,13 @@
         <v>33</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="F96" s="3">
-        <f>IF(B96="common", 4, IF(B96="uncommon", 3, IF(B96="rare", 1.22, 1)))</f>
+        <f>IF(B96="common", 4, IF(B96="uncommon", 3, IF(B96="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2959,10 +2978,10 @@
         <v>0.13</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F97" s="3">
-        <f>IF(B97="common", 4, IF(B97="uncommon", 3, IF(B97="rare", 1.22, 1)))</f>
+        <f>IF(B97="common", 4, IF(B97="uncommon", 3, IF(B97="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -2981,13 +3000,13 @@
         <v>33</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F98" s="3">
-        <f>IF(B98="common", 4, IF(B98="uncommon", 3, IF(B98="rare", 1.22, 1)))</f>
+        <f>IF(B98="common", 4, IF(B98="uncommon", 3, IF(B98="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3006,13 +3025,13 @@
         <v>46</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>2.13</v>
+        <v>2.01</v>
       </c>
       <c r="F99" s="3">
-        <f>IF(B99="common", 4, IF(B99="uncommon", 3, IF(B99="rare", 1.22, 1)))</f>
+        <f>IF(B99="common", 4, IF(B99="uncommon", 3, IF(B99="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3031,11 +3050,11 @@
         <v>90</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3">
-        <f>IF(B100="common", 4, IF(B100="uncommon", 3, IF(B100="rare", 1.22, 1)))</f>
+        <f>IF(B100="common", 4, IF(B100="uncommon", 3, IF(B100="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3054,11 +3073,11 @@
         <v>248</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>5.53</v>
+        <v>5.8</v>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3">
-        <f>IF(B101="common", 4, IF(B101="uncommon", 3, IF(B101="rare", 1.22, 1)))</f>
+        <f>IF(B101="common", 4, IF(B101="uncommon", 3, IF(B101="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3077,13 +3096,13 @@
         <v>33</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="F102" s="3">
-        <f>IF(B102="common", 4, IF(B102="uncommon", 3, IF(B102="rare", 1.22, 1)))</f>
+        <f>IF(B102="common", 4, IF(B102="uncommon", 3, IF(B102="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3105,10 +3124,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="F103" s="3">
-        <f>IF(B103="common", 4, IF(B103="uncommon", 3, IF(B103="rare", 1.22, 1)))</f>
+        <f>IF(B103="common", 4, IF(B103="uncommon", 3, IF(B103="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3127,13 +3146,13 @@
         <v>46</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F104" s="3">
-        <f>IF(B104="common", 4, IF(B104="uncommon", 3, IF(B104="rare", 1.22, 1)))</f>
+        <f>IF(B104="common", 4, IF(B104="uncommon", 3, IF(B104="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3155,10 +3174,10 @@
         <v>0.08</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="F105" s="3">
-        <f>IF(B105="common", 4, IF(B105="uncommon", 3, IF(B105="rare", 1.22, 1)))</f>
+        <f>IF(B105="common", 4, IF(B105="uncommon", 3, IF(B105="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3177,13 +3196,13 @@
         <v>33</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E106" s="3" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="F106" s="3">
-        <f>IF(B106="common", 4, IF(B106="uncommon", 3, IF(B106="rare", 1.22, 1)))</f>
+        <f>IF(B106="common", 4, IF(B106="uncommon", 3, IF(B106="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3202,13 +3221,13 @@
         <v>46</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F107" s="3">
-        <f>IF(B107="common", 4, IF(B107="uncommon", 3, IF(B107="rare", 1.22, 1)))</f>
+        <f>IF(B107="common", 4, IF(B107="uncommon", 3, IF(B107="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3227,13 +3246,13 @@
         <v>21</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="F108" s="3">
-        <f>IF(B108="common", 4, IF(B108="uncommon", 3, IF(B108="rare", 1.22, 1)))</f>
+        <f>IF(B108="common", 4, IF(B108="uncommon", 3, IF(B108="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3252,13 +3271,13 @@
         <v>33</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F109" s="3">
-        <f>IF(B109="common", 4, IF(B109="uncommon", 3, IF(B109="rare", 1.22, 1)))</f>
+        <f>IF(B109="common", 4, IF(B109="uncommon", 3, IF(B109="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3277,11 +3296,11 @@
         <v>188</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>10.04</v>
+        <v>11.24</v>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3">
-        <f>IF(B110="common", 4, IF(B110="uncommon", 3, IF(B110="rare", 1.22, 1)))</f>
+        <f>IF(B110="common", 4, IF(B110="uncommon", 3, IF(B110="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3303,10 +3322,10 @@
         <v>0.06</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F111" s="3">
-        <f>IF(B111="common", 4, IF(B111="uncommon", 3, IF(B111="rare", 1.22, 1)))</f>
+        <f>IF(B111="common", 4, IF(B111="uncommon", 3, IF(B111="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3325,13 +3344,13 @@
         <v>46</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="F112" s="3">
-        <f>IF(B112="common", 4, IF(B112="uncommon", 3, IF(B112="rare", 1.22, 1)))</f>
+        <f>IF(B112="common", 4, IF(B112="uncommon", 3, IF(B112="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3350,13 +3369,13 @@
         <v>46</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>1.26</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F113" s="3">
-        <f>IF(B113="common", 4, IF(B113="uncommon", 3, IF(B113="rare", 1.22, 1)))</f>
+        <f>IF(B113="common", 4, IF(B113="uncommon", 3, IF(B113="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3375,13 +3394,13 @@
         <v>46</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E114" s="3" t="n">
         <v>0.15</v>
       </c>
       <c r="F114" s="3">
-        <f>IF(B114="common", 4, IF(B114="uncommon", 3, IF(B114="rare", 1.22, 1)))</f>
+        <f>IF(B114="common", 4, IF(B114="uncommon", 3, IF(B114="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3400,13 +3419,13 @@
         <v>33</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F115" s="3">
-        <f>IF(B115="common", 4, IF(B115="uncommon", 3, IF(B115="rare", 1.22, 1)))</f>
+        <f>IF(B115="common", 4, IF(B115="uncommon", 3, IF(B115="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3425,13 +3444,13 @@
         <v>46</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F116" s="3">
-        <f>IF(B116="common", 4, IF(B116="uncommon", 3, IF(B116="rare", 1.22, 1)))</f>
+        <f>IF(B116="common", 4, IF(B116="uncommon", 3, IF(B116="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3450,13 +3469,13 @@
         <v>21</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="F117" s="3">
-        <f>IF(B117="common", 4, IF(B117="uncommon", 3, IF(B117="rare", 1.22, 1)))</f>
+        <f>IF(B117="common", 4, IF(B117="uncommon", 3, IF(B117="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3475,13 +3494,13 @@
         <v>46</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="F118" s="3">
-        <f>IF(B118="common", 4, IF(B118="uncommon", 3, IF(B118="rare", 1.22, 1)))</f>
+        <f>IF(B118="common", 4, IF(B118="uncommon", 3, IF(B118="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3500,13 +3519,13 @@
         <v>46</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="F119" s="3">
-        <f>IF(B119="common", 4, IF(B119="uncommon", 3, IF(B119="rare", 1.22, 1)))</f>
+        <f>IF(B119="common", 4, IF(B119="uncommon", 3, IF(B119="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3525,11 +3544,11 @@
         <v>90</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>6.89</v>
+        <v>7.21</v>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3">
-        <f>IF(B120="common", 4, IF(B120="uncommon", 3, IF(B120="rare", 1.22, 1)))</f>
+        <f>IF(B120="common", 4, IF(B120="uncommon", 3, IF(B120="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3548,11 +3567,11 @@
         <v>248</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>18.01</v>
+        <v>19.11</v>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
       <c r="F121" s="3">
-        <f>IF(B121="common", 4, IF(B121="uncommon", 3, IF(B121="rare", 1.22, 1)))</f>
+        <f>IF(B121="common", 4, IF(B121="uncommon", 3, IF(B121="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3571,11 +3590,11 @@
         <v>154</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>13.15</v>
+        <v>13.27</v>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
       <c r="F122" s="3">
-        <f>IF(B122="common", 4, IF(B122="uncommon", 3, IF(B122="rare", 1.22, 1)))</f>
+        <f>IF(B122="common", 4, IF(B122="uncommon", 3, IF(B122="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3594,11 +3613,11 @@
         <v>90</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>9.84</v>
+        <v>9.75</v>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
       <c r="F123" s="3">
-        <f>IF(B123="common", 4, IF(B123="uncommon", 3, IF(B123="rare", 1.22, 1)))</f>
+        <f>IF(B123="common", 4, IF(B123="uncommon", 3, IF(B123="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3617,13 +3636,13 @@
         <v>21</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="F124" s="3">
-        <f>IF(B124="common", 4, IF(B124="uncommon", 3, IF(B124="rare", 1.22, 1)))</f>
+        <f>IF(B124="common", 4, IF(B124="uncommon", 3, IF(B124="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3642,13 +3661,13 @@
         <v>21</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>1.01</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F125" s="3">
-        <f>IF(B125="common", 4, IF(B125="uncommon", 3, IF(B125="rare", 1.22, 1)))</f>
+        <f>IF(B125="common", 4, IF(B125="uncommon", 3, IF(B125="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3667,13 +3686,13 @@
         <v>21</v>
       </c>
       <c r="D126" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E126" s="3" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="F126" s="3">
-        <f>IF(B126="common", 4, IF(B126="uncommon", 3, IF(B126="rare", 1.22, 1)))</f>
+        <f>IF(B126="common", 4, IF(B126="uncommon", 3, IF(B126="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3692,11 +3711,11 @@
         <v>188</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>6.68</v>
+        <v>5.79</v>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3">
-        <f>IF(B127="common", 4, IF(B127="uncommon", 3, IF(B127="rare", 1.22, 1)))</f>
+        <f>IF(B127="common", 4, IF(B127="uncommon", 3, IF(B127="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3715,13 +3734,13 @@
         <v>33</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E128" s="3" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="F128" s="3">
-        <f>IF(B128="common", 4, IF(B128="uncommon", 3, IF(B128="rare", 1.22, 1)))</f>
+        <f>IF(B128="common", 4, IF(B128="uncommon", 3, IF(B128="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3740,13 +3759,13 @@
         <v>21</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F129" s="3">
-        <f>IF(B129="common", 4, IF(B129="uncommon", 3, IF(B129="rare", 1.22, 1)))</f>
+        <f>IF(B129="common", 4, IF(B129="uncommon", 3, IF(B129="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3765,11 +3784,11 @@
         <v>188</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>10.45</v>
+        <v>9.58</v>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3">
-        <f>IF(B130="common", 4, IF(B130="uncommon", 3, IF(B130="rare", 1.22, 1)))</f>
+        <f>IF(B130="common", 4, IF(B130="uncommon", 3, IF(B130="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3788,13 +3807,13 @@
         <v>33</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E131" s="3" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="F131" s="3">
-        <f>IF(B131="common", 4, IF(B131="uncommon", 3, IF(B131="rare", 1.22, 1)))</f>
+        <f>IF(B131="common", 4, IF(B131="uncommon", 3, IF(B131="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3813,13 +3832,13 @@
         <v>46</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="F132" s="3">
-        <f>IF(B132="common", 4, IF(B132="uncommon", 3, IF(B132="rare", 1.22, 1)))</f>
+        <f>IF(B132="common", 4, IF(B132="uncommon", 3, IF(B132="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3838,13 +3857,13 @@
         <v>46</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>2.12</v>
+        <v>1.56</v>
       </c>
       <c r="F133" s="3">
-        <f>IF(B133="common", 4, IF(B133="uncommon", 3, IF(B133="rare", 1.22, 1)))</f>
+        <f>IF(B133="common", 4, IF(B133="uncommon", 3, IF(B133="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3866,10 +3885,10 @@
         <v>0.08</v>
       </c>
       <c r="E134" s="3" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F134" s="3">
-        <f>IF(B134="common", 4, IF(B134="uncommon", 3, IF(B134="rare", 1.22, 1)))</f>
+        <f>IF(B134="common", 4, IF(B134="uncommon", 3, IF(B134="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3888,13 +3907,13 @@
         <v>33</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E135" s="3" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="F135" s="3">
-        <f>IF(B135="common", 4, IF(B135="uncommon", 3, IF(B135="rare", 1.22, 1)))</f>
+        <f>IF(B135="common", 4, IF(B135="uncommon", 3, IF(B135="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3913,11 +3932,11 @@
         <v>90</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>0.59</v>
+        <v>0.83</v>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3">
-        <f>IF(B136="common", 4, IF(B136="uncommon", 3, IF(B136="rare", 1.22, 1)))</f>
+        <f>IF(B136="common", 4, IF(B136="uncommon", 3, IF(B136="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3936,11 +3955,11 @@
         <v>248</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>9.24</v>
+        <v>7.87</v>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3">
-        <f>IF(B137="common", 4, IF(B137="uncommon", 3, IF(B137="rare", 1.22, 1)))</f>
+        <f>IF(B137="common", 4, IF(B137="uncommon", 3, IF(B137="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3959,13 +3978,13 @@
         <v>46</v>
       </c>
       <c r="D138" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E138" s="3" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F138" s="3">
-        <f>IF(B138="common", 4, IF(B138="uncommon", 3, IF(B138="rare", 1.22, 1)))</f>
+        <f>IF(B138="common", 4, IF(B138="uncommon", 3, IF(B138="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -3984,13 +4003,13 @@
         <v>33</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="F139" s="3">
-        <f>IF(B139="common", 4, IF(B139="uncommon", 3, IF(B139="rare", 1.22, 1)))</f>
+        <f>IF(B139="common", 4, IF(B139="uncommon", 3, IF(B139="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4009,11 +4028,11 @@
         <v>188</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>7.26</v>
+        <v>8</v>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3">
-        <f>IF(B140="common", 4, IF(B140="uncommon", 3, IF(B140="rare", 1.22, 1)))</f>
+        <f>IF(B140="common", 4, IF(B140="uncommon", 3, IF(B140="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4032,13 +4051,13 @@
         <v>21</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="F141" s="3">
-        <f>IF(B141="common", 4, IF(B141="uncommon", 3, IF(B141="rare", 1.22, 1)))</f>
+        <f>IF(B141="common", 4, IF(B141="uncommon", 3, IF(B141="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4057,13 +4076,13 @@
         <v>33</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="F142" s="3">
-        <f>IF(B142="common", 4, IF(B142="uncommon", 3, IF(B142="rare", 1.22, 1)))</f>
+        <f>IF(B142="common", 4, IF(B142="uncommon", 3, IF(B142="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4082,13 +4101,13 @@
         <v>46</v>
       </c>
       <c r="D143" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E143" s="3" t="n">
         <v>0.16</v>
       </c>
       <c r="F143" s="3">
-        <f>IF(B143="common", 4, IF(B143="uncommon", 3, IF(B143="rare", 1.22, 1)))</f>
+        <f>IF(B143="common", 4, IF(B143="uncommon", 3, IF(B143="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4107,13 +4126,13 @@
         <v>33</v>
       </c>
       <c r="D144" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E144" s="3" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="F144" s="3">
-        <f>IF(B144="common", 4, IF(B144="uncommon", 3, IF(B144="rare", 1.22, 1)))</f>
+        <f>IF(B144="common", 4, IF(B144="uncommon", 3, IF(B144="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4132,13 +4151,13 @@
         <v>33</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="F145" s="3">
-        <f>IF(B145="common", 4, IF(B145="uncommon", 3, IF(B145="rare", 1.22, 1)))</f>
+        <f>IF(B145="common", 4, IF(B145="uncommon", 3, IF(B145="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4157,13 +4176,13 @@
         <v>33</v>
       </c>
       <c r="D146" s="3" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F146" s="3">
-        <f>IF(B146="common", 4, IF(B146="uncommon", 3, IF(B146="rare", 1.22, 1)))</f>
+        <f>IF(B146="common", 4, IF(B146="uncommon", 3, IF(B146="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4182,13 +4201,13 @@
         <v>46</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>3.16</v>
+        <v>2.19</v>
       </c>
       <c r="F147" s="3">
-        <f>IF(B147="common", 4, IF(B147="uncommon", 3, IF(B147="rare", 1.22, 1)))</f>
+        <f>IF(B147="common", 4, IF(B147="uncommon", 3, IF(B147="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4207,13 +4226,13 @@
         <v>46</v>
       </c>
       <c r="D148" s="3" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="F148" s="3">
-        <f>IF(B148="common", 4, IF(B148="uncommon", 3, IF(B148="rare", 1.22, 1)))</f>
+        <f>IF(B148="common", 4, IF(B148="uncommon", 3, IF(B148="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4235,10 +4254,10 @@
         <v>0.1</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F149" s="3">
-        <f>IF(B149="common", 4, IF(B149="uncommon", 3, IF(B149="rare", 1.22, 1)))</f>
+        <f>IF(B149="common", 4, IF(B149="uncommon", 3, IF(B149="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4257,11 +4276,11 @@
         <v>188</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>28.19</v>
+        <v>28.89</v>
       </c>
       <c r="E150" s="3" t="inlineStr"/>
       <c r="F150" s="3">
-        <f>IF(B150="common", 4, IF(B150="uncommon", 3, IF(B150="rare", 1.22, 1)))</f>
+        <f>IF(B150="common", 4, IF(B150="uncommon", 3, IF(B150="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4280,13 +4299,13 @@
         <v>33</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="F151" s="3">
-        <f>IF(B151="common", 4, IF(B151="uncommon", 3, IF(B151="rare", 1.22, 1)))</f>
+        <f>IF(B151="common", 4, IF(B151="uncommon", 3, IF(B151="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4308,10 +4327,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E152" s="3" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F152" s="3">
-        <f>IF(B152="common", 4, IF(B152="uncommon", 3, IF(B152="rare", 1.22, 1)))</f>
+        <f>IF(B152="common", 4, IF(B152="uncommon", 3, IF(B152="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4333,10 +4352,10 @@
         <v>0.1</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="F153" s="3">
-        <f>IF(B153="common", 4, IF(B153="uncommon", 3, IF(B153="rare", 1.22, 1)))</f>
+        <f>IF(B153="common", 4, IF(B153="uncommon", 3, IF(B153="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4355,11 +4374,11 @@
         <v>188</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>15.76</v>
+        <v>18.96</v>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3">
-        <f>IF(B154="common", 4, IF(B154="uncommon", 3, IF(B154="rare", 1.22, 1)))</f>
+        <f>IF(B154="common", 4, IF(B154="uncommon", 3, IF(B154="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4378,13 +4397,13 @@
         <v>33</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F155" s="3">
-        <f>IF(B155="common", 4, IF(B155="uncommon", 3, IF(B155="rare", 1.22, 1)))</f>
+        <f>IF(B155="common", 4, IF(B155="uncommon", 3, IF(B155="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4403,13 +4422,13 @@
         <v>46</v>
       </c>
       <c r="D156" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E156" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="F156" s="3">
-        <f>IF(B156="common", 4, IF(B156="uncommon", 3, IF(B156="rare", 1.22, 1)))</f>
+        <f>IF(B156="common", 4, IF(B156="uncommon", 3, IF(B156="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4428,13 +4447,13 @@
         <v>46</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F157" s="3">
-        <f>IF(B157="common", 4, IF(B157="uncommon", 3, IF(B157="rare", 1.22, 1)))</f>
+        <f>IF(B157="common", 4, IF(B157="uncommon", 3, IF(B157="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4453,13 +4472,13 @@
         <v>33</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="E158" s="3" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F158" s="3">
-        <f>IF(B158="common", 4, IF(B158="uncommon", 3, IF(B158="rare", 1.22, 1)))</f>
+        <f>IF(B158="common", 4, IF(B158="uncommon", 3, IF(B158="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4478,13 +4497,13 @@
         <v>33</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F159" s="3">
-        <f>IF(B159="common", 4, IF(B159="uncommon", 3, IF(B159="rare", 1.22, 1)))</f>
+        <f>IF(B159="common", 4, IF(B159="uncommon", 3, IF(B159="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4503,13 +4522,13 @@
         <v>46</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="F160" s="3">
-        <f>IF(B160="common", 4, IF(B160="uncommon", 3, IF(B160="rare", 1.22, 1)))</f>
+        <f>IF(B160="common", 4, IF(B160="uncommon", 3, IF(B160="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4528,11 +4547,11 @@
         <v>188</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>20.61</v>
+        <v>21.1</v>
       </c>
       <c r="E161" s="3" t="inlineStr"/>
       <c r="F161" s="3">
-        <f>IF(B161="common", 4, IF(B161="uncommon", 3, IF(B161="rare", 1.22, 1)))</f>
+        <f>IF(B161="common", 4, IF(B161="uncommon", 3, IF(B161="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4554,10 +4573,10 @@
         <v>0.14</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F162" s="3">
-        <f>IF(B162="common", 4, IF(B162="uncommon", 3, IF(B162="rare", 1.22, 1)))</f>
+        <f>IF(B162="common", 4, IF(B162="uncommon", 3, IF(B162="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4579,10 +4598,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F163" s="3">
-        <f>IF(B163="common", 4, IF(B163="uncommon", 3, IF(B163="rare", 1.22, 1)))</f>
+        <f>IF(B163="common", 4, IF(B163="uncommon", 3, IF(B163="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4601,13 +4620,13 @@
         <v>33</v>
       </c>
       <c r="D164" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E164" s="3" t="n">
         <v>0.17</v>
       </c>
       <c r="F164" s="3">
-        <f>IF(B164="common", 4, IF(B164="uncommon", 3, IF(B164="rare", 1.22, 1)))</f>
+        <f>IF(B164="common", 4, IF(B164="uncommon", 3, IF(B164="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4629,10 +4648,10 @@
         <v>0.06</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="F165" s="3">
-        <f>IF(B165="common", 4, IF(B165="uncommon", 3, IF(B165="rare", 1.22, 1)))</f>
+        <f>IF(B165="common", 4, IF(B165="uncommon", 3, IF(B165="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4651,13 +4670,13 @@
         <v>33</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E166" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F166" s="3">
-        <f>IF(B166="common", 4, IF(B166="uncommon", 3, IF(B166="rare", 1.22, 1)))</f>
+        <f>IF(B166="common", 4, IF(B166="uncommon", 3, IF(B166="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4676,13 +4695,13 @@
         <v>46</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F167" s="3">
-        <f>IF(B167="common", 4, IF(B167="uncommon", 3, IF(B167="rare", 1.22, 1)))</f>
+        <f>IF(B167="common", 4, IF(B167="uncommon", 3, IF(B167="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4701,13 +4720,13 @@
         <v>33</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="F168" s="3">
-        <f>IF(B168="common", 4, IF(B168="uncommon", 3, IF(B168="rare", 1.22, 1)))</f>
+        <f>IF(B168="common", 4, IF(B168="uncommon", 3, IF(B168="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4726,13 +4745,13 @@
         <v>46</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F169" s="3">
-        <f>IF(B169="common", 4, IF(B169="uncommon", 3, IF(B169="rare", 1.22, 1)))</f>
+        <f>IF(B169="common", 4, IF(B169="uncommon", 3, IF(B169="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4751,13 +4770,13 @@
         <v>33</v>
       </c>
       <c r="D170" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F170" s="3">
-        <f>IF(B170="common", 4, IF(B170="uncommon", 3, IF(B170="rare", 1.22, 1)))</f>
+        <f>IF(B170="common", 4, IF(B170="uncommon", 3, IF(B170="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4776,13 +4795,13 @@
         <v>33</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="F171" s="3">
-        <f>IF(B171="common", 4, IF(B171="uncommon", 3, IF(B171="rare", 1.22, 1)))</f>
+        <f>IF(B171="common", 4, IF(B171="uncommon", 3, IF(B171="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4801,13 +4820,13 @@
         <v>33</v>
       </c>
       <c r="D172" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E172" s="3" t="n">
         <v>0.14</v>
       </c>
       <c r="F172" s="3">
-        <f>IF(B172="common", 4, IF(B172="uncommon", 3, IF(B172="rare", 1.22, 1)))</f>
+        <f>IF(B172="common", 4, IF(B172="uncommon", 3, IF(B172="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4826,13 +4845,13 @@
         <v>33</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E173" s="3" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F173" s="3">
-        <f>IF(B173="common", 4, IF(B173="uncommon", 3, IF(B173="rare", 1.22, 1)))</f>
+        <f>IF(B173="common", 4, IF(B173="uncommon", 3, IF(B173="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4854,10 +4873,10 @@
         <v>0.08</v>
       </c>
       <c r="E174" s="3" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="F174" s="3">
-        <f>IF(B174="common", 4, IF(B174="uncommon", 3, IF(B174="rare", 1.22, 1)))</f>
+        <f>IF(B174="common", 4, IF(B174="uncommon", 3, IF(B174="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4879,10 +4898,10 @@
         <v>0.06</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F175" s="3">
-        <f>IF(B175="common", 4, IF(B175="uncommon", 3, IF(B175="rare", 1.22, 1)))</f>
+        <f>IF(B175="common", 4, IF(B175="uncommon", 3, IF(B175="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4901,13 +4920,13 @@
         <v>33</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E176" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F176" s="3">
-        <f>IF(B176="common", 4, IF(B176="uncommon", 3, IF(B176="rare", 1.22, 1)))</f>
+        <f>IF(B176="common", 4, IF(B176="uncommon", 3, IF(B176="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4926,13 +4945,13 @@
         <v>46</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="F177" s="3">
-        <f>IF(B177="common", 4, IF(B177="uncommon", 3, IF(B177="rare", 1.22, 1)))</f>
+        <f>IF(B177="common", 4, IF(B177="uncommon", 3, IF(B177="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4951,13 +4970,13 @@
         <v>33</v>
       </c>
       <c r="D178" s="3" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="E178" s="3" t="n">
-        <v>1.96</v>
+        <v>1.27</v>
       </c>
       <c r="F178" s="3">
-        <f>IF(B178="common", 4, IF(B178="uncommon", 3, IF(B178="rare", 1.22, 1)))</f>
+        <f>IF(B178="common", 4, IF(B178="uncommon", 3, IF(B178="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -4976,13 +4995,13 @@
         <v>46</v>
       </c>
       <c r="D179" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="F179" s="3">
-        <f>IF(B179="common", 4, IF(B179="uncommon", 3, IF(B179="rare", 1.22, 1)))</f>
+        <f>IF(B179="common", 4, IF(B179="uncommon", 3, IF(B179="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5001,13 +5020,13 @@
         <v>46</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E180" s="3" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="F180" s="3">
-        <f>IF(B180="common", 4, IF(B180="uncommon", 3, IF(B180="rare", 1.22, 1)))</f>
+        <f>IF(B180="common", 4, IF(B180="uncommon", 3, IF(B180="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5026,11 +5045,11 @@
         <v>188</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>45.51</v>
+        <v>46.05</v>
       </c>
       <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="3">
-        <f>IF(B181="common", 4, IF(B181="uncommon", 3, IF(B181="rare", 1.22, 1)))</f>
+        <f>IF(B181="common", 4, IF(B181="uncommon", 3, IF(B181="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5049,13 +5068,13 @@
         <v>21</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="F182" s="3">
-        <f>IF(B182="common", 4, IF(B182="uncommon", 3, IF(B182="rare", 1.22, 1)))</f>
+        <f>IF(B182="common", 4, IF(B182="uncommon", 3, IF(B182="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5074,13 +5093,13 @@
         <v>46</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F183" s="3">
-        <f>IF(B183="common", 4, IF(B183="uncommon", 3, IF(B183="rare", 1.22, 1)))</f>
+        <f>IF(B183="common", 4, IF(B183="uncommon", 3, IF(B183="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5099,11 +5118,11 @@
         <v>154</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="E184" s="3" t="inlineStr"/>
       <c r="F184" s="3">
-        <f>IF(B184="common", 4, IF(B184="uncommon", 3, IF(B184="rare", 1.22, 1)))</f>
+        <f>IF(B184="common", 4, IF(B184="uncommon", 3, IF(B184="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5122,13 +5141,13 @@
         <v>46</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F185" s="3">
-        <f>IF(B185="common", 4, IF(B185="uncommon", 3, IF(B185="rare", 1.22, 1)))</f>
+        <f>IF(B185="common", 4, IF(B185="uncommon", 3, IF(B185="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5147,11 +5166,11 @@
         <v>188</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>7.57</v>
+        <v>7.68</v>
       </c>
       <c r="E186" s="3" t="inlineStr"/>
       <c r="F186" s="3">
-        <f>IF(B186="common", 4, IF(B186="uncommon", 3, IF(B186="rare", 1.22, 1)))</f>
+        <f>IF(B186="common", 4, IF(B186="uncommon", 3, IF(B186="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5170,13 +5189,13 @@
         <v>33</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E187" s="3" t="n">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="F187" s="3">
-        <f>IF(B187="common", 4, IF(B187="uncommon", 3, IF(B187="rare", 1.22, 1)))</f>
+        <f>IF(B187="common", 4, IF(B187="uncommon", 3, IF(B187="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5195,13 +5214,13 @@
         <v>46</v>
       </c>
       <c r="D188" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E188" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="F188" s="3">
-        <f>IF(B188="common", 4, IF(B188="uncommon", 3, IF(B188="rare", 1.22, 1)))</f>
+        <f>IF(B188="common", 4, IF(B188="uncommon", 3, IF(B188="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5220,13 +5239,13 @@
         <v>33</v>
       </c>
       <c r="D189" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E189" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F189" s="3">
-        <f>IF(B189="common", 4, IF(B189="uncommon", 3, IF(B189="rare", 1.22, 1)))</f>
+        <f>IF(B189="common", 4, IF(B189="uncommon", 3, IF(B189="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5248,10 +5267,10 @@
         <v>0.28</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="F190" s="3">
-        <f>IF(B190="common", 4, IF(B190="uncommon", 3, IF(B190="rare", 1.22, 1)))</f>
+        <f>IF(B190="common", 4, IF(B190="uncommon", 3, IF(B190="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5273,10 +5292,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E191" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F191" s="3">
-        <f>IF(B191="common", 4, IF(B191="uncommon", 3, IF(B191="rare", 1.22, 1)))</f>
+        <f>IF(B191="common", 4, IF(B191="uncommon", 3, IF(B191="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5295,13 +5314,13 @@
         <v>46</v>
       </c>
       <c r="D192" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E192" s="3" t="n">
         <v>0.14</v>
       </c>
       <c r="F192" s="3">
-        <f>IF(B192="common", 4, IF(B192="uncommon", 3, IF(B192="rare", 1.22, 1)))</f>
+        <f>IF(B192="common", 4, IF(B192="uncommon", 3, IF(B192="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5320,11 +5339,11 @@
         <v>90</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3">
-        <f>IF(B193="common", 4, IF(B193="uncommon", 3, IF(B193="rare", 1.22, 1)))</f>
+        <f>IF(B193="common", 4, IF(B193="uncommon", 3, IF(B193="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5343,11 +5362,11 @@
         <v>248</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>11.85</v>
+        <v>11.82</v>
       </c>
       <c r="E194" s="3" t="inlineStr"/>
       <c r="F194" s="3">
-        <f>IF(B194="common", 4, IF(B194="uncommon", 3, IF(B194="rare", 1.22, 1)))</f>
+        <f>IF(B194="common", 4, IF(B194="uncommon", 3, IF(B194="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5366,11 +5385,11 @@
         <v>225</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>66.20999999999999</v>
+        <v>68.69</v>
       </c>
       <c r="E195" s="3" t="inlineStr"/>
       <c r="F195" s="3">
-        <f>IF(B195="common", 4, IF(B195="uncommon", 3, IF(B195="rare", 1.22, 1)))</f>
+        <f>IF(B195="common", 4, IF(B195="uncommon", 3, IF(B195="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5392,10 +5411,10 @@
         <v>0.05</v>
       </c>
       <c r="E196" s="3" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="F196" s="3">
-        <f>IF(B196="common", 4, IF(B196="uncommon", 3, IF(B196="rare", 1.22, 1)))</f>
+        <f>IF(B196="common", 4, IF(B196="uncommon", 3, IF(B196="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5414,13 +5433,13 @@
         <v>21</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E197" s="3" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F197" s="3">
-        <f>IF(B197="common", 4, IF(B197="uncommon", 3, IF(B197="rare", 1.22, 1)))</f>
+        <f>IF(B197="common", 4, IF(B197="uncommon", 3, IF(B197="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5439,13 +5458,13 @@
         <v>46</v>
       </c>
       <c r="D198" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E198" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F198" s="3">
-        <f>IF(B198="common", 4, IF(B198="uncommon", 3, IF(B198="rare", 1.22, 1)))</f>
+        <f>IF(B198="common", 4, IF(B198="uncommon", 3, IF(B198="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5464,13 +5483,13 @@
         <v>46</v>
       </c>
       <c r="D199" s="3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E199" s="3" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="F199" s="3">
-        <f>IF(B199="common", 4, IF(B199="uncommon", 3, IF(B199="rare", 1.22, 1)))</f>
+        <f>IF(B199="common", 4, IF(B199="uncommon", 3, IF(B199="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5492,10 +5511,10 @@
         <v>0.12</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="F200" s="3">
-        <f>IF(B200="common", 4, IF(B200="uncommon", 3, IF(B200="rare", 1.22, 1)))</f>
+        <f>IF(B200="common", 4, IF(B200="uncommon", 3, IF(B200="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5514,11 +5533,11 @@
         <v>188</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>29.75</v>
+        <v>30.34</v>
       </c>
       <c r="E201" s="3" t="inlineStr"/>
       <c r="F201" s="3">
-        <f>IF(B201="common", 4, IF(B201="uncommon", 3, IF(B201="rare", 1.22, 1)))</f>
+        <f>IF(B201="common", 4, IF(B201="uncommon", 3, IF(B201="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5537,13 +5556,13 @@
         <v>46</v>
       </c>
       <c r="D202" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E202" s="3" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F202" s="3">
-        <f>IF(B202="common", 4, IF(B202="uncommon", 3, IF(B202="rare", 1.22, 1)))</f>
+        <f>IF(B202="common", 4, IF(B202="uncommon", 3, IF(B202="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5562,13 +5581,13 @@
         <v>46</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E203" s="3" t="n">
-        <v>1.85</v>
+        <v>1.51</v>
       </c>
       <c r="F203" s="3">
-        <f>IF(B203="common", 4, IF(B203="uncommon", 3, IF(B203="rare", 1.22, 1)))</f>
+        <f>IF(B203="common", 4, IF(B203="uncommon", 3, IF(B203="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5587,13 +5606,13 @@
         <v>21</v>
       </c>
       <c r="D204" s="3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E204" s="3" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="F204" s="3">
-        <f>IF(B204="common", 4, IF(B204="uncommon", 3, IF(B204="rare", 1.22, 1)))</f>
+        <f>IF(B204="common", 4, IF(B204="uncommon", 3, IF(B204="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5612,11 +5631,11 @@
         <v>90</v>
       </c>
       <c r="D205" s="3" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="E205" s="3" t="inlineStr"/>
       <c r="F205" s="3">
-        <f>IF(B205="common", 4, IF(B205="uncommon", 3, IF(B205="rare", 1.22, 1)))</f>
+        <f>IF(B205="common", 4, IF(B205="uncommon", 3, IF(B205="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5635,11 +5654,11 @@
         <v>248</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>6.95</v>
+        <v>7.9</v>
       </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="3">
-        <f>IF(B206="common", 4, IF(B206="uncommon", 3, IF(B206="rare", 1.22, 1)))</f>
+        <f>IF(B206="common", 4, IF(B206="uncommon", 3, IF(B206="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5658,11 +5677,11 @@
         <v>90</v>
       </c>
       <c r="D207" s="3" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E207" s="3" t="inlineStr"/>
       <c r="F207" s="3">
-        <f>IF(B207="common", 4, IF(B207="uncommon", 3, IF(B207="rare", 1.22, 1)))</f>
+        <f>IF(B207="common", 4, IF(B207="uncommon", 3, IF(B207="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5681,11 +5700,11 @@
         <v>248</v>
       </c>
       <c r="D208" s="3" t="n">
-        <v>7.9</v>
+        <v>8.06</v>
       </c>
       <c r="E208" s="3" t="inlineStr"/>
       <c r="F208" s="3">
-        <f>IF(B208="common", 4, IF(B208="uncommon", 3, IF(B208="rare", 1.22, 1)))</f>
+        <f>IF(B208="common", 4, IF(B208="uncommon", 3, IF(B208="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5704,11 +5723,11 @@
         <v>225</v>
       </c>
       <c r="D209" s="3" t="n">
-        <v>52.05</v>
+        <v>55.36</v>
       </c>
       <c r="E209" s="3" t="inlineStr"/>
       <c r="F209" s="3">
-        <f>IF(B209="common", 4, IF(B209="uncommon", 3, IF(B209="rare", 1.22, 1)))</f>
+        <f>IF(B209="common", 4, IF(B209="uncommon", 3, IF(B209="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5730,10 +5749,10 @@
         <v>0.06</v>
       </c>
       <c r="E210" s="3" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="F210" s="3">
-        <f>IF(B210="common", 4, IF(B210="uncommon", 3, IF(B210="rare", 1.22, 1)))</f>
+        <f>IF(B210="common", 4, IF(B210="uncommon", 3, IF(B210="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5758,7 +5777,7 @@
         <v>0.59</v>
       </c>
       <c r="F211" s="3">
-        <f>IF(B211="common", 4, IF(B211="uncommon", 3, IF(B211="rare", 1.22, 1)))</f>
+        <f>IF(B211="common", 4, IF(B211="uncommon", 3, IF(B211="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5781,7 +5800,7 @@
       </c>
       <c r="E212" s="3" t="n"/>
       <c r="F212" s="3">
-        <f>IF(B212="common", 4, IF(B212="uncommon", 3, IF(B212="rare", 1.22, 1)))</f>
+        <f>IF(B212="common", 4, IF(B212="uncommon", 3, IF(B212="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5804,7 +5823,7 @@
       </c>
       <c r="E213" s="3" t="n"/>
       <c r="F213" s="3">
-        <f>IF(B213="common", 4, IF(B213="uncommon", 3, IF(B213="rare", 1.22, 1)))</f>
+        <f>IF(B213="common", 4, IF(B213="uncommon", 3, IF(B213="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5827,7 +5846,7 @@
       </c>
       <c r="E214" s="3" t="n"/>
       <c r="F214" s="3">
-        <f>IF(B214="common", 4, IF(B214="uncommon", 3, IF(B214="rare", 1.22, 1)))</f>
+        <f>IF(B214="common", 4, IF(B214="uncommon", 3, IF(B214="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5850,7 +5869,7 @@
       </c>
       <c r="E215" s="3" t="n"/>
       <c r="F215" s="3">
-        <f>IF(B215="common", 4, IF(B215="uncommon", 3, IF(B215="rare", 1.22, 1)))</f>
+        <f>IF(B215="common", 4, IF(B215="uncommon", 3, IF(B215="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5873,7 +5892,7 @@
       </c>
       <c r="E216" s="3" t="n"/>
       <c r="F216" s="3">
-        <f>IF(B216="common", 4, IF(B216="uncommon", 3, IF(B216="rare", 1.22, 1)))</f>
+        <f>IF(B216="common", 4, IF(B216="uncommon", 3, IF(B216="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -5898,7 +5917,7 @@
         <v>0.14</v>
       </c>
       <c r="F217" s="3">
-        <f>IF(B217="common", 4, IF(B217="uncommon", 3, IF(B217="rare", 1.22, 1)))</f>
+        <f>IF(B217="common", 4, IF(B217="uncommon", 3, IF(B217="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
     </row>
@@ -12446,7 +12465,7 @@
       <c r="E1263" s="3" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N210"/>
+  <autoFilter ref="A1:K210"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -12457,7 +12476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12470,194 +12489,224 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>ev_common_total</t>
         </is>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>0.1093478260869565</v>
+      <c r="B2" s="11" t="n">
+        <v>0.1123913043478261</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>ev_uncommon_total</t>
         </is>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>0.1560606060606061</v>
+      <c r="B3" s="11" t="n">
+        <v>0.1696969696969697</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>ev_rare_total</t>
         </is>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>0.2604761904761905</v>
+      <c r="B4" s="11" t="n">
+        <v>0.2695238095238095</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" s="10" t="inlineStr">
         <is>
           <t>ev_double_rare_total</t>
         </is>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>0.3288888888888888</v>
+      <c r="B5" s="11" t="n">
+        <v>0.3478888888888889</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="10" t="inlineStr">
+        <is>
+          <t>ev_pokeball_total</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="inlineStr">
+        <is>
+          <t>ev_master_ball_total</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="inlineStr">
         <is>
           <t>ev_hyper_rare_total</t>
         </is>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>0.1356493506493506</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="B8" s="11" t="n">
+        <v>0.1349350649350649</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="inlineStr">
         <is>
           <t>ev_ultra_rare_total</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>0.6429435483870968</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="B9" s="11" t="n">
+        <v>0.6597580645161291</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
         <is>
           <t>ev_SIR_total</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>2.301644444444444</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="B10" s="11" t="n">
+        <v>2.366622222222222</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="inlineStr">
         <is>
           <t>ev_IR_total</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>1.902606382978723</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="B11" s="11" t="n">
+        <v>1.987606382978723</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="inlineStr">
         <is>
           <t>ev_reverse_total</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n">
-        <v>3.066667607754564</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="B12" s="11" t="n">
+        <v>2.824572746094485</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>reverse_multiplier</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B13" s="11" t="n">
         <v>1.879338061465721</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>rare_multiplier</t>
         </is>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B14" s="10" t="n">
         <v>1.741272168691524</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="10" t="inlineStr">
         <is>
           <t>ev_total_for_hits</t>
         </is>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>4.982843726459615</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="B15" s="11" t="n">
+        <v>5.14892173465214</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="inlineStr">
         <is>
           <t>ev_hits_total</t>
         </is>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>5.311732615348505</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="B16" s="11" t="n">
+        <v>5.496810623541029</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="inlineStr">
         <is>
           <t>total_ev</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>12.43417083607831</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="B17" s="11" t="n">
+        <v>11.07690299510566</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="inlineStr">
         <is>
           <t>net_value</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>1.544170836078312</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="B18" s="11" t="n">
+        <v>0.1869029951056582</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="inlineStr">
         <is>
           <t>roi</t>
         </is>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>0.1417971382992023</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="B19" s="12" t="n">
+        <v>0.01716280946792081</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="inlineStr">
         <is>
           <t>roi_percent</t>
         </is>
       </c>
-      <c r="B18" s="8" t="n">
-        <v>13.17971382992023</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>hit_prob_pct</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="n">
+      <c r="B20" s="12" t="n">
+        <v>0.7162809467920814</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>no_hit_probability_percentage</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>68.32877110235633</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="inlineStr">
+        <is>
+          <t>hit_probability_percentage</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n">
         <v>31.67122889764367</v>
       </c>
     </row>

--- a/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-27375" yWindow="90" windowWidth="25260" windowHeight="11385" tabRatio="797" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3450" yWindow="825" windowWidth="25260" windowHeight="11385" tabRatio="797" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
@@ -115,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -138,6 +138,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -148,6 +151,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -520,8 +526,8 @@
   </sheetPr>
   <dimension ref="A1:K1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -602,7 +608,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
@@ -612,7 +618,7 @@
         <v>0.06</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F2" s="3">
         <f>IF(B2="common", 4, IF(B2="uncommon", 3, IF(B2="rare", 1.74127216869152, 1)))</f>
@@ -644,17 +650,17 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="F3" s="3">
         <f>IF(B3="common", 4, IF(B3="uncommon", 3, IF(B3="rare", 1.74127216869152, 1)))</f>
@@ -673,14 +679,14 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3">
@@ -688,7 +694,7 @@
         <v/>
       </c>
       <c r="H4">
-        <f>SUMPRODUCT((B2:B210="Rare") * D2:D210 * F2:F210 / C2:C210)</f>
+        <f>0.792892156862745*SUMPRODUCT((B2:B217="Rare") * D2:D217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -700,14 +706,14 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>7.46</v>
+        <v>7.37</v>
       </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3">
@@ -715,7 +721,7 @@
         <v/>
       </c>
       <c r="H5">
-        <f>SUMPRODUCT((B2:B217="Double Rare") * D2:D217 * F2:F217 / C2:C217)</f>
+        <f>1.88541666666666* SUMPRODUCT((C2:C217&lt;&gt;"") * (E2:E217&lt;&gt;"") * (E2:E217 / C2:C217))</f>
         <v/>
       </c>
     </row>
@@ -727,14 +733,14 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
         <v>225</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>43.34</v>
+        <v>43.91</v>
       </c>
       <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3">
@@ -742,7 +748,7 @@
         <v/>
       </c>
       <c r="H6">
-        <f>SUMPRODUCT((B2:B210="Hyper Rare") * D2:D210 * F2:F210 / C2:C210)</f>
+        <f>SUMPRODUCT((B2:B217="Illustration Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -754,7 +760,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
@@ -764,14 +770,14 @@
         <v>0.08</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="F7" s="3">
         <f>IF(B7="common", 4, IF(B7="uncommon", 3, IF(B7="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="H7">
-        <f>SUMPRODUCT((B2:B217="Illustration Rare") * D2:D217 * F2:F217 / C2:C217)</f>
+        <f>SUMPRODUCT((B2:B217="Special Illustration Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -783,24 +789,24 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1.06</v>
+        <v>0.95</v>
       </c>
       <c r="F8" s="3">
         <f>IF(B8="common", 4, IF(B8="uncommon", 3, IF(B8="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="H8">
-        <f>SUMPRODUCT((B2:B217="Special Illustration Rare") * D2:D217 * F2:F217 / C2:C217)</f>
+        <f>SUMPRODUCT((B2:B217="Double Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -812,24 +818,24 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="F9" s="3">
         <f>IF(B9="common", 4, IF(B9="uncommon", 3, IF(B9="rare", 1.74127216869152, 1)))</f>
         <v/>
       </c>
       <c r="H9">
-        <f>SUMPRODUCT((B2:B217="Ultra Rare") * D2:D217 * F2:F217 / C2:C217)</f>
+        <f>SUMPRODUCT((B2:B217="Hyper Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -841,14 +847,14 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E10" s="3" t="inlineStr"/>
       <c r="F10" s="3">
@@ -856,7 +862,7 @@
         <v/>
       </c>
       <c r="H10">
-        <f>1.88 * SUMPRODUCT((C2:C217&lt;&gt;"") * (E2:E217&lt;&gt;"") * (E2:E217 / C2:C217))</f>
+        <f>SUMPRODUCT((B2:B217="Ultra Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
     </row>
@@ -868,14 +874,14 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>4.89</v>
+        <v>4.98</v>
       </c>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3">
@@ -891,17 +897,17 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F12" s="3">
         <f>IF(B12="common", 4, IF(B12="uncommon", 3, IF(B12="rare", 1.74127216869152, 1)))</f>
@@ -916,17 +922,17 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="F13" s="3">
         <f>IF(B13="common", 4, IF(B13="uncommon", 3, IF(B13="rare", 1.74127216869152, 1)))</f>
@@ -941,14 +947,14 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Hyper Rare</t>
+          <t>hyper rare</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
         <v>154</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.95</v>
+        <v>4.7</v>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3">
@@ -964,7 +970,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
@@ -989,7 +995,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
@@ -999,7 +1005,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F16" s="3">
         <f>IF(B16="common", 4, IF(B16="uncommon", 3, IF(B16="rare", 1.74127216869152, 1)))</f>
@@ -1014,17 +1020,17 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="F17" s="3">
         <f>IF(B17="common", 4, IF(B17="uncommon", 3, IF(B17="rare", 1.74127216869152, 1)))</f>
@@ -1039,7 +1045,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
@@ -1049,7 +1055,7 @@
         <v>0.12</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="F18" s="3">
         <f>IF(B18="common", 4, IF(B18="uncommon", 3, IF(B18="rare", 1.74127216869152, 1)))</f>
@@ -1064,14 +1070,14 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3">
@@ -1087,14 +1093,14 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3">
@@ -1110,14 +1116,14 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>14.89</v>
+        <v>14.5</v>
       </c>
       <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3">
@@ -1133,14 +1139,14 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
         <v>225</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>73.55</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3">
@@ -1156,17 +1162,17 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F23" s="3">
         <f>IF(B23="common", 4, IF(B23="uncommon", 3, IF(B23="rare", 1.74127216869152, 1)))</f>
@@ -1181,14 +1187,14 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>37.52</v>
+        <v>37.01</v>
       </c>
       <c r="E24" s="3" t="inlineStr"/>
       <c r="F24" s="3">
@@ -1204,7 +1210,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
@@ -1214,7 +1220,7 @@
         <v>0.1</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F25" s="3">
         <f>IF(B25="common", 4, IF(B25="uncommon", 3, IF(B25="rare", 1.74127216869152, 1)))</f>
@@ -1229,14 +1235,14 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E26" s="3" t="n">
         <v>0.21</v>
@@ -1254,14 +1260,14 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>9.56</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3">
@@ -1277,17 +1283,17 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F28" s="3">
         <f>IF(B28="common", 4, IF(B28="uncommon", 3, IF(B28="rare", 1.74127216869152, 1)))</f>
@@ -1302,14 +1308,14 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.71</v>
+        <v>5.05</v>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3">
@@ -1325,14 +1331,14 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>31.27</v>
+        <v>31.25</v>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3">
@@ -1348,14 +1354,14 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
         <v>225</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>210.14</v>
+        <v>214.14</v>
       </c>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3">
@@ -1371,14 +1377,14 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E32" s="3" t="n">
         <v>0.19</v>
@@ -1396,14 +1402,14 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>52.06</v>
+        <v>51.42</v>
       </c>
       <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3">
@@ -1419,7 +1425,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
@@ -1429,7 +1435,7 @@
         <v>0.1</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F34" s="3">
         <f>IF(B34="common", 4, IF(B34="uncommon", 3, IF(B34="rare", 1.74127216869152, 1)))</f>
@@ -1444,14 +1450,14 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>34.86</v>
+        <v>34.16</v>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3">
@@ -1467,7 +1473,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
@@ -1492,7 +1498,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C37" s="3" t="n">
@@ -1517,17 +1523,17 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F38" s="3">
         <f>IF(B38="common", 4, IF(B38="uncommon", 3, IF(B38="rare", 1.74127216869152, 1)))</f>
@@ -1542,17 +1548,17 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C39" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F39" s="3">
         <f>IF(B39="common", 4, IF(B39="uncommon", 3, IF(B39="rare", 1.74127216869152, 1)))</f>
@@ -1567,17 +1573,17 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="F40" s="3">
         <f>IF(B40="common", 4, IF(B40="uncommon", 3, IF(B40="rare", 1.74127216869152, 1)))</f>
@@ -1592,17 +1598,17 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C41" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="F41" s="3">
         <f>IF(B41="common", 4, IF(B41="uncommon", 3, IF(B41="rare", 1.74127216869152, 1)))</f>
@@ -1617,14 +1623,14 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>4.04</v>
+        <v>3.92</v>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3">
@@ -1640,17 +1646,17 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F43" s="3">
         <f>IF(B43="common", 4, IF(B43="uncommon", 3, IF(B43="rare", 1.74127216869152, 1)))</f>
@@ -1665,14 +1671,14 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E44" s="3" t="n">
         <v>0.15</v>
@@ -1690,17 +1696,17 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F45" s="3">
         <f>IF(B45="common", 4, IF(B45="uncommon", 3, IF(B45="rare", 1.74127216869152, 1)))</f>
@@ -1715,14 +1721,14 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3">
@@ -1738,17 +1744,17 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C47" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="F47" s="3">
         <f>IF(B47="common", 4, IF(B47="uncommon", 3, IF(B47="rare", 1.74127216869152, 1)))</f>
@@ -1763,7 +1769,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
@@ -1788,17 +1794,17 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="F49" s="3">
         <f>IF(B49="common", 4, IF(B49="uncommon", 3, IF(B49="rare", 1.74127216869152, 1)))</f>
@@ -1813,14 +1819,14 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>25.78</v>
+        <v>25.53</v>
       </c>
       <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="3">
@@ -1836,17 +1842,17 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C51" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="F51" s="3">
         <f>IF(B51="common", 4, IF(B51="uncommon", 3, IF(B51="rare", 1.74127216869152, 1)))</f>
@@ -1861,17 +1867,17 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F52" s="3">
         <f>IF(B52="common", 4, IF(B52="uncommon", 3, IF(B52="rare", 1.74127216869152, 1)))</f>
@@ -1886,7 +1892,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
@@ -1896,7 +1902,7 @@
         <v>0.05</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F53" s="3">
         <f>IF(B53="common", 4, IF(B53="uncommon", 3, IF(B53="rare", 1.74127216869152, 1)))</f>
@@ -1911,7 +1917,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
@@ -1936,17 +1942,17 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C55" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F55" s="3">
         <f>IF(B55="common", 4, IF(B55="uncommon", 3, IF(B55="rare", 1.74127216869152, 1)))</f>
@@ -1961,7 +1967,7 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
@@ -1971,7 +1977,7 @@
         <v>0.05</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F56" s="3">
         <f>IF(B56="common", 4, IF(B56="uncommon", 3, IF(B56="rare", 1.74127216869152, 1)))</f>
@@ -1986,7 +1992,7 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C57" s="3" t="n">
@@ -1996,7 +2002,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F57" s="3">
         <f>IF(B57="common", 4, IF(B57="uncommon", 3, IF(B57="rare", 1.74127216869152, 1)))</f>
@@ -2011,7 +2017,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C58" s="3" t="n">
@@ -2021,7 +2027,7 @@
         <v>0.13</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="F58" s="3">
         <f>IF(B58="common", 4, IF(B58="uncommon", 3, IF(B58="rare", 1.74127216869152, 1)))</f>
@@ -2036,7 +2042,7 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C59" s="3" t="n">
@@ -2046,7 +2052,7 @@
         <v>0.16</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="F59" s="3">
         <f>IF(B59="common", 4, IF(B59="uncommon", 3, IF(B59="rare", 1.74127216869152, 1)))</f>
@@ -2061,17 +2067,17 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="F60" s="3">
         <f>IF(B60="common", 4, IF(B60="uncommon", 3, IF(B60="rare", 1.74127216869152, 1)))</f>
@@ -2086,14 +2092,14 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C61" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>6.99</v>
+        <v>6.92</v>
       </c>
       <c r="E61" s="3" t="inlineStr"/>
       <c r="F61" s="3">
@@ -2109,14 +2115,14 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C62" s="3" t="n">
         <v>225</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>14.98</v>
+        <v>14.48</v>
       </c>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3">
@@ -2132,7 +2138,7 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C63" s="3" t="n">
@@ -2157,7 +2163,7 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
@@ -2167,7 +2173,7 @@
         <v>0.1</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="F64" s="3">
         <f>IF(B64="common", 4, IF(B64="uncommon", 3, IF(B64="rare", 1.74127216869152, 1)))</f>
@@ -2182,7 +2188,7 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C65" s="3" t="n">
@@ -2192,7 +2198,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F65" s="3">
         <f>IF(B65="common", 4, IF(B65="uncommon", 3, IF(B65="rare", 1.74127216869152, 1)))</f>
@@ -2207,17 +2213,17 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C66" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F66" s="3">
         <f>IF(B66="common", 4, IF(B66="uncommon", 3, IF(B66="rare", 1.74127216869152, 1)))</f>
@@ -2232,14 +2238,14 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C67" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="E67" s="3" t="n">
         <v>1.08</v>
@@ -2257,14 +2263,14 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E68" s="3" t="n">
         <v>0.18</v>
@@ -2282,17 +2288,17 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C69" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="F69" s="3">
         <f>IF(B69="common", 4, IF(B69="uncommon", 3, IF(B69="rare", 1.74127216869152, 1)))</f>
@@ -2307,7 +2313,7 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C70" s="3" t="n">
@@ -2332,17 +2338,17 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C71" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="F71" s="3">
         <f>IF(B71="common", 4, IF(B71="uncommon", 3, IF(B71="rare", 1.74127216869152, 1)))</f>
@@ -2357,14 +2363,14 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C72" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>4.99</v>
+        <v>5.05</v>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3">
@@ -2380,14 +2386,14 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C73" s="3" t="n">
         <v>225</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>15.6</v>
+        <v>13.93</v>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3">
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C74" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E74" s="3" t="n">
         <v>0.21</v>
@@ -2428,7 +2434,7 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C75" s="3" t="n">
@@ -2453,17 +2459,17 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C76" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F76" s="3">
         <f>IF(B76="common", 4, IF(B76="uncommon", 3, IF(B76="rare", 1.74127216869152, 1)))</f>
@@ -2478,7 +2484,7 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C77" s="3" t="n">
@@ -2503,14 +2509,14 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C78" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3">
@@ -2526,14 +2532,14 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C79" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>5.18</v>
+        <v>4.83</v>
       </c>
       <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="3">
@@ -2549,17 +2555,17 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C80" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F80" s="3">
         <f>IF(B80="common", 4, IF(B80="uncommon", 3, IF(B80="rare", 1.74127216869152, 1)))</f>
@@ -2574,7 +2580,7 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C81" s="3" t="n">
@@ -2599,14 +2605,14 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C82" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E82" s="3" t="n">
         <v>0.15</v>
@@ -2624,7 +2630,7 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C83" s="3" t="n">
@@ -2649,17 +2655,17 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C84" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="F84" s="3">
         <f>IF(B84="common", 4, IF(B84="uncommon", 3, IF(B84="rare", 1.74127216869152, 1)))</f>
@@ -2674,17 +2680,17 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C85" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F85" s="3">
         <f>IF(B85="common", 4, IF(B85="uncommon", 3, IF(B85="rare", 1.74127216869152, 1)))</f>
@@ -2699,17 +2705,17 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C86" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="F86" s="3">
         <f>IF(B86="common", 4, IF(B86="uncommon", 3, IF(B86="rare", 1.74127216869152, 1)))</f>
@@ -2724,17 +2730,17 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C87" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>1.12</v>
+        <v>1.26</v>
       </c>
       <c r="F87" s="3">
         <f>IF(B87="common", 4, IF(B87="uncommon", 3, IF(B87="rare", 1.74127216869152, 1)))</f>
@@ -2749,7 +2755,7 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C88" s="3" t="n">
@@ -2759,7 +2765,7 @@
         <v>0.06</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F88" s="3">
         <f>IF(B88="common", 4, IF(B88="uncommon", 3, IF(B88="rare", 1.74127216869152, 1)))</f>
@@ -2774,7 +2780,7 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C89" s="3" t="n">
@@ -2784,7 +2790,7 @@
         <v>0.1</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="F89" s="3">
         <f>IF(B89="common", 4, IF(B89="uncommon", 3, IF(B89="rare", 1.74127216869152, 1)))</f>
@@ -2799,7 +2805,7 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C90" s="3" t="n">
@@ -2824,14 +2830,14 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C91" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>26.26</v>
+        <v>26.78</v>
       </c>
       <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3">
@@ -2847,17 +2853,17 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C92" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F92" s="3">
         <f>IF(B92="common", 4, IF(B92="uncommon", 3, IF(B92="rare", 1.74127216869152, 1)))</f>
@@ -2872,17 +2878,17 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C93" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="F93" s="3">
         <f>IF(B93="common", 4, IF(B93="uncommon", 3, IF(B93="rare", 1.74127216869152, 1)))</f>
@@ -2897,14 +2903,14 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C94" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3">
@@ -2920,14 +2926,14 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C95" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>5.3</v>
+        <v>5.09</v>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="3">
@@ -2943,7 +2949,7 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C96" s="3" t="n">
@@ -2953,7 +2959,7 @@
         <v>0.09</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="F96" s="3">
         <f>IF(B96="common", 4, IF(B96="uncommon", 3, IF(B96="rare", 1.74127216869152, 1)))</f>
@@ -2968,17 +2974,17 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C97" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F97" s="3">
         <f>IF(B97="common", 4, IF(B97="uncommon", 3, IF(B97="rare", 1.74127216869152, 1)))</f>
@@ -2993,17 +2999,17 @@
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C98" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F98" s="3">
         <f>IF(B98="common", 4, IF(B98="uncommon", 3, IF(B98="rare", 1.74127216869152, 1)))</f>
@@ -3018,7 +3024,7 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C99" s="3" t="n">
@@ -3028,7 +3034,7 @@
         <v>0.1</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="F99" s="3">
         <f>IF(B99="common", 4, IF(B99="uncommon", 3, IF(B99="rare", 1.74127216869152, 1)))</f>
@@ -3043,14 +3049,14 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C100" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3">
@@ -3066,14 +3072,14 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C101" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>5.8</v>
+        <v>5.55</v>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3">
@@ -3089,17 +3095,17 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C102" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="F102" s="3">
         <f>IF(B102="common", 4, IF(B102="uncommon", 3, IF(B102="rare", 1.74127216869152, 1)))</f>
@@ -3114,7 +3120,7 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C103" s="3" t="n">
@@ -3139,7 +3145,7 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C104" s="3" t="n">
@@ -3164,7 +3170,7 @@
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C105" s="3" t="n">
@@ -3174,7 +3180,7 @@
         <v>0.08</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="F105" s="3">
         <f>IF(B105="common", 4, IF(B105="uncommon", 3, IF(B105="rare", 1.74127216869152, 1)))</f>
@@ -3189,17 +3195,17 @@
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C106" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E106" s="3" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="F106" s="3">
         <f>IF(B106="common", 4, IF(B106="uncommon", 3, IF(B106="rare", 1.74127216869152, 1)))</f>
@@ -3214,17 +3220,17 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C107" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F107" s="3">
         <f>IF(B107="common", 4, IF(B107="uncommon", 3, IF(B107="rare", 1.74127216869152, 1)))</f>
@@ -3239,17 +3245,17 @@
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C108" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="F108" s="3">
         <f>IF(B108="common", 4, IF(B108="uncommon", 3, IF(B108="rare", 1.74127216869152, 1)))</f>
@@ -3264,17 +3270,17 @@
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C109" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F109" s="3">
         <f>IF(B109="common", 4, IF(B109="uncommon", 3, IF(B109="rare", 1.74127216869152, 1)))</f>
@@ -3289,14 +3295,14 @@
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C110" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>11.24</v>
+        <v>11.22</v>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3">
@@ -3312,17 +3318,17 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C111" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F111" s="3">
         <f>IF(B111="common", 4, IF(B111="uncommon", 3, IF(B111="rare", 1.74127216869152, 1)))</f>
@@ -3337,7 +3343,7 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C112" s="3" t="n">
@@ -3347,7 +3353,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="F112" s="3">
         <f>IF(B112="common", 4, IF(B112="uncommon", 3, IF(B112="rare", 1.74127216869152, 1)))</f>
@@ -3362,14 +3368,14 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C113" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E113" s="3" t="n">
         <v>0.9399999999999999</v>
@@ -3387,7 +3393,7 @@
       </c>
       <c r="B114" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C114" s="3" t="n">
@@ -3397,7 +3403,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F114" s="3">
         <f>IF(B114="common", 4, IF(B114="uncommon", 3, IF(B114="rare", 1.74127216869152, 1)))</f>
@@ -3412,14 +3418,14 @@
       </c>
       <c r="B115" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C115" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E115" s="3" t="n">
         <v>0.13</v>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="B116" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C116" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E116" s="3" t="n">
         <v>0.13</v>
@@ -3462,7 +3468,7 @@
       </c>
       <c r="B117" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C117" s="3" t="n">
@@ -3472,7 +3478,7 @@
         <v>0.16</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="F117" s="3">
         <f>IF(B117="common", 4, IF(B117="uncommon", 3, IF(B117="rare", 1.74127216869152, 1)))</f>
@@ -3487,7 +3493,7 @@
       </c>
       <c r="B118" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C118" s="3" t="n">
@@ -3497,7 +3503,7 @@
         <v>0.06</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F118" s="3">
         <f>IF(B118="common", 4, IF(B118="uncommon", 3, IF(B118="rare", 1.74127216869152, 1)))</f>
@@ -3512,17 +3518,17 @@
       </c>
       <c r="B119" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C119" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>2.22</v>
+        <v>2.31</v>
       </c>
       <c r="F119" s="3">
         <f>IF(B119="common", 4, IF(B119="uncommon", 3, IF(B119="rare", 1.74127216869152, 1)))</f>
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B120" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C120" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>7.21</v>
+        <v>6.62</v>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3">
@@ -3560,14 +3566,14 @@
       </c>
       <c r="B121" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C121" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>19.11</v>
+        <v>18.71</v>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
       <c r="F121" s="3">
@@ -3583,14 +3589,14 @@
       </c>
       <c r="B122" s="3" t="inlineStr">
         <is>
-          <t>Hyper Rare</t>
+          <t>hyper rare</t>
         </is>
       </c>
       <c r="C122" s="3" t="n">
         <v>154</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>13.27</v>
+        <v>13.41</v>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
       <c r="F122" s="3">
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B123" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C123" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>9.75</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
       <c r="F123" s="3">
@@ -3629,17 +3635,17 @@
       </c>
       <c r="B124" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C124" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="F124" s="3">
         <f>IF(B124="common", 4, IF(B124="uncommon", 3, IF(B124="rare", 1.74127216869152, 1)))</f>
@@ -3654,7 +3660,7 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C125" s="3" t="n">
@@ -3664,7 +3670,7 @@
         <v>0.21</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F125" s="3">
         <f>IF(B125="common", 4, IF(B125="uncommon", 3, IF(B125="rare", 1.74127216869152, 1)))</f>
@@ -3679,7 +3685,7 @@
       </c>
       <c r="B126" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C126" s="3" t="n">
@@ -3704,14 +3710,14 @@
       </c>
       <c r="B127" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C127" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>5.79</v>
+        <v>5.49</v>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3">
@@ -3727,14 +3733,14 @@
       </c>
       <c r="B128" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C128" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E128" s="3" t="n">
         <v>0.22</v>
@@ -3752,7 +3758,7 @@
       </c>
       <c r="B129" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C129" s="3" t="n">
@@ -3762,7 +3768,7 @@
         <v>0.19</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="F129" s="3">
         <f>IF(B129="common", 4, IF(B129="uncommon", 3, IF(B129="rare", 1.74127216869152, 1)))</f>
@@ -3777,14 +3783,14 @@
       </c>
       <c r="B130" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C130" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>9.58</v>
+        <v>9.9</v>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3">
@@ -3800,7 +3806,7 @@
       </c>
       <c r="B131" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C131" s="3" t="n">
@@ -3810,7 +3816,7 @@
         <v>0.06</v>
       </c>
       <c r="E131" s="3" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="F131" s="3">
         <f>IF(B131="common", 4, IF(B131="uncommon", 3, IF(B131="rare", 1.74127216869152, 1)))</f>
@@ -3825,17 +3831,17 @@
       </c>
       <c r="B132" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C132" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="F132" s="3">
         <f>IF(B132="common", 4, IF(B132="uncommon", 3, IF(B132="rare", 1.74127216869152, 1)))</f>
@@ -3850,17 +3856,17 @@
       </c>
       <c r="B133" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C133" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="F133" s="3">
         <f>IF(B133="common", 4, IF(B133="uncommon", 3, IF(B133="rare", 1.74127216869152, 1)))</f>
@@ -3875,14 +3881,14 @@
       </c>
       <c r="B134" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C134" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D134" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E134" s="3" t="n">
         <v>0.19</v>
@@ -3900,17 +3906,17 @@
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C135" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E135" s="3" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F135" s="3">
         <f>IF(B135="common", 4, IF(B135="uncommon", 3, IF(B135="rare", 1.74127216869152, 1)))</f>
@@ -3925,14 +3931,14 @@
       </c>
       <c r="B136" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C136" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3">
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B137" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C137" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>7.87</v>
+        <v>6.83</v>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3">
@@ -3971,7 +3977,7 @@
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C138" s="3" t="n">
@@ -3981,7 +3987,7 @@
         <v>0.08</v>
       </c>
       <c r="E138" s="3" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F138" s="3">
         <f>IF(B138="common", 4, IF(B138="uncommon", 3, IF(B138="rare", 1.74127216869152, 1)))</f>
@@ -3996,7 +4002,7 @@
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C139" s="3" t="n">
@@ -4006,7 +4012,7 @@
         <v>0.06</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>2.36</v>
+        <v>2.33</v>
       </c>
       <c r="F139" s="3">
         <f>IF(B139="common", 4, IF(B139="uncommon", 3, IF(B139="rare", 1.74127216869152, 1)))</f>
@@ -4021,14 +4027,14 @@
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C140" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>8</v>
+        <v>7.85</v>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3">
@@ -4044,14 +4050,14 @@
       </c>
       <c r="B141" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C141" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E141" s="3" t="n">
         <v>0.59</v>
@@ -4069,7 +4075,7 @@
       </c>
       <c r="B142" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C142" s="3" t="n">
@@ -4079,7 +4085,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="F142" s="3">
         <f>IF(B142="common", 4, IF(B142="uncommon", 3, IF(B142="rare", 1.74127216869152, 1)))</f>
@@ -4094,7 +4100,7 @@
       </c>
       <c r="B143" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C143" s="3" t="n">
@@ -4119,7 +4125,7 @@
       </c>
       <c r="B144" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C144" s="3" t="n">
@@ -4129,7 +4135,7 @@
         <v>0.1</v>
       </c>
       <c r="E144" s="3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F144" s="3">
         <f>IF(B144="common", 4, IF(B144="uncommon", 3, IF(B144="rare", 1.74127216869152, 1)))</f>
@@ -4144,17 +4150,17 @@
       </c>
       <c r="B145" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C145" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="F145" s="3">
         <f>IF(B145="common", 4, IF(B145="uncommon", 3, IF(B145="rare", 1.74127216869152, 1)))</f>
@@ -4169,7 +4175,7 @@
       </c>
       <c r="B146" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C146" s="3" t="n">
@@ -4179,7 +4185,7 @@
         <v>0.06</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F146" s="3">
         <f>IF(B146="common", 4, IF(B146="uncommon", 3, IF(B146="rare", 1.74127216869152, 1)))</f>
@@ -4194,17 +4200,17 @@
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C147" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>2.19</v>
+        <v>2.01</v>
       </c>
       <c r="F147" s="3">
         <f>IF(B147="common", 4, IF(B147="uncommon", 3, IF(B147="rare", 1.74127216869152, 1)))</f>
@@ -4219,7 +4225,7 @@
       </c>
       <c r="B148" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C148" s="3" t="n">
@@ -4229,7 +4235,7 @@
         <v>0.09</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F148" s="3">
         <f>IF(B148="common", 4, IF(B148="uncommon", 3, IF(B148="rare", 1.74127216869152, 1)))</f>
@@ -4244,7 +4250,7 @@
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C149" s="3" t="n">
@@ -4254,7 +4260,7 @@
         <v>0.1</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F149" s="3">
         <f>IF(B149="common", 4, IF(B149="uncommon", 3, IF(B149="rare", 1.74127216869152, 1)))</f>
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C150" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>28.89</v>
+        <v>28.78</v>
       </c>
       <c r="E150" s="3" t="inlineStr"/>
       <c r="F150" s="3">
@@ -4292,17 +4298,17 @@
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C151" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="F151" s="3">
         <f>IF(B151="common", 4, IF(B151="uncommon", 3, IF(B151="rare", 1.74127216869152, 1)))</f>
@@ -4317,7 +4323,7 @@
       </c>
       <c r="B152" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C152" s="3" t="n">
@@ -4327,7 +4333,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E152" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F152" s="3">
         <f>IF(B152="common", 4, IF(B152="uncommon", 3, IF(B152="rare", 1.74127216869152, 1)))</f>
@@ -4342,17 +4348,17 @@
       </c>
       <c r="B153" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C153" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="F153" s="3">
         <f>IF(B153="common", 4, IF(B153="uncommon", 3, IF(B153="rare", 1.74127216869152, 1)))</f>
@@ -4367,14 +4373,14 @@
       </c>
       <c r="B154" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C154" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>18.96</v>
+        <v>19.64</v>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3">
@@ -4390,7 +4396,7 @@
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C155" s="3" t="n">
@@ -4415,7 +4421,7 @@
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C156" s="3" t="n">
@@ -4425,7 +4431,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E156" s="3" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="F156" s="3">
         <f>IF(B156="common", 4, IF(B156="uncommon", 3, IF(B156="rare", 1.74127216869152, 1)))</f>
@@ -4440,14 +4446,14 @@
       </c>
       <c r="B157" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C157" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E157" s="3" t="n">
         <v>0.17</v>
@@ -4465,7 +4471,7 @@
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C158" s="3" t="n">
@@ -4475,7 +4481,7 @@
         <v>0.09</v>
       </c>
       <c r="E158" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F158" s="3">
         <f>IF(B158="common", 4, IF(B158="uncommon", 3, IF(B158="rare", 1.74127216869152, 1)))</f>
@@ -4490,17 +4496,17 @@
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C159" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="F159" s="3">
         <f>IF(B159="common", 4, IF(B159="uncommon", 3, IF(B159="rare", 1.74127216869152, 1)))</f>
@@ -4515,7 +4521,7 @@
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C160" s="3" t="n">
@@ -4540,14 +4546,14 @@
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C161" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>21.1</v>
+        <v>20.45</v>
       </c>
       <c r="E161" s="3" t="inlineStr"/>
       <c r="F161" s="3">
@@ -4563,17 +4569,17 @@
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C162" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F162" s="3">
         <f>IF(B162="common", 4, IF(B162="uncommon", 3, IF(B162="rare", 1.74127216869152, 1)))</f>
@@ -4588,7 +4594,7 @@
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C163" s="3" t="n">
@@ -4598,7 +4604,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F163" s="3">
         <f>IF(B163="common", 4, IF(B163="uncommon", 3, IF(B163="rare", 1.74127216869152, 1)))</f>
@@ -4613,7 +4619,7 @@
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C164" s="3" t="n">
@@ -4638,7 +4644,7 @@
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C165" s="3" t="n">
@@ -4648,7 +4654,7 @@
         <v>0.06</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F165" s="3">
         <f>IF(B165="common", 4, IF(B165="uncommon", 3, IF(B165="rare", 1.74127216869152, 1)))</f>
@@ -4663,17 +4669,17 @@
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C166" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E166" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F166" s="3">
         <f>IF(B166="common", 4, IF(B166="uncommon", 3, IF(B166="rare", 1.74127216869152, 1)))</f>
@@ -4688,7 +4694,7 @@
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C167" s="3" t="n">
@@ -4698,7 +4704,7 @@
         <v>0.06</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F167" s="3">
         <f>IF(B167="common", 4, IF(B167="uncommon", 3, IF(B167="rare", 1.74127216869152, 1)))</f>
@@ -4713,17 +4719,17 @@
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C168" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="F168" s="3">
         <f>IF(B168="common", 4, IF(B168="uncommon", 3, IF(B168="rare", 1.74127216869152, 1)))</f>
@@ -4738,17 +4744,17 @@
       </c>
       <c r="B169" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C169" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F169" s="3">
         <f>IF(B169="common", 4, IF(B169="uncommon", 3, IF(B169="rare", 1.74127216869152, 1)))</f>
@@ -4763,7 +4769,7 @@
       </c>
       <c r="B170" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C170" s="3" t="n">
@@ -4773,7 +4779,7 @@
         <v>0.08</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F170" s="3">
         <f>IF(B170="common", 4, IF(B170="uncommon", 3, IF(B170="rare", 1.74127216869152, 1)))</f>
@@ -4788,7 +4794,7 @@
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C171" s="3" t="n">
@@ -4798,7 +4804,7 @@
         <v>0.11</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="F171" s="3">
         <f>IF(B171="common", 4, IF(B171="uncommon", 3, IF(B171="rare", 1.74127216869152, 1)))</f>
@@ -4813,7 +4819,7 @@
       </c>
       <c r="B172" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C172" s="3" t="n">
@@ -4823,7 +4829,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F172" s="3">
         <f>IF(B172="common", 4, IF(B172="uncommon", 3, IF(B172="rare", 1.74127216869152, 1)))</f>
@@ -4838,7 +4844,7 @@
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C173" s="3" t="n">
@@ -4863,7 +4869,7 @@
       </c>
       <c r="B174" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C174" s="3" t="n">
@@ -4888,7 +4894,7 @@
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C175" s="3" t="n">
@@ -4898,7 +4904,7 @@
         <v>0.06</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F175" s="3">
         <f>IF(B175="common", 4, IF(B175="uncommon", 3, IF(B175="rare", 1.74127216869152, 1)))</f>
@@ -4913,7 +4919,7 @@
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C176" s="3" t="n">
@@ -4938,7 +4944,7 @@
       </c>
       <c r="B177" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C177" s="3" t="n">
@@ -4948,7 +4954,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="F177" s="3">
         <f>IF(B177="common", 4, IF(B177="uncommon", 3, IF(B177="rare", 1.74127216869152, 1)))</f>
@@ -4963,7 +4969,7 @@
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C178" s="3" t="n">
@@ -4973,7 +4979,7 @@
         <v>0.16</v>
       </c>
       <c r="E178" s="3" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="F178" s="3">
         <f>IF(B178="common", 4, IF(B178="uncommon", 3, IF(B178="rare", 1.74127216869152, 1)))</f>
@@ -4988,7 +4994,7 @@
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C179" s="3" t="n">
@@ -4998,7 +5004,7 @@
         <v>0.06</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F179" s="3">
         <f>IF(B179="common", 4, IF(B179="uncommon", 3, IF(B179="rare", 1.74127216869152, 1)))</f>
@@ -5013,7 +5019,7 @@
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C180" s="3" t="n">
@@ -5023,7 +5029,7 @@
         <v>0.11</v>
       </c>
       <c r="E180" s="3" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="F180" s="3">
         <f>IF(B180="common", 4, IF(B180="uncommon", 3, IF(B180="rare", 1.74127216869152, 1)))</f>
@@ -5038,14 +5044,14 @@
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C181" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>46.05</v>
+        <v>45.09</v>
       </c>
       <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="3">
@@ -5061,17 +5067,17 @@
       </c>
       <c r="B182" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C182" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F182" s="3">
         <f>IF(B182="common", 4, IF(B182="uncommon", 3, IF(B182="rare", 1.74127216869152, 1)))</f>
@@ -5086,7 +5092,7 @@
       </c>
       <c r="B183" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C183" s="3" t="n">
@@ -5111,14 +5117,14 @@
       </c>
       <c r="B184" s="3" t="inlineStr">
         <is>
-          <t>Hyper Rare</t>
+          <t>hyper rare</t>
         </is>
       </c>
       <c r="C184" s="3" t="n">
         <v>154</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>2.56</v>
+        <v>2.93</v>
       </c>
       <c r="E184" s="3" t="inlineStr"/>
       <c r="F184" s="3">
@@ -5134,17 +5140,17 @@
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C185" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F185" s="3">
         <f>IF(B185="common", 4, IF(B185="uncommon", 3, IF(B185="rare", 1.74127216869152, 1)))</f>
@@ -5159,14 +5165,14 @@
       </c>
       <c r="B186" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C186" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>7.68</v>
+        <v>7.56</v>
       </c>
       <c r="E186" s="3" t="inlineStr"/>
       <c r="F186" s="3">
@@ -5182,17 +5188,17 @@
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C187" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E187" s="3" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F187" s="3">
         <f>IF(B187="common", 4, IF(B187="uncommon", 3, IF(B187="rare", 1.74127216869152, 1)))</f>
@@ -5207,7 +5213,7 @@
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C188" s="3" t="n">
@@ -5217,7 +5223,7 @@
         <v>0.06</v>
       </c>
       <c r="E188" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F188" s="3">
         <f>IF(B188="common", 4, IF(B188="uncommon", 3, IF(B188="rare", 1.74127216869152, 1)))</f>
@@ -5232,7 +5238,7 @@
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C189" s="3" t="n">
@@ -5257,17 +5263,17 @@
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C190" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D190" s="3" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="F190" s="3">
         <f>IF(B190="common", 4, IF(B190="uncommon", 3, IF(B190="rare", 1.74127216869152, 1)))</f>
@@ -5282,7 +5288,7 @@
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C191" s="3" t="n">
@@ -5292,7 +5298,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E191" s="3" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F191" s="3">
         <f>IF(B191="common", 4, IF(B191="uncommon", 3, IF(B191="rare", 1.74127216869152, 1)))</f>
@@ -5307,7 +5313,7 @@
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C192" s="3" t="n">
@@ -5332,14 +5338,14 @@
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C193" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3">
@@ -5355,14 +5361,14 @@
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C194" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>11.82</v>
+        <v>11.58</v>
       </c>
       <c r="E194" s="3" t="inlineStr"/>
       <c r="F194" s="3">
@@ -5378,14 +5384,14 @@
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C195" s="3" t="n">
         <v>225</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>68.69</v>
+        <v>67.88</v>
       </c>
       <c r="E195" s="3" t="inlineStr"/>
       <c r="F195" s="3">
@@ -5401,7 +5407,7 @@
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C196" s="3" t="n">
@@ -5411,7 +5417,7 @@
         <v>0.05</v>
       </c>
       <c r="E196" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F196" s="3">
         <f>IF(B196="common", 4, IF(B196="uncommon", 3, IF(B196="rare", 1.74127216869152, 1)))</f>
@@ -5426,17 +5432,17 @@
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C197" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E197" s="3" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F197" s="3">
         <f>IF(B197="common", 4, IF(B197="uncommon", 3, IF(B197="rare", 1.74127216869152, 1)))</f>
@@ -5451,7 +5457,7 @@
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C198" s="3" t="n">
@@ -5461,7 +5467,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E198" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F198" s="3">
         <f>IF(B198="common", 4, IF(B198="uncommon", 3, IF(B198="rare", 1.74127216869152, 1)))</f>
@@ -5476,7 +5482,7 @@
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C199" s="3" t="n">
@@ -5486,7 +5492,7 @@
         <v>0.09</v>
       </c>
       <c r="E199" s="3" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="F199" s="3">
         <f>IF(B199="common", 4, IF(B199="uncommon", 3, IF(B199="rare", 1.74127216869152, 1)))</f>
@@ -5501,17 +5507,17 @@
       </c>
       <c r="B200" s="3" t="inlineStr">
         <is>
-          <t>Uncommon</t>
+          <t>uncommon</t>
         </is>
       </c>
       <c r="C200" s="3" t="n">
         <v>33</v>
       </c>
       <c r="D200" s="3" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F200" s="3">
         <f>IF(B200="common", 4, IF(B200="uncommon", 3, IF(B200="rare", 1.74127216869152, 1)))</f>
@@ -5526,14 +5532,14 @@
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>Illustration Rare</t>
+          <t>illustration rare</t>
         </is>
       </c>
       <c r="C201" s="3" t="n">
         <v>188</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>30.34</v>
+        <v>29.96</v>
       </c>
       <c r="E201" s="3" t="inlineStr"/>
       <c r="F201" s="3">
@@ -5549,7 +5555,7 @@
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C202" s="3" t="n">
@@ -5559,7 +5565,7 @@
         <v>0.06</v>
       </c>
       <c r="E202" s="3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F202" s="3">
         <f>IF(B202="common", 4, IF(B202="uncommon", 3, IF(B202="rare", 1.74127216869152, 1)))</f>
@@ -5574,17 +5580,17 @@
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C203" s="3" t="n">
         <v>46</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E203" s="3" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="F203" s="3">
         <f>IF(B203="common", 4, IF(B203="uncommon", 3, IF(B203="rare", 1.74127216869152, 1)))</f>
@@ -5599,17 +5605,17 @@
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C204" s="3" t="n">
         <v>21</v>
       </c>
       <c r="D204" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="E204" s="3" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="F204" s="3">
         <f>IF(B204="common", 4, IF(B204="uncommon", 3, IF(B204="rare", 1.74127216869152, 1)))</f>
@@ -5624,14 +5630,14 @@
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C205" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D205" s="3" t="n">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="E205" s="3" t="inlineStr"/>
       <c r="F205" s="3">
@@ -5647,14 +5653,14 @@
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C206" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>7.9</v>
+        <v>7.25</v>
       </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="3">
@@ -5670,14 +5676,14 @@
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C207" s="3" t="n">
         <v>90</v>
       </c>
       <c r="D207" s="3" t="n">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="E207" s="3" t="inlineStr"/>
       <c r="F207" s="3">
@@ -5693,14 +5699,14 @@
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C208" s="3" t="n">
         <v>248</v>
       </c>
       <c r="D208" s="3" t="n">
-        <v>8.06</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E208" s="3" t="inlineStr"/>
       <c r="F208" s="3">
@@ -5716,14 +5722,14 @@
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C209" s="3" t="n">
         <v>225</v>
       </c>
       <c r="D209" s="3" t="n">
-        <v>55.36</v>
+        <v>55.64</v>
       </c>
       <c r="E209" s="3" t="inlineStr"/>
       <c r="F209" s="3">
@@ -5739,7 +5745,7 @@
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C210" s="3" t="n">
@@ -5764,7 +5770,7 @@
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>Rare</t>
+          <t>rare</t>
         </is>
       </c>
       <c r="C211" s="3" t="n">
@@ -5789,7 +5795,7 @@
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C212" s="3" t="n">
@@ -5812,7 +5818,7 @@
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C213" s="3" t="n">
@@ -5835,7 +5841,7 @@
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>Double Rare</t>
+          <t>double rare</t>
         </is>
       </c>
       <c r="C214" s="3" t="n">
@@ -5858,7 +5864,7 @@
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>Ultra Rare</t>
+          <t>ultra rare</t>
         </is>
       </c>
       <c r="C215" s="3" t="n">
@@ -5881,7 +5887,7 @@
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>Special Illustration Rare</t>
+          <t>special illustration rare</t>
         </is>
       </c>
       <c r="C216" s="3" t="n">
@@ -5904,7 +5910,7 @@
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>common</t>
         </is>
       </c>
       <c r="C217" s="3" t="n">
@@ -12489,225 +12495,225 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="inlineStr">
+      <c r="A2" s="11" t="inlineStr">
         <is>
           <t>ev_common_total</t>
         </is>
       </c>
-      <c r="B2" s="11" t="n">
-        <v>0.1123913043478261</v>
+      <c r="B2" s="12" t="n">
+        <v>0.451304347826087</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="inlineStr">
+      <c r="A3" s="11" t="inlineStr">
         <is>
           <t>ev_uncommon_total</t>
         </is>
       </c>
-      <c r="B3" s="11" t="n">
-        <v>0.1696969696969697</v>
+      <c r="B3" s="12" t="n">
+        <v>0.5090909090909091</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="inlineStr">
+      <c r="A4" s="11" t="inlineStr">
         <is>
           <t>ev_rare_total</t>
         </is>
       </c>
-      <c r="B4" s="11" t="n">
-        <v>0.2695238095238095</v>
+      <c r="B4" s="12" t="n">
+        <v>0.213703314659197</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>ev_reverse_total</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>5.313106295878034</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>ev_ace_spec_total</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="inlineStr">
+        <is>
+          <t>ev_pokeball_total</t>
+        </is>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>ev_master_ball_total</t>
+        </is>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>ev_IR_total</t>
+        </is>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>1.96968085106383</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="inlineStr">
+        <is>
+          <t>ev_SIR_total</t>
+        </is>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>2.372933333333333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="inlineStr">
         <is>
           <t>ev_double_rare_total</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
-        <v>0.3478888888888889</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>ev_pokeball_total</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="inlineStr">
-        <is>
-          <t>ev_master_ball_total</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="inlineStr">
+      <c r="B11" s="12" t="n">
+        <v>0.3439999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>ev_hyper_rare_total</t>
         </is>
       </c>
-      <c r="B8" s="11" t="n">
-        <v>0.1349350649350649</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="B12" s="12" t="n">
+        <v>0.1366233766233766</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="inlineStr">
         <is>
           <t>ev_ultra_rare_total</t>
         </is>
       </c>
-      <c r="B9" s="11" t="n">
-        <v>0.6597580645161291</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t>ev_SIR_total</t>
-        </is>
-      </c>
-      <c r="B10" s="11" t="n">
-        <v>2.366622222222222</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="inlineStr">
-        <is>
-          <t>ev_IR_total</t>
-        </is>
-      </c>
-      <c r="B11" s="11" t="n">
-        <v>1.987606382978723</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>ev_reverse_total</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="n">
-        <v>2.824572746094485</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="B13" s="12" t="n">
+        <v>0.6449596774193548</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="inlineStr">
         <is>
           <t>reverse_multiplier</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
-        <v>1.879338061465721</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="B14" s="11" t="n">
+        <v>1.885416666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="inlineStr">
         <is>
           <t>rare_multiplier</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
-        <v>1.741272168691524</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="inlineStr">
-        <is>
-          <t>ev_total_for_hits</t>
-        </is>
-      </c>
       <c r="B15" s="11" t="n">
-        <v>5.14892173465214</v>
+        <v>0.7928921568627451</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="inlineStr">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>ev_hits_total</t>
         </is>
       </c>
-      <c r="B16" s="11" t="n">
-        <v>5.496810623541029</v>
+      <c r="B16" s="12" t="n">
+        <v>5.468197238439894</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="inlineStr">
+      <c r="A17" s="11" t="inlineStr">
         <is>
           <t>total_ev</t>
         </is>
       </c>
-      <c r="B17" s="11" t="n">
-        <v>11.07690299510566</v>
+      <c r="B17" s="12" t="n">
+        <v>11.95540210589412</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="inlineStr">
+      <c r="A18" s="11" t="inlineStr">
         <is>
           <t>net_value</t>
         </is>
       </c>
-      <c r="B18" s="11" t="n">
-        <v>0.1869029951056582</v>
+      <c r="B18" s="12" t="n">
+        <v>1.065402105894121</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="inlineStr">
+      <c r="A19" s="11" t="inlineStr">
         <is>
           <t>roi</t>
         </is>
       </c>
-      <c r="B19" s="12" t="n">
-        <v>0.01716280946792081</v>
+      <c r="B19" s="13" t="n">
+        <v>1.097833067575218</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="11" t="inlineStr">
         <is>
           <t>roi_percent</t>
         </is>
       </c>
-      <c r="B20" s="12" t="n">
-        <v>0.7162809467920814</v>
+      <c r="B20" s="14" t="n">
+        <v>0.09783306757521772</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="inlineStr">
+      <c r="A21" s="11" t="inlineStr">
         <is>
           <t>no_hit_probability_percentage</t>
         </is>
       </c>
-      <c r="B21" s="12" t="n">
-        <v>68.32877110235633</v>
+      <c r="B21" s="14" t="n">
+        <v>0.6832877110235632</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="inlineStr">
+      <c r="A22" s="11" t="inlineStr">
         <is>
           <t>hit_probability_percentage</t>
         </is>
       </c>
-      <c r="B22" s="12" t="n">
-        <v>31.67122889764367</v>
+      <c r="B22" s="14" t="n">
+        <v>0.3167122889764367</v>
       </c>
     </row>
   </sheetData>

--- a/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -524,23 +524,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1263"/>
+  <dimension ref="A1:T1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="39.6" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="4"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="24.7109375" customWidth="1" min="6" max="6"/>
-    <col width="33.5703125" customWidth="1" min="7" max="8"/>
-    <col width="32.42578125" customWidth="1" min="9" max="10"/>
+    <col width="30" customWidth="1" min="2" max="4"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="39.140625" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="50.28515625" customWidth="1" min="8" max="8"/>
+    <col width="28.85546875" customWidth="1" min="9" max="9"/>
+    <col width="23.7109375" customWidth="1" min="10" max="10"/>
     <col width="39.42578125" customWidth="1" min="11" max="11"/>
+    <col width="20.7109375" customWidth="1" min="12" max="12"/>
+    <col width="21.85546875" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -551,24 +555,24 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Price ($)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Reverse Variant Price ($)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Rarity</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Pull Rate (1/X)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Price ($)</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Reverse Variant Price ($)</t>
-        </is>
-      </c>
       <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Copies In Pack</t>
@@ -576,27 +580,37 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Category Sums</t>
+          <t>EV Total</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Category Evs</t>
+          <t>EV Breakdown</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Current Market Pack Price</t>
+          <t>Pack Price</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Current ETB Market Price</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Current Market Price of ETB Promo Card</t>
+          <t>ETB Price</t>
+        </is>
+      </c>
+      <c r="K1" s="4" t="inlineStr">
+        <is>
+          <t>ETB Promo Card Price</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
+        <is>
+          <t>Booster Box Price</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
+        <is>
+          <t>Special Collection Price</t>
         </is>
       </c>
     </row>
@@ -606,29 +620,26 @@
           <t>Abra</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="E2" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F2" s="3">
-        <f>IF(B2="common", 4, IF(B2="uncommon", 3, IF(B2="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="G2">
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3">
         <f>SUM(H2:H10)</f>
         <v/>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <f>SUMPRODUCT((B2:B217="Common") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
@@ -641,6 +652,12 @@
       <c r="K2" s="3" t="n">
         <v>5.6</v>
       </c>
+      <c r="L2" s="3" t="n"/>
+      <c r="M2" s="3" t="n"/>
+      <c r="Q2" s="3" t="n"/>
+      <c r="R2" s="3" t="n"/>
+      <c r="S2" s="3" t="n"/>
+      <c r="T2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -648,28 +665,34 @@
           <t>Aerodactyl</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="E3" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="F3" s="3">
-        <f>IF(B3="common", 4, IF(B3="uncommon", 3, IF(B3="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="H3">
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3">
         <f>SUMPRODUCT((B2:B217="Uncommon") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -677,26 +700,32 @@
           <t>Alakazam ex - 065/165</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="3" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="E4" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3">
-        <f>IF(B4="common", 4, IF(B4="uncommon", 3, IF(B4="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="H4">
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3">
         <f>0.792892156862745*SUMPRODUCT((B2:B217="Rare") * D2:D217 / C2:C217)</f>
         <v/>
       </c>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="Q4" s="3" t="n"/>
+      <c r="R4" s="3" t="n"/>
+      <c r="S4" s="3" t="n"/>
+      <c r="T4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -704,26 +733,32 @@
           <t>Alakazam ex - 188/165</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="E5" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="E5" s="3" t="inlineStr"/>
-      <c r="F5" s="3">
-        <f>IF(B5="common", 4, IF(B5="uncommon", 3, IF(B5="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="H5">
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3">
         <f>1.88541666666666* SUMPRODUCT((C2:C217&lt;&gt;"") * (E2:E217&lt;&gt;"") * (E2:E217 / C2:C217))</f>
         <v/>
       </c>
+      <c r="I5" s="3" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
+      <c r="M5" s="3" t="n"/>
+      <c r="Q5" s="3" t="n"/>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="3" t="n"/>
+      <c r="T5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -731,26 +766,32 @@
           <t>Alakazam ex - 201/165</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="3" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>special illustration rare</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="E6" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>43.91</v>
-      </c>
-      <c r="E6" s="3" t="inlineStr"/>
-      <c r="F6" s="3">
-        <f>IF(B6="common", 4, IF(B6="uncommon", 3, IF(B6="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="H6">
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3">
         <f>SUMPRODUCT((B2:B217="Illustration Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
+      <c r="I6" s="3" t="n"/>
+      <c r="J6" s="3" t="n"/>
+      <c r="L6" s="3" t="n"/>
+      <c r="M6" s="3" t="n"/>
+      <c r="Q6" s="3" t="n"/>
+      <c r="R6" s="3" t="n"/>
+      <c r="S6" s="3" t="n"/>
+      <c r="T6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -758,28 +799,34 @@
           <t>Antique Dome Fossil</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="E7" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F7" s="3">
-        <f>IF(B7="common", 4, IF(B7="uncommon", 3, IF(B7="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="H7">
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3">
         <f>SUMPRODUCT((B2:B217="Special Illustration Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
+      <c r="I7" s="3" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
+      <c r="M7" s="3" t="n"/>
+      <c r="Q7" s="3" t="n"/>
+      <c r="R7" s="3" t="n"/>
+      <c r="S7" s="3" t="n"/>
+      <c r="T7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -787,28 +834,34 @@
           <t>Antique Helix Fossil</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="E8" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="F8" s="3">
-        <f>IF(B8="common", 4, IF(B8="uncommon", 3, IF(B8="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="H8">
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+      <c r="H8" s="3">
         <f>SUMPRODUCT((B2:B217="Double Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
+      <c r="I8" s="3" t="n"/>
+      <c r="J8" s="3" t="n"/>
+      <c r="L8" s="3" t="n"/>
+      <c r="M8" s="3" t="n"/>
+      <c r="Q8" s="3" t="n"/>
+      <c r="R8" s="3" t="n"/>
+      <c r="S8" s="3" t="n"/>
+      <c r="T8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -816,28 +869,34 @@
           <t>Antique Old Amber</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="E9" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F9" s="3">
-        <f>IF(B9="common", 4, IF(B9="uncommon", 3, IF(B9="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="H9">
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3">
         <f>SUMPRODUCT((B2:B217="Hyper Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
+      <c r="Q9" s="3" t="n"/>
+      <c r="R9" s="3" t="n"/>
+      <c r="S9" s="3" t="n"/>
+      <c r="T9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -845,26 +904,32 @@
           <t>Arbok ex - 024/165</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr"/>
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="E10" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E10" s="3" t="inlineStr"/>
-      <c r="F10" s="3">
-        <f>IF(B10="common", 4, IF(B10="uncommon", 3, IF(B10="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
-      <c r="H10">
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3">
         <f>SUMPRODUCT((B2:B217="Ultra Rare") * D2:D217 * F2:F217 / C2:C217)</f>
         <v/>
       </c>
+      <c r="I10" s="3" t="n"/>
+      <c r="J10" s="3" t="n"/>
+      <c r="L10" s="3" t="n"/>
+      <c r="M10" s="3" t="n"/>
+      <c r="Q10" s="3" t="n"/>
+      <c r="R10" s="3" t="n"/>
+      <c r="S10" s="3" t="n"/>
+      <c r="T10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -872,22 +937,29 @@
           <t>Arbok ex - 185/165</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="3" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="E11" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3">
-        <f>IF(B11="common", 4, IF(B11="uncommon", 3, IF(B11="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
+      <c r="M11" s="3" t="n"/>
+      <c r="Q11" s="3" t="n"/>
+      <c r="R11" s="3" t="n"/>
+      <c r="S11" s="3" t="n"/>
+      <c r="T11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -895,24 +967,31 @@
           <t>Arcanine</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="E12" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F12" s="3">
-        <f>IF(B12="common", 4, IF(B12="uncommon", 3, IF(B12="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
+      <c r="J12" s="3" t="n"/>
+      <c r="L12" s="3" t="n"/>
+      <c r="M12" s="3" t="n"/>
+      <c r="Q12" s="3" t="n"/>
+      <c r="R12" s="3" t="n"/>
+      <c r="S12" s="3" t="n"/>
+      <c r="T12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -920,24 +999,31 @@
           <t>Articuno</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="E13" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F13" s="3">
-        <f>IF(B13="common", 4, IF(B13="uncommon", 3, IF(B13="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
+      <c r="M13" s="3" t="n"/>
+      <c r="Q13" s="3" t="n"/>
+      <c r="R13" s="3" t="n"/>
+      <c r="S13" s="3" t="n"/>
+      <c r="T13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -945,22 +1031,29 @@
           <t>Basic Psychic Energy - 207/165</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" s="3" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr"/>
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>hyper rare</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="E14" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3">
-        <f>IF(B14="common", 4, IF(B14="uncommon", 3, IF(B14="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
+      <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
+      <c r="J14" s="3" t="n"/>
+      <c r="L14" s="3" t="n"/>
+      <c r="M14" s="3" t="n"/>
+      <c r="Q14" s="3" t="n"/>
+      <c r="R14" s="3" t="n"/>
+      <c r="S14" s="3" t="n"/>
+      <c r="T14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -968,24 +1061,31 @@
           <t>Beedrill</t>
         </is>
       </c>
-      <c r="B15" s="3" t="inlineStr">
+      <c r="B15" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="E15" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F15" s="3">
-        <f>IF(B15="common", 4, IF(B15="uncommon", 3, IF(B15="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
+      <c r="M15" s="3" t="n"/>
+      <c r="Q15" s="3" t="n"/>
+      <c r="R15" s="3" t="n"/>
+      <c r="S15" s="3" t="n"/>
+      <c r="T15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -993,24 +1093,31 @@
           <t>Bellsprout</t>
         </is>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="E16" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D16" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F16" s="3">
-        <f>IF(B16="common", 4, IF(B16="uncommon", 3, IF(B16="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
+      <c r="J16" s="3" t="n"/>
+      <c r="L16" s="3" t="n"/>
+      <c r="M16" s="3" t="n"/>
+      <c r="Q16" s="3" t="n"/>
+      <c r="R16" s="3" t="n"/>
+      <c r="S16" s="3" t="n"/>
+      <c r="T16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -1018,24 +1125,31 @@
           <t>Big Air Balloon</t>
         </is>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="E17" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D17" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="F17" s="3">
-        <f>IF(B17="common", 4, IF(B17="uncommon", 3, IF(B17="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+      <c r="I17" s="3" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
+      <c r="M17" s="3" t="n"/>
+      <c r="Q17" s="3" t="n"/>
+      <c r="R17" s="3" t="n"/>
+      <c r="S17" s="3" t="n"/>
+      <c r="T17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -1043,24 +1157,31 @@
           <t>Bill's Transfer - 156/165</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="E18" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D18" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="F18" s="3">
-        <f>IF(B18="common", 4, IF(B18="uncommon", 3, IF(B18="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
+      <c r="J18" s="3" t="n"/>
+      <c r="L18" s="3" t="n"/>
+      <c r="M18" s="3" t="n"/>
+      <c r="Q18" s="3" t="n"/>
+      <c r="R18" s="3" t="n"/>
+      <c r="S18" s="3" t="n"/>
+      <c r="T18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -1068,22 +1189,29 @@
           <t>Bill's Transfer - 194/165</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="3" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr"/>
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="E19" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D19" s="3" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E19" s="3" t="inlineStr"/>
-      <c r="F19" s="3">
-        <f>IF(B19="common", 4, IF(B19="uncommon", 3, IF(B19="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+      <c r="I19" s="3" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
+      <c r="M19" s="3" t="n"/>
+      <c r="Q19" s="3" t="n"/>
+      <c r="R19" s="3" t="n"/>
+      <c r="S19" s="3" t="n"/>
+      <c r="T19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -1091,22 +1219,29 @@
           <t>Blastoise ex - 009/165</t>
         </is>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="3" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr"/>
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="E20" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D20" s="3" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3">
-        <f>IF(B20="common", 4, IF(B20="uncommon", 3, IF(B20="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
+      <c r="J20" s="3" t="n"/>
+      <c r="L20" s="3" t="n"/>
+      <c r="M20" s="3" t="n"/>
+      <c r="Q20" s="3" t="n"/>
+      <c r="R20" s="3" t="n"/>
+      <c r="S20" s="3" t="n"/>
+      <c r="T20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
@@ -1114,22 +1249,29 @@
           <t>Blastoise ex - 184/165</t>
         </is>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="3" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="E21" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D21" s="3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3">
-        <f>IF(B21="common", 4, IF(B21="uncommon", 3, IF(B21="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+      <c r="Q21" s="3" t="n"/>
+      <c r="R21" s="3" t="n"/>
+      <c r="S21" s="3" t="n"/>
+      <c r="T21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -1137,22 +1279,29 @@
           <t>Blastoise ex - 200/165</t>
         </is>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="3" t="n">
+        <v>71.38</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>special illustration rare</t>
         </is>
       </c>
-      <c r="C22" s="3" t="n">
+      <c r="E22" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="D22" s="3" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3">
-        <f>IF(B22="common", 4, IF(B22="uncommon", 3, IF(B22="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="M22" s="3" t="n"/>
+      <c r="Q22" s="3" t="n"/>
+      <c r="R22" s="3" t="n"/>
+      <c r="S22" s="3" t="n"/>
+      <c r="T22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -1160,24 +1309,31 @@
           <t>Bulbasaur - 001/165</t>
         </is>
       </c>
-      <c r="B23" s="3" t="inlineStr">
+      <c r="B23" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="E23" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D23" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F23" s="3">
-        <f>IF(B23="common", 4, IF(B23="uncommon", 3, IF(B23="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="n"/>
+      <c r="Q23" s="3" t="n"/>
+      <c r="R23" s="3" t="n"/>
+      <c r="S23" s="3" t="n"/>
+      <c r="T23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -1185,22 +1341,29 @@
           <t>Bulbasaur - 166/165</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="3" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C24" s="3" t="n">
+      <c r="E24" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D24" s="3" t="n">
-        <v>37.01</v>
-      </c>
-      <c r="E24" s="3" t="inlineStr"/>
-      <c r="F24" s="3">
-        <f>IF(B24="common", 4, IF(B24="uncommon", 3, IF(B24="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
+      <c r="J24" s="3" t="n"/>
+      <c r="L24" s="3" t="n"/>
+      <c r="M24" s="3" t="n"/>
+      <c r="Q24" s="3" t="n"/>
+      <c r="R24" s="3" t="n"/>
+      <c r="S24" s="3" t="n"/>
+      <c r="T24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -1208,24 +1371,31 @@
           <t>Butterfree</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="E25" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D25" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F25" s="3">
-        <f>IF(B25="common", 4, IF(B25="uncommon", 3, IF(B25="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
+      <c r="H25" s="3" t="n"/>
+      <c r="I25" s="3" t="n"/>
+      <c r="J25" s="3" t="n"/>
+      <c r="L25" s="3" t="n"/>
+      <c r="M25" s="3" t="n"/>
+      <c r="Q25" s="3" t="n"/>
+      <c r="R25" s="3" t="n"/>
+      <c r="S25" s="3" t="n"/>
+      <c r="T25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1233,24 +1403,31 @@
           <t>Caterpie - 010/165</t>
         </is>
       </c>
-      <c r="B26" s="3" t="inlineStr">
+      <c r="B26" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="E26" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D26" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F26" s="3">
-        <f>IF(B26="common", 4, IF(B26="uncommon", 3, IF(B26="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
+      <c r="H26" s="3" t="n"/>
+      <c r="I26" s="3" t="n"/>
+      <c r="J26" s="3" t="n"/>
+      <c r="L26" s="3" t="n"/>
+      <c r="M26" s="3" t="n"/>
+      <c r="Q26" s="3" t="n"/>
+      <c r="R26" s="3" t="n"/>
+      <c r="S26" s="3" t="n"/>
+      <c r="T26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -1258,22 +1435,29 @@
           <t>Caterpie - 172/165</t>
         </is>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="3" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="E27" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D27" s="3" t="n">
-        <v>9.460000000000001</v>
-      </c>
-      <c r="E27" s="3" t="inlineStr"/>
-      <c r="F27" s="3">
-        <f>IF(B27="common", 4, IF(B27="uncommon", 3, IF(B27="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
+      <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="n"/>
+      <c r="J27" s="3" t="n"/>
+      <c r="L27" s="3" t="n"/>
+      <c r="M27" s="3" t="n"/>
+      <c r="Q27" s="3" t="n"/>
+      <c r="R27" s="3" t="n"/>
+      <c r="S27" s="3" t="n"/>
+      <c r="T27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -1281,24 +1465,31 @@
           <t>Chansey</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="E28" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D28" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F28" s="3">
-        <f>IF(B28="common", 4, IF(B28="uncommon", 3, IF(B28="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="n"/>
+      <c r="H28" s="3" t="n"/>
+      <c r="I28" s="3" t="n"/>
+      <c r="J28" s="3" t="n"/>
+      <c r="L28" s="3" t="n"/>
+      <c r="M28" s="3" t="n"/>
+      <c r="Q28" s="3" t="n"/>
+      <c r="R28" s="3" t="n"/>
+      <c r="S28" s="3" t="n"/>
+      <c r="T28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
@@ -1306,22 +1497,29 @@
           <t>Charizard ex - 006/165</t>
         </is>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="3" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="E29" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D29" s="3" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="E29" s="3" t="inlineStr"/>
-      <c r="F29" s="3">
-        <f>IF(B29="common", 4, IF(B29="uncommon", 3, IF(B29="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
+      <c r="J29" s="3" t="n"/>
+      <c r="L29" s="3" t="n"/>
+      <c r="M29" s="3" t="n"/>
+      <c r="Q29" s="3" t="n"/>
+      <c r="R29" s="3" t="n"/>
+      <c r="S29" s="3" t="n"/>
+      <c r="T29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -1329,22 +1527,29 @@
           <t>Charizard ex - 183/165</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="3" t="n">
+        <v>30.35</v>
+      </c>
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C30" s="3" t="n">
+      <c r="E30" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D30" s="3" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="E30" s="3" t="inlineStr"/>
-      <c r="F30" s="3">
-        <f>IF(B30="common", 4, IF(B30="uncommon", 3, IF(B30="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
+      <c r="J30" s="3" t="n"/>
+      <c r="L30" s="3" t="n"/>
+      <c r="M30" s="3" t="n"/>
+      <c r="Q30" s="3" t="n"/>
+      <c r="R30" s="3" t="n"/>
+      <c r="S30" s="3" t="n"/>
+      <c r="T30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
@@ -1352,22 +1557,29 @@
           <t>Charizard ex - 199/165</t>
         </is>
       </c>
-      <c r="B31" s="3" t="inlineStr">
+      <c r="B31" s="3" t="n">
+        <v>212.94</v>
+      </c>
+      <c r="C31" s="3" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>special illustration rare</t>
         </is>
       </c>
-      <c r="C31" s="3" t="n">
+      <c r="E31" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="D31" s="3" t="n">
-        <v>214.14</v>
-      </c>
-      <c r="E31" s="3" t="inlineStr"/>
-      <c r="F31" s="3">
-        <f>IF(B31="common", 4, IF(B31="uncommon", 3, IF(B31="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
+      <c r="J31" s="3" t="n"/>
+      <c r="L31" s="3" t="n"/>
+      <c r="M31" s="3" t="n"/>
+      <c r="Q31" s="3" t="n"/>
+      <c r="R31" s="3" t="n"/>
+      <c r="S31" s="3" t="n"/>
+      <c r="T31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
@@ -1375,24 +1587,31 @@
           <t>Charmander - 004/165</t>
         </is>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C32" s="3" t="n">
+      <c r="E32" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D32" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F32" s="3">
-        <f>IF(B32="common", 4, IF(B32="uncommon", 3, IF(B32="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
+      <c r="J32" s="3" t="n"/>
+      <c r="L32" s="3" t="n"/>
+      <c r="M32" s="3" t="n"/>
+      <c r="Q32" s="3" t="n"/>
+      <c r="R32" s="3" t="n"/>
+      <c r="S32" s="3" t="n"/>
+      <c r="T32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
@@ -1400,22 +1619,29 @@
           <t>Charmander - 168/165</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B33" s="3" t="n">
+        <v>51.89</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr"/>
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="E33" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D33" s="3" t="n">
-        <v>51.42</v>
-      </c>
-      <c r="E33" s="3" t="inlineStr"/>
-      <c r="F33" s="3">
-        <f>IF(B33="common", 4, IF(B33="uncommon", 3, IF(B33="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
+      <c r="J33" s="3" t="n"/>
+      <c r="L33" s="3" t="n"/>
+      <c r="M33" s="3" t="n"/>
+      <c r="Q33" s="3" t="n"/>
+      <c r="R33" s="3" t="n"/>
+      <c r="S33" s="3" t="n"/>
+      <c r="T33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -1423,24 +1649,31 @@
           <t>Charmeleon - 005/165</t>
         </is>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="E34" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D34" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F34" s="3">
-        <f>IF(B34="common", 4, IF(B34="uncommon", 3, IF(B34="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F34" s="3" t="n"/>
+      <c r="G34" s="3" t="n"/>
+      <c r="H34" s="3" t="n"/>
+      <c r="I34" s="3" t="n"/>
+      <c r="J34" s="3" t="n"/>
+      <c r="L34" s="3" t="n"/>
+      <c r="M34" s="3" t="n"/>
+      <c r="Q34" s="3" t="n"/>
+      <c r="R34" s="3" t="n"/>
+      <c r="S34" s="3" t="n"/>
+      <c r="T34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
@@ -1448,22 +1681,29 @@
           <t>Charmeleon - 169/165</t>
         </is>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" s="3" t="n">
+        <v>33.53</v>
+      </c>
+      <c r="C35" s="3" t="inlineStr"/>
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="E35" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D35" s="3" t="n">
-        <v>34.16</v>
-      </c>
-      <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="3">
-        <f>IF(B35="common", 4, IF(B35="uncommon", 3, IF(B35="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
+      <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
+      <c r="J35" s="3" t="n"/>
+      <c r="L35" s="3" t="n"/>
+      <c r="M35" s="3" t="n"/>
+      <c r="Q35" s="3" t="n"/>
+      <c r="R35" s="3" t="n"/>
+      <c r="S35" s="3" t="n"/>
+      <c r="T35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -1471,24 +1711,31 @@
           <t>Clefable</t>
         </is>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C36" s="3" t="n">
+      <c r="E36" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D36" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F36" s="3">
-        <f>IF(B36="common", 4, IF(B36="uncommon", 3, IF(B36="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F36" s="3" t="n"/>
+      <c r="G36" s="3" t="n"/>
+      <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
+      <c r="J36" s="3" t="n"/>
+      <c r="L36" s="3" t="n"/>
+      <c r="M36" s="3" t="n"/>
+      <c r="Q36" s="3" t="n"/>
+      <c r="R36" s="3" t="n"/>
+      <c r="S36" s="3" t="n"/>
+      <c r="T36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -1496,24 +1743,31 @@
           <t>Clefairy</t>
         </is>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B37" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C37" s="3" t="n">
+      <c r="E37" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D37" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F37" s="3">
-        <f>IF(B37="common", 4, IF(B37="uncommon", 3, IF(B37="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
+      <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
+      <c r="J37" s="3" t="n"/>
+      <c r="L37" s="3" t="n"/>
+      <c r="M37" s="3" t="n"/>
+      <c r="Q37" s="3" t="n"/>
+      <c r="R37" s="3" t="n"/>
+      <c r="S37" s="3" t="n"/>
+      <c r="T37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -1521,24 +1775,31 @@
           <t>Cloyster</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C38" s="3" t="n">
+      <c r="E38" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D38" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F38" s="3">
-        <f>IF(B38="common", 4, IF(B38="uncommon", 3, IF(B38="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F38" s="3" t="n"/>
+      <c r="G38" s="3" t="n"/>
+      <c r="H38" s="3" t="n"/>
+      <c r="I38" s="3" t="n"/>
+      <c r="J38" s="3" t="n"/>
+      <c r="L38" s="3" t="n"/>
+      <c r="M38" s="3" t="n"/>
+      <c r="Q38" s="3" t="n"/>
+      <c r="R38" s="3" t="n"/>
+      <c r="S38" s="3" t="n"/>
+      <c r="T38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -1546,24 +1807,31 @@
           <t>Cubone</t>
         </is>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C39" s="3" t="n">
+      <c r="E39" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D39" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F39" s="3">
-        <f>IF(B39="common", 4, IF(B39="uncommon", 3, IF(B39="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
+      <c r="H39" s="3" t="n"/>
+      <c r="I39" s="3" t="n"/>
+      <c r="J39" s="3" t="n"/>
+      <c r="L39" s="3" t="n"/>
+      <c r="M39" s="3" t="n"/>
+      <c r="Q39" s="3" t="n"/>
+      <c r="R39" s="3" t="n"/>
+      <c r="S39" s="3" t="n"/>
+      <c r="T39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -1571,24 +1839,31 @@
           <t>Cycling Road</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B40" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="E40" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D40" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F40" s="3">
-        <f>IF(B40="common", 4, IF(B40="uncommon", 3, IF(B40="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F40" s="3" t="n"/>
+      <c r="G40" s="3" t="n"/>
+      <c r="H40" s="3" t="n"/>
+      <c r="I40" s="3" t="n"/>
+      <c r="J40" s="3" t="n"/>
+      <c r="L40" s="3" t="n"/>
+      <c r="M40" s="3" t="n"/>
+      <c r="Q40" s="3" t="n"/>
+      <c r="R40" s="3" t="n"/>
+      <c r="S40" s="3" t="n"/>
+      <c r="T40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -1596,24 +1871,31 @@
           <t>Daisy's Help - 158/165</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B41" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C41" s="3" t="n">
+      <c r="E41" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D41" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F41" s="3">
-        <f>IF(B41="common", 4, IF(B41="uncommon", 3, IF(B41="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F41" s="3" t="n"/>
+      <c r="G41" s="3" t="n"/>
+      <c r="H41" s="3" t="n"/>
+      <c r="I41" s="3" t="n"/>
+      <c r="J41" s="3" t="n"/>
+      <c r="L41" s="3" t="n"/>
+      <c r="M41" s="3" t="n"/>
+      <c r="Q41" s="3" t="n"/>
+      <c r="R41" s="3" t="n"/>
+      <c r="S41" s="3" t="n"/>
+      <c r="T41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -1621,22 +1903,29 @@
           <t>Daisy's Help - 195/165</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="3" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="C42" s="3" t="inlineStr"/>
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C42" s="3" t="n">
+      <c r="E42" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D42" s="3" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3">
-        <f>IF(B42="common", 4, IF(B42="uncommon", 3, IF(B42="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F42" s="3" t="n"/>
+      <c r="G42" s="3" t="n"/>
+      <c r="H42" s="3" t="n"/>
+      <c r="I42" s="3" t="n"/>
+      <c r="J42" s="3" t="n"/>
+      <c r="L42" s="3" t="n"/>
+      <c r="M42" s="3" t="n"/>
+      <c r="Q42" s="3" t="n"/>
+      <c r="R42" s="3" t="n"/>
+      <c r="S42" s="3" t="n"/>
+      <c r="T42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -1644,24 +1933,31 @@
           <t>Dewgong</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B43" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C43" s="3" t="n">
+      <c r="E43" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D43" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F43" s="3">
-        <f>IF(B43="common", 4, IF(B43="uncommon", 3, IF(B43="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="n"/>
+      <c r="H43" s="3" t="n"/>
+      <c r="I43" s="3" t="n"/>
+      <c r="J43" s="3" t="n"/>
+      <c r="L43" s="3" t="n"/>
+      <c r="M43" s="3" t="n"/>
+      <c r="Q43" s="3" t="n"/>
+      <c r="R43" s="3" t="n"/>
+      <c r="S43" s="3" t="n"/>
+      <c r="T43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -1669,24 +1965,31 @@
           <t>Diglett</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="E44" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D44" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E44" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F44" s="3">
-        <f>IF(B44="common", 4, IF(B44="uncommon", 3, IF(B44="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
+      <c r="H44" s="3" t="n"/>
+      <c r="I44" s="3" t="n"/>
+      <c r="J44" s="3" t="n"/>
+      <c r="L44" s="3" t="n"/>
+      <c r="M44" s="3" t="n"/>
+      <c r="Q44" s="3" t="n"/>
+      <c r="R44" s="3" t="n"/>
+      <c r="S44" s="3" t="n"/>
+      <c r="T44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -1694,24 +1997,31 @@
           <t>Ditto</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B45" s="3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="E45" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D45" s="3" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E45" s="3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F45" s="3">
-        <f>IF(B45="common", 4, IF(B45="uncommon", 3, IF(B45="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
+      <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="n"/>
+      <c r="J45" s="3" t="n"/>
+      <c r="L45" s="3" t="n"/>
+      <c r="M45" s="3" t="n"/>
+      <c r="Q45" s="3" t="n"/>
+      <c r="R45" s="3" t="n"/>
+      <c r="S45" s="3" t="n"/>
+      <c r="T45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -1719,22 +2029,29 @@
           <t>Ditto - 132/165 (Non-Holo)</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" s="3" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C46" s="3" t="inlineStr"/>
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C46" s="3" t="n">
+      <c r="E46" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D46" s="3" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3">
-        <f>IF(B46="common", 4, IF(B46="uncommon", 3, IF(B46="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
+      <c r="H46" s="3" t="n"/>
+      <c r="I46" s="3" t="n"/>
+      <c r="J46" s="3" t="n"/>
+      <c r="L46" s="3" t="n"/>
+      <c r="M46" s="3" t="n"/>
+      <c r="Q46" s="3" t="n"/>
+      <c r="R46" s="3" t="n"/>
+      <c r="S46" s="3" t="n"/>
+      <c r="T46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
@@ -1742,24 +2059,31 @@
           <t>Dodrio</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C47" s="3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C47" s="3" t="n">
+      <c r="E47" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D47" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E47" s="3" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="F47" s="3">
-        <f>IF(B47="common", 4, IF(B47="uncommon", 3, IF(B47="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
+      <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
+      <c r="J47" s="3" t="n"/>
+      <c r="L47" s="3" t="n"/>
+      <c r="M47" s="3" t="n"/>
+      <c r="Q47" s="3" t="n"/>
+      <c r="R47" s="3" t="n"/>
+      <c r="S47" s="3" t="n"/>
+      <c r="T47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -1767,24 +2091,31 @@
           <t>Doduo</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="E48" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D48" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E48" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F48" s="3">
-        <f>IF(B48="common", 4, IF(B48="uncommon", 3, IF(B48="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F48" s="3" t="n"/>
+      <c r="G48" s="3" t="n"/>
+      <c r="H48" s="3" t="n"/>
+      <c r="I48" s="3" t="n"/>
+      <c r="J48" s="3" t="n"/>
+      <c r="L48" s="3" t="n"/>
+      <c r="M48" s="3" t="n"/>
+      <c r="Q48" s="3" t="n"/>
+      <c r="R48" s="3" t="n"/>
+      <c r="S48" s="3" t="n"/>
+      <c r="T48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -1792,24 +2123,31 @@
           <t>Dragonair - 148/165</t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B49" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C49" s="3" t="n">
+      <c r="E49" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D49" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="F49" s="3">
-        <f>IF(B49="common", 4, IF(B49="uncommon", 3, IF(B49="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
+      <c r="I49" s="3" t="n"/>
+      <c r="J49" s="3" t="n"/>
+      <c r="L49" s="3" t="n"/>
+      <c r="M49" s="3" t="n"/>
+      <c r="Q49" s="3" t="n"/>
+      <c r="R49" s="3" t="n"/>
+      <c r="S49" s="3" t="n"/>
+      <c r="T49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -1817,22 +2155,29 @@
           <t>Dragonair - 181/165</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" s="3" t="n">
+        <v>24.61</v>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C50" s="3" t="n">
+      <c r="E50" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D50" s="3" t="n">
-        <v>25.53</v>
-      </c>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3">
-        <f>IF(B50="common", 4, IF(B50="uncommon", 3, IF(B50="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
+      <c r="H50" s="3" t="n"/>
+      <c r="I50" s="3" t="n"/>
+      <c r="J50" s="3" t="n"/>
+      <c r="L50" s="3" t="n"/>
+      <c r="M50" s="3" t="n"/>
+      <c r="Q50" s="3" t="n"/>
+      <c r="R50" s="3" t="n"/>
+      <c r="S50" s="3" t="n"/>
+      <c r="T50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -1840,24 +2185,31 @@
           <t>Dragonite</t>
         </is>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" s="3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="E51" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D51" s="3" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E51" s="3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F51" s="3">
-        <f>IF(B51="common", 4, IF(B51="uncommon", 3, IF(B51="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
+      <c r="J51" s="3" t="n"/>
+      <c r="L51" s="3" t="n"/>
+      <c r="M51" s="3" t="n"/>
+      <c r="Q51" s="3" t="n"/>
+      <c r="R51" s="3" t="n"/>
+      <c r="S51" s="3" t="n"/>
+      <c r="T51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
@@ -1865,24 +2217,31 @@
           <t>Dratini</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B52" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="E52" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D52" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E52" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F52" s="3">
-        <f>IF(B52="common", 4, IF(B52="uncommon", 3, IF(B52="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="n"/>
+      <c r="H52" s="3" t="n"/>
+      <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="n"/>
+      <c r="L52" s="3" t="n"/>
+      <c r="M52" s="3" t="n"/>
+      <c r="Q52" s="3" t="n"/>
+      <c r="R52" s="3" t="n"/>
+      <c r="S52" s="3" t="n"/>
+      <c r="T52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -1890,24 +2249,31 @@
           <t>Drowzee</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C53" s="3" t="n">
+      <c r="E53" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D53" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E53" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F53" s="3">
-        <f>IF(B53="common", 4, IF(B53="uncommon", 3, IF(B53="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="L53" s="3" t="n"/>
+      <c r="M53" s="3" t="n"/>
+      <c r="Q53" s="3" t="n"/>
+      <c r="R53" s="3" t="n"/>
+      <c r="S53" s="3" t="n"/>
+      <c r="T53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -1915,24 +2281,31 @@
           <t>Dugtrio</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="E54" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D54" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E54" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F54" s="3">
-        <f>IF(B54="common", 4, IF(B54="uncommon", 3, IF(B54="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F54" s="3" t="n"/>
+      <c r="G54" s="3" t="n"/>
+      <c r="H54" s="3" t="n"/>
+      <c r="I54" s="3" t="n"/>
+      <c r="J54" s="3" t="n"/>
+      <c r="L54" s="3" t="n"/>
+      <c r="M54" s="3" t="n"/>
+      <c r="Q54" s="3" t="n"/>
+      <c r="R54" s="3" t="n"/>
+      <c r="S54" s="3" t="n"/>
+      <c r="T54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -1940,24 +2313,31 @@
           <t>Eevee</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B55" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C55" s="3" t="n">
+      <c r="E55" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D55" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E55" s="3" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F55" s="3">
-        <f>IF(B55="common", 4, IF(B55="uncommon", 3, IF(B55="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="n"/>
+      <c r="Q55" s="3" t="n"/>
+      <c r="R55" s="3" t="n"/>
+      <c r="S55" s="3" t="n"/>
+      <c r="T55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -1965,24 +2345,31 @@
           <t>Ekans</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C56" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C56" s="3" t="n">
+      <c r="E56" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D56" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E56" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F56" s="3">
-        <f>IF(B56="common", 4, IF(B56="uncommon", 3, IF(B56="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F56" s="3" t="n"/>
+      <c r="G56" s="3" t="n"/>
+      <c r="H56" s="3" t="n"/>
+      <c r="I56" s="3" t="n"/>
+      <c r="J56" s="3" t="n"/>
+      <c r="L56" s="3" t="n"/>
+      <c r="M56" s="3" t="n"/>
+      <c r="Q56" s="3" t="n"/>
+      <c r="R56" s="3" t="n"/>
+      <c r="S56" s="3" t="n"/>
+      <c r="T56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -1990,24 +2377,31 @@
           <t>Electabuzz</t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B57" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C57" s="3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C57" s="3" t="n">
+      <c r="E57" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D57" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E57" s="3" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F57" s="3">
-        <f>IF(B57="common", 4, IF(B57="uncommon", 3, IF(B57="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
+      <c r="J57" s="3" t="n"/>
+      <c r="L57" s="3" t="n"/>
+      <c r="M57" s="3" t="n"/>
+      <c r="Q57" s="3" t="n"/>
+      <c r="R57" s="3" t="n"/>
+      <c r="S57" s="3" t="n"/>
+      <c r="T57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
@@ -2015,24 +2409,31 @@
           <t>Electrode</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C58" s="3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="E58" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D58" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E58" s="3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="F58" s="3">
-        <f>IF(B58="common", 4, IF(B58="uncommon", 3, IF(B58="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F58" s="3" t="n"/>
+      <c r="G58" s="3" t="n"/>
+      <c r="H58" s="3" t="n"/>
+      <c r="I58" s="3" t="n"/>
+      <c r="J58" s="3" t="n"/>
+      <c r="L58" s="3" t="n"/>
+      <c r="M58" s="3" t="n"/>
+      <c r="Q58" s="3" t="n"/>
+      <c r="R58" s="3" t="n"/>
+      <c r="S58" s="3" t="n"/>
+      <c r="T58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -2040,24 +2441,31 @@
           <t>Energy Sticker</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B59" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C59" s="3" t="n">
+      <c r="E59" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D59" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E59" s="3" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="F59" s="3">
-        <f>IF(B59="common", 4, IF(B59="uncommon", 3, IF(B59="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
+      <c r="H59" s="3" t="n"/>
+      <c r="I59" s="3" t="n"/>
+      <c r="J59" s="3" t="n"/>
+      <c r="L59" s="3" t="n"/>
+      <c r="M59" s="3" t="n"/>
+      <c r="Q59" s="3" t="n"/>
+      <c r="R59" s="3" t="n"/>
+      <c r="S59" s="3" t="n"/>
+      <c r="T59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -2065,24 +2473,31 @@
           <t>Erika's Invitation - 160/165</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B60" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="E60" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D60" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E60" s="3" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="F60" s="3">
-        <f>IF(B60="common", 4, IF(B60="uncommon", 3, IF(B60="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F60" s="3" t="n"/>
+      <c r="G60" s="3" t="n"/>
+      <c r="H60" s="3" t="n"/>
+      <c r="I60" s="3" t="n"/>
+      <c r="J60" s="3" t="n"/>
+      <c r="L60" s="3" t="n"/>
+      <c r="M60" s="3" t="n"/>
+      <c r="Q60" s="3" t="n"/>
+      <c r="R60" s="3" t="n"/>
+      <c r="S60" s="3" t="n"/>
+      <c r="T60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
@@ -2090,22 +2505,29 @@
           <t>Erika's Invitation - 196/165</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" s="3" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C61" s="3" t="n">
+      <c r="E61" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D61" s="3" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="E61" s="3" t="inlineStr"/>
-      <c r="F61" s="3">
-        <f>IF(B61="common", 4, IF(B61="uncommon", 3, IF(B61="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
+      <c r="H61" s="3" t="n"/>
+      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="L61" s="3" t="n"/>
+      <c r="M61" s="3" t="n"/>
+      <c r="Q61" s="3" t="n"/>
+      <c r="R61" s="3" t="n"/>
+      <c r="S61" s="3" t="n"/>
+      <c r="T61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
@@ -2113,22 +2535,29 @@
           <t>Erika's Invitation - 203/165</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B62" s="3" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="C62" s="3" t="inlineStr"/>
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>special illustration rare</t>
         </is>
       </c>
-      <c r="C62" s="3" t="n">
+      <c r="E62" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="D62" s="3" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="E62" s="3" t="inlineStr"/>
-      <c r="F62" s="3">
-        <f>IF(B62="common", 4, IF(B62="uncommon", 3, IF(B62="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="n"/>
+      <c r="H62" s="3" t="n"/>
+      <c r="I62" s="3" t="n"/>
+      <c r="J62" s="3" t="n"/>
+      <c r="L62" s="3" t="n"/>
+      <c r="M62" s="3" t="n"/>
+      <c r="Q62" s="3" t="n"/>
+      <c r="R62" s="3" t="n"/>
+      <c r="S62" s="3" t="n"/>
+      <c r="T62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
@@ -2136,24 +2565,31 @@
           <t>Exeggcute</t>
         </is>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B63" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C63" s="3" t="n">
+      <c r="E63" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D63" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E63" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F63" s="3">
-        <f>IF(B63="common", 4, IF(B63="uncommon", 3, IF(B63="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
+      <c r="H63" s="3" t="n"/>
+      <c r="I63" s="3" t="n"/>
+      <c r="J63" s="3" t="n"/>
+      <c r="L63" s="3" t="n"/>
+      <c r="M63" s="3" t="n"/>
+      <c r="Q63" s="3" t="n"/>
+      <c r="R63" s="3" t="n"/>
+      <c r="S63" s="3" t="n"/>
+      <c r="T63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
@@ -2161,24 +2597,31 @@
           <t>Exeggutor</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B64" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="E64" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D64" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E64" s="3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="F64" s="3">
-        <f>IF(B64="common", 4, IF(B64="uncommon", 3, IF(B64="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F64" s="3" t="n"/>
+      <c r="G64" s="3" t="n"/>
+      <c r="H64" s="3" t="n"/>
+      <c r="I64" s="3" t="n"/>
+      <c r="J64" s="3" t="n"/>
+      <c r="L64" s="3" t="n"/>
+      <c r="M64" s="3" t="n"/>
+      <c r="Q64" s="3" t="n"/>
+      <c r="R64" s="3" t="n"/>
+      <c r="S64" s="3" t="n"/>
+      <c r="T64" s="3" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
@@ -2186,24 +2629,31 @@
           <t>Farfetch'd</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B65" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C65" s="3" t="n">
+      <c r="E65" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D65" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E65" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F65" s="3">
-        <f>IF(B65="common", 4, IF(B65="uncommon", 3, IF(B65="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
+      <c r="I65" s="3" t="n"/>
+      <c r="J65" s="3" t="n"/>
+      <c r="L65" s="3" t="n"/>
+      <c r="M65" s="3" t="n"/>
+      <c r="Q65" s="3" t="n"/>
+      <c r="R65" s="3" t="n"/>
+      <c r="S65" s="3" t="n"/>
+      <c r="T65" s="3" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
@@ -2211,24 +2661,31 @@
           <t>Fearow</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B66" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C66" s="3" t="n">
+      <c r="E66" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D66" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E66" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F66" s="3">
-        <f>IF(B66="common", 4, IF(B66="uncommon", 3, IF(B66="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F66" s="3" t="n"/>
+      <c r="G66" s="3" t="n"/>
+      <c r="H66" s="3" t="n"/>
+      <c r="I66" s="3" t="n"/>
+      <c r="J66" s="3" t="n"/>
+      <c r="L66" s="3" t="n"/>
+      <c r="M66" s="3" t="n"/>
+      <c r="Q66" s="3" t="n"/>
+      <c r="R66" s="3" t="n"/>
+      <c r="S66" s="3" t="n"/>
+      <c r="T66" s="3" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
@@ -2236,24 +2693,31 @@
           <t>Flareon</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B67" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C67" s="3" t="n">
+      <c r="E67" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D67" s="3" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="E67" s="3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="F67" s="3">
-        <f>IF(B67="common", 4, IF(B67="uncommon", 3, IF(B67="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F67" s="3" t="n"/>
+      <c r="G67" s="3" t="n"/>
+      <c r="H67" s="3" t="n"/>
+      <c r="I67" s="3" t="n"/>
+      <c r="J67" s="3" t="n"/>
+      <c r="L67" s="3" t="n"/>
+      <c r="M67" s="3" t="n"/>
+      <c r="Q67" s="3" t="n"/>
+      <c r="R67" s="3" t="n"/>
+      <c r="S67" s="3" t="n"/>
+      <c r="T67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
@@ -2261,24 +2725,31 @@
           <t>Gastly</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B68" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C68" s="3" t="n">
+      <c r="E68" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D68" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E68" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F68" s="3">
-        <f>IF(B68="common", 4, IF(B68="uncommon", 3, IF(B68="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F68" s="3" t="n"/>
+      <c r="G68" s="3" t="n"/>
+      <c r="H68" s="3" t="n"/>
+      <c r="I68" s="3" t="n"/>
+      <c r="J68" s="3" t="n"/>
+      <c r="L68" s="3" t="n"/>
+      <c r="M68" s="3" t="n"/>
+      <c r="Q68" s="3" t="n"/>
+      <c r="R68" s="3" t="n"/>
+      <c r="S68" s="3" t="n"/>
+      <c r="T68" s="3" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
@@ -2286,24 +2757,31 @@
           <t>Gengar</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B69" s="3" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C69" s="3" t="n">
+      <c r="E69" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D69" s="3" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E69" s="3" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F69" s="3">
-        <f>IF(B69="common", 4, IF(B69="uncommon", 3, IF(B69="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F69" s="3" t="n"/>
+      <c r="G69" s="3" t="n"/>
+      <c r="H69" s="3" t="n"/>
+      <c r="I69" s="3" t="n"/>
+      <c r="J69" s="3" t="n"/>
+      <c r="L69" s="3" t="n"/>
+      <c r="M69" s="3" t="n"/>
+      <c r="Q69" s="3" t="n"/>
+      <c r="R69" s="3" t="n"/>
+      <c r="S69" s="3" t="n"/>
+      <c r="T69" s="3" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
@@ -2311,24 +2789,31 @@
           <t>Geodude</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B70" s="3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C70" s="3" t="n">
+      <c r="E70" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D70" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E70" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F70" s="3">
-        <f>IF(B70="common", 4, IF(B70="uncommon", 3, IF(B70="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F70" s="3" t="n"/>
+      <c r="G70" s="3" t="n"/>
+      <c r="H70" s="3" t="n"/>
+      <c r="I70" s="3" t="n"/>
+      <c r="J70" s="3" t="n"/>
+      <c r="L70" s="3" t="n"/>
+      <c r="M70" s="3" t="n"/>
+      <c r="Q70" s="3" t="n"/>
+      <c r="R70" s="3" t="n"/>
+      <c r="S70" s="3" t="n"/>
+      <c r="T70" s="3" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
@@ -2336,24 +2821,31 @@
           <t>Giovanni's Charisma - 161/165</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B71" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C71" s="3" t="n">
+      <c r="E71" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D71" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E71" s="3" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F71" s="3">
-        <f>IF(B71="common", 4, IF(B71="uncommon", 3, IF(B71="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F71" s="3" t="n"/>
+      <c r="G71" s="3" t="n"/>
+      <c r="H71" s="3" t="n"/>
+      <c r="I71" s="3" t="n"/>
+      <c r="J71" s="3" t="n"/>
+      <c r="L71" s="3" t="n"/>
+      <c r="M71" s="3" t="n"/>
+      <c r="Q71" s="3" t="n"/>
+      <c r="R71" s="3" t="n"/>
+      <c r="S71" s="3" t="n"/>
+      <c r="T71" s="3" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -2361,22 +2853,29 @@
           <t>Giovanni's Charisma - 197/165</t>
         </is>
       </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="B72" s="3" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C72" s="3" t="inlineStr"/>
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C72" s="3" t="n">
+      <c r="E72" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D72" s="3" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="E72" s="3" t="inlineStr"/>
-      <c r="F72" s="3">
-        <f>IF(B72="common", 4, IF(B72="uncommon", 3, IF(B72="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F72" s="3" t="n"/>
+      <c r="G72" s="3" t="n"/>
+      <c r="H72" s="3" t="n"/>
+      <c r="I72" s="3" t="n"/>
+      <c r="J72" s="3" t="n"/>
+      <c r="L72" s="3" t="n"/>
+      <c r="M72" s="3" t="n"/>
+      <c r="Q72" s="3" t="n"/>
+      <c r="R72" s="3" t="n"/>
+      <c r="S72" s="3" t="n"/>
+      <c r="T72" s="3" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
@@ -2384,22 +2883,29 @@
           <t>Giovanni's Charisma - 204/165</t>
         </is>
       </c>
-      <c r="B73" s="3" t="inlineStr">
+      <c r="B73" s="3" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="C73" s="3" t="inlineStr"/>
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>special illustration rare</t>
         </is>
       </c>
-      <c r="C73" s="3" t="n">
+      <c r="E73" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="D73" s="3" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="E73" s="3" t="inlineStr"/>
-      <c r="F73" s="3">
-        <f>IF(B73="common", 4, IF(B73="uncommon", 3, IF(B73="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F73" s="3" t="n"/>
+      <c r="G73" s="3" t="n"/>
+      <c r="H73" s="3" t="n"/>
+      <c r="I73" s="3" t="n"/>
+      <c r="J73" s="3" t="n"/>
+      <c r="L73" s="3" t="n"/>
+      <c r="M73" s="3" t="n"/>
+      <c r="Q73" s="3" t="n"/>
+      <c r="R73" s="3" t="n"/>
+      <c r="S73" s="3" t="n"/>
+      <c r="T73" s="3" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
@@ -2407,24 +2913,31 @@
           <t>Gloom</t>
         </is>
       </c>
-      <c r="B74" s="3" t="inlineStr">
+      <c r="B74" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C74" s="3" t="n">
+      <c r="E74" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D74" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E74" s="3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F74" s="3">
-        <f>IF(B74="common", 4, IF(B74="uncommon", 3, IF(B74="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F74" s="3" t="n"/>
+      <c r="G74" s="3" t="n"/>
+      <c r="H74" s="3" t="n"/>
+      <c r="I74" s="3" t="n"/>
+      <c r="J74" s="3" t="n"/>
+      <c r="L74" s="3" t="n"/>
+      <c r="M74" s="3" t="n"/>
+      <c r="Q74" s="3" t="n"/>
+      <c r="R74" s="3" t="n"/>
+      <c r="S74" s="3" t="n"/>
+      <c r="T74" s="3" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
@@ -2432,24 +2945,31 @@
           <t>Golbat</t>
         </is>
       </c>
-      <c r="B75" s="3" t="inlineStr">
+      <c r="B75" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C75" s="3" t="n">
+      <c r="E75" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D75" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E75" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F75" s="3">
-        <f>IF(B75="common", 4, IF(B75="uncommon", 3, IF(B75="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F75" s="3" t="n"/>
+      <c r="G75" s="3" t="n"/>
+      <c r="H75" s="3" t="n"/>
+      <c r="I75" s="3" t="n"/>
+      <c r="J75" s="3" t="n"/>
+      <c r="L75" s="3" t="n"/>
+      <c r="M75" s="3" t="n"/>
+      <c r="Q75" s="3" t="n"/>
+      <c r="R75" s="3" t="n"/>
+      <c r="S75" s="3" t="n"/>
+      <c r="T75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
@@ -2457,24 +2977,31 @@
           <t>Goldeen</t>
         </is>
       </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="B76" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C76" s="3" t="n">
+      <c r="E76" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D76" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E76" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F76" s="3">
-        <f>IF(B76="common", 4, IF(B76="uncommon", 3, IF(B76="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F76" s="3" t="n"/>
+      <c r="G76" s="3" t="n"/>
+      <c r="H76" s="3" t="n"/>
+      <c r="I76" s="3" t="n"/>
+      <c r="J76" s="3" t="n"/>
+      <c r="L76" s="3" t="n"/>
+      <c r="M76" s="3" t="n"/>
+      <c r="Q76" s="3" t="n"/>
+      <c r="R76" s="3" t="n"/>
+      <c r="S76" s="3" t="n"/>
+      <c r="T76" s="3" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
@@ -2482,24 +3009,31 @@
           <t>Golduck</t>
         </is>
       </c>
-      <c r="B77" s="3" t="inlineStr">
+      <c r="B77" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C77" s="3" t="n">
+      <c r="E77" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D77" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E77" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F77" s="3">
-        <f>IF(B77="common", 4, IF(B77="uncommon", 3, IF(B77="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F77" s="3" t="n"/>
+      <c r="G77" s="3" t="n"/>
+      <c r="H77" s="3" t="n"/>
+      <c r="I77" s="3" t="n"/>
+      <c r="J77" s="3" t="n"/>
+      <c r="L77" s="3" t="n"/>
+      <c r="M77" s="3" t="n"/>
+      <c r="Q77" s="3" t="n"/>
+      <c r="R77" s="3" t="n"/>
+      <c r="S77" s="3" t="n"/>
+      <c r="T77" s="3" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
@@ -2507,22 +3041,29 @@
           <t>Golem ex - 076/165</t>
         </is>
       </c>
-      <c r="B78" s="3" t="inlineStr">
+      <c r="B78" s="3" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C78" s="3" t="inlineStr"/>
+      <c r="D78" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C78" s="3" t="n">
+      <c r="E78" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D78" s="3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="E78" s="3" t="inlineStr"/>
-      <c r="F78" s="3">
-        <f>IF(B78="common", 4, IF(B78="uncommon", 3, IF(B78="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F78" s="3" t="n"/>
+      <c r="G78" s="3" t="n"/>
+      <c r="H78" s="3" t="n"/>
+      <c r="I78" s="3" t="n"/>
+      <c r="J78" s="3" t="n"/>
+      <c r="L78" s="3" t="n"/>
+      <c r="M78" s="3" t="n"/>
+      <c r="Q78" s="3" t="n"/>
+      <c r="R78" s="3" t="n"/>
+      <c r="S78" s="3" t="n"/>
+      <c r="T78" s="3" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
@@ -2530,22 +3071,29 @@
           <t>Golem ex - 189/165</t>
         </is>
       </c>
-      <c r="B79" s="3" t="inlineStr">
+      <c r="B79" s="3" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C79" s="3" t="inlineStr"/>
+      <c r="D79" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C79" s="3" t="n">
+      <c r="E79" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D79" s="3" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="E79" s="3" t="inlineStr"/>
-      <c r="F79" s="3">
-        <f>IF(B79="common", 4, IF(B79="uncommon", 3, IF(B79="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F79" s="3" t="n"/>
+      <c r="G79" s="3" t="n"/>
+      <c r="H79" s="3" t="n"/>
+      <c r="I79" s="3" t="n"/>
+      <c r="J79" s="3" t="n"/>
+      <c r="L79" s="3" t="n"/>
+      <c r="M79" s="3" t="n"/>
+      <c r="Q79" s="3" t="n"/>
+      <c r="R79" s="3" t="n"/>
+      <c r="S79" s="3" t="n"/>
+      <c r="T79" s="3" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
@@ -2553,24 +3101,31 @@
           <t>Grabber</t>
         </is>
       </c>
-      <c r="B80" s="3" t="inlineStr">
+      <c r="B80" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C80" s="3" t="n">
+      <c r="E80" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D80" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E80" s="3" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F80" s="3">
-        <f>IF(B80="common", 4, IF(B80="uncommon", 3, IF(B80="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F80" s="3" t="n"/>
+      <c r="G80" s="3" t="n"/>
+      <c r="H80" s="3" t="n"/>
+      <c r="I80" s="3" t="n"/>
+      <c r="J80" s="3" t="n"/>
+      <c r="L80" s="3" t="n"/>
+      <c r="M80" s="3" t="n"/>
+      <c r="Q80" s="3" t="n"/>
+      <c r="R80" s="3" t="n"/>
+      <c r="S80" s="3" t="n"/>
+      <c r="T80" s="3" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
@@ -2578,24 +3133,31 @@
           <t>Graveler</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B81" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C81" s="3" t="n">
+      <c r="E81" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D81" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E81" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F81" s="3">
-        <f>IF(B81="common", 4, IF(B81="uncommon", 3, IF(B81="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F81" s="3" t="n"/>
+      <c r="G81" s="3" t="n"/>
+      <c r="H81" s="3" t="n"/>
+      <c r="I81" s="3" t="n"/>
+      <c r="J81" s="3" t="n"/>
+      <c r="L81" s="3" t="n"/>
+      <c r="M81" s="3" t="n"/>
+      <c r="Q81" s="3" t="n"/>
+      <c r="R81" s="3" t="n"/>
+      <c r="S81" s="3" t="n"/>
+      <c r="T81" s="3" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
@@ -2603,24 +3165,31 @@
           <t>Grimer</t>
         </is>
       </c>
-      <c r="B82" s="3" t="inlineStr">
+      <c r="B82" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C82" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C82" s="3" t="n">
+      <c r="E82" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D82" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E82" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F82" s="3">
-        <f>IF(B82="common", 4, IF(B82="uncommon", 3, IF(B82="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F82" s="3" t="n"/>
+      <c r="G82" s="3" t="n"/>
+      <c r="H82" s="3" t="n"/>
+      <c r="I82" s="3" t="n"/>
+      <c r="J82" s="3" t="n"/>
+      <c r="L82" s="3" t="n"/>
+      <c r="M82" s="3" t="n"/>
+      <c r="Q82" s="3" t="n"/>
+      <c r="R82" s="3" t="n"/>
+      <c r="S82" s="3" t="n"/>
+      <c r="T82" s="3" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
@@ -2628,24 +3197,31 @@
           <t>Growlithe</t>
         </is>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B83" s="3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C83" s="3" t="n">
+      <c r="E83" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D83" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E83" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F83" s="3">
-        <f>IF(B83="common", 4, IF(B83="uncommon", 3, IF(B83="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F83" s="3" t="n"/>
+      <c r="G83" s="3" t="n"/>
+      <c r="H83" s="3" t="n"/>
+      <c r="I83" s="3" t="n"/>
+      <c r="J83" s="3" t="n"/>
+      <c r="L83" s="3" t="n"/>
+      <c r="M83" s="3" t="n"/>
+      <c r="Q83" s="3" t="n"/>
+      <c r="R83" s="3" t="n"/>
+      <c r="S83" s="3" t="n"/>
+      <c r="T83" s="3" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
@@ -2653,24 +3229,31 @@
           <t>Gyarados</t>
         </is>
       </c>
-      <c r="B84" s="3" t="inlineStr">
+      <c r="B84" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C84" s="3" t="n">
+      <c r="E84" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D84" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E84" s="3" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F84" s="3">
-        <f>IF(B84="common", 4, IF(B84="uncommon", 3, IF(B84="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F84" s="3" t="n"/>
+      <c r="G84" s="3" t="n"/>
+      <c r="H84" s="3" t="n"/>
+      <c r="I84" s="3" t="n"/>
+      <c r="J84" s="3" t="n"/>
+      <c r="L84" s="3" t="n"/>
+      <c r="M84" s="3" t="n"/>
+      <c r="Q84" s="3" t="n"/>
+      <c r="R84" s="3" t="n"/>
+      <c r="S84" s="3" t="n"/>
+      <c r="T84" s="3" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
@@ -2678,24 +3261,31 @@
           <t>Haunter</t>
         </is>
       </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="B85" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C85" s="3" t="n">
+      <c r="E85" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D85" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E85" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F85" s="3">
-        <f>IF(B85="common", 4, IF(B85="uncommon", 3, IF(B85="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F85" s="3" t="n"/>
+      <c r="G85" s="3" t="n"/>
+      <c r="H85" s="3" t="n"/>
+      <c r="I85" s="3" t="n"/>
+      <c r="J85" s="3" t="n"/>
+      <c r="L85" s="3" t="n"/>
+      <c r="M85" s="3" t="n"/>
+      <c r="Q85" s="3" t="n"/>
+      <c r="R85" s="3" t="n"/>
+      <c r="S85" s="3" t="n"/>
+      <c r="T85" s="3" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
@@ -2703,24 +3293,31 @@
           <t>Hitmonchan</t>
         </is>
       </c>
-      <c r="B86" s="3" t="inlineStr">
+      <c r="B86" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C86" s="3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C86" s="3" t="n">
+      <c r="E86" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D86" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E86" s="3" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="F86" s="3">
-        <f>IF(B86="common", 4, IF(B86="uncommon", 3, IF(B86="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F86" s="3" t="n"/>
+      <c r="G86" s="3" t="n"/>
+      <c r="H86" s="3" t="n"/>
+      <c r="I86" s="3" t="n"/>
+      <c r="J86" s="3" t="n"/>
+      <c r="L86" s="3" t="n"/>
+      <c r="M86" s="3" t="n"/>
+      <c r="Q86" s="3" t="n"/>
+      <c r="R86" s="3" t="n"/>
+      <c r="S86" s="3" t="n"/>
+      <c r="T86" s="3" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
@@ -2728,24 +3325,31 @@
           <t>Hitmonlee</t>
         </is>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B87" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C87" s="3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C87" s="3" t="n">
+      <c r="E87" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D87" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E87" s="3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="F87" s="3">
-        <f>IF(B87="common", 4, IF(B87="uncommon", 3, IF(B87="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F87" s="3" t="n"/>
+      <c r="G87" s="3" t="n"/>
+      <c r="H87" s="3" t="n"/>
+      <c r="I87" s="3" t="n"/>
+      <c r="J87" s="3" t="n"/>
+      <c r="L87" s="3" t="n"/>
+      <c r="M87" s="3" t="n"/>
+      <c r="Q87" s="3" t="n"/>
+      <c r="R87" s="3" t="n"/>
+      <c r="S87" s="3" t="n"/>
+      <c r="T87" s="3" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
@@ -2753,24 +3357,31 @@
           <t>Horsea</t>
         </is>
       </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="B88" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C88" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C88" s="3" t="n">
+      <c r="E88" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D88" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E88" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F88" s="3">
-        <f>IF(B88="common", 4, IF(B88="uncommon", 3, IF(B88="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F88" s="3" t="n"/>
+      <c r="G88" s="3" t="n"/>
+      <c r="H88" s="3" t="n"/>
+      <c r="I88" s="3" t="n"/>
+      <c r="J88" s="3" t="n"/>
+      <c r="L88" s="3" t="n"/>
+      <c r="M88" s="3" t="n"/>
+      <c r="Q88" s="3" t="n"/>
+      <c r="R88" s="3" t="n"/>
+      <c r="S88" s="3" t="n"/>
+      <c r="T88" s="3" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
@@ -2778,24 +3389,31 @@
           <t>Hypno</t>
         </is>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="B89" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C89" s="3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C89" s="3" t="n">
+      <c r="E89" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D89" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E89" s="3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="F89" s="3">
-        <f>IF(B89="common", 4, IF(B89="uncommon", 3, IF(B89="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F89" s="3" t="n"/>
+      <c r="G89" s="3" t="n"/>
+      <c r="H89" s="3" t="n"/>
+      <c r="I89" s="3" t="n"/>
+      <c r="J89" s="3" t="n"/>
+      <c r="L89" s="3" t="n"/>
+      <c r="M89" s="3" t="n"/>
+      <c r="Q89" s="3" t="n"/>
+      <c r="R89" s="3" t="n"/>
+      <c r="S89" s="3" t="n"/>
+      <c r="T89" s="3" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
@@ -2803,24 +3421,31 @@
           <t>Ivysaur - 002/165</t>
         </is>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B90" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C90" s="3" t="n">
+      <c r="E90" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D90" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E90" s="3" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F90" s="3">
-        <f>IF(B90="common", 4, IF(B90="uncommon", 3, IF(B90="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F90" s="3" t="n"/>
+      <c r="G90" s="3" t="n"/>
+      <c r="H90" s="3" t="n"/>
+      <c r="I90" s="3" t="n"/>
+      <c r="J90" s="3" t="n"/>
+      <c r="L90" s="3" t="n"/>
+      <c r="M90" s="3" t="n"/>
+      <c r="Q90" s="3" t="n"/>
+      <c r="R90" s="3" t="n"/>
+      <c r="S90" s="3" t="n"/>
+      <c r="T90" s="3" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
@@ -2828,22 +3453,29 @@
           <t>Ivysaur - 167/165</t>
         </is>
       </c>
-      <c r="B91" s="3" t="inlineStr">
+      <c r="B91" s="3" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C91" s="3" t="inlineStr"/>
+      <c r="D91" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C91" s="3" t="n">
+      <c r="E91" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D91" s="3" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="E91" s="3" t="inlineStr"/>
-      <c r="F91" s="3">
-        <f>IF(B91="common", 4, IF(B91="uncommon", 3, IF(B91="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F91" s="3" t="n"/>
+      <c r="G91" s="3" t="n"/>
+      <c r="H91" s="3" t="n"/>
+      <c r="I91" s="3" t="n"/>
+      <c r="J91" s="3" t="n"/>
+      <c r="L91" s="3" t="n"/>
+      <c r="M91" s="3" t="n"/>
+      <c r="Q91" s="3" t="n"/>
+      <c r="R91" s="3" t="n"/>
+      <c r="S91" s="3" t="n"/>
+      <c r="T91" s="3" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
@@ -2851,24 +3483,31 @@
           <t>Jigglypuff</t>
         </is>
       </c>
-      <c r="B92" s="3" t="inlineStr">
+      <c r="B92" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C92" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C92" s="3" t="n">
+      <c r="E92" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D92" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E92" s="3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F92" s="3">
-        <f>IF(B92="common", 4, IF(B92="uncommon", 3, IF(B92="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F92" s="3" t="n"/>
+      <c r="G92" s="3" t="n"/>
+      <c r="H92" s="3" t="n"/>
+      <c r="I92" s="3" t="n"/>
+      <c r="J92" s="3" t="n"/>
+      <c r="L92" s="3" t="n"/>
+      <c r="M92" s="3" t="n"/>
+      <c r="Q92" s="3" t="n"/>
+      <c r="R92" s="3" t="n"/>
+      <c r="S92" s="3" t="n"/>
+      <c r="T92" s="3" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
@@ -2876,24 +3515,31 @@
           <t>Jolteon</t>
         </is>
       </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="B93" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C93" s="3" t="n">
+      <c r="E93" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D93" s="3" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E93" s="3" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F93" s="3">
-        <f>IF(B93="common", 4, IF(B93="uncommon", 3, IF(B93="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F93" s="3" t="n"/>
+      <c r="G93" s="3" t="n"/>
+      <c r="H93" s="3" t="n"/>
+      <c r="I93" s="3" t="n"/>
+      <c r="J93" s="3" t="n"/>
+      <c r="L93" s="3" t="n"/>
+      <c r="M93" s="3" t="n"/>
+      <c r="Q93" s="3" t="n"/>
+      <c r="R93" s="3" t="n"/>
+      <c r="S93" s="3" t="n"/>
+      <c r="T93" s="3" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
@@ -2901,22 +3547,29 @@
           <t>Jynx ex - 124/165</t>
         </is>
       </c>
-      <c r="B94" s="3" t="inlineStr">
+      <c r="B94" s="3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C94" s="3" t="inlineStr"/>
+      <c r="D94" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C94" s="3" t="n">
+      <c r="E94" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D94" s="3" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E94" s="3" t="inlineStr"/>
-      <c r="F94" s="3">
-        <f>IF(B94="common", 4, IF(B94="uncommon", 3, IF(B94="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F94" s="3" t="n"/>
+      <c r="G94" s="3" t="n"/>
+      <c r="H94" s="3" t="n"/>
+      <c r="I94" s="3" t="n"/>
+      <c r="J94" s="3" t="n"/>
+      <c r="L94" s="3" t="n"/>
+      <c r="M94" s="3" t="n"/>
+      <c r="Q94" s="3" t="n"/>
+      <c r="R94" s="3" t="n"/>
+      <c r="S94" s="3" t="n"/>
+      <c r="T94" s="3" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
@@ -2924,22 +3577,29 @@
           <t>Jynx ex - 191/165</t>
         </is>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="B95" s="3" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="C95" s="3" t="inlineStr"/>
+      <c r="D95" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C95" s="3" t="n">
+      <c r="E95" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D95" s="3" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E95" s="3" t="inlineStr"/>
-      <c r="F95" s="3">
-        <f>IF(B95="common", 4, IF(B95="uncommon", 3, IF(B95="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F95" s="3" t="n"/>
+      <c r="G95" s="3" t="n"/>
+      <c r="H95" s="3" t="n"/>
+      <c r="I95" s="3" t="n"/>
+      <c r="J95" s="3" t="n"/>
+      <c r="L95" s="3" t="n"/>
+      <c r="M95" s="3" t="n"/>
+      <c r="Q95" s="3" t="n"/>
+      <c r="R95" s="3" t="n"/>
+      <c r="S95" s="3" t="n"/>
+      <c r="T95" s="3" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
@@ -2947,24 +3607,31 @@
           <t>Kabuto</t>
         </is>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B96" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C96" s="3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C96" s="3" t="n">
+      <c r="E96" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D96" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E96" s="3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="F96" s="3">
-        <f>IF(B96="common", 4, IF(B96="uncommon", 3, IF(B96="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F96" s="3" t="n"/>
+      <c r="G96" s="3" t="n"/>
+      <c r="H96" s="3" t="n"/>
+      <c r="I96" s="3" t="n"/>
+      <c r="J96" s="3" t="n"/>
+      <c r="L96" s="3" t="n"/>
+      <c r="M96" s="3" t="n"/>
+      <c r="Q96" s="3" t="n"/>
+      <c r="R96" s="3" t="n"/>
+      <c r="S96" s="3" t="n"/>
+      <c r="T96" s="3" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
@@ -2972,24 +3639,31 @@
           <t>Kabutops</t>
         </is>
       </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="B97" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C97" s="3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C97" s="3" t="n">
+      <c r="E97" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D97" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E97" s="3" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F97" s="3">
-        <f>IF(B97="common", 4, IF(B97="uncommon", 3, IF(B97="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F97" s="3" t="n"/>
+      <c r="G97" s="3" t="n"/>
+      <c r="H97" s="3" t="n"/>
+      <c r="I97" s="3" t="n"/>
+      <c r="J97" s="3" t="n"/>
+      <c r="L97" s="3" t="n"/>
+      <c r="M97" s="3" t="n"/>
+      <c r="Q97" s="3" t="n"/>
+      <c r="R97" s="3" t="n"/>
+      <c r="S97" s="3" t="n"/>
+      <c r="T97" s="3" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
@@ -2997,24 +3671,31 @@
           <t>Kadabra</t>
         </is>
       </c>
-      <c r="B98" s="3" t="inlineStr">
+      <c r="B98" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C98" s="3" t="n">
+      <c r="E98" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D98" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E98" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F98" s="3">
-        <f>IF(B98="common", 4, IF(B98="uncommon", 3, IF(B98="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F98" s="3" t="n"/>
+      <c r="G98" s="3" t="n"/>
+      <c r="H98" s="3" t="n"/>
+      <c r="I98" s="3" t="n"/>
+      <c r="J98" s="3" t="n"/>
+      <c r="L98" s="3" t="n"/>
+      <c r="M98" s="3" t="n"/>
+      <c r="Q98" s="3" t="n"/>
+      <c r="R98" s="3" t="n"/>
+      <c r="S98" s="3" t="n"/>
+      <c r="T98" s="3" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
@@ -3022,24 +3703,31 @@
           <t>Kakuna</t>
         </is>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="B99" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C99" s="3" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C99" s="3" t="n">
+      <c r="E99" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D99" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E99" s="3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="F99" s="3">
-        <f>IF(B99="common", 4, IF(B99="uncommon", 3, IF(B99="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F99" s="3" t="n"/>
+      <c r="G99" s="3" t="n"/>
+      <c r="H99" s="3" t="n"/>
+      <c r="I99" s="3" t="n"/>
+      <c r="J99" s="3" t="n"/>
+      <c r="L99" s="3" t="n"/>
+      <c r="M99" s="3" t="n"/>
+      <c r="Q99" s="3" t="n"/>
+      <c r="R99" s="3" t="n"/>
+      <c r="S99" s="3" t="n"/>
+      <c r="T99" s="3" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
@@ -3047,22 +3735,29 @@
           <t>Kangaskhan ex - 115/165</t>
         </is>
       </c>
-      <c r="B100" s="3" t="inlineStr">
+      <c r="B100" s="3" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C100" s="3" t="inlineStr"/>
+      <c r="D100" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C100" s="3" t="n">
+      <c r="E100" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D100" s="3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E100" s="3" t="inlineStr"/>
-      <c r="F100" s="3">
-        <f>IF(B100="common", 4, IF(B100="uncommon", 3, IF(B100="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F100" s="3" t="n"/>
+      <c r="G100" s="3" t="n"/>
+      <c r="H100" s="3" t="n"/>
+      <c r="I100" s="3" t="n"/>
+      <c r="J100" s="3" t="n"/>
+      <c r="L100" s="3" t="n"/>
+      <c r="M100" s="3" t="n"/>
+      <c r="Q100" s="3" t="n"/>
+      <c r="R100" s="3" t="n"/>
+      <c r="S100" s="3" t="n"/>
+      <c r="T100" s="3" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
@@ -3070,22 +3765,29 @@
           <t>Kangaskhan ex - 190/165</t>
         </is>
       </c>
-      <c r="B101" s="3" t="inlineStr">
+      <c r="B101" s="3" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C101" s="3" t="inlineStr"/>
+      <c r="D101" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C101" s="3" t="n">
+      <c r="E101" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D101" s="3" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="E101" s="3" t="inlineStr"/>
-      <c r="F101" s="3">
-        <f>IF(B101="common", 4, IF(B101="uncommon", 3, IF(B101="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F101" s="3" t="n"/>
+      <c r="G101" s="3" t="n"/>
+      <c r="H101" s="3" t="n"/>
+      <c r="I101" s="3" t="n"/>
+      <c r="J101" s="3" t="n"/>
+      <c r="L101" s="3" t="n"/>
+      <c r="M101" s="3" t="n"/>
+      <c r="Q101" s="3" t="n"/>
+      <c r="R101" s="3" t="n"/>
+      <c r="S101" s="3" t="n"/>
+      <c r="T101" s="3" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
@@ -3093,24 +3795,31 @@
           <t>Kingler</t>
         </is>
       </c>
-      <c r="B102" s="3" t="inlineStr">
+      <c r="B102" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C102" s="3" t="n">
+      <c r="E102" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D102" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E102" s="3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="F102" s="3">
-        <f>IF(B102="common", 4, IF(B102="uncommon", 3, IF(B102="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F102" s="3" t="n"/>
+      <c r="G102" s="3" t="n"/>
+      <c r="H102" s="3" t="n"/>
+      <c r="I102" s="3" t="n"/>
+      <c r="J102" s="3" t="n"/>
+      <c r="L102" s="3" t="n"/>
+      <c r="M102" s="3" t="n"/>
+      <c r="Q102" s="3" t="n"/>
+      <c r="R102" s="3" t="n"/>
+      <c r="S102" s="3" t="n"/>
+      <c r="T102" s="3" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
@@ -3118,24 +3827,31 @@
           <t>Koffing</t>
         </is>
       </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="B103" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C103" s="3" t="n">
+      <c r="E103" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D103" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E103" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F103" s="3">
-        <f>IF(B103="common", 4, IF(B103="uncommon", 3, IF(B103="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F103" s="3" t="n"/>
+      <c r="G103" s="3" t="n"/>
+      <c r="H103" s="3" t="n"/>
+      <c r="I103" s="3" t="n"/>
+      <c r="J103" s="3" t="n"/>
+      <c r="L103" s="3" t="n"/>
+      <c r="M103" s="3" t="n"/>
+      <c r="Q103" s="3" t="n"/>
+      <c r="R103" s="3" t="n"/>
+      <c r="S103" s="3" t="n"/>
+      <c r="T103" s="3" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
@@ -3143,24 +3859,31 @@
           <t>Krabby</t>
         </is>
       </c>
-      <c r="B104" s="3" t="inlineStr">
+      <c r="B104" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C104" s="3" t="n">
+      <c r="E104" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D104" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E104" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F104" s="3">
-        <f>IF(B104="common", 4, IF(B104="uncommon", 3, IF(B104="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F104" s="3" t="n"/>
+      <c r="G104" s="3" t="n"/>
+      <c r="H104" s="3" t="n"/>
+      <c r="I104" s="3" t="n"/>
+      <c r="J104" s="3" t="n"/>
+      <c r="L104" s="3" t="n"/>
+      <c r="M104" s="3" t="n"/>
+      <c r="Q104" s="3" t="n"/>
+      <c r="R104" s="3" t="n"/>
+      <c r="S104" s="3" t="n"/>
+      <c r="T104" s="3" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
@@ -3168,24 +3891,31 @@
           <t>Lapras</t>
         </is>
       </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="B105" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C105" s="3" t="n">
+      <c r="E105" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D105" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E105" s="3" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F105" s="3">
-        <f>IF(B105="common", 4, IF(B105="uncommon", 3, IF(B105="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F105" s="3" t="n"/>
+      <c r="G105" s="3" t="n"/>
+      <c r="H105" s="3" t="n"/>
+      <c r="I105" s="3" t="n"/>
+      <c r="J105" s="3" t="n"/>
+      <c r="L105" s="3" t="n"/>
+      <c r="M105" s="3" t="n"/>
+      <c r="Q105" s="3" t="n"/>
+      <c r="R105" s="3" t="n"/>
+      <c r="S105" s="3" t="n"/>
+      <c r="T105" s="3" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
@@ -3193,24 +3923,31 @@
           <t>Leftovers</t>
         </is>
       </c>
-      <c r="B106" s="3" t="inlineStr">
+      <c r="B106" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C106" s="3" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C106" s="3" t="n">
+      <c r="E106" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D106" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E106" s="3" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F106" s="3">
-        <f>IF(B106="common", 4, IF(B106="uncommon", 3, IF(B106="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F106" s="3" t="n"/>
+      <c r="G106" s="3" t="n"/>
+      <c r="H106" s="3" t="n"/>
+      <c r="I106" s="3" t="n"/>
+      <c r="J106" s="3" t="n"/>
+      <c r="L106" s="3" t="n"/>
+      <c r="M106" s="3" t="n"/>
+      <c r="Q106" s="3" t="n"/>
+      <c r="R106" s="3" t="n"/>
+      <c r="S106" s="3" t="n"/>
+      <c r="T106" s="3" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
@@ -3218,24 +3955,31 @@
           <t>Lickitung</t>
         </is>
       </c>
-      <c r="B107" s="3" t="inlineStr">
+      <c r="B107" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C107" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C107" s="3" t="n">
+      <c r="E107" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D107" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E107" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F107" s="3">
-        <f>IF(B107="common", 4, IF(B107="uncommon", 3, IF(B107="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F107" s="3" t="n"/>
+      <c r="G107" s="3" t="n"/>
+      <c r="H107" s="3" t="n"/>
+      <c r="I107" s="3" t="n"/>
+      <c r="J107" s="3" t="n"/>
+      <c r="L107" s="3" t="n"/>
+      <c r="M107" s="3" t="n"/>
+      <c r="Q107" s="3" t="n"/>
+      <c r="R107" s="3" t="n"/>
+      <c r="S107" s="3" t="n"/>
+      <c r="T107" s="3" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
@@ -3243,24 +3987,31 @@
           <t>Machamp</t>
         </is>
       </c>
-      <c r="B108" s="3" t="inlineStr">
+      <c r="B108" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C108" s="3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C108" s="3" t="n">
+      <c r="E108" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D108" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E108" s="3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F108" s="3">
-        <f>IF(B108="common", 4, IF(B108="uncommon", 3, IF(B108="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F108" s="3" t="n"/>
+      <c r="G108" s="3" t="n"/>
+      <c r="H108" s="3" t="n"/>
+      <c r="I108" s="3" t="n"/>
+      <c r="J108" s="3" t="n"/>
+      <c r="L108" s="3" t="n"/>
+      <c r="M108" s="3" t="n"/>
+      <c r="Q108" s="3" t="n"/>
+      <c r="R108" s="3" t="n"/>
+      <c r="S108" s="3" t="n"/>
+      <c r="T108" s="3" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
@@ -3268,24 +4019,31 @@
           <t>Machoke - 067/165</t>
         </is>
       </c>
-      <c r="B109" s="3" t="inlineStr">
+      <c r="B109" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C109" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C109" s="3" t="n">
+      <c r="E109" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D109" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E109" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F109" s="3">
-        <f>IF(B109="common", 4, IF(B109="uncommon", 3, IF(B109="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F109" s="3" t="n"/>
+      <c r="G109" s="3" t="n"/>
+      <c r="H109" s="3" t="n"/>
+      <c r="I109" s="3" t="n"/>
+      <c r="J109" s="3" t="n"/>
+      <c r="L109" s="3" t="n"/>
+      <c r="M109" s="3" t="n"/>
+      <c r="Q109" s="3" t="n"/>
+      <c r="R109" s="3" t="n"/>
+      <c r="S109" s="3" t="n"/>
+      <c r="T109" s="3" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
@@ -3293,22 +4051,29 @@
           <t>Machoke - 177/165</t>
         </is>
       </c>
-      <c r="B110" s="3" t="inlineStr">
+      <c r="B110" s="3" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="C110" s="3" t="inlineStr"/>
+      <c r="D110" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C110" s="3" t="n">
+      <c r="E110" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D110" s="3" t="n">
-        <v>11.22</v>
-      </c>
-      <c r="E110" s="3" t="inlineStr"/>
-      <c r="F110" s="3">
-        <f>IF(B110="common", 4, IF(B110="uncommon", 3, IF(B110="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F110" s="3" t="n"/>
+      <c r="G110" s="3" t="n"/>
+      <c r="H110" s="3" t="n"/>
+      <c r="I110" s="3" t="n"/>
+      <c r="J110" s="3" t="n"/>
+      <c r="L110" s="3" t="n"/>
+      <c r="M110" s="3" t="n"/>
+      <c r="Q110" s="3" t="n"/>
+      <c r="R110" s="3" t="n"/>
+      <c r="S110" s="3" t="n"/>
+      <c r="T110" s="3" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
@@ -3316,24 +4081,31 @@
           <t>Machop</t>
         </is>
       </c>
-      <c r="B111" s="3" t="inlineStr">
+      <c r="B111" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C111" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="E111" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D111" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E111" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F111" s="3">
-        <f>IF(B111="common", 4, IF(B111="uncommon", 3, IF(B111="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F111" s="3" t="n"/>
+      <c r="G111" s="3" t="n"/>
+      <c r="H111" s="3" t="n"/>
+      <c r="I111" s="3" t="n"/>
+      <c r="J111" s="3" t="n"/>
+      <c r="L111" s="3" t="n"/>
+      <c r="M111" s="3" t="n"/>
+      <c r="Q111" s="3" t="n"/>
+      <c r="R111" s="3" t="n"/>
+      <c r="S111" s="3" t="n"/>
+      <c r="T111" s="3" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
@@ -3341,24 +4113,31 @@
           <t>Magikarp</t>
         </is>
       </c>
-      <c r="B112" s="3" t="inlineStr">
+      <c r="B112" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C112" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C112" s="3" t="n">
+      <c r="E112" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D112" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E112" s="3" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F112" s="3">
-        <f>IF(B112="common", 4, IF(B112="uncommon", 3, IF(B112="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F112" s="3" t="n"/>
+      <c r="G112" s="3" t="n"/>
+      <c r="H112" s="3" t="n"/>
+      <c r="I112" s="3" t="n"/>
+      <c r="J112" s="3" t="n"/>
+      <c r="L112" s="3" t="n"/>
+      <c r="M112" s="3" t="n"/>
+      <c r="Q112" s="3" t="n"/>
+      <c r="R112" s="3" t="n"/>
+      <c r="S112" s="3" t="n"/>
+      <c r="T112" s="3" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
@@ -3366,24 +4145,31 @@
           <t>Magmar</t>
         </is>
       </c>
-      <c r="B113" s="3" t="inlineStr">
+      <c r="B113" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C113" s="3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C113" s="3" t="n">
+      <c r="E113" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D113" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E113" s="3" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F113" s="3">
-        <f>IF(B113="common", 4, IF(B113="uncommon", 3, IF(B113="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F113" s="3" t="n"/>
+      <c r="G113" s="3" t="n"/>
+      <c r="H113" s="3" t="n"/>
+      <c r="I113" s="3" t="n"/>
+      <c r="J113" s="3" t="n"/>
+      <c r="L113" s="3" t="n"/>
+      <c r="M113" s="3" t="n"/>
+      <c r="Q113" s="3" t="n"/>
+      <c r="R113" s="3" t="n"/>
+      <c r="S113" s="3" t="n"/>
+      <c r="T113" s="3" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
@@ -3391,24 +4177,31 @@
           <t>Magnemite</t>
         </is>
       </c>
-      <c r="B114" s="3" t="inlineStr">
+      <c r="B114" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C114" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C114" s="3" t="n">
+      <c r="E114" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D114" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E114" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F114" s="3">
-        <f>IF(B114="common", 4, IF(B114="uncommon", 3, IF(B114="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F114" s="3" t="n"/>
+      <c r="G114" s="3" t="n"/>
+      <c r="H114" s="3" t="n"/>
+      <c r="I114" s="3" t="n"/>
+      <c r="J114" s="3" t="n"/>
+      <c r="L114" s="3" t="n"/>
+      <c r="M114" s="3" t="n"/>
+      <c r="Q114" s="3" t="n"/>
+      <c r="R114" s="3" t="n"/>
+      <c r="S114" s="3" t="n"/>
+      <c r="T114" s="3" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
@@ -3416,24 +4209,31 @@
           <t>Magneton</t>
         </is>
       </c>
-      <c r="B115" s="3" t="inlineStr">
+      <c r="B115" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C115" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C115" s="3" t="n">
+      <c r="E115" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D115" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E115" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F115" s="3">
-        <f>IF(B115="common", 4, IF(B115="uncommon", 3, IF(B115="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F115" s="3" t="n"/>
+      <c r="G115" s="3" t="n"/>
+      <c r="H115" s="3" t="n"/>
+      <c r="I115" s="3" t="n"/>
+      <c r="J115" s="3" t="n"/>
+      <c r="L115" s="3" t="n"/>
+      <c r="M115" s="3" t="n"/>
+      <c r="Q115" s="3" t="n"/>
+      <c r="R115" s="3" t="n"/>
+      <c r="S115" s="3" t="n"/>
+      <c r="T115" s="3" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
@@ -3441,24 +4241,31 @@
           <t>Mankey</t>
         </is>
       </c>
-      <c r="B116" s="3" t="inlineStr">
+      <c r="B116" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C116" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C116" s="3" t="n">
+      <c r="E116" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D116" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E116" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F116" s="3">
-        <f>IF(B116="common", 4, IF(B116="uncommon", 3, IF(B116="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F116" s="3" t="n"/>
+      <c r="G116" s="3" t="n"/>
+      <c r="H116" s="3" t="n"/>
+      <c r="I116" s="3" t="n"/>
+      <c r="J116" s="3" t="n"/>
+      <c r="L116" s="3" t="n"/>
+      <c r="M116" s="3" t="n"/>
+      <c r="Q116" s="3" t="n"/>
+      <c r="R116" s="3" t="n"/>
+      <c r="S116" s="3" t="n"/>
+      <c r="T116" s="3" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
@@ -3466,24 +4273,31 @@
           <t>Marowak</t>
         </is>
       </c>
-      <c r="B117" s="3" t="inlineStr">
+      <c r="B117" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C117" s="3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C117" s="3" t="n">
+      <c r="E117" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D117" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E117" s="3" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F117" s="3">
-        <f>IF(B117="common", 4, IF(B117="uncommon", 3, IF(B117="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F117" s="3" t="n"/>
+      <c r="G117" s="3" t="n"/>
+      <c r="H117" s="3" t="n"/>
+      <c r="I117" s="3" t="n"/>
+      <c r="J117" s="3" t="n"/>
+      <c r="L117" s="3" t="n"/>
+      <c r="M117" s="3" t="n"/>
+      <c r="Q117" s="3" t="n"/>
+      <c r="R117" s="3" t="n"/>
+      <c r="S117" s="3" t="n"/>
+      <c r="T117" s="3" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
@@ -3491,24 +4305,31 @@
           <t>Meowth</t>
         </is>
       </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="B118" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C118" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C118" s="3" t="n">
+      <c r="E118" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D118" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E118" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F118" s="3">
-        <f>IF(B118="common", 4, IF(B118="uncommon", 3, IF(B118="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F118" s="3" t="n"/>
+      <c r="G118" s="3" t="n"/>
+      <c r="H118" s="3" t="n"/>
+      <c r="I118" s="3" t="n"/>
+      <c r="J118" s="3" t="n"/>
+      <c r="L118" s="3" t="n"/>
+      <c r="M118" s="3" t="n"/>
+      <c r="Q118" s="3" t="n"/>
+      <c r="R118" s="3" t="n"/>
+      <c r="S118" s="3" t="n"/>
+      <c r="T118" s="3" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
@@ -3516,24 +4337,31 @@
           <t>Metapod</t>
         </is>
       </c>
-      <c r="B119" s="3" t="inlineStr">
+      <c r="B119" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C119" s="3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C119" s="3" t="n">
+      <c r="E119" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D119" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E119" s="3" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="F119" s="3">
-        <f>IF(B119="common", 4, IF(B119="uncommon", 3, IF(B119="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F119" s="3" t="n"/>
+      <c r="G119" s="3" t="n"/>
+      <c r="H119" s="3" t="n"/>
+      <c r="I119" s="3" t="n"/>
+      <c r="J119" s="3" t="n"/>
+      <c r="L119" s="3" t="n"/>
+      <c r="M119" s="3" t="n"/>
+      <c r="Q119" s="3" t="n"/>
+      <c r="R119" s="3" t="n"/>
+      <c r="S119" s="3" t="n"/>
+      <c r="T119" s="3" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
@@ -3541,22 +4369,29 @@
           <t>Mew ex - 151/165</t>
         </is>
       </c>
-      <c r="B120" s="3" t="inlineStr">
+      <c r="B120" s="3" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C120" s="3" t="inlineStr"/>
+      <c r="D120" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C120" s="3" t="n">
+      <c r="E120" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D120" s="3" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="E120" s="3" t="inlineStr"/>
-      <c r="F120" s="3">
-        <f>IF(B120="common", 4, IF(B120="uncommon", 3, IF(B120="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F120" s="3" t="n"/>
+      <c r="G120" s="3" t="n"/>
+      <c r="H120" s="3" t="n"/>
+      <c r="I120" s="3" t="n"/>
+      <c r="J120" s="3" t="n"/>
+      <c r="L120" s="3" t="n"/>
+      <c r="M120" s="3" t="n"/>
+      <c r="Q120" s="3" t="n"/>
+      <c r="R120" s="3" t="n"/>
+      <c r="S120" s="3" t="n"/>
+      <c r="T120" s="3" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
@@ -3564,22 +4399,29 @@
           <t>Mew ex - 193/165</t>
         </is>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="B121" s="3" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="C121" s="3" t="inlineStr"/>
+      <c r="D121" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C121" s="3" t="n">
+      <c r="E121" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D121" s="3" t="n">
-        <v>18.71</v>
-      </c>
-      <c r="E121" s="3" t="inlineStr"/>
-      <c r="F121" s="3">
-        <f>IF(B121="common", 4, IF(B121="uncommon", 3, IF(B121="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F121" s="3" t="n"/>
+      <c r="G121" s="3" t="n"/>
+      <c r="H121" s="3" t="n"/>
+      <c r="I121" s="3" t="n"/>
+      <c r="J121" s="3" t="n"/>
+      <c r="L121" s="3" t="n"/>
+      <c r="M121" s="3" t="n"/>
+      <c r="Q121" s="3" t="n"/>
+      <c r="R121" s="3" t="n"/>
+      <c r="S121" s="3" t="n"/>
+      <c r="T121" s="3" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
@@ -3587,22 +4429,29 @@
           <t>Mew ex - 205/165</t>
         </is>
       </c>
-      <c r="B122" s="3" t="inlineStr">
+      <c r="B122" s="3" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="C122" s="3" t="inlineStr"/>
+      <c r="D122" s="3" t="inlineStr">
         <is>
           <t>hyper rare</t>
         </is>
       </c>
-      <c r="C122" s="3" t="n">
+      <c r="E122" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="D122" s="3" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="E122" s="3" t="inlineStr"/>
-      <c r="F122" s="3">
-        <f>IF(B122="common", 4, IF(B122="uncommon", 3, IF(B122="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F122" s="3" t="n"/>
+      <c r="G122" s="3" t="n"/>
+      <c r="H122" s="3" t="n"/>
+      <c r="I122" s="3" t="n"/>
+      <c r="J122" s="3" t="n"/>
+      <c r="L122" s="3" t="n"/>
+      <c r="M122" s="3" t="n"/>
+      <c r="Q122" s="3" t="n"/>
+      <c r="R122" s="3" t="n"/>
+      <c r="S122" s="3" t="n"/>
+      <c r="T122" s="3" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
@@ -3610,22 +4459,29 @@
           <t>Mew ex - 205/165 (151 Metal Card)</t>
         </is>
       </c>
-      <c r="B123" s="3" t="inlineStr">
+      <c r="B123" s="3" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="C123" s="3" t="inlineStr"/>
+      <c r="D123" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C123" s="3" t="n">
+      <c r="E123" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D123" s="3" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="E123" s="3" t="inlineStr"/>
-      <c r="F123" s="3">
-        <f>IF(B123="common", 4, IF(B123="uncommon", 3, IF(B123="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F123" s="3" t="n"/>
+      <c r="G123" s="3" t="n"/>
+      <c r="H123" s="3" t="n"/>
+      <c r="I123" s="3" t="n"/>
+      <c r="J123" s="3" t="n"/>
+      <c r="L123" s="3" t="n"/>
+      <c r="M123" s="3" t="n"/>
+      <c r="Q123" s="3" t="n"/>
+      <c r="R123" s="3" t="n"/>
+      <c r="S123" s="3" t="n"/>
+      <c r="T123" s="3" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
@@ -3633,24 +4489,31 @@
           <t>Mewtwo</t>
         </is>
       </c>
-      <c r="B124" s="3" t="inlineStr">
+      <c r="B124" s="3" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C124" s="3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C124" s="3" t="n">
+      <c r="E124" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D124" s="3" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E124" s="3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F124" s="3">
-        <f>IF(B124="common", 4, IF(B124="uncommon", 3, IF(B124="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F124" s="3" t="n"/>
+      <c r="G124" s="3" t="n"/>
+      <c r="H124" s="3" t="n"/>
+      <c r="I124" s="3" t="n"/>
+      <c r="J124" s="3" t="n"/>
+      <c r="L124" s="3" t="n"/>
+      <c r="M124" s="3" t="n"/>
+      <c r="Q124" s="3" t="n"/>
+      <c r="R124" s="3" t="n"/>
+      <c r="S124" s="3" t="n"/>
+      <c r="T124" s="3" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
@@ -3658,24 +4521,31 @@
           <t>Moltres</t>
         </is>
       </c>
-      <c r="B125" s="3" t="inlineStr">
+      <c r="B125" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C125" s="3" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C125" s="3" t="n">
+      <c r="E125" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D125" s="3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="E125" s="3" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F125" s="3">
-        <f>IF(B125="common", 4, IF(B125="uncommon", 3, IF(B125="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F125" s="3" t="n"/>
+      <c r="G125" s="3" t="n"/>
+      <c r="H125" s="3" t="n"/>
+      <c r="I125" s="3" t="n"/>
+      <c r="J125" s="3" t="n"/>
+      <c r="L125" s="3" t="n"/>
+      <c r="M125" s="3" t="n"/>
+      <c r="Q125" s="3" t="n"/>
+      <c r="R125" s="3" t="n"/>
+      <c r="S125" s="3" t="n"/>
+      <c r="T125" s="3" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
@@ -3683,24 +4553,31 @@
           <t>Mr. Mime - 122/165</t>
         </is>
       </c>
-      <c r="B126" s="3" t="inlineStr">
+      <c r="B126" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C126" s="3" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C126" s="3" t="n">
+      <c r="E126" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D126" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E126" s="3" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F126" s="3">
-        <f>IF(B126="common", 4, IF(B126="uncommon", 3, IF(B126="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F126" s="3" t="n"/>
+      <c r="G126" s="3" t="n"/>
+      <c r="H126" s="3" t="n"/>
+      <c r="I126" s="3" t="n"/>
+      <c r="J126" s="3" t="n"/>
+      <c r="L126" s="3" t="n"/>
+      <c r="M126" s="3" t="n"/>
+      <c r="Q126" s="3" t="n"/>
+      <c r="R126" s="3" t="n"/>
+      <c r="S126" s="3" t="n"/>
+      <c r="T126" s="3" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
@@ -3708,22 +4585,29 @@
           <t>Mr. Mime - 179/165</t>
         </is>
       </c>
-      <c r="B127" s="3" t="inlineStr">
+      <c r="B127" s="3" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="C127" s="3" t="inlineStr"/>
+      <c r="D127" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C127" s="3" t="n">
+      <c r="E127" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D127" s="3" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="E127" s="3" t="inlineStr"/>
-      <c r="F127" s="3">
-        <f>IF(B127="common", 4, IF(B127="uncommon", 3, IF(B127="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F127" s="3" t="n"/>
+      <c r="G127" s="3" t="n"/>
+      <c r="H127" s="3" t="n"/>
+      <c r="I127" s="3" t="n"/>
+      <c r="J127" s="3" t="n"/>
+      <c r="L127" s="3" t="n"/>
+      <c r="M127" s="3" t="n"/>
+      <c r="Q127" s="3" t="n"/>
+      <c r="R127" s="3" t="n"/>
+      <c r="S127" s="3" t="n"/>
+      <c r="T127" s="3" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
@@ -3731,24 +4615,31 @@
           <t>Muk</t>
         </is>
       </c>
-      <c r="B128" s="3" t="inlineStr">
+      <c r="B128" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C128" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C128" s="3" t="n">
+      <c r="E128" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D128" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E128" s="3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F128" s="3">
-        <f>IF(B128="common", 4, IF(B128="uncommon", 3, IF(B128="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F128" s="3" t="n"/>
+      <c r="G128" s="3" t="n"/>
+      <c r="H128" s="3" t="n"/>
+      <c r="I128" s="3" t="n"/>
+      <c r="J128" s="3" t="n"/>
+      <c r="L128" s="3" t="n"/>
+      <c r="M128" s="3" t="n"/>
+      <c r="Q128" s="3" t="n"/>
+      <c r="R128" s="3" t="n"/>
+      <c r="S128" s="3" t="n"/>
+      <c r="T128" s="3" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
@@ -3756,24 +4647,31 @@
           <t>Nidoking - 034/165</t>
         </is>
       </c>
-      <c r="B129" s="3" t="inlineStr">
+      <c r="B129" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C129" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C129" s="3" t="n">
+      <c r="E129" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D129" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E129" s="3" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F129" s="3">
-        <f>IF(B129="common", 4, IF(B129="uncommon", 3, IF(B129="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F129" s="3" t="n"/>
+      <c r="G129" s="3" t="n"/>
+      <c r="H129" s="3" t="n"/>
+      <c r="I129" s="3" t="n"/>
+      <c r="J129" s="3" t="n"/>
+      <c r="L129" s="3" t="n"/>
+      <c r="M129" s="3" t="n"/>
+      <c r="Q129" s="3" t="n"/>
+      <c r="R129" s="3" t="n"/>
+      <c r="S129" s="3" t="n"/>
+      <c r="T129" s="3" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
@@ -3781,22 +4679,29 @@
           <t>Nidoking - 174/165</t>
         </is>
       </c>
-      <c r="B130" s="3" t="inlineStr">
+      <c r="B130" s="3" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="C130" s="3" t="inlineStr"/>
+      <c r="D130" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C130" s="3" t="n">
+      <c r="E130" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D130" s="3" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E130" s="3" t="inlineStr"/>
-      <c r="F130" s="3">
-        <f>IF(B130="common", 4, IF(B130="uncommon", 3, IF(B130="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F130" s="3" t="n"/>
+      <c r="G130" s="3" t="n"/>
+      <c r="H130" s="3" t="n"/>
+      <c r="I130" s="3" t="n"/>
+      <c r="J130" s="3" t="n"/>
+      <c r="L130" s="3" t="n"/>
+      <c r="M130" s="3" t="n"/>
+      <c r="Q130" s="3" t="n"/>
+      <c r="R130" s="3" t="n"/>
+      <c r="S130" s="3" t="n"/>
+      <c r="T130" s="3" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
@@ -3804,24 +4709,31 @@
           <t>Nidoqueen</t>
         </is>
       </c>
-      <c r="B131" s="3" t="inlineStr">
+      <c r="B131" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C131" s="3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C131" s="3" t="n">
+      <c r="E131" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D131" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E131" s="3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F131" s="3">
-        <f>IF(B131="common", 4, IF(B131="uncommon", 3, IF(B131="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F131" s="3" t="n"/>
+      <c r="G131" s="3" t="n"/>
+      <c r="H131" s="3" t="n"/>
+      <c r="I131" s="3" t="n"/>
+      <c r="J131" s="3" t="n"/>
+      <c r="L131" s="3" t="n"/>
+      <c r="M131" s="3" t="n"/>
+      <c r="Q131" s="3" t="n"/>
+      <c r="R131" s="3" t="n"/>
+      <c r="S131" s="3" t="n"/>
+      <c r="T131" s="3" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
@@ -3829,24 +4741,31 @@
           <t>Nidoran F</t>
         </is>
       </c>
-      <c r="B132" s="3" t="inlineStr">
+      <c r="B132" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C132" s="3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D132" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C132" s="3" t="n">
+      <c r="E132" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D132" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E132" s="3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="F132" s="3">
-        <f>IF(B132="common", 4, IF(B132="uncommon", 3, IF(B132="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F132" s="3" t="n"/>
+      <c r="G132" s="3" t="n"/>
+      <c r="H132" s="3" t="n"/>
+      <c r="I132" s="3" t="n"/>
+      <c r="J132" s="3" t="n"/>
+      <c r="L132" s="3" t="n"/>
+      <c r="M132" s="3" t="n"/>
+      <c r="Q132" s="3" t="n"/>
+      <c r="R132" s="3" t="n"/>
+      <c r="S132" s="3" t="n"/>
+      <c r="T132" s="3" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
@@ -3854,24 +4773,31 @@
           <t>Nidoran M</t>
         </is>
       </c>
-      <c r="B133" s="3" t="inlineStr">
+      <c r="B133" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C133" s="3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C133" s="3" t="n">
+      <c r="E133" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D133" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E133" s="3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="F133" s="3">
-        <f>IF(B133="common", 4, IF(B133="uncommon", 3, IF(B133="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F133" s="3" t="n"/>
+      <c r="G133" s="3" t="n"/>
+      <c r="H133" s="3" t="n"/>
+      <c r="I133" s="3" t="n"/>
+      <c r="J133" s="3" t="n"/>
+      <c r="L133" s="3" t="n"/>
+      <c r="M133" s="3" t="n"/>
+      <c r="Q133" s="3" t="n"/>
+      <c r="R133" s="3" t="n"/>
+      <c r="S133" s="3" t="n"/>
+      <c r="T133" s="3" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
@@ -3879,24 +4805,31 @@
           <t>Nidorina</t>
         </is>
       </c>
-      <c r="B134" s="3" t="inlineStr">
+      <c r="B134" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C134" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C134" s="3" t="n">
+      <c r="E134" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D134" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E134" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F134" s="3">
-        <f>IF(B134="common", 4, IF(B134="uncommon", 3, IF(B134="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F134" s="3" t="n"/>
+      <c r="G134" s="3" t="n"/>
+      <c r="H134" s="3" t="n"/>
+      <c r="I134" s="3" t="n"/>
+      <c r="J134" s="3" t="n"/>
+      <c r="L134" s="3" t="n"/>
+      <c r="M134" s="3" t="n"/>
+      <c r="Q134" s="3" t="n"/>
+      <c r="R134" s="3" t="n"/>
+      <c r="S134" s="3" t="n"/>
+      <c r="T134" s="3" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
@@ -3904,24 +4837,31 @@
           <t>Nidorino</t>
         </is>
       </c>
-      <c r="B135" s="3" t="inlineStr">
+      <c r="B135" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C135" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C135" s="3" t="n">
+      <c r="E135" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D135" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E135" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F135" s="3">
-        <f>IF(B135="common", 4, IF(B135="uncommon", 3, IF(B135="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F135" s="3" t="n"/>
+      <c r="G135" s="3" t="n"/>
+      <c r="H135" s="3" t="n"/>
+      <c r="I135" s="3" t="n"/>
+      <c r="J135" s="3" t="n"/>
+      <c r="L135" s="3" t="n"/>
+      <c r="M135" s="3" t="n"/>
+      <c r="Q135" s="3" t="n"/>
+      <c r="R135" s="3" t="n"/>
+      <c r="S135" s="3" t="n"/>
+      <c r="T135" s="3" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
@@ -3929,22 +4869,29 @@
           <t>Ninetales ex - 038/165</t>
         </is>
       </c>
-      <c r="B136" s="3" t="inlineStr">
+      <c r="B136" s="3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C136" s="3" t="inlineStr"/>
+      <c r="D136" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C136" s="3" t="n">
+      <c r="E136" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D136" s="3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="E136" s="3" t="inlineStr"/>
-      <c r="F136" s="3">
-        <f>IF(B136="common", 4, IF(B136="uncommon", 3, IF(B136="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F136" s="3" t="n"/>
+      <c r="G136" s="3" t="n"/>
+      <c r="H136" s="3" t="n"/>
+      <c r="I136" s="3" t="n"/>
+      <c r="J136" s="3" t="n"/>
+      <c r="L136" s="3" t="n"/>
+      <c r="M136" s="3" t="n"/>
+      <c r="Q136" s="3" t="n"/>
+      <c r="R136" s="3" t="n"/>
+      <c r="S136" s="3" t="n"/>
+      <c r="T136" s="3" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
@@ -3952,22 +4899,29 @@
           <t>Ninetales ex - 186/165</t>
         </is>
       </c>
-      <c r="B137" s="3" t="inlineStr">
+      <c r="B137" s="3" t="n">
+        <v>6.89</v>
+      </c>
+      <c r="C137" s="3" t="inlineStr"/>
+      <c r="D137" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C137" s="3" t="n">
+      <c r="E137" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D137" s="3" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="E137" s="3" t="inlineStr"/>
-      <c r="F137" s="3">
-        <f>IF(B137="common", 4, IF(B137="uncommon", 3, IF(B137="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F137" s="3" t="n"/>
+      <c r="G137" s="3" t="n"/>
+      <c r="H137" s="3" t="n"/>
+      <c r="I137" s="3" t="n"/>
+      <c r="J137" s="3" t="n"/>
+      <c r="L137" s="3" t="n"/>
+      <c r="M137" s="3" t="n"/>
+      <c r="Q137" s="3" t="n"/>
+      <c r="R137" s="3" t="n"/>
+      <c r="S137" s="3" t="n"/>
+      <c r="T137" s="3" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
@@ -3975,24 +4929,31 @@
           <t>Oddish</t>
         </is>
       </c>
-      <c r="B138" s="3" t="inlineStr">
+      <c r="B138" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C138" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C138" s="3" t="n">
+      <c r="E138" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D138" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E138" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F138" s="3">
-        <f>IF(B138="common", 4, IF(B138="uncommon", 3, IF(B138="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F138" s="3" t="n"/>
+      <c r="G138" s="3" t="n"/>
+      <c r="H138" s="3" t="n"/>
+      <c r="I138" s="3" t="n"/>
+      <c r="J138" s="3" t="n"/>
+      <c r="L138" s="3" t="n"/>
+      <c r="M138" s="3" t="n"/>
+      <c r="Q138" s="3" t="n"/>
+      <c r="R138" s="3" t="n"/>
+      <c r="S138" s="3" t="n"/>
+      <c r="T138" s="3" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
@@ -4000,24 +4961,31 @@
           <t>Omanyte - 138/165</t>
         </is>
       </c>
-      <c r="B139" s="3" t="inlineStr">
+      <c r="B139" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C139" s="3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C139" s="3" t="n">
+      <c r="E139" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D139" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E139" s="3" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="F139" s="3">
-        <f>IF(B139="common", 4, IF(B139="uncommon", 3, IF(B139="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F139" s="3" t="n"/>
+      <c r="G139" s="3" t="n"/>
+      <c r="H139" s="3" t="n"/>
+      <c r="I139" s="3" t="n"/>
+      <c r="J139" s="3" t="n"/>
+      <c r="L139" s="3" t="n"/>
+      <c r="M139" s="3" t="n"/>
+      <c r="Q139" s="3" t="n"/>
+      <c r="R139" s="3" t="n"/>
+      <c r="S139" s="3" t="n"/>
+      <c r="T139" s="3" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
@@ -4025,22 +4993,29 @@
           <t>Omanyte - 180/165</t>
         </is>
       </c>
-      <c r="B140" s="3" t="inlineStr">
+      <c r="B140" s="3" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C140" s="3" t="inlineStr"/>
+      <c r="D140" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C140" s="3" t="n">
+      <c r="E140" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D140" s="3" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="E140" s="3" t="inlineStr"/>
-      <c r="F140" s="3">
-        <f>IF(B140="common", 4, IF(B140="uncommon", 3, IF(B140="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F140" s="3" t="n"/>
+      <c r="G140" s="3" t="n"/>
+      <c r="H140" s="3" t="n"/>
+      <c r="I140" s="3" t="n"/>
+      <c r="J140" s="3" t="n"/>
+      <c r="L140" s="3" t="n"/>
+      <c r="M140" s="3" t="n"/>
+      <c r="Q140" s="3" t="n"/>
+      <c r="R140" s="3" t="n"/>
+      <c r="S140" s="3" t="n"/>
+      <c r="T140" s="3" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
@@ -4048,24 +5023,31 @@
           <t>Omastar</t>
         </is>
       </c>
-      <c r="B141" s="3" t="inlineStr">
+      <c r="B141" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C141" s="3" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C141" s="3" t="n">
+      <c r="E141" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D141" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E141" s="3" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F141" s="3">
-        <f>IF(B141="common", 4, IF(B141="uncommon", 3, IF(B141="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F141" s="3" t="n"/>
+      <c r="G141" s="3" t="n"/>
+      <c r="H141" s="3" t="n"/>
+      <c r="I141" s="3" t="n"/>
+      <c r="J141" s="3" t="n"/>
+      <c r="L141" s="3" t="n"/>
+      <c r="M141" s="3" t="n"/>
+      <c r="Q141" s="3" t="n"/>
+      <c r="R141" s="3" t="n"/>
+      <c r="S141" s="3" t="n"/>
+      <c r="T141" s="3" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
@@ -4073,24 +5055,31 @@
           <t>Onix</t>
         </is>
       </c>
-      <c r="B142" s="3" t="inlineStr">
+      <c r="B142" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C142" s="3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C142" s="3" t="n">
+      <c r="E142" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D142" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E142" s="3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="F142" s="3">
-        <f>IF(B142="common", 4, IF(B142="uncommon", 3, IF(B142="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F142" s="3" t="n"/>
+      <c r="G142" s="3" t="n"/>
+      <c r="H142" s="3" t="n"/>
+      <c r="I142" s="3" t="n"/>
+      <c r="J142" s="3" t="n"/>
+      <c r="L142" s="3" t="n"/>
+      <c r="M142" s="3" t="n"/>
+      <c r="Q142" s="3" t="n"/>
+      <c r="R142" s="3" t="n"/>
+      <c r="S142" s="3" t="n"/>
+      <c r="T142" s="3" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
@@ -4098,24 +5087,31 @@
           <t>Paras</t>
         </is>
       </c>
-      <c r="B143" s="3" t="inlineStr">
+      <c r="B143" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C143" s="3" t="n">
+      <c r="E143" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D143" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E143" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F143" s="3">
-        <f>IF(B143="common", 4, IF(B143="uncommon", 3, IF(B143="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F143" s="3" t="n"/>
+      <c r="G143" s="3" t="n"/>
+      <c r="H143" s="3" t="n"/>
+      <c r="I143" s="3" t="n"/>
+      <c r="J143" s="3" t="n"/>
+      <c r="L143" s="3" t="n"/>
+      <c r="M143" s="3" t="n"/>
+      <c r="Q143" s="3" t="n"/>
+      <c r="R143" s="3" t="n"/>
+      <c r="S143" s="3" t="n"/>
+      <c r="T143" s="3" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
@@ -4123,24 +5119,31 @@
           <t>Parasect</t>
         </is>
       </c>
-      <c r="B144" s="3" t="inlineStr">
+      <c r="B144" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C144" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C144" s="3" t="n">
+      <c r="E144" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D144" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E144" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F144" s="3">
-        <f>IF(B144="common", 4, IF(B144="uncommon", 3, IF(B144="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F144" s="3" t="n"/>
+      <c r="G144" s="3" t="n"/>
+      <c r="H144" s="3" t="n"/>
+      <c r="I144" s="3" t="n"/>
+      <c r="J144" s="3" t="n"/>
+      <c r="L144" s="3" t="n"/>
+      <c r="M144" s="3" t="n"/>
+      <c r="Q144" s="3" t="n"/>
+      <c r="R144" s="3" t="n"/>
+      <c r="S144" s="3" t="n"/>
+      <c r="T144" s="3" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
@@ -4148,24 +5151,31 @@
           <t>Persian</t>
         </is>
       </c>
-      <c r="B145" s="3" t="inlineStr">
+      <c r="B145" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C145" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C145" s="3" t="n">
+      <c r="E145" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D145" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E145" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F145" s="3">
-        <f>IF(B145="common", 4, IF(B145="uncommon", 3, IF(B145="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F145" s="3" t="n"/>
+      <c r="G145" s="3" t="n"/>
+      <c r="H145" s="3" t="n"/>
+      <c r="I145" s="3" t="n"/>
+      <c r="J145" s="3" t="n"/>
+      <c r="L145" s="3" t="n"/>
+      <c r="M145" s="3" t="n"/>
+      <c r="Q145" s="3" t="n"/>
+      <c r="R145" s="3" t="n"/>
+      <c r="S145" s="3" t="n"/>
+      <c r="T145" s="3" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
@@ -4173,24 +5183,31 @@
           <t>Pidgeot</t>
         </is>
       </c>
-      <c r="B146" s="3" t="inlineStr">
+      <c r="B146" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C146" s="3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C146" s="3" t="n">
+      <c r="E146" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D146" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E146" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F146" s="3">
-        <f>IF(B146="common", 4, IF(B146="uncommon", 3, IF(B146="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F146" s="3" t="n"/>
+      <c r="G146" s="3" t="n"/>
+      <c r="H146" s="3" t="n"/>
+      <c r="I146" s="3" t="n"/>
+      <c r="J146" s="3" t="n"/>
+      <c r="L146" s="3" t="n"/>
+      <c r="M146" s="3" t="n"/>
+      <c r="Q146" s="3" t="n"/>
+      <c r="R146" s="3" t="n"/>
+      <c r="S146" s="3" t="n"/>
+      <c r="T146" s="3" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
@@ -4198,24 +5215,31 @@
           <t>Pidgeotto</t>
         </is>
       </c>
-      <c r="B147" s="3" t="inlineStr">
+      <c r="B147" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C147" s="3" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C147" s="3" t="n">
+      <c r="E147" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D147" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E147" s="3" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F147" s="3">
-        <f>IF(B147="common", 4, IF(B147="uncommon", 3, IF(B147="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F147" s="3" t="n"/>
+      <c r="G147" s="3" t="n"/>
+      <c r="H147" s="3" t="n"/>
+      <c r="I147" s="3" t="n"/>
+      <c r="J147" s="3" t="n"/>
+      <c r="L147" s="3" t="n"/>
+      <c r="M147" s="3" t="n"/>
+      <c r="Q147" s="3" t="n"/>
+      <c r="R147" s="3" t="n"/>
+      <c r="S147" s="3" t="n"/>
+      <c r="T147" s="3" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
@@ -4223,24 +5247,31 @@
           <t>Pidgey</t>
         </is>
       </c>
-      <c r="B148" s="3" t="inlineStr">
+      <c r="B148" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C148" s="3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C148" s="3" t="n">
+      <c r="E148" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D148" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E148" s="3" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F148" s="3">
-        <f>IF(B148="common", 4, IF(B148="uncommon", 3, IF(B148="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F148" s="3" t="n"/>
+      <c r="G148" s="3" t="n"/>
+      <c r="H148" s="3" t="n"/>
+      <c r="I148" s="3" t="n"/>
+      <c r="J148" s="3" t="n"/>
+      <c r="L148" s="3" t="n"/>
+      <c r="M148" s="3" t="n"/>
+      <c r="Q148" s="3" t="n"/>
+      <c r="R148" s="3" t="n"/>
+      <c r="S148" s="3" t="n"/>
+      <c r="T148" s="3" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
@@ -4248,24 +5279,31 @@
           <t>Pikachu - 025/165</t>
         </is>
       </c>
-      <c r="B149" s="3" t="inlineStr">
+      <c r="B149" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C149" s="3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C149" s="3" t="n">
+      <c r="E149" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D149" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E149" s="3" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F149" s="3">
-        <f>IF(B149="common", 4, IF(B149="uncommon", 3, IF(B149="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F149" s="3" t="n"/>
+      <c r="G149" s="3" t="n"/>
+      <c r="H149" s="3" t="n"/>
+      <c r="I149" s="3" t="n"/>
+      <c r="J149" s="3" t="n"/>
+      <c r="L149" s="3" t="n"/>
+      <c r="M149" s="3" t="n"/>
+      <c r="Q149" s="3" t="n"/>
+      <c r="R149" s="3" t="n"/>
+      <c r="S149" s="3" t="n"/>
+      <c r="T149" s="3" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
@@ -4273,22 +5311,29 @@
           <t>Pikachu - 173/165</t>
         </is>
       </c>
-      <c r="B150" s="3" t="inlineStr">
+      <c r="B150" s="3" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="C150" s="3" t="inlineStr"/>
+      <c r="D150" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C150" s="3" t="n">
+      <c r="E150" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D150" s="3" t="n">
-        <v>28.78</v>
-      </c>
-      <c r="E150" s="3" t="inlineStr"/>
-      <c r="F150" s="3">
-        <f>IF(B150="common", 4, IF(B150="uncommon", 3, IF(B150="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F150" s="3" t="n"/>
+      <c r="G150" s="3" t="n"/>
+      <c r="H150" s="3" t="n"/>
+      <c r="I150" s="3" t="n"/>
+      <c r="J150" s="3" t="n"/>
+      <c r="L150" s="3" t="n"/>
+      <c r="M150" s="3" t="n"/>
+      <c r="Q150" s="3" t="n"/>
+      <c r="R150" s="3" t="n"/>
+      <c r="S150" s="3" t="n"/>
+      <c r="T150" s="3" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
@@ -4296,24 +5341,31 @@
           <t>Pinsir</t>
         </is>
       </c>
-      <c r="B151" s="3" t="inlineStr">
+      <c r="B151" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C151" s="3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C151" s="3" t="n">
+      <c r="E151" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D151" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E151" s="3" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="F151" s="3">
-        <f>IF(B151="common", 4, IF(B151="uncommon", 3, IF(B151="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F151" s="3" t="n"/>
+      <c r="G151" s="3" t="n"/>
+      <c r="H151" s="3" t="n"/>
+      <c r="I151" s="3" t="n"/>
+      <c r="J151" s="3" t="n"/>
+      <c r="L151" s="3" t="n"/>
+      <c r="M151" s="3" t="n"/>
+      <c r="Q151" s="3" t="n"/>
+      <c r="R151" s="3" t="n"/>
+      <c r="S151" s="3" t="n"/>
+      <c r="T151" s="3" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
@@ -4321,24 +5373,31 @@
           <t>Poliwag</t>
         </is>
       </c>
-      <c r="B152" s="3" t="inlineStr">
+      <c r="B152" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C152" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C152" s="3" t="n">
+      <c r="E152" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D152" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E152" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F152" s="3">
-        <f>IF(B152="common", 4, IF(B152="uncommon", 3, IF(B152="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F152" s="3" t="n"/>
+      <c r="G152" s="3" t="n"/>
+      <c r="H152" s="3" t="n"/>
+      <c r="I152" s="3" t="n"/>
+      <c r="J152" s="3" t="n"/>
+      <c r="L152" s="3" t="n"/>
+      <c r="M152" s="3" t="n"/>
+      <c r="Q152" s="3" t="n"/>
+      <c r="R152" s="3" t="n"/>
+      <c r="S152" s="3" t="n"/>
+      <c r="T152" s="3" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
@@ -4346,24 +5405,31 @@
           <t>Poliwhirl - 061/165</t>
         </is>
       </c>
-      <c r="B153" s="3" t="inlineStr">
+      <c r="B153" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C153" s="3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C153" s="3" t="n">
+      <c r="E153" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D153" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E153" s="3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="F153" s="3">
-        <f>IF(B153="common", 4, IF(B153="uncommon", 3, IF(B153="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F153" s="3" t="n"/>
+      <c r="G153" s="3" t="n"/>
+      <c r="H153" s="3" t="n"/>
+      <c r="I153" s="3" t="n"/>
+      <c r="J153" s="3" t="n"/>
+      <c r="L153" s="3" t="n"/>
+      <c r="M153" s="3" t="n"/>
+      <c r="Q153" s="3" t="n"/>
+      <c r="R153" s="3" t="n"/>
+      <c r="S153" s="3" t="n"/>
+      <c r="T153" s="3" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
@@ -4371,22 +5437,29 @@
           <t>Poliwhirl - 176/165</t>
         </is>
       </c>
-      <c r="B154" s="3" t="inlineStr">
+      <c r="B154" s="3" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="C154" s="3" t="inlineStr"/>
+      <c r="D154" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C154" s="3" t="n">
+      <c r="E154" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D154" s="3" t="n">
-        <v>19.64</v>
-      </c>
-      <c r="E154" s="3" t="inlineStr"/>
-      <c r="F154" s="3">
-        <f>IF(B154="common", 4, IF(B154="uncommon", 3, IF(B154="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F154" s="3" t="n"/>
+      <c r="G154" s="3" t="n"/>
+      <c r="H154" s="3" t="n"/>
+      <c r="I154" s="3" t="n"/>
+      <c r="J154" s="3" t="n"/>
+      <c r="L154" s="3" t="n"/>
+      <c r="M154" s="3" t="n"/>
+      <c r="Q154" s="3" t="n"/>
+      <c r="R154" s="3" t="n"/>
+      <c r="S154" s="3" t="n"/>
+      <c r="T154" s="3" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
@@ -4394,24 +5467,31 @@
           <t>Poliwrath</t>
         </is>
       </c>
-      <c r="B155" s="3" t="inlineStr">
+      <c r="B155" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C155" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C155" s="3" t="n">
+      <c r="E155" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D155" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E155" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F155" s="3">
-        <f>IF(B155="common", 4, IF(B155="uncommon", 3, IF(B155="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F155" s="3" t="n"/>
+      <c r="G155" s="3" t="n"/>
+      <c r="H155" s="3" t="n"/>
+      <c r="I155" s="3" t="n"/>
+      <c r="J155" s="3" t="n"/>
+      <c r="L155" s="3" t="n"/>
+      <c r="M155" s="3" t="n"/>
+      <c r="Q155" s="3" t="n"/>
+      <c r="R155" s="3" t="n"/>
+      <c r="S155" s="3" t="n"/>
+      <c r="T155" s="3" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
@@ -4419,24 +5499,31 @@
           <t>Ponyta</t>
         </is>
       </c>
-      <c r="B156" s="3" t="inlineStr">
+      <c r="B156" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C156" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C156" s="3" t="n">
+      <c r="E156" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D156" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E156" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F156" s="3">
-        <f>IF(B156="common", 4, IF(B156="uncommon", 3, IF(B156="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F156" s="3" t="n"/>
+      <c r="G156" s="3" t="n"/>
+      <c r="H156" s="3" t="n"/>
+      <c r="I156" s="3" t="n"/>
+      <c r="J156" s="3" t="n"/>
+      <c r="L156" s="3" t="n"/>
+      <c r="M156" s="3" t="n"/>
+      <c r="Q156" s="3" t="n"/>
+      <c r="R156" s="3" t="n"/>
+      <c r="S156" s="3" t="n"/>
+      <c r="T156" s="3" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
@@ -4444,24 +5531,31 @@
           <t>Porygon</t>
         </is>
       </c>
-      <c r="B157" s="3" t="inlineStr">
+      <c r="B157" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C157" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C157" s="3" t="n">
+      <c r="E157" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D157" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E157" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F157" s="3">
-        <f>IF(B157="common", 4, IF(B157="uncommon", 3, IF(B157="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F157" s="3" t="n"/>
+      <c r="G157" s="3" t="n"/>
+      <c r="H157" s="3" t="n"/>
+      <c r="I157" s="3" t="n"/>
+      <c r="J157" s="3" t="n"/>
+      <c r="L157" s="3" t="n"/>
+      <c r="M157" s="3" t="n"/>
+      <c r="Q157" s="3" t="n"/>
+      <c r="R157" s="3" t="n"/>
+      <c r="S157" s="3" t="n"/>
+      <c r="T157" s="3" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
@@ -4469,24 +5563,31 @@
           <t>Primeape</t>
         </is>
       </c>
-      <c r="B158" s="3" t="inlineStr">
+      <c r="B158" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C158" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C158" s="3" t="n">
+      <c r="E158" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D158" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E158" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F158" s="3">
-        <f>IF(B158="common", 4, IF(B158="uncommon", 3, IF(B158="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F158" s="3" t="n"/>
+      <c r="G158" s="3" t="n"/>
+      <c r="H158" s="3" t="n"/>
+      <c r="I158" s="3" t="n"/>
+      <c r="J158" s="3" t="n"/>
+      <c r="L158" s="3" t="n"/>
+      <c r="M158" s="3" t="n"/>
+      <c r="Q158" s="3" t="n"/>
+      <c r="R158" s="3" t="n"/>
+      <c r="S158" s="3" t="n"/>
+      <c r="T158" s="3" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
@@ -4494,24 +5595,31 @@
           <t>Protective Goggles</t>
         </is>
       </c>
-      <c r="B159" s="3" t="inlineStr">
+      <c r="B159" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C159" s="3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C159" s="3" t="n">
+      <c r="E159" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D159" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E159" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F159" s="3">
-        <f>IF(B159="common", 4, IF(B159="uncommon", 3, IF(B159="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F159" s="3" t="n"/>
+      <c r="G159" s="3" t="n"/>
+      <c r="H159" s="3" t="n"/>
+      <c r="I159" s="3" t="n"/>
+      <c r="J159" s="3" t="n"/>
+      <c r="L159" s="3" t="n"/>
+      <c r="M159" s="3" t="n"/>
+      <c r="Q159" s="3" t="n"/>
+      <c r="R159" s="3" t="n"/>
+      <c r="S159" s="3" t="n"/>
+      <c r="T159" s="3" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
@@ -4519,24 +5627,31 @@
           <t>Psyduck - 054/165</t>
         </is>
       </c>
-      <c r="B160" s="3" t="inlineStr">
+      <c r="B160" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C160" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C160" s="3" t="n">
+      <c r="E160" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D160" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E160" s="3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="F160" s="3">
-        <f>IF(B160="common", 4, IF(B160="uncommon", 3, IF(B160="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F160" s="3" t="n"/>
+      <c r="G160" s="3" t="n"/>
+      <c r="H160" s="3" t="n"/>
+      <c r="I160" s="3" t="n"/>
+      <c r="J160" s="3" t="n"/>
+      <c r="L160" s="3" t="n"/>
+      <c r="M160" s="3" t="n"/>
+      <c r="Q160" s="3" t="n"/>
+      <c r="R160" s="3" t="n"/>
+      <c r="S160" s="3" t="n"/>
+      <c r="T160" s="3" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
@@ -4544,22 +5659,29 @@
           <t>Psyduck - 175/165</t>
         </is>
       </c>
-      <c r="B161" s="3" t="inlineStr">
+      <c r="B161" s="3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C161" s="3" t="inlineStr"/>
+      <c r="D161" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C161" s="3" t="n">
+      <c r="E161" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D161" s="3" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="E161" s="3" t="inlineStr"/>
-      <c r="F161" s="3">
-        <f>IF(B161="common", 4, IF(B161="uncommon", 3, IF(B161="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F161" s="3" t="n"/>
+      <c r="G161" s="3" t="n"/>
+      <c r="H161" s="3" t="n"/>
+      <c r="I161" s="3" t="n"/>
+      <c r="J161" s="3" t="n"/>
+      <c r="L161" s="3" t="n"/>
+      <c r="M161" s="3" t="n"/>
+      <c r="Q161" s="3" t="n"/>
+      <c r="R161" s="3" t="n"/>
+      <c r="S161" s="3" t="n"/>
+      <c r="T161" s="3" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
@@ -4567,24 +5689,31 @@
           <t>Raichu</t>
         </is>
       </c>
-      <c r="B162" s="3" t="inlineStr">
+      <c r="B162" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C162" s="3" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D162" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C162" s="3" t="n">
+      <c r="E162" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D162" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E162" s="3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F162" s="3">
-        <f>IF(B162="common", 4, IF(B162="uncommon", 3, IF(B162="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F162" s="3" t="n"/>
+      <c r="G162" s="3" t="n"/>
+      <c r="H162" s="3" t="n"/>
+      <c r="I162" s="3" t="n"/>
+      <c r="J162" s="3" t="n"/>
+      <c r="L162" s="3" t="n"/>
+      <c r="M162" s="3" t="n"/>
+      <c r="Q162" s="3" t="n"/>
+      <c r="R162" s="3" t="n"/>
+      <c r="S162" s="3" t="n"/>
+      <c r="T162" s="3" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
@@ -4592,24 +5721,31 @@
           <t>Rapidash</t>
         </is>
       </c>
-      <c r="B163" s="3" t="inlineStr">
+      <c r="B163" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C163" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C163" s="3" t="n">
+      <c r="E163" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D163" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E163" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F163" s="3">
-        <f>IF(B163="common", 4, IF(B163="uncommon", 3, IF(B163="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F163" s="3" t="n"/>
+      <c r="G163" s="3" t="n"/>
+      <c r="H163" s="3" t="n"/>
+      <c r="I163" s="3" t="n"/>
+      <c r="J163" s="3" t="n"/>
+      <c r="L163" s="3" t="n"/>
+      <c r="M163" s="3" t="n"/>
+      <c r="Q163" s="3" t="n"/>
+      <c r="R163" s="3" t="n"/>
+      <c r="S163" s="3" t="n"/>
+      <c r="T163" s="3" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
@@ -4617,24 +5753,31 @@
           <t>Raticate</t>
         </is>
       </c>
-      <c r="B164" s="3" t="inlineStr">
+      <c r="B164" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C164" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D164" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C164" s="3" t="n">
+      <c r="E164" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D164" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E164" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F164" s="3">
-        <f>IF(B164="common", 4, IF(B164="uncommon", 3, IF(B164="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F164" s="3" t="n"/>
+      <c r="G164" s="3" t="n"/>
+      <c r="H164" s="3" t="n"/>
+      <c r="I164" s="3" t="n"/>
+      <c r="J164" s="3" t="n"/>
+      <c r="L164" s="3" t="n"/>
+      <c r="M164" s="3" t="n"/>
+      <c r="Q164" s="3" t="n"/>
+      <c r="R164" s="3" t="n"/>
+      <c r="S164" s="3" t="n"/>
+      <c r="T164" s="3" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
@@ -4642,24 +5785,31 @@
           <t>Rattata</t>
         </is>
       </c>
-      <c r="B165" s="3" t="inlineStr">
+      <c r="B165" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C165" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C165" s="3" t="n">
+      <c r="E165" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D165" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E165" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F165" s="3">
-        <f>IF(B165="common", 4, IF(B165="uncommon", 3, IF(B165="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F165" s="3" t="n"/>
+      <c r="G165" s="3" t="n"/>
+      <c r="H165" s="3" t="n"/>
+      <c r="I165" s="3" t="n"/>
+      <c r="J165" s="3" t="n"/>
+      <c r="L165" s="3" t="n"/>
+      <c r="M165" s="3" t="n"/>
+      <c r="Q165" s="3" t="n"/>
+      <c r="R165" s="3" t="n"/>
+      <c r="S165" s="3" t="n"/>
+      <c r="T165" s="3" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
@@ -4667,24 +5817,31 @@
           <t>Rhydon</t>
         </is>
       </c>
-      <c r="B166" s="3" t="inlineStr">
+      <c r="B166" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C166" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C166" s="3" t="n">
+      <c r="E166" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D166" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E166" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F166" s="3">
-        <f>IF(B166="common", 4, IF(B166="uncommon", 3, IF(B166="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F166" s="3" t="n"/>
+      <c r="G166" s="3" t="n"/>
+      <c r="H166" s="3" t="n"/>
+      <c r="I166" s="3" t="n"/>
+      <c r="J166" s="3" t="n"/>
+      <c r="L166" s="3" t="n"/>
+      <c r="M166" s="3" t="n"/>
+      <c r="Q166" s="3" t="n"/>
+      <c r="R166" s="3" t="n"/>
+      <c r="S166" s="3" t="n"/>
+      <c r="T166" s="3" t="n"/>
     </row>
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
@@ -4692,24 +5849,31 @@
           <t>Rhyhorn</t>
         </is>
       </c>
-      <c r="B167" s="3" t="inlineStr">
+      <c r="B167" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C167" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C167" s="3" t="n">
+      <c r="E167" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D167" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E167" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F167" s="3">
-        <f>IF(B167="common", 4, IF(B167="uncommon", 3, IF(B167="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F167" s="3" t="n"/>
+      <c r="G167" s="3" t="n"/>
+      <c r="H167" s="3" t="n"/>
+      <c r="I167" s="3" t="n"/>
+      <c r="J167" s="3" t="n"/>
+      <c r="L167" s="3" t="n"/>
+      <c r="M167" s="3" t="n"/>
+      <c r="Q167" s="3" t="n"/>
+      <c r="R167" s="3" t="n"/>
+      <c r="S167" s="3" t="n"/>
+      <c r="T167" s="3" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
@@ -4717,24 +5881,31 @@
           <t>Rigid Band</t>
         </is>
       </c>
-      <c r="B168" s="3" t="inlineStr">
+      <c r="B168" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C168" s="3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C168" s="3" t="n">
+      <c r="E168" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D168" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E168" s="3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F168" s="3">
-        <f>IF(B168="common", 4, IF(B168="uncommon", 3, IF(B168="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F168" s="3" t="n"/>
+      <c r="G168" s="3" t="n"/>
+      <c r="H168" s="3" t="n"/>
+      <c r="I168" s="3" t="n"/>
+      <c r="J168" s="3" t="n"/>
+      <c r="L168" s="3" t="n"/>
+      <c r="M168" s="3" t="n"/>
+      <c r="Q168" s="3" t="n"/>
+      <c r="R168" s="3" t="n"/>
+      <c r="S168" s="3" t="n"/>
+      <c r="T168" s="3" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
@@ -4742,24 +5913,31 @@
           <t>Sandshrew</t>
         </is>
       </c>
-      <c r="B169" s="3" t="inlineStr">
+      <c r="B169" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C169" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C169" s="3" t="n">
+      <c r="E169" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D169" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E169" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F169" s="3">
-        <f>IF(B169="common", 4, IF(B169="uncommon", 3, IF(B169="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F169" s="3" t="n"/>
+      <c r="G169" s="3" t="n"/>
+      <c r="H169" s="3" t="n"/>
+      <c r="I169" s="3" t="n"/>
+      <c r="J169" s="3" t="n"/>
+      <c r="L169" s="3" t="n"/>
+      <c r="M169" s="3" t="n"/>
+      <c r="Q169" s="3" t="n"/>
+      <c r="R169" s="3" t="n"/>
+      <c r="S169" s="3" t="n"/>
+      <c r="T169" s="3" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
@@ -4767,24 +5945,31 @@
           <t>Sandslash</t>
         </is>
       </c>
-      <c r="B170" s="3" t="inlineStr">
+      <c r="B170" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C170" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D170" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C170" s="3" t="n">
+      <c r="E170" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D170" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E170" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F170" s="3">
-        <f>IF(B170="common", 4, IF(B170="uncommon", 3, IF(B170="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F170" s="3" t="n"/>
+      <c r="G170" s="3" t="n"/>
+      <c r="H170" s="3" t="n"/>
+      <c r="I170" s="3" t="n"/>
+      <c r="J170" s="3" t="n"/>
+      <c r="L170" s="3" t="n"/>
+      <c r="M170" s="3" t="n"/>
+      <c r="Q170" s="3" t="n"/>
+      <c r="R170" s="3" t="n"/>
+      <c r="S170" s="3" t="n"/>
+      <c r="T170" s="3" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
@@ -4792,24 +5977,31 @@
           <t>Scyther</t>
         </is>
       </c>
-      <c r="B171" s="3" t="inlineStr">
+      <c r="B171" s="3" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C171" s="3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C171" s="3" t="n">
+      <c r="E171" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D171" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E171" s="3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F171" s="3">
-        <f>IF(B171="common", 4, IF(B171="uncommon", 3, IF(B171="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F171" s="3" t="n"/>
+      <c r="G171" s="3" t="n"/>
+      <c r="H171" s="3" t="n"/>
+      <c r="I171" s="3" t="n"/>
+      <c r="J171" s="3" t="n"/>
+      <c r="L171" s="3" t="n"/>
+      <c r="M171" s="3" t="n"/>
+      <c r="Q171" s="3" t="n"/>
+      <c r="R171" s="3" t="n"/>
+      <c r="S171" s="3" t="n"/>
+      <c r="T171" s="3" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
@@ -4817,24 +6009,31 @@
           <t>Seadra</t>
         </is>
       </c>
-      <c r="B172" s="3" t="inlineStr">
+      <c r="B172" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C172" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C172" s="3" t="n">
+      <c r="E172" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D172" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E172" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F172" s="3">
-        <f>IF(B172="common", 4, IF(B172="uncommon", 3, IF(B172="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F172" s="3" t="n"/>
+      <c r="G172" s="3" t="n"/>
+      <c r="H172" s="3" t="n"/>
+      <c r="I172" s="3" t="n"/>
+      <c r="J172" s="3" t="n"/>
+      <c r="L172" s="3" t="n"/>
+      <c r="M172" s="3" t="n"/>
+      <c r="Q172" s="3" t="n"/>
+      <c r="R172" s="3" t="n"/>
+      <c r="S172" s="3" t="n"/>
+      <c r="T172" s="3" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
@@ -4842,24 +6041,31 @@
           <t>Seaking</t>
         </is>
       </c>
-      <c r="B173" s="3" t="inlineStr">
+      <c r="B173" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C173" s="3" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C173" s="3" t="n">
+      <c r="E173" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D173" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E173" s="3" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F173" s="3">
-        <f>IF(B173="common", 4, IF(B173="uncommon", 3, IF(B173="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F173" s="3" t="n"/>
+      <c r="G173" s="3" t="n"/>
+      <c r="H173" s="3" t="n"/>
+      <c r="I173" s="3" t="n"/>
+      <c r="J173" s="3" t="n"/>
+      <c r="L173" s="3" t="n"/>
+      <c r="M173" s="3" t="n"/>
+      <c r="Q173" s="3" t="n"/>
+      <c r="R173" s="3" t="n"/>
+      <c r="S173" s="3" t="n"/>
+      <c r="T173" s="3" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
@@ -4867,24 +6073,31 @@
           <t>Seel</t>
         </is>
       </c>
-      <c r="B174" s="3" t="inlineStr">
+      <c r="B174" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C174" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D174" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C174" s="3" t="n">
+      <c r="E174" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D174" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E174" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F174" s="3">
-        <f>IF(B174="common", 4, IF(B174="uncommon", 3, IF(B174="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F174" s="3" t="n"/>
+      <c r="G174" s="3" t="n"/>
+      <c r="H174" s="3" t="n"/>
+      <c r="I174" s="3" t="n"/>
+      <c r="J174" s="3" t="n"/>
+      <c r="L174" s="3" t="n"/>
+      <c r="M174" s="3" t="n"/>
+      <c r="Q174" s="3" t="n"/>
+      <c r="R174" s="3" t="n"/>
+      <c r="S174" s="3" t="n"/>
+      <c r="T174" s="3" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
@@ -4892,24 +6105,31 @@
           <t>Shellder</t>
         </is>
       </c>
-      <c r="B175" s="3" t="inlineStr">
+      <c r="B175" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C175" s="3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C175" s="3" t="n">
+      <c r="E175" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D175" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E175" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F175" s="3">
-        <f>IF(B175="common", 4, IF(B175="uncommon", 3, IF(B175="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F175" s="3" t="n"/>
+      <c r="G175" s="3" t="n"/>
+      <c r="H175" s="3" t="n"/>
+      <c r="I175" s="3" t="n"/>
+      <c r="J175" s="3" t="n"/>
+      <c r="L175" s="3" t="n"/>
+      <c r="M175" s="3" t="n"/>
+      <c r="Q175" s="3" t="n"/>
+      <c r="R175" s="3" t="n"/>
+      <c r="S175" s="3" t="n"/>
+      <c r="T175" s="3" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
@@ -4917,24 +6137,31 @@
           <t>Slowbro</t>
         </is>
       </c>
-      <c r="B176" s="3" t="inlineStr">
+      <c r="B176" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C176" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D176" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C176" s="3" t="n">
+      <c r="E176" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D176" s="3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E176" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F176" s="3">
-        <f>IF(B176="common", 4, IF(B176="uncommon", 3, IF(B176="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F176" s="3" t="n"/>
+      <c r="G176" s="3" t="n"/>
+      <c r="H176" s="3" t="n"/>
+      <c r="I176" s="3" t="n"/>
+      <c r="J176" s="3" t="n"/>
+      <c r="L176" s="3" t="n"/>
+      <c r="M176" s="3" t="n"/>
+      <c r="Q176" s="3" t="n"/>
+      <c r="R176" s="3" t="n"/>
+      <c r="S176" s="3" t="n"/>
+      <c r="T176" s="3" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
@@ -4942,24 +6169,31 @@
           <t>Slowpoke</t>
         </is>
       </c>
-      <c r="B177" s="3" t="inlineStr">
+      <c r="B177" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C177" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C177" s="3" t="n">
+      <c r="E177" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D177" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E177" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F177" s="3">
-        <f>IF(B177="common", 4, IF(B177="uncommon", 3, IF(B177="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F177" s="3" t="n"/>
+      <c r="G177" s="3" t="n"/>
+      <c r="H177" s="3" t="n"/>
+      <c r="I177" s="3" t="n"/>
+      <c r="J177" s="3" t="n"/>
+      <c r="L177" s="3" t="n"/>
+      <c r="M177" s="3" t="n"/>
+      <c r="Q177" s="3" t="n"/>
+      <c r="R177" s="3" t="n"/>
+      <c r="S177" s="3" t="n"/>
+      <c r="T177" s="3" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
@@ -4967,24 +6201,31 @@
           <t>Snorlax</t>
         </is>
       </c>
-      <c r="B178" s="3" t="inlineStr">
+      <c r="B178" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C178" s="3" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D178" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C178" s="3" t="n">
+      <c r="E178" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D178" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E178" s="3" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="F178" s="3">
-        <f>IF(B178="common", 4, IF(B178="uncommon", 3, IF(B178="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F178" s="3" t="n"/>
+      <c r="G178" s="3" t="n"/>
+      <c r="H178" s="3" t="n"/>
+      <c r="I178" s="3" t="n"/>
+      <c r="J178" s="3" t="n"/>
+      <c r="L178" s="3" t="n"/>
+      <c r="M178" s="3" t="n"/>
+      <c r="Q178" s="3" t="n"/>
+      <c r="R178" s="3" t="n"/>
+      <c r="S178" s="3" t="n"/>
+      <c r="T178" s="3" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
@@ -4992,24 +6233,31 @@
           <t>Spearow</t>
         </is>
       </c>
-      <c r="B179" s="3" t="inlineStr">
+      <c r="B179" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C179" s="3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C179" s="3" t="n">
+      <c r="E179" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D179" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E179" s="3" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F179" s="3">
-        <f>IF(B179="common", 4, IF(B179="uncommon", 3, IF(B179="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F179" s="3" t="n"/>
+      <c r="G179" s="3" t="n"/>
+      <c r="H179" s="3" t="n"/>
+      <c r="I179" s="3" t="n"/>
+      <c r="J179" s="3" t="n"/>
+      <c r="L179" s="3" t="n"/>
+      <c r="M179" s="3" t="n"/>
+      <c r="Q179" s="3" t="n"/>
+      <c r="R179" s="3" t="n"/>
+      <c r="S179" s="3" t="n"/>
+      <c r="T179" s="3" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
@@ -5017,24 +6265,31 @@
           <t>Squirtle - 007/165</t>
         </is>
       </c>
-      <c r="B180" s="3" t="inlineStr">
+      <c r="B180" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C180" s="3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C180" s="3" t="n">
+      <c r="E180" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D180" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E180" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F180" s="3">
-        <f>IF(B180="common", 4, IF(B180="uncommon", 3, IF(B180="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F180" s="3" t="n"/>
+      <c r="G180" s="3" t="n"/>
+      <c r="H180" s="3" t="n"/>
+      <c r="I180" s="3" t="n"/>
+      <c r="J180" s="3" t="n"/>
+      <c r="L180" s="3" t="n"/>
+      <c r="M180" s="3" t="n"/>
+      <c r="Q180" s="3" t="n"/>
+      <c r="R180" s="3" t="n"/>
+      <c r="S180" s="3" t="n"/>
+      <c r="T180" s="3" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
@@ -5042,22 +6297,29 @@
           <t>Squirtle - 170/165</t>
         </is>
       </c>
-      <c r="B181" s="3" t="inlineStr">
+      <c r="B181" s="3" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="C181" s="3" t="inlineStr"/>
+      <c r="D181" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C181" s="3" t="n">
+      <c r="E181" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D181" s="3" t="n">
-        <v>45.09</v>
-      </c>
-      <c r="E181" s="3" t="inlineStr"/>
-      <c r="F181" s="3">
-        <f>IF(B181="common", 4, IF(B181="uncommon", 3, IF(B181="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F181" s="3" t="n"/>
+      <c r="G181" s="3" t="n"/>
+      <c r="H181" s="3" t="n"/>
+      <c r="I181" s="3" t="n"/>
+      <c r="J181" s="3" t="n"/>
+      <c r="L181" s="3" t="n"/>
+      <c r="M181" s="3" t="n"/>
+      <c r="Q181" s="3" t="n"/>
+      <c r="R181" s="3" t="n"/>
+      <c r="S181" s="3" t="n"/>
+      <c r="T181" s="3" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
@@ -5065,24 +6327,31 @@
           <t>Starmie</t>
         </is>
       </c>
-      <c r="B182" s="3" t="inlineStr">
+      <c r="B182" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C182" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C182" s="3" t="n">
+      <c r="E182" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D182" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E182" s="3" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F182" s="3">
-        <f>IF(B182="common", 4, IF(B182="uncommon", 3, IF(B182="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F182" s="3" t="n"/>
+      <c r="G182" s="3" t="n"/>
+      <c r="H182" s="3" t="n"/>
+      <c r="I182" s="3" t="n"/>
+      <c r="J182" s="3" t="n"/>
+      <c r="L182" s="3" t="n"/>
+      <c r="M182" s="3" t="n"/>
+      <c r="Q182" s="3" t="n"/>
+      <c r="R182" s="3" t="n"/>
+      <c r="S182" s="3" t="n"/>
+      <c r="T182" s="3" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
@@ -5090,24 +6359,31 @@
           <t>Staryu</t>
         </is>
       </c>
-      <c r="B183" s="3" t="inlineStr">
+      <c r="B183" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C183" s="3" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C183" s="3" t="n">
+      <c r="E183" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D183" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E183" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F183" s="3">
-        <f>IF(B183="common", 4, IF(B183="uncommon", 3, IF(B183="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F183" s="3" t="n"/>
+      <c r="G183" s="3" t="n"/>
+      <c r="H183" s="3" t="n"/>
+      <c r="I183" s="3" t="n"/>
+      <c r="J183" s="3" t="n"/>
+      <c r="L183" s="3" t="n"/>
+      <c r="M183" s="3" t="n"/>
+      <c r="Q183" s="3" t="n"/>
+      <c r="R183" s="3" t="n"/>
+      <c r="S183" s="3" t="n"/>
+      <c r="T183" s="3" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
@@ -5115,22 +6391,29 @@
           <t>Switch - 206/165</t>
         </is>
       </c>
-      <c r="B184" s="3" t="inlineStr">
+      <c r="B184" s="3" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="C184" s="3" t="inlineStr"/>
+      <c r="D184" s="3" t="inlineStr">
         <is>
           <t>hyper rare</t>
         </is>
       </c>
-      <c r="C184" s="3" t="n">
+      <c r="E184" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="D184" s="3" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="E184" s="3" t="inlineStr"/>
-      <c r="F184" s="3">
-        <f>IF(B184="common", 4, IF(B184="uncommon", 3, IF(B184="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F184" s="3" t="n"/>
+      <c r="G184" s="3" t="n"/>
+      <c r="H184" s="3" t="n"/>
+      <c r="I184" s="3" t="n"/>
+      <c r="J184" s="3" t="n"/>
+      <c r="L184" s="3" t="n"/>
+      <c r="M184" s="3" t="n"/>
+      <c r="Q184" s="3" t="n"/>
+      <c r="R184" s="3" t="n"/>
+      <c r="S184" s="3" t="n"/>
+      <c r="T184" s="3" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
@@ -5138,24 +6421,31 @@
           <t>Tangela - 114/165</t>
         </is>
       </c>
-      <c r="B185" s="3" t="inlineStr">
+      <c r="B185" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C185" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C185" s="3" t="n">
+      <c r="E185" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D185" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E185" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F185" s="3">
-        <f>IF(B185="common", 4, IF(B185="uncommon", 3, IF(B185="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F185" s="3" t="n"/>
+      <c r="G185" s="3" t="n"/>
+      <c r="H185" s="3" t="n"/>
+      <c r="I185" s="3" t="n"/>
+      <c r="J185" s="3" t="n"/>
+      <c r="L185" s="3" t="n"/>
+      <c r="M185" s="3" t="n"/>
+      <c r="Q185" s="3" t="n"/>
+      <c r="R185" s="3" t="n"/>
+      <c r="S185" s="3" t="n"/>
+      <c r="T185" s="3" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
@@ -5163,22 +6453,29 @@
           <t>Tangela - 178/165</t>
         </is>
       </c>
-      <c r="B186" s="3" t="inlineStr">
+      <c r="B186" s="3" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="C186" s="3" t="inlineStr"/>
+      <c r="D186" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C186" s="3" t="n">
+      <c r="E186" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D186" s="3" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="E186" s="3" t="inlineStr"/>
-      <c r="F186" s="3">
-        <f>IF(B186="common", 4, IF(B186="uncommon", 3, IF(B186="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F186" s="3" t="n"/>
+      <c r="G186" s="3" t="n"/>
+      <c r="H186" s="3" t="n"/>
+      <c r="I186" s="3" t="n"/>
+      <c r="J186" s="3" t="n"/>
+      <c r="L186" s="3" t="n"/>
+      <c r="M186" s="3" t="n"/>
+      <c r="Q186" s="3" t="n"/>
+      <c r="R186" s="3" t="n"/>
+      <c r="S186" s="3" t="n"/>
+      <c r="T186" s="3" t="n"/>
     </row>
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
@@ -5186,24 +6483,31 @@
           <t>Tauros</t>
         </is>
       </c>
-      <c r="B187" s="3" t="inlineStr">
+      <c r="B187" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C187" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C187" s="3" t="n">
+      <c r="E187" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D187" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E187" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F187" s="3">
-        <f>IF(B187="common", 4, IF(B187="uncommon", 3, IF(B187="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F187" s="3" t="n"/>
+      <c r="G187" s="3" t="n"/>
+      <c r="H187" s="3" t="n"/>
+      <c r="I187" s="3" t="n"/>
+      <c r="J187" s="3" t="n"/>
+      <c r="L187" s="3" t="n"/>
+      <c r="M187" s="3" t="n"/>
+      <c r="Q187" s="3" t="n"/>
+      <c r="R187" s="3" t="n"/>
+      <c r="S187" s="3" t="n"/>
+      <c r="T187" s="3" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
@@ -5211,24 +6515,31 @@
           <t>Tentacool</t>
         </is>
       </c>
-      <c r="B188" s="3" t="inlineStr">
+      <c r="B188" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C188" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D188" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C188" s="3" t="n">
+      <c r="E188" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D188" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E188" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F188" s="3">
-        <f>IF(B188="common", 4, IF(B188="uncommon", 3, IF(B188="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F188" s="3" t="n"/>
+      <c r="G188" s="3" t="n"/>
+      <c r="H188" s="3" t="n"/>
+      <c r="I188" s="3" t="n"/>
+      <c r="J188" s="3" t="n"/>
+      <c r="L188" s="3" t="n"/>
+      <c r="M188" s="3" t="n"/>
+      <c r="Q188" s="3" t="n"/>
+      <c r="R188" s="3" t="n"/>
+      <c r="S188" s="3" t="n"/>
+      <c r="T188" s="3" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
@@ -5236,24 +6547,31 @@
           <t>Tentacruel</t>
         </is>
       </c>
-      <c r="B189" s="3" t="inlineStr">
+      <c r="B189" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C189" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C189" s="3" t="n">
+      <c r="E189" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D189" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E189" s="3" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F189" s="3">
-        <f>IF(B189="common", 4, IF(B189="uncommon", 3, IF(B189="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F189" s="3" t="n"/>
+      <c r="G189" s="3" t="n"/>
+      <c r="H189" s="3" t="n"/>
+      <c r="I189" s="3" t="n"/>
+      <c r="J189" s="3" t="n"/>
+      <c r="L189" s="3" t="n"/>
+      <c r="M189" s="3" t="n"/>
+      <c r="Q189" s="3" t="n"/>
+      <c r="R189" s="3" t="n"/>
+      <c r="S189" s="3" t="n"/>
+      <c r="T189" s="3" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
@@ -5261,24 +6579,31 @@
           <t>Vaporeon</t>
         </is>
       </c>
-      <c r="B190" s="3" t="inlineStr">
+      <c r="B190" s="3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C190" s="3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D190" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C190" s="3" t="n">
+      <c r="E190" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D190" s="3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E190" s="3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F190" s="3">
-        <f>IF(B190="common", 4, IF(B190="uncommon", 3, IF(B190="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F190" s="3" t="n"/>
+      <c r="G190" s="3" t="n"/>
+      <c r="H190" s="3" t="n"/>
+      <c r="I190" s="3" t="n"/>
+      <c r="J190" s="3" t="n"/>
+      <c r="L190" s="3" t="n"/>
+      <c r="M190" s="3" t="n"/>
+      <c r="Q190" s="3" t="n"/>
+      <c r="R190" s="3" t="n"/>
+      <c r="S190" s="3" t="n"/>
+      <c r="T190" s="3" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
@@ -5286,24 +6611,31 @@
           <t>Venomoth</t>
         </is>
       </c>
-      <c r="B191" s="3" t="inlineStr">
+      <c r="B191" s="3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C191" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D191" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C191" s="3" t="n">
+      <c r="E191" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D191" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E191" s="3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F191" s="3">
-        <f>IF(B191="common", 4, IF(B191="uncommon", 3, IF(B191="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F191" s="3" t="n"/>
+      <c r="G191" s="3" t="n"/>
+      <c r="H191" s="3" t="n"/>
+      <c r="I191" s="3" t="n"/>
+      <c r="J191" s="3" t="n"/>
+      <c r="L191" s="3" t="n"/>
+      <c r="M191" s="3" t="n"/>
+      <c r="Q191" s="3" t="n"/>
+      <c r="R191" s="3" t="n"/>
+      <c r="S191" s="3" t="n"/>
+      <c r="T191" s="3" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
@@ -5311,24 +6643,31 @@
           <t>Venonat</t>
         </is>
       </c>
-      <c r="B192" s="3" t="inlineStr">
+      <c r="B192" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C192" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D192" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C192" s="3" t="n">
+      <c r="E192" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D192" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E192" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F192" s="3">
-        <f>IF(B192="common", 4, IF(B192="uncommon", 3, IF(B192="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F192" s="3" t="n"/>
+      <c r="G192" s="3" t="n"/>
+      <c r="H192" s="3" t="n"/>
+      <c r="I192" s="3" t="n"/>
+      <c r="J192" s="3" t="n"/>
+      <c r="L192" s="3" t="n"/>
+      <c r="M192" s="3" t="n"/>
+      <c r="Q192" s="3" t="n"/>
+      <c r="R192" s="3" t="n"/>
+      <c r="S192" s="3" t="n"/>
+      <c r="T192" s="3" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
@@ -5336,22 +6675,29 @@
           <t>Venusaur ex - 003/165</t>
         </is>
       </c>
-      <c r="B193" s="3" t="inlineStr">
+      <c r="B193" s="3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C193" s="3" t="inlineStr"/>
+      <c r="D193" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C193" s="3" t="n">
+      <c r="E193" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D193" s="3" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E193" s="3" t="inlineStr"/>
-      <c r="F193" s="3">
-        <f>IF(B193="common", 4, IF(B193="uncommon", 3, IF(B193="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F193" s="3" t="n"/>
+      <c r="G193" s="3" t="n"/>
+      <c r="H193" s="3" t="n"/>
+      <c r="I193" s="3" t="n"/>
+      <c r="J193" s="3" t="n"/>
+      <c r="L193" s="3" t="n"/>
+      <c r="M193" s="3" t="n"/>
+      <c r="Q193" s="3" t="n"/>
+      <c r="R193" s="3" t="n"/>
+      <c r="S193" s="3" t="n"/>
+      <c r="T193" s="3" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
@@ -5359,22 +6705,29 @@
           <t>Venusaur ex - 182/165</t>
         </is>
       </c>
-      <c r="B194" s="3" t="inlineStr">
+      <c r="B194" s="3" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="C194" s="3" t="inlineStr"/>
+      <c r="D194" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C194" s="3" t="n">
+      <c r="E194" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D194" s="3" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E194" s="3" t="inlineStr"/>
-      <c r="F194" s="3">
-        <f>IF(B194="common", 4, IF(B194="uncommon", 3, IF(B194="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F194" s="3" t="n"/>
+      <c r="G194" s="3" t="n"/>
+      <c r="H194" s="3" t="n"/>
+      <c r="I194" s="3" t="n"/>
+      <c r="J194" s="3" t="n"/>
+      <c r="L194" s="3" t="n"/>
+      <c r="M194" s="3" t="n"/>
+      <c r="Q194" s="3" t="n"/>
+      <c r="R194" s="3" t="n"/>
+      <c r="S194" s="3" t="n"/>
+      <c r="T194" s="3" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
@@ -5382,22 +6735,29 @@
           <t>Venusaur ex - 198/165</t>
         </is>
       </c>
-      <c r="B195" s="3" t="inlineStr">
+      <c r="B195" s="3" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="C195" s="3" t="inlineStr"/>
+      <c r="D195" s="3" t="inlineStr">
         <is>
           <t>special illustration rare</t>
         </is>
       </c>
-      <c r="C195" s="3" t="n">
+      <c r="E195" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="D195" s="3" t="n">
-        <v>67.88</v>
-      </c>
-      <c r="E195" s="3" t="inlineStr"/>
-      <c r="F195" s="3">
-        <f>IF(B195="common", 4, IF(B195="uncommon", 3, IF(B195="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F195" s="3" t="n"/>
+      <c r="G195" s="3" t="n"/>
+      <c r="H195" s="3" t="n"/>
+      <c r="I195" s="3" t="n"/>
+      <c r="J195" s="3" t="n"/>
+      <c r="L195" s="3" t="n"/>
+      <c r="M195" s="3" t="n"/>
+      <c r="Q195" s="3" t="n"/>
+      <c r="R195" s="3" t="n"/>
+      <c r="S195" s="3" t="n"/>
+      <c r="T195" s="3" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
@@ -5405,24 +6765,31 @@
           <t>Victreebel</t>
         </is>
       </c>
-      <c r="B196" s="3" t="inlineStr">
+      <c r="B196" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C196" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D196" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C196" s="3" t="n">
+      <c r="E196" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D196" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E196" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F196" s="3">
-        <f>IF(B196="common", 4, IF(B196="uncommon", 3, IF(B196="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F196" s="3" t="n"/>
+      <c r="G196" s="3" t="n"/>
+      <c r="H196" s="3" t="n"/>
+      <c r="I196" s="3" t="n"/>
+      <c r="J196" s="3" t="n"/>
+      <c r="L196" s="3" t="n"/>
+      <c r="M196" s="3" t="n"/>
+      <c r="Q196" s="3" t="n"/>
+      <c r="R196" s="3" t="n"/>
+      <c r="S196" s="3" t="n"/>
+      <c r="T196" s="3" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
@@ -5430,24 +6797,31 @@
           <t>Vileplume</t>
         </is>
       </c>
-      <c r="B197" s="3" t="inlineStr">
+      <c r="B197" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C197" s="3" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C197" s="3" t="n">
+      <c r="E197" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D197" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E197" s="3" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="F197" s="3">
-        <f>IF(B197="common", 4, IF(B197="uncommon", 3, IF(B197="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F197" s="3" t="n"/>
+      <c r="G197" s="3" t="n"/>
+      <c r="H197" s="3" t="n"/>
+      <c r="I197" s="3" t="n"/>
+      <c r="J197" s="3" t="n"/>
+      <c r="L197" s="3" t="n"/>
+      <c r="M197" s="3" t="n"/>
+      <c r="Q197" s="3" t="n"/>
+      <c r="R197" s="3" t="n"/>
+      <c r="S197" s="3" t="n"/>
+      <c r="T197" s="3" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
@@ -5455,24 +6829,31 @@
           <t>Voltorb</t>
         </is>
       </c>
-      <c r="B198" s="3" t="inlineStr">
+      <c r="B198" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C198" s="3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C198" s="3" t="n">
+      <c r="E198" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D198" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E198" s="3" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F198" s="3">
-        <f>IF(B198="common", 4, IF(B198="uncommon", 3, IF(B198="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F198" s="3" t="n"/>
+      <c r="G198" s="3" t="n"/>
+      <c r="H198" s="3" t="n"/>
+      <c r="I198" s="3" t="n"/>
+      <c r="J198" s="3" t="n"/>
+      <c r="L198" s="3" t="n"/>
+      <c r="M198" s="3" t="n"/>
+      <c r="Q198" s="3" t="n"/>
+      <c r="R198" s="3" t="n"/>
+      <c r="S198" s="3" t="n"/>
+      <c r="T198" s="3" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
@@ -5480,24 +6861,31 @@
           <t>Vulpix</t>
         </is>
       </c>
-      <c r="B199" s="3" t="inlineStr">
+      <c r="B199" s="3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C199" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C199" s="3" t="n">
+      <c r="E199" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D199" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E199" s="3" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F199" s="3">
-        <f>IF(B199="common", 4, IF(B199="uncommon", 3, IF(B199="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F199" s="3" t="n"/>
+      <c r="G199" s="3" t="n"/>
+      <c r="H199" s="3" t="n"/>
+      <c r="I199" s="3" t="n"/>
+      <c r="J199" s="3" t="n"/>
+      <c r="L199" s="3" t="n"/>
+      <c r="M199" s="3" t="n"/>
+      <c r="Q199" s="3" t="n"/>
+      <c r="R199" s="3" t="n"/>
+      <c r="S199" s="3" t="n"/>
+      <c r="T199" s="3" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
@@ -5505,24 +6893,31 @@
           <t>Wartortle - 008/165</t>
         </is>
       </c>
-      <c r="B200" s="3" t="inlineStr">
+      <c r="B200" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C200" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D200" s="3" t="inlineStr">
         <is>
           <t>uncommon</t>
         </is>
       </c>
-      <c r="C200" s="3" t="n">
+      <c r="E200" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D200" s="3" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E200" s="3" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F200" s="3">
-        <f>IF(B200="common", 4, IF(B200="uncommon", 3, IF(B200="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F200" s="3" t="n"/>
+      <c r="G200" s="3" t="n"/>
+      <c r="H200" s="3" t="n"/>
+      <c r="I200" s="3" t="n"/>
+      <c r="J200" s="3" t="n"/>
+      <c r="L200" s="3" t="n"/>
+      <c r="M200" s="3" t="n"/>
+      <c r="Q200" s="3" t="n"/>
+      <c r="R200" s="3" t="n"/>
+      <c r="S200" s="3" t="n"/>
+      <c r="T200" s="3" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
@@ -5530,22 +6925,29 @@
           <t>Wartortle - 171/165</t>
         </is>
       </c>
-      <c r="B201" s="3" t="inlineStr">
+      <c r="B201" s="3" t="n">
+        <v>28.22</v>
+      </c>
+      <c r="C201" s="3" t="inlineStr"/>
+      <c r="D201" s="3" t="inlineStr">
         <is>
           <t>illustration rare</t>
         </is>
       </c>
-      <c r="C201" s="3" t="n">
+      <c r="E201" s="3" t="n">
         <v>188</v>
       </c>
-      <c r="D201" s="3" t="n">
-        <v>29.96</v>
-      </c>
-      <c r="E201" s="3" t="inlineStr"/>
-      <c r="F201" s="3">
-        <f>IF(B201="common", 4, IF(B201="uncommon", 3, IF(B201="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F201" s="3" t="n"/>
+      <c r="G201" s="3" t="n"/>
+      <c r="H201" s="3" t="n"/>
+      <c r="I201" s="3" t="n"/>
+      <c r="J201" s="3" t="n"/>
+      <c r="L201" s="3" t="n"/>
+      <c r="M201" s="3" t="n"/>
+      <c r="Q201" s="3" t="n"/>
+      <c r="R201" s="3" t="n"/>
+      <c r="S201" s="3" t="n"/>
+      <c r="T201" s="3" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
@@ -5553,24 +6955,31 @@
           <t>Weedle</t>
         </is>
       </c>
-      <c r="B202" s="3" t="inlineStr">
+      <c r="B202" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C202" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D202" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C202" s="3" t="n">
+      <c r="E202" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D202" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E202" s="3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F202" s="3">
-        <f>IF(B202="common", 4, IF(B202="uncommon", 3, IF(B202="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F202" s="3" t="n"/>
+      <c r="G202" s="3" t="n"/>
+      <c r="H202" s="3" t="n"/>
+      <c r="I202" s="3" t="n"/>
+      <c r="J202" s="3" t="n"/>
+      <c r="L202" s="3" t="n"/>
+      <c r="M202" s="3" t="n"/>
+      <c r="Q202" s="3" t="n"/>
+      <c r="R202" s="3" t="n"/>
+      <c r="S202" s="3" t="n"/>
+      <c r="T202" s="3" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
@@ -5578,24 +6987,31 @@
           <t>Weepinbell</t>
         </is>
       </c>
-      <c r="B203" s="3" t="inlineStr">
+      <c r="B203" s="3" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C203" s="3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C203" s="3" t="n">
+      <c r="E203" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D203" s="3" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E203" s="3" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="F203" s="3">
-        <f>IF(B203="common", 4, IF(B203="uncommon", 3, IF(B203="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F203" s="3" t="n"/>
+      <c r="G203" s="3" t="n"/>
+      <c r="H203" s="3" t="n"/>
+      <c r="I203" s="3" t="n"/>
+      <c r="J203" s="3" t="n"/>
+      <c r="L203" s="3" t="n"/>
+      <c r="M203" s="3" t="n"/>
+      <c r="Q203" s="3" t="n"/>
+      <c r="R203" s="3" t="n"/>
+      <c r="S203" s="3" t="n"/>
+      <c r="T203" s="3" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
@@ -5603,24 +7019,31 @@
           <t>Weezing</t>
         </is>
       </c>
-      <c r="B204" s="3" t="inlineStr">
+      <c r="B204" s="3" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C204" s="3" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="C204" s="3" t="n">
+      <c r="E204" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D204" s="3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E204" s="3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="F204" s="3">
-        <f>IF(B204="common", 4, IF(B204="uncommon", 3, IF(B204="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F204" s="3" t="n"/>
+      <c r="G204" s="3" t="n"/>
+      <c r="H204" s="3" t="n"/>
+      <c r="I204" s="3" t="n"/>
+      <c r="J204" s="3" t="n"/>
+      <c r="L204" s="3" t="n"/>
+      <c r="M204" s="3" t="n"/>
+      <c r="Q204" s="3" t="n"/>
+      <c r="R204" s="3" t="n"/>
+      <c r="S204" s="3" t="n"/>
+      <c r="T204" s="3" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
@@ -5628,22 +7051,29 @@
           <t>Wigglytuff ex - 040/165</t>
         </is>
       </c>
-      <c r="B205" s="3" t="inlineStr">
+      <c r="B205" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C205" s="3" t="inlineStr"/>
+      <c r="D205" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C205" s="3" t="n">
+      <c r="E205" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D205" s="3" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="E205" s="3" t="inlineStr"/>
-      <c r="F205" s="3">
-        <f>IF(B205="common", 4, IF(B205="uncommon", 3, IF(B205="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F205" s="3" t="n"/>
+      <c r="G205" s="3" t="n"/>
+      <c r="H205" s="3" t="n"/>
+      <c r="I205" s="3" t="n"/>
+      <c r="J205" s="3" t="n"/>
+      <c r="L205" s="3" t="n"/>
+      <c r="M205" s="3" t="n"/>
+      <c r="Q205" s="3" t="n"/>
+      <c r="R205" s="3" t="n"/>
+      <c r="S205" s="3" t="n"/>
+      <c r="T205" s="3" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
@@ -5651,22 +7081,29 @@
           <t>Wigglytuff ex - 187/165</t>
         </is>
       </c>
-      <c r="B206" s="3" t="inlineStr">
+      <c r="B206" s="3" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C206" s="3" t="inlineStr"/>
+      <c r="D206" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C206" s="3" t="n">
+      <c r="E206" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D206" s="3" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E206" s="3" t="inlineStr"/>
-      <c r="F206" s="3">
-        <f>IF(B206="common", 4, IF(B206="uncommon", 3, IF(B206="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F206" s="3" t="n"/>
+      <c r="G206" s="3" t="n"/>
+      <c r="H206" s="3" t="n"/>
+      <c r="I206" s="3" t="n"/>
+      <c r="J206" s="3" t="n"/>
+      <c r="L206" s="3" t="n"/>
+      <c r="M206" s="3" t="n"/>
+      <c r="Q206" s="3" t="n"/>
+      <c r="R206" s="3" t="n"/>
+      <c r="S206" s="3" t="n"/>
+      <c r="T206" s="3" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
@@ -5674,22 +7111,29 @@
           <t>Zapdos ex - 145/165</t>
         </is>
       </c>
-      <c r="B207" s="3" t="inlineStr">
+      <c r="B207" s="3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C207" s="3" t="inlineStr"/>
+      <c r="D207" s="3" t="inlineStr">
         <is>
           <t>double rare</t>
         </is>
       </c>
-      <c r="C207" s="3" t="n">
+      <c r="E207" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="D207" s="3" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E207" s="3" t="inlineStr"/>
-      <c r="F207" s="3">
-        <f>IF(B207="common", 4, IF(B207="uncommon", 3, IF(B207="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F207" s="3" t="n"/>
+      <c r="G207" s="3" t="n"/>
+      <c r="H207" s="3" t="n"/>
+      <c r="I207" s="3" t="n"/>
+      <c r="J207" s="3" t="n"/>
+      <c r="L207" s="3" t="n"/>
+      <c r="M207" s="3" t="n"/>
+      <c r="Q207" s="3" t="n"/>
+      <c r="R207" s="3" t="n"/>
+      <c r="S207" s="3" t="n"/>
+      <c r="T207" s="3" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
@@ -5697,22 +7141,29 @@
           <t>Zapdos ex - 192/165</t>
         </is>
       </c>
-      <c r="B208" s="3" t="inlineStr">
+      <c r="B208" s="3" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="C208" s="3" t="inlineStr"/>
+      <c r="D208" s="3" t="inlineStr">
         <is>
           <t>ultra rare</t>
         </is>
       </c>
-      <c r="C208" s="3" t="n">
+      <c r="E208" s="3" t="n">
         <v>248</v>
       </c>
-      <c r="D208" s="3" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E208" s="3" t="inlineStr"/>
-      <c r="F208" s="3">
-        <f>IF(B208="common", 4, IF(B208="uncommon", 3, IF(B208="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F208" s="3" t="n"/>
+      <c r="G208" s="3" t="n"/>
+      <c r="H208" s="3" t="n"/>
+      <c r="I208" s="3" t="n"/>
+      <c r="J208" s="3" t="n"/>
+      <c r="L208" s="3" t="n"/>
+      <c r="M208" s="3" t="n"/>
+      <c r="Q208" s="3" t="n"/>
+      <c r="R208" s="3" t="n"/>
+      <c r="S208" s="3" t="n"/>
+      <c r="T208" s="3" t="n"/>
     </row>
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
@@ -5720,22 +7171,29 @@
           <t>Zapdos ex - 202/165</t>
         </is>
       </c>
-      <c r="B209" s="3" t="inlineStr">
+      <c r="B209" s="3" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="C209" s="3" t="inlineStr"/>
+      <c r="D209" s="3" t="inlineStr">
         <is>
           <t>special illustration rare</t>
         </is>
       </c>
-      <c r="C209" s="3" t="n">
+      <c r="E209" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="D209" s="3" t="n">
-        <v>55.64</v>
-      </c>
-      <c r="E209" s="3" t="inlineStr"/>
-      <c r="F209" s="3">
-        <f>IF(B209="common", 4, IF(B209="uncommon", 3, IF(B209="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F209" s="3" t="n"/>
+      <c r="G209" s="3" t="n"/>
+      <c r="H209" s="3" t="n"/>
+      <c r="I209" s="3" t="n"/>
+      <c r="J209" s="3" t="n"/>
+      <c r="L209" s="3" t="n"/>
+      <c r="M209" s="3" t="n"/>
+      <c r="Q209" s="3" t="n"/>
+      <c r="R209" s="3" t="n"/>
+      <c r="S209" s="3" t="n"/>
+      <c r="T209" s="3" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
@@ -5743,24 +7201,31 @@
           <t>Zubat</t>
         </is>
       </c>
-      <c r="B210" s="3" t="inlineStr">
+      <c r="B210" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C210" s="3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D210" s="3" t="inlineStr">
         <is>
           <t>common</t>
         </is>
       </c>
-      <c r="C210" s="3" t="n">
+      <c r="E210" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D210" s="3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E210" s="3" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F210" s="3">
-        <f>IF(B210="common", 4, IF(B210="uncommon", 3, IF(B210="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F210" s="3" t="n"/>
+      <c r="G210" s="3" t="n"/>
+      <c r="H210" s="3" t="n"/>
+      <c r="I210" s="3" t="n"/>
+      <c r="J210" s="3" t="n"/>
+      <c r="L210" s="3" t="n"/>
+      <c r="M210" s="3" t="n"/>
+      <c r="Q210" s="3" t="n"/>
+      <c r="R210" s="3" t="n"/>
+      <c r="S210" s="3" t="n"/>
+      <c r="T210" s="3" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
@@ -5790,7 +7255,7 @@
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>Wigglytuff ex - 040/165</t>
+          <t>Pack Prices:</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
@@ -5805,9 +7270,60 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="E212" s="3" t="n"/>
-      <c r="F212" s="3">
-        <f>IF(B212="common", 4, IF(B212="uncommon", 3, IF(B212="rare", 1.74127216869152, 1)))</f>
-        <v/>
+      <c r="F212" s="3" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G212" s="3" t="inlineStr">
+        <is>
+          <t>224.85</t>
+        </is>
+      </c>
+      <c r="H212" s="3" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="I212" s="3" t="inlineStr">
+        <is>
+          <t>261.66</t>
+        </is>
+      </c>
+      <c r="J212" s="3" t="inlineStr">
+        <is>
+          <t>224.85</t>
+        </is>
+      </c>
+      <c r="L212" s="3" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="M212" s="3" t="inlineStr">
+        <is>
+          <t>261.66</t>
+        </is>
+      </c>
+      <c r="Q212" s="3" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="R212" s="3" t="inlineStr">
+        <is>
+          <t>224.84</t>
+        </is>
+      </c>
+      <c r="S212" s="3" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="T212" s="3" t="inlineStr">
+        <is>
+          <t>261.66</t>
+        </is>
       </c>
     </row>
     <row r="213">
@@ -12473,6 +13989,7 @@
   </sheetData>
   <autoFilter ref="A1:K210"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -12513,7 +14030,7 @@
         </is>
       </c>
       <c r="B2" s="12" t="n">
-        <v>0.451304347826087</v>
+        <v>0.4469565217391304</v>
       </c>
     </row>
     <row r="3">
@@ -12523,7 +14040,7 @@
         </is>
       </c>
       <c r="B3" s="12" t="n">
-        <v>0.5090909090909091</v>
+        <v>0.4954545454545455</v>
       </c>
     </row>
     <row r="4">
@@ -12533,7 +14050,7 @@
         </is>
       </c>
       <c r="B4" s="12" t="n">
-        <v>0.213703314659197</v>
+        <v>0.2148360177404295</v>
       </c>
     </row>
     <row r="5">
@@ -12543,7 +14060,7 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>5.313106295878034</v>
+        <v>5.413358438813602</v>
       </c>
     </row>
     <row r="6">
@@ -12583,7 +14100,7 @@
         </is>
       </c>
       <c r="B9" s="12" t="n">
-        <v>1.96968085106383</v>
+        <v>1.936063829787234</v>
       </c>
     </row>
     <row r="10">
@@ -12593,7 +14110,7 @@
         </is>
       </c>
       <c r="B10" s="12" t="n">
-        <v>2.372933333333333</v>
+        <v>2.105955555555556</v>
       </c>
     </row>
     <row r="11">
@@ -12603,7 +14120,7 @@
         </is>
       </c>
       <c r="B11" s="12" t="n">
-        <v>0.3439999999999999</v>
+        <v>0.3091111111111111</v>
       </c>
     </row>
     <row r="12">
@@ -12613,7 +14130,7 @@
         </is>
       </c>
       <c r="B12" s="12" t="n">
-        <v>0.1366233766233766</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="13">
@@ -12623,7 +14140,7 @@
         </is>
       </c>
       <c r="B13" s="12" t="n">
-        <v>0.6449596774193548</v>
+        <v>0.5658467741935483</v>
       </c>
     </row>
     <row r="14">
@@ -12653,7 +14170,7 @@
         </is>
       </c>
       <c r="B16" s="12" t="n">
-        <v>5.468197238439894</v>
+        <v>5.053340907011087</v>
       </c>
     </row>
     <row r="17">
@@ -12663,7 +14180,7 @@
         </is>
       </c>
       <c r="B17" s="12" t="n">
-        <v>11.95540210589412</v>
+        <v>11.62394643075879</v>
       </c>
     </row>
     <row r="18">
@@ -12673,7 +14190,7 @@
         </is>
       </c>
       <c r="B18" s="12" t="n">
-        <v>1.065402105894121</v>
+        <v>0.7339464307587917</v>
       </c>
     </row>
     <row r="19">
@@ -12683,7 +14200,7 @@
         </is>
       </c>
       <c r="B19" s="13" t="n">
-        <v>1.097833067575218</v>
+        <v>1.067396366460862</v>
       </c>
     </row>
     <row r="20">
@@ -12693,7 +14210,7 @@
         </is>
       </c>
       <c r="B20" s="14" t="n">
-        <v>0.09783306757521772</v>
+        <v>0.06739636646086233</v>
       </c>
     </row>
     <row r="21">
@@ -12703,7 +14220,7 @@
         </is>
       </c>
       <c r="B21" s="14" t="n">
-        <v>0.6832877110235632</v>
+        <v>0.7075425630525005</v>
       </c>
     </row>
     <row r="22">
@@ -12713,7 +14230,7 @@
         </is>
       </c>
       <c r="B22" s="14" t="n">
-        <v>0.3167122889764367</v>
+        <v>0.2924574369474995</v>
       </c>
     </row>
   </sheetData>

--- a/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -524,27 +524,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1263"/>
+  <dimension ref="A1:AX1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="39.6" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="4"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="4"/>
     <col width="30" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="39.140625" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="50.28515625" customWidth="1" min="8" max="8"/>
-    <col width="28.85546875" customWidth="1" min="9" max="9"/>
-    <col width="23.7109375" customWidth="1" min="10" max="10"/>
-    <col width="39.42578125" customWidth="1" min="11" max="11"/>
-    <col width="20.7109375" customWidth="1" min="12" max="12"/>
-    <col width="21.85546875" customWidth="1" min="13" max="13"/>
+    <col width="51.42578125" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="67.140625" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="10"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="20.4" customWidth="1" min="12" max="12"/>
+    <col width="28.8" customWidth="1" min="13" max="13"/>
+    <col width="15.85546875" customWidth="1" min="36" max="36"/>
+    <col width="15" customWidth="1" min="46" max="47"/>
+    <col width="24" customWidth="1" min="48" max="48"/>
+    <col width="20.42578125" customWidth="1" min="49" max="49"/>
+    <col width="28.85546875" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -621,10 +626,10 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
@@ -644,20 +649,35 @@
         <v/>
       </c>
       <c r="I2" s="3" t="n">
-        <v>10.89</v>
+        <v>10.35</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>215.18</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>5.6</v>
-      </c>
+        <v>224.93</v>
+      </c>
+      <c r="K2" s="3" t="n"/>
       <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
+      <c r="M2" s="3" t="n">
+        <v>250.78</v>
+      </c>
       <c r="Q2" s="3" t="n"/>
       <c r="R2" s="3" t="n"/>
       <c r="S2" s="3" t="n"/>
       <c r="T2" s="3" t="n"/>
+      <c r="Z2" s="3" t="n"/>
+      <c r="AA2" s="3" t="n"/>
+      <c r="AB2" s="3" t="n"/>
+      <c r="AC2" s="3" t="n"/>
+      <c r="AD2" s="3" t="n"/>
+      <c r="AJ2" s="3" t="n"/>
+      <c r="AK2" s="3" t="n"/>
+      <c r="AL2" s="3" t="n"/>
+      <c r="AM2" s="3" t="n"/>
+      <c r="AN2" s="3" t="n"/>
+      <c r="AT2" s="3" t="n"/>
+      <c r="AU2" s="3" t="n"/>
+      <c r="AV2" s="3" t="n"/>
+      <c r="AW2" s="3" t="n"/>
+      <c r="AX2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -666,10 +686,10 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.53</v>
+        <v>0.78</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
@@ -687,12 +707,28 @@
       </c>
       <c r="I3" s="3" t="n"/>
       <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
       <c r="L3" s="3" t="n"/>
       <c r="M3" s="3" t="n"/>
       <c r="Q3" s="3" t="n"/>
       <c r="R3" s="3" t="n"/>
       <c r="S3" s="3" t="n"/>
       <c r="T3" s="3" t="n"/>
+      <c r="Z3" s="3" t="n"/>
+      <c r="AA3" s="3" t="n"/>
+      <c r="AB3" s="3" t="n"/>
+      <c r="AC3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n"/>
+      <c r="AJ3" s="3" t="n"/>
+      <c r="AK3" s="3" t="n"/>
+      <c r="AL3" s="3" t="n"/>
+      <c r="AM3" s="3" t="n"/>
+      <c r="AN3" s="3" t="n"/>
+      <c r="AT3" s="3" t="n"/>
+      <c r="AU3" s="3" t="n"/>
+      <c r="AV3" s="3" t="n"/>
+      <c r="AW3" s="3" t="n"/>
+      <c r="AX3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -701,7 +737,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.93</v>
+        <v>1.02</v>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr">
@@ -720,12 +756,28 @@
       </c>
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
       <c r="L4" s="3" t="n"/>
       <c r="M4" s="3" t="n"/>
       <c r="Q4" s="3" t="n"/>
       <c r="R4" s="3" t="n"/>
       <c r="S4" s="3" t="n"/>
       <c r="T4" s="3" t="n"/>
+      <c r="Z4" s="3" t="n"/>
+      <c r="AA4" s="3" t="n"/>
+      <c r="AB4" s="3" t="n"/>
+      <c r="AC4" s="3" t="n"/>
+      <c r="AD4" s="3" t="n"/>
+      <c r="AJ4" s="3" t="n"/>
+      <c r="AK4" s="3" t="n"/>
+      <c r="AL4" s="3" t="n"/>
+      <c r="AM4" s="3" t="n"/>
+      <c r="AN4" s="3" t="n"/>
+      <c r="AT4" s="3" t="n"/>
+      <c r="AU4" s="3" t="n"/>
+      <c r="AV4" s="3" t="n"/>
+      <c r="AW4" s="3" t="n"/>
+      <c r="AX4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -734,7 +786,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr">
@@ -753,12 +805,28 @@
       </c>
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
       <c r="L5" s="3" t="n"/>
       <c r="M5" s="3" t="n"/>
       <c r="Q5" s="3" t="n"/>
       <c r="R5" s="3" t="n"/>
       <c r="S5" s="3" t="n"/>
       <c r="T5" s="3" t="n"/>
+      <c r="Z5" s="3" t="n"/>
+      <c r="AA5" s="3" t="n"/>
+      <c r="AB5" s="3" t="n"/>
+      <c r="AC5" s="3" t="n"/>
+      <c r="AD5" s="3" t="n"/>
+      <c r="AJ5" s="3" t="n"/>
+      <c r="AK5" s="3" t="n"/>
+      <c r="AL5" s="3" t="n"/>
+      <c r="AM5" s="3" t="n"/>
+      <c r="AN5" s="3" t="n"/>
+      <c r="AT5" s="3" t="n"/>
+      <c r="AU5" s="3" t="n"/>
+      <c r="AV5" s="3" t="n"/>
+      <c r="AW5" s="3" t="n"/>
+      <c r="AX5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -767,7 +835,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>42.11</v>
+        <v>42.53</v>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr">
@@ -786,12 +854,28 @@
       </c>
       <c r="I6" s="3" t="n"/>
       <c r="J6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
       <c r="L6" s="3" t="n"/>
       <c r="M6" s="3" t="n"/>
       <c r="Q6" s="3" t="n"/>
       <c r="R6" s="3" t="n"/>
       <c r="S6" s="3" t="n"/>
       <c r="T6" s="3" t="n"/>
+      <c r="Z6" s="3" t="n"/>
+      <c r="AA6" s="3" t="n"/>
+      <c r="AB6" s="3" t="n"/>
+      <c r="AC6" s="3" t="n"/>
+      <c r="AD6" s="3" t="n"/>
+      <c r="AJ6" s="3" t="n"/>
+      <c r="AK6" s="3" t="n"/>
+      <c r="AL6" s="3" t="n"/>
+      <c r="AM6" s="3" t="n"/>
+      <c r="AN6" s="3" t="n"/>
+      <c r="AT6" s="3" t="n"/>
+      <c r="AU6" s="3" t="n"/>
+      <c r="AV6" s="3" t="n"/>
+      <c r="AW6" s="3" t="n"/>
+      <c r="AX6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -803,7 +887,7 @@
         <v>0.08</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
@@ -821,12 +905,28 @@
       </c>
       <c r="I7" s="3" t="n"/>
       <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
       <c r="L7" s="3" t="n"/>
       <c r="M7" s="3" t="n"/>
       <c r="Q7" s="3" t="n"/>
       <c r="R7" s="3" t="n"/>
       <c r="S7" s="3" t="n"/>
       <c r="T7" s="3" t="n"/>
+      <c r="Z7" s="3" t="n"/>
+      <c r="AA7" s="3" t="n"/>
+      <c r="AB7" s="3" t="n"/>
+      <c r="AC7" s="3" t="n"/>
+      <c r="AD7" s="3" t="n"/>
+      <c r="AJ7" s="3" t="n"/>
+      <c r="AK7" s="3" t="n"/>
+      <c r="AL7" s="3" t="n"/>
+      <c r="AM7" s="3" t="n"/>
+      <c r="AN7" s="3" t="n"/>
+      <c r="AT7" s="3" t="n"/>
+      <c r="AU7" s="3" t="n"/>
+      <c r="AV7" s="3" t="n"/>
+      <c r="AW7" s="3" t="n"/>
+      <c r="AX7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -835,10 +935,10 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
@@ -856,12 +956,28 @@
       </c>
       <c r="I8" s="3" t="n"/>
       <c r="J8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
       <c r="L8" s="3" t="n"/>
       <c r="M8" s="3" t="n"/>
       <c r="Q8" s="3" t="n"/>
       <c r="R8" s="3" t="n"/>
       <c r="S8" s="3" t="n"/>
       <c r="T8" s="3" t="n"/>
+      <c r="Z8" s="3" t="n"/>
+      <c r="AA8" s="3" t="n"/>
+      <c r="AB8" s="3" t="n"/>
+      <c r="AC8" s="3" t="n"/>
+      <c r="AD8" s="3" t="n"/>
+      <c r="AJ8" s="3" t="n"/>
+      <c r="AK8" s="3" t="n"/>
+      <c r="AL8" s="3" t="n"/>
+      <c r="AM8" s="3" t="n"/>
+      <c r="AN8" s="3" t="n"/>
+      <c r="AT8" s="3" t="n"/>
+      <c r="AU8" s="3" t="n"/>
+      <c r="AV8" s="3" t="n"/>
+      <c r="AW8" s="3" t="n"/>
+      <c r="AX8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -873,7 +989,7 @@
         <v>0.11</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
@@ -891,12 +1007,28 @@
       </c>
       <c r="I9" s="3" t="n"/>
       <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
       <c r="L9" s="3" t="n"/>
       <c r="M9" s="3" t="n"/>
       <c r="Q9" s="3" t="n"/>
       <c r="R9" s="3" t="n"/>
       <c r="S9" s="3" t="n"/>
       <c r="T9" s="3" t="n"/>
+      <c r="Z9" s="3" t="n"/>
+      <c r="AA9" s="3" t="n"/>
+      <c r="AB9" s="3" t="n"/>
+      <c r="AC9" s="3" t="n"/>
+      <c r="AD9" s="3" t="n"/>
+      <c r="AJ9" s="3" t="n"/>
+      <c r="AK9" s="3" t="n"/>
+      <c r="AL9" s="3" t="n"/>
+      <c r="AM9" s="3" t="n"/>
+      <c r="AN9" s="3" t="n"/>
+      <c r="AT9" s="3" t="n"/>
+      <c r="AU9" s="3" t="n"/>
+      <c r="AV9" s="3" t="n"/>
+      <c r="AW9" s="3" t="n"/>
+      <c r="AX9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -905,7 +1037,7 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr">
@@ -924,12 +1056,28 @@
       </c>
       <c r="I10" s="3" t="n"/>
       <c r="J10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
       <c r="L10" s="3" t="n"/>
       <c r="M10" s="3" t="n"/>
       <c r="Q10" s="3" t="n"/>
       <c r="R10" s="3" t="n"/>
       <c r="S10" s="3" t="n"/>
       <c r="T10" s="3" t="n"/>
+      <c r="Z10" s="3" t="n"/>
+      <c r="AA10" s="3" t="n"/>
+      <c r="AB10" s="3" t="n"/>
+      <c r="AC10" s="3" t="n"/>
+      <c r="AD10" s="3" t="n"/>
+      <c r="AJ10" s="3" t="n"/>
+      <c r="AK10" s="3" t="n"/>
+      <c r="AL10" s="3" t="n"/>
+      <c r="AM10" s="3" t="n"/>
+      <c r="AN10" s="3" t="n"/>
+      <c r="AT10" s="3" t="n"/>
+      <c r="AU10" s="3" t="n"/>
+      <c r="AV10" s="3" t="n"/>
+      <c r="AW10" s="3" t="n"/>
+      <c r="AX10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -938,7 +1086,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>4.88</v>
+        <v>4.63</v>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr">
@@ -954,12 +1102,28 @@
       <c r="H11" s="3" t="n"/>
       <c r="I11" s="3" t="n"/>
       <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
       <c r="L11" s="3" t="n"/>
       <c r="M11" s="3" t="n"/>
       <c r="Q11" s="3" t="n"/>
       <c r="R11" s="3" t="n"/>
       <c r="S11" s="3" t="n"/>
       <c r="T11" s="3" t="n"/>
+      <c r="Z11" s="3" t="n"/>
+      <c r="AA11" s="3" t="n"/>
+      <c r="AB11" s="3" t="n"/>
+      <c r="AC11" s="3" t="n"/>
+      <c r="AD11" s="3" t="n"/>
+      <c r="AJ11" s="3" t="n"/>
+      <c r="AK11" s="3" t="n"/>
+      <c r="AL11" s="3" t="n"/>
+      <c r="AM11" s="3" t="n"/>
+      <c r="AN11" s="3" t="n"/>
+      <c r="AT11" s="3" t="n"/>
+      <c r="AU11" s="3" t="n"/>
+      <c r="AV11" s="3" t="n"/>
+      <c r="AW11" s="3" t="n"/>
+      <c r="AX11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -968,10 +1132,10 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
@@ -986,12 +1150,28 @@
       <c r="H12" s="3" t="n"/>
       <c r="I12" s="3" t="n"/>
       <c r="J12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
       <c r="L12" s="3" t="n"/>
       <c r="M12" s="3" t="n"/>
       <c r="Q12" s="3" t="n"/>
       <c r="R12" s="3" t="n"/>
       <c r="S12" s="3" t="n"/>
       <c r="T12" s="3" t="n"/>
+      <c r="Z12" s="3" t="n"/>
+      <c r="AA12" s="3" t="n"/>
+      <c r="AB12" s="3" t="n"/>
+      <c r="AC12" s="3" t="n"/>
+      <c r="AD12" s="3" t="n"/>
+      <c r="AJ12" s="3" t="n"/>
+      <c r="AK12" s="3" t="n"/>
+      <c r="AL12" s="3" t="n"/>
+      <c r="AM12" s="3" t="n"/>
+      <c r="AN12" s="3" t="n"/>
+      <c r="AT12" s="3" t="n"/>
+      <c r="AU12" s="3" t="n"/>
+      <c r="AV12" s="3" t="n"/>
+      <c r="AW12" s="3" t="n"/>
+      <c r="AX12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -1000,10 +1180,10 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
@@ -1018,12 +1198,28 @@
       <c r="H13" s="3" t="n"/>
       <c r="I13" s="3" t="n"/>
       <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
       <c r="L13" s="3" t="n"/>
       <c r="M13" s="3" t="n"/>
       <c r="Q13" s="3" t="n"/>
       <c r="R13" s="3" t="n"/>
       <c r="S13" s="3" t="n"/>
       <c r="T13" s="3" t="n"/>
+      <c r="Z13" s="3" t="n"/>
+      <c r="AA13" s="3" t="n"/>
+      <c r="AB13" s="3" t="n"/>
+      <c r="AC13" s="3" t="n"/>
+      <c r="AD13" s="3" t="n"/>
+      <c r="AJ13" s="3" t="n"/>
+      <c r="AK13" s="3" t="n"/>
+      <c r="AL13" s="3" t="n"/>
+      <c r="AM13" s="3" t="n"/>
+      <c r="AN13" s="3" t="n"/>
+      <c r="AT13" s="3" t="n"/>
+      <c r="AU13" s="3" t="n"/>
+      <c r="AV13" s="3" t="n"/>
+      <c r="AW13" s="3" t="n"/>
+      <c r="AX13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -1032,7 +1228,7 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr">
@@ -1048,12 +1244,28 @@
       <c r="H14" s="3" t="n"/>
       <c r="I14" s="3" t="n"/>
       <c r="J14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
       <c r="L14" s="3" t="n"/>
       <c r="M14" s="3" t="n"/>
       <c r="Q14" s="3" t="n"/>
       <c r="R14" s="3" t="n"/>
       <c r="S14" s="3" t="n"/>
       <c r="T14" s="3" t="n"/>
+      <c r="Z14" s="3" t="n"/>
+      <c r="AA14" s="3" t="n"/>
+      <c r="AB14" s="3" t="n"/>
+      <c r="AC14" s="3" t="n"/>
+      <c r="AD14" s="3" t="n"/>
+      <c r="AJ14" s="3" t="n"/>
+      <c r="AK14" s="3" t="n"/>
+      <c r="AL14" s="3" t="n"/>
+      <c r="AM14" s="3" t="n"/>
+      <c r="AN14" s="3" t="n"/>
+      <c r="AT14" s="3" t="n"/>
+      <c r="AU14" s="3" t="n"/>
+      <c r="AV14" s="3" t="n"/>
+      <c r="AW14" s="3" t="n"/>
+      <c r="AX14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -1062,10 +1274,10 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
@@ -1080,12 +1292,28 @@
       <c r="H15" s="3" t="n"/>
       <c r="I15" s="3" t="n"/>
       <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
       <c r="L15" s="3" t="n"/>
       <c r="M15" s="3" t="n"/>
       <c r="Q15" s="3" t="n"/>
       <c r="R15" s="3" t="n"/>
       <c r="S15" s="3" t="n"/>
       <c r="T15" s="3" t="n"/>
+      <c r="Z15" s="3" t="n"/>
+      <c r="AA15" s="3" t="n"/>
+      <c r="AB15" s="3" t="n"/>
+      <c r="AC15" s="3" t="n"/>
+      <c r="AD15" s="3" t="n"/>
+      <c r="AJ15" s="3" t="n"/>
+      <c r="AK15" s="3" t="n"/>
+      <c r="AL15" s="3" t="n"/>
+      <c r="AM15" s="3" t="n"/>
+      <c r="AN15" s="3" t="n"/>
+      <c r="AT15" s="3" t="n"/>
+      <c r="AU15" s="3" t="n"/>
+      <c r="AV15" s="3" t="n"/>
+      <c r="AW15" s="3" t="n"/>
+      <c r="AX15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -1094,7 +1322,7 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>0.15</v>
@@ -1112,12 +1340,28 @@
       <c r="H16" s="3" t="n"/>
       <c r="I16" s="3" t="n"/>
       <c r="J16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
       <c r="L16" s="3" t="n"/>
       <c r="M16" s="3" t="n"/>
       <c r="Q16" s="3" t="n"/>
       <c r="R16" s="3" t="n"/>
       <c r="S16" s="3" t="n"/>
       <c r="T16" s="3" t="n"/>
+      <c r="Z16" s="3" t="n"/>
+      <c r="AA16" s="3" t="n"/>
+      <c r="AB16" s="3" t="n"/>
+      <c r="AC16" s="3" t="n"/>
+      <c r="AD16" s="3" t="n"/>
+      <c r="AJ16" s="3" t="n"/>
+      <c r="AK16" s="3" t="n"/>
+      <c r="AL16" s="3" t="n"/>
+      <c r="AM16" s="3" t="n"/>
+      <c r="AN16" s="3" t="n"/>
+      <c r="AT16" s="3" t="n"/>
+      <c r="AU16" s="3" t="n"/>
+      <c r="AV16" s="3" t="n"/>
+      <c r="AW16" s="3" t="n"/>
+      <c r="AX16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -1126,10 +1370,10 @@
         </is>
       </c>
       <c r="B17" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
@@ -1144,12 +1388,28 @@
       <c r="H17" s="3" t="n"/>
       <c r="I17" s="3" t="n"/>
       <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
       <c r="L17" s="3" t="n"/>
       <c r="M17" s="3" t="n"/>
       <c r="Q17" s="3" t="n"/>
       <c r="R17" s="3" t="n"/>
       <c r="S17" s="3" t="n"/>
       <c r="T17" s="3" t="n"/>
+      <c r="Z17" s="3" t="n"/>
+      <c r="AA17" s="3" t="n"/>
+      <c r="AB17" s="3" t="n"/>
+      <c r="AC17" s="3" t="n"/>
+      <c r="AD17" s="3" t="n"/>
+      <c r="AJ17" s="3" t="n"/>
+      <c r="AK17" s="3" t="n"/>
+      <c r="AL17" s="3" t="n"/>
+      <c r="AM17" s="3" t="n"/>
+      <c r="AN17" s="3" t="n"/>
+      <c r="AT17" s="3" t="n"/>
+      <c r="AU17" s="3" t="n"/>
+      <c r="AV17" s="3" t="n"/>
+      <c r="AW17" s="3" t="n"/>
+      <c r="AX17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -1158,10 +1418,10 @@
         </is>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
@@ -1176,12 +1436,28 @@
       <c r="H18" s="3" t="n"/>
       <c r="I18" s="3" t="n"/>
       <c r="J18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
       <c r="L18" s="3" t="n"/>
       <c r="M18" s="3" t="n"/>
       <c r="Q18" s="3" t="n"/>
       <c r="R18" s="3" t="n"/>
       <c r="S18" s="3" t="n"/>
       <c r="T18" s="3" t="n"/>
+      <c r="Z18" s="3" t="n"/>
+      <c r="AA18" s="3" t="n"/>
+      <c r="AB18" s="3" t="n"/>
+      <c r="AC18" s="3" t="n"/>
+      <c r="AD18" s="3" t="n"/>
+      <c r="AJ18" s="3" t="n"/>
+      <c r="AK18" s="3" t="n"/>
+      <c r="AL18" s="3" t="n"/>
+      <c r="AM18" s="3" t="n"/>
+      <c r="AN18" s="3" t="n"/>
+      <c r="AT18" s="3" t="n"/>
+      <c r="AU18" s="3" t="n"/>
+      <c r="AV18" s="3" t="n"/>
+      <c r="AW18" s="3" t="n"/>
+      <c r="AX18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -1190,7 +1466,7 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr">
@@ -1206,12 +1482,28 @@
       <c r="H19" s="3" t="n"/>
       <c r="I19" s="3" t="n"/>
       <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
       <c r="L19" s="3" t="n"/>
       <c r="M19" s="3" t="n"/>
       <c r="Q19" s="3" t="n"/>
       <c r="R19" s="3" t="n"/>
       <c r="S19" s="3" t="n"/>
       <c r="T19" s="3" t="n"/>
+      <c r="Z19" s="3" t="n"/>
+      <c r="AA19" s="3" t="n"/>
+      <c r="AB19" s="3" t="n"/>
+      <c r="AC19" s="3" t="n"/>
+      <c r="AD19" s="3" t="n"/>
+      <c r="AJ19" s="3" t="n"/>
+      <c r="AK19" s="3" t="n"/>
+      <c r="AL19" s="3" t="n"/>
+      <c r="AM19" s="3" t="n"/>
+      <c r="AN19" s="3" t="n"/>
+      <c r="AT19" s="3" t="n"/>
+      <c r="AU19" s="3" t="n"/>
+      <c r="AV19" s="3" t="n"/>
+      <c r="AW19" s="3" t="n"/>
+      <c r="AX19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -1220,7 +1512,7 @@
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr">
@@ -1236,12 +1528,28 @@
       <c r="H20" s="3" t="n"/>
       <c r="I20" s="3" t="n"/>
       <c r="J20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
       <c r="L20" s="3" t="n"/>
       <c r="M20" s="3" t="n"/>
       <c r="Q20" s="3" t="n"/>
       <c r="R20" s="3" t="n"/>
       <c r="S20" s="3" t="n"/>
       <c r="T20" s="3" t="n"/>
+      <c r="Z20" s="3" t="n"/>
+      <c r="AA20" s="3" t="n"/>
+      <c r="AB20" s="3" t="n"/>
+      <c r="AC20" s="3" t="n"/>
+      <c r="AD20" s="3" t="n"/>
+      <c r="AJ20" s="3" t="n"/>
+      <c r="AK20" s="3" t="n"/>
+      <c r="AL20" s="3" t="n"/>
+      <c r="AM20" s="3" t="n"/>
+      <c r="AN20" s="3" t="n"/>
+      <c r="AT20" s="3" t="n"/>
+      <c r="AU20" s="3" t="n"/>
+      <c r="AV20" s="3" t="n"/>
+      <c r="AW20" s="3" t="n"/>
+      <c r="AX20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
@@ -1250,7 +1558,7 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>14.02</v>
+        <v>14.26</v>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr">
@@ -1266,12 +1574,28 @@
       <c r="H21" s="3" t="n"/>
       <c r="I21" s="3" t="n"/>
       <c r="J21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
       <c r="L21" s="3" t="n"/>
       <c r="M21" s="3" t="n"/>
       <c r="Q21" s="3" t="n"/>
       <c r="R21" s="3" t="n"/>
       <c r="S21" s="3" t="n"/>
       <c r="T21" s="3" t="n"/>
+      <c r="Z21" s="3" t="n"/>
+      <c r="AA21" s="3" t="n"/>
+      <c r="AB21" s="3" t="n"/>
+      <c r="AC21" s="3" t="n"/>
+      <c r="AD21" s="3" t="n"/>
+      <c r="AJ21" s="3" t="n"/>
+      <c r="AK21" s="3" t="n"/>
+      <c r="AL21" s="3" t="n"/>
+      <c r="AM21" s="3" t="n"/>
+      <c r="AN21" s="3" t="n"/>
+      <c r="AT21" s="3" t="n"/>
+      <c r="AU21" s="3" t="n"/>
+      <c r="AV21" s="3" t="n"/>
+      <c r="AW21" s="3" t="n"/>
+      <c r="AX21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -1280,7 +1604,7 @@
         </is>
       </c>
       <c r="B22" s="3" t="n">
-        <v>71.38</v>
+        <v>70.86</v>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr">
@@ -1296,12 +1620,28 @@
       <c r="H22" s="3" t="n"/>
       <c r="I22" s="3" t="n"/>
       <c r="J22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
       <c r="L22" s="3" t="n"/>
       <c r="M22" s="3" t="n"/>
       <c r="Q22" s="3" t="n"/>
       <c r="R22" s="3" t="n"/>
       <c r="S22" s="3" t="n"/>
       <c r="T22" s="3" t="n"/>
+      <c r="Z22" s="3" t="n"/>
+      <c r="AA22" s="3" t="n"/>
+      <c r="AB22" s="3" t="n"/>
+      <c r="AC22" s="3" t="n"/>
+      <c r="AD22" s="3" t="n"/>
+      <c r="AJ22" s="3" t="n"/>
+      <c r="AK22" s="3" t="n"/>
+      <c r="AL22" s="3" t="n"/>
+      <c r="AM22" s="3" t="n"/>
+      <c r="AN22" s="3" t="n"/>
+      <c r="AT22" s="3" t="n"/>
+      <c r="AU22" s="3" t="n"/>
+      <c r="AV22" s="3" t="n"/>
+      <c r="AW22" s="3" t="n"/>
+      <c r="AX22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -1310,10 +1650,10 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
@@ -1328,12 +1668,28 @@
       <c r="H23" s="3" t="n"/>
       <c r="I23" s="3" t="n"/>
       <c r="J23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
       <c r="L23" s="3" t="n"/>
       <c r="M23" s="3" t="n"/>
       <c r="Q23" s="3" t="n"/>
       <c r="R23" s="3" t="n"/>
       <c r="S23" s="3" t="n"/>
       <c r="T23" s="3" t="n"/>
+      <c r="Z23" s="3" t="n"/>
+      <c r="AA23" s="3" t="n"/>
+      <c r="AB23" s="3" t="n"/>
+      <c r="AC23" s="3" t="n"/>
+      <c r="AD23" s="3" t="n"/>
+      <c r="AJ23" s="3" t="n"/>
+      <c r="AK23" s="3" t="n"/>
+      <c r="AL23" s="3" t="n"/>
+      <c r="AM23" s="3" t="n"/>
+      <c r="AN23" s="3" t="n"/>
+      <c r="AT23" s="3" t="n"/>
+      <c r="AU23" s="3" t="n"/>
+      <c r="AV23" s="3" t="n"/>
+      <c r="AW23" s="3" t="n"/>
+      <c r="AX23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -1342,7 +1698,7 @@
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>36.58</v>
+        <v>36.42</v>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr">
@@ -1358,12 +1714,28 @@
       <c r="H24" s="3" t="n"/>
       <c r="I24" s="3" t="n"/>
       <c r="J24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
       <c r="L24" s="3" t="n"/>
       <c r="M24" s="3" t="n"/>
       <c r="Q24" s="3" t="n"/>
       <c r="R24" s="3" t="n"/>
       <c r="S24" s="3" t="n"/>
       <c r="T24" s="3" t="n"/>
+      <c r="Z24" s="3" t="n"/>
+      <c r="AA24" s="3" t="n"/>
+      <c r="AB24" s="3" t="n"/>
+      <c r="AC24" s="3" t="n"/>
+      <c r="AD24" s="3" t="n"/>
+      <c r="AJ24" s="3" t="n"/>
+      <c r="AK24" s="3" t="n"/>
+      <c r="AL24" s="3" t="n"/>
+      <c r="AM24" s="3" t="n"/>
+      <c r="AN24" s="3" t="n"/>
+      <c r="AT24" s="3" t="n"/>
+      <c r="AU24" s="3" t="n"/>
+      <c r="AV24" s="3" t="n"/>
+      <c r="AW24" s="3" t="n"/>
+      <c r="AX24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -1372,10 +1744,10 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
@@ -1390,12 +1762,28 @@
       <c r="H25" s="3" t="n"/>
       <c r="I25" s="3" t="n"/>
       <c r="J25" s="3" t="n"/>
+      <c r="K25" s="3" t="n"/>
       <c r="L25" s="3" t="n"/>
       <c r="M25" s="3" t="n"/>
       <c r="Q25" s="3" t="n"/>
       <c r="R25" s="3" t="n"/>
       <c r="S25" s="3" t="n"/>
       <c r="T25" s="3" t="n"/>
+      <c r="Z25" s="3" t="n"/>
+      <c r="AA25" s="3" t="n"/>
+      <c r="AB25" s="3" t="n"/>
+      <c r="AC25" s="3" t="n"/>
+      <c r="AD25" s="3" t="n"/>
+      <c r="AJ25" s="3" t="n"/>
+      <c r="AK25" s="3" t="n"/>
+      <c r="AL25" s="3" t="n"/>
+      <c r="AM25" s="3" t="n"/>
+      <c r="AN25" s="3" t="n"/>
+      <c r="AT25" s="3" t="n"/>
+      <c r="AU25" s="3" t="n"/>
+      <c r="AV25" s="3" t="n"/>
+      <c r="AW25" s="3" t="n"/>
+      <c r="AX25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -1404,10 +1792,10 @@
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
@@ -1422,12 +1810,28 @@
       <c r="H26" s="3" t="n"/>
       <c r="I26" s="3" t="n"/>
       <c r="J26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
       <c r="L26" s="3" t="n"/>
       <c r="M26" s="3" t="n"/>
       <c r="Q26" s="3" t="n"/>
       <c r="R26" s="3" t="n"/>
       <c r="S26" s="3" t="n"/>
       <c r="T26" s="3" t="n"/>
+      <c r="Z26" s="3" t="n"/>
+      <c r="AA26" s="3" t="n"/>
+      <c r="AB26" s="3" t="n"/>
+      <c r="AC26" s="3" t="n"/>
+      <c r="AD26" s="3" t="n"/>
+      <c r="AJ26" s="3" t="n"/>
+      <c r="AK26" s="3" t="n"/>
+      <c r="AL26" s="3" t="n"/>
+      <c r="AM26" s="3" t="n"/>
+      <c r="AN26" s="3" t="n"/>
+      <c r="AT26" s="3" t="n"/>
+      <c r="AU26" s="3" t="n"/>
+      <c r="AV26" s="3" t="n"/>
+      <c r="AW26" s="3" t="n"/>
+      <c r="AX26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -1436,7 +1840,7 @@
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>9.82</v>
+        <v>9.58</v>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr">
@@ -1452,12 +1856,28 @@
       <c r="H27" s="3" t="n"/>
       <c r="I27" s="3" t="n"/>
       <c r="J27" s="3" t="n"/>
+      <c r="K27" s="3" t="n"/>
       <c r="L27" s="3" t="n"/>
       <c r="M27" s="3" t="n"/>
       <c r="Q27" s="3" t="n"/>
       <c r="R27" s="3" t="n"/>
       <c r="S27" s="3" t="n"/>
       <c r="T27" s="3" t="n"/>
+      <c r="Z27" s="3" t="n"/>
+      <c r="AA27" s="3" t="n"/>
+      <c r="AB27" s="3" t="n"/>
+      <c r="AC27" s="3" t="n"/>
+      <c r="AD27" s="3" t="n"/>
+      <c r="AJ27" s="3" t="n"/>
+      <c r="AK27" s="3" t="n"/>
+      <c r="AL27" s="3" t="n"/>
+      <c r="AM27" s="3" t="n"/>
+      <c r="AN27" s="3" t="n"/>
+      <c r="AT27" s="3" t="n"/>
+      <c r="AU27" s="3" t="n"/>
+      <c r="AV27" s="3" t="n"/>
+      <c r="AW27" s="3" t="n"/>
+      <c r="AX27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -1466,10 +1886,10 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
@@ -1484,12 +1904,28 @@
       <c r="H28" s="3" t="n"/>
       <c r="I28" s="3" t="n"/>
       <c r="J28" s="3" t="n"/>
+      <c r="K28" s="3" t="n"/>
       <c r="L28" s="3" t="n"/>
       <c r="M28" s="3" t="n"/>
       <c r="Q28" s="3" t="n"/>
       <c r="R28" s="3" t="n"/>
       <c r="S28" s="3" t="n"/>
       <c r="T28" s="3" t="n"/>
+      <c r="Z28" s="3" t="n"/>
+      <c r="AA28" s="3" t="n"/>
+      <c r="AB28" s="3" t="n"/>
+      <c r="AC28" s="3" t="n"/>
+      <c r="AD28" s="3" t="n"/>
+      <c r="AJ28" s="3" t="n"/>
+      <c r="AK28" s="3" t="n"/>
+      <c r="AL28" s="3" t="n"/>
+      <c r="AM28" s="3" t="n"/>
+      <c r="AN28" s="3" t="n"/>
+      <c r="AT28" s="3" t="n"/>
+      <c r="AU28" s="3" t="n"/>
+      <c r="AV28" s="3" t="n"/>
+      <c r="AW28" s="3" t="n"/>
+      <c r="AX28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
@@ -1498,7 +1934,7 @@
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>4.38</v>
+        <v>4.29</v>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr">
@@ -1514,12 +1950,28 @@
       <c r="H29" s="3" t="n"/>
       <c r="I29" s="3" t="n"/>
       <c r="J29" s="3" t="n"/>
+      <c r="K29" s="3" t="n"/>
       <c r="L29" s="3" t="n"/>
       <c r="M29" s="3" t="n"/>
       <c r="Q29" s="3" t="n"/>
       <c r="R29" s="3" t="n"/>
       <c r="S29" s="3" t="n"/>
       <c r="T29" s="3" t="n"/>
+      <c r="Z29" s="3" t="n"/>
+      <c r="AA29" s="3" t="n"/>
+      <c r="AB29" s="3" t="n"/>
+      <c r="AC29" s="3" t="n"/>
+      <c r="AD29" s="3" t="n"/>
+      <c r="AJ29" s="3" t="n"/>
+      <c r="AK29" s="3" t="n"/>
+      <c r="AL29" s="3" t="n"/>
+      <c r="AM29" s="3" t="n"/>
+      <c r="AN29" s="3" t="n"/>
+      <c r="AT29" s="3" t="n"/>
+      <c r="AU29" s="3" t="n"/>
+      <c r="AV29" s="3" t="n"/>
+      <c r="AW29" s="3" t="n"/>
+      <c r="AX29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -1528,7 +1980,7 @@
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>30.35</v>
+        <v>28.77</v>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr">
@@ -1544,12 +1996,28 @@
       <c r="H30" s="3" t="n"/>
       <c r="I30" s="3" t="n"/>
       <c r="J30" s="3" t="n"/>
+      <c r="K30" s="3" t="n"/>
       <c r="L30" s="3" t="n"/>
       <c r="M30" s="3" t="n"/>
       <c r="Q30" s="3" t="n"/>
       <c r="R30" s="3" t="n"/>
       <c r="S30" s="3" t="n"/>
       <c r="T30" s="3" t="n"/>
+      <c r="Z30" s="3" t="n"/>
+      <c r="AA30" s="3" t="n"/>
+      <c r="AB30" s="3" t="n"/>
+      <c r="AC30" s="3" t="n"/>
+      <c r="AD30" s="3" t="n"/>
+      <c r="AJ30" s="3" t="n"/>
+      <c r="AK30" s="3" t="n"/>
+      <c r="AL30" s="3" t="n"/>
+      <c r="AM30" s="3" t="n"/>
+      <c r="AN30" s="3" t="n"/>
+      <c r="AT30" s="3" t="n"/>
+      <c r="AU30" s="3" t="n"/>
+      <c r="AV30" s="3" t="n"/>
+      <c r="AW30" s="3" t="n"/>
+      <c r="AX30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
@@ -1558,7 +2026,7 @@
         </is>
       </c>
       <c r="B31" s="3" t="n">
-        <v>212.94</v>
+        <v>206.73</v>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr">
@@ -1574,12 +2042,28 @@
       <c r="H31" s="3" t="n"/>
       <c r="I31" s="3" t="n"/>
       <c r="J31" s="3" t="n"/>
+      <c r="K31" s="3" t="n"/>
       <c r="L31" s="3" t="n"/>
       <c r="M31" s="3" t="n"/>
       <c r="Q31" s="3" t="n"/>
       <c r="R31" s="3" t="n"/>
       <c r="S31" s="3" t="n"/>
       <c r="T31" s="3" t="n"/>
+      <c r="Z31" s="3" t="n"/>
+      <c r="AA31" s="3" t="n"/>
+      <c r="AB31" s="3" t="n"/>
+      <c r="AC31" s="3" t="n"/>
+      <c r="AD31" s="3" t="n"/>
+      <c r="AJ31" s="3" t="n"/>
+      <c r="AK31" s="3" t="n"/>
+      <c r="AL31" s="3" t="n"/>
+      <c r="AM31" s="3" t="n"/>
+      <c r="AN31" s="3" t="n"/>
+      <c r="AT31" s="3" t="n"/>
+      <c r="AU31" s="3" t="n"/>
+      <c r="AV31" s="3" t="n"/>
+      <c r="AW31" s="3" t="n"/>
+      <c r="AX31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
@@ -1588,7 +2072,7 @@
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>0.18</v>
@@ -1606,12 +2090,28 @@
       <c r="H32" s="3" t="n"/>
       <c r="I32" s="3" t="n"/>
       <c r="J32" s="3" t="n"/>
+      <c r="K32" s="3" t="n"/>
       <c r="L32" s="3" t="n"/>
       <c r="M32" s="3" t="n"/>
       <c r="Q32" s="3" t="n"/>
       <c r="R32" s="3" t="n"/>
       <c r="S32" s="3" t="n"/>
       <c r="T32" s="3" t="n"/>
+      <c r="Z32" s="3" t="n"/>
+      <c r="AA32" s="3" t="n"/>
+      <c r="AB32" s="3" t="n"/>
+      <c r="AC32" s="3" t="n"/>
+      <c r="AD32" s="3" t="n"/>
+      <c r="AJ32" s="3" t="n"/>
+      <c r="AK32" s="3" t="n"/>
+      <c r="AL32" s="3" t="n"/>
+      <c r="AM32" s="3" t="n"/>
+      <c r="AN32" s="3" t="n"/>
+      <c r="AT32" s="3" t="n"/>
+      <c r="AU32" s="3" t="n"/>
+      <c r="AV32" s="3" t="n"/>
+      <c r="AW32" s="3" t="n"/>
+      <c r="AX32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
@@ -1620,7 +2120,7 @@
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>51.89</v>
+        <v>50.77</v>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr">
@@ -1636,12 +2136,28 @@
       <c r="H33" s="3" t="n"/>
       <c r="I33" s="3" t="n"/>
       <c r="J33" s="3" t="n"/>
+      <c r="K33" s="3" t="n"/>
       <c r="L33" s="3" t="n"/>
       <c r="M33" s="3" t="n"/>
       <c r="Q33" s="3" t="n"/>
       <c r="R33" s="3" t="n"/>
       <c r="S33" s="3" t="n"/>
       <c r="T33" s="3" t="n"/>
+      <c r="Z33" s="3" t="n"/>
+      <c r="AA33" s="3" t="n"/>
+      <c r="AB33" s="3" t="n"/>
+      <c r="AC33" s="3" t="n"/>
+      <c r="AD33" s="3" t="n"/>
+      <c r="AJ33" s="3" t="n"/>
+      <c r="AK33" s="3" t="n"/>
+      <c r="AL33" s="3" t="n"/>
+      <c r="AM33" s="3" t="n"/>
+      <c r="AN33" s="3" t="n"/>
+      <c r="AT33" s="3" t="n"/>
+      <c r="AU33" s="3" t="n"/>
+      <c r="AV33" s="3" t="n"/>
+      <c r="AW33" s="3" t="n"/>
+      <c r="AX33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -1650,10 +2166,10 @@
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C34" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
@@ -1668,12 +2184,28 @@
       <c r="H34" s="3" t="n"/>
       <c r="I34" s="3" t="n"/>
       <c r="J34" s="3" t="n"/>
+      <c r="K34" s="3" t="n"/>
       <c r="L34" s="3" t="n"/>
       <c r="M34" s="3" t="n"/>
       <c r="Q34" s="3" t="n"/>
       <c r="R34" s="3" t="n"/>
       <c r="S34" s="3" t="n"/>
       <c r="T34" s="3" t="n"/>
+      <c r="Z34" s="3" t="n"/>
+      <c r="AA34" s="3" t="n"/>
+      <c r="AB34" s="3" t="n"/>
+      <c r="AC34" s="3" t="n"/>
+      <c r="AD34" s="3" t="n"/>
+      <c r="AJ34" s="3" t="n"/>
+      <c r="AK34" s="3" t="n"/>
+      <c r="AL34" s="3" t="n"/>
+      <c r="AM34" s="3" t="n"/>
+      <c r="AN34" s="3" t="n"/>
+      <c r="AT34" s="3" t="n"/>
+      <c r="AU34" s="3" t="n"/>
+      <c r="AV34" s="3" t="n"/>
+      <c r="AW34" s="3" t="n"/>
+      <c r="AX34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
@@ -1682,7 +2214,7 @@
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>33.53</v>
+        <v>32.51</v>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr">
@@ -1698,12 +2230,28 @@
       <c r="H35" s="3" t="n"/>
       <c r="I35" s="3" t="n"/>
       <c r="J35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
       <c r="L35" s="3" t="n"/>
       <c r="M35" s="3" t="n"/>
       <c r="Q35" s="3" t="n"/>
       <c r="R35" s="3" t="n"/>
       <c r="S35" s="3" t="n"/>
       <c r="T35" s="3" t="n"/>
+      <c r="Z35" s="3" t="n"/>
+      <c r="AA35" s="3" t="n"/>
+      <c r="AB35" s="3" t="n"/>
+      <c r="AC35" s="3" t="n"/>
+      <c r="AD35" s="3" t="n"/>
+      <c r="AJ35" s="3" t="n"/>
+      <c r="AK35" s="3" t="n"/>
+      <c r="AL35" s="3" t="n"/>
+      <c r="AM35" s="3" t="n"/>
+      <c r="AN35" s="3" t="n"/>
+      <c r="AT35" s="3" t="n"/>
+      <c r="AU35" s="3" t="n"/>
+      <c r="AV35" s="3" t="n"/>
+      <c r="AW35" s="3" t="n"/>
+      <c r="AX35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -1712,10 +2260,10 @@
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="C36" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
@@ -1730,12 +2278,28 @@
       <c r="H36" s="3" t="n"/>
       <c r="I36" s="3" t="n"/>
       <c r="J36" s="3" t="n"/>
+      <c r="K36" s="3" t="n"/>
       <c r="L36" s="3" t="n"/>
       <c r="M36" s="3" t="n"/>
       <c r="Q36" s="3" t="n"/>
       <c r="R36" s="3" t="n"/>
       <c r="S36" s="3" t="n"/>
       <c r="T36" s="3" t="n"/>
+      <c r="Z36" s="3" t="n"/>
+      <c r="AA36" s="3" t="n"/>
+      <c r="AB36" s="3" t="n"/>
+      <c r="AC36" s="3" t="n"/>
+      <c r="AD36" s="3" t="n"/>
+      <c r="AJ36" s="3" t="n"/>
+      <c r="AK36" s="3" t="n"/>
+      <c r="AL36" s="3" t="n"/>
+      <c r="AM36" s="3" t="n"/>
+      <c r="AN36" s="3" t="n"/>
+      <c r="AT36" s="3" t="n"/>
+      <c r="AU36" s="3" t="n"/>
+      <c r="AV36" s="3" t="n"/>
+      <c r="AW36" s="3" t="n"/>
+      <c r="AX36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -1747,7 +2311,7 @@
         <v>0.08</v>
       </c>
       <c r="C37" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
@@ -1762,12 +2326,28 @@
       <c r="H37" s="3" t="n"/>
       <c r="I37" s="3" t="n"/>
       <c r="J37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
       <c r="L37" s="3" t="n"/>
       <c r="M37" s="3" t="n"/>
       <c r="Q37" s="3" t="n"/>
       <c r="R37" s="3" t="n"/>
       <c r="S37" s="3" t="n"/>
       <c r="T37" s="3" t="n"/>
+      <c r="Z37" s="3" t="n"/>
+      <c r="AA37" s="3" t="n"/>
+      <c r="AB37" s="3" t="n"/>
+      <c r="AC37" s="3" t="n"/>
+      <c r="AD37" s="3" t="n"/>
+      <c r="AJ37" s="3" t="n"/>
+      <c r="AK37" s="3" t="n"/>
+      <c r="AL37" s="3" t="n"/>
+      <c r="AM37" s="3" t="n"/>
+      <c r="AN37" s="3" t="n"/>
+      <c r="AT37" s="3" t="n"/>
+      <c r="AU37" s="3" t="n"/>
+      <c r="AV37" s="3" t="n"/>
+      <c r="AW37" s="3" t="n"/>
+      <c r="AX37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -1779,7 +2359,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
@@ -1794,12 +2374,28 @@
       <c r="H38" s="3" t="n"/>
       <c r="I38" s="3" t="n"/>
       <c r="J38" s="3" t="n"/>
+      <c r="K38" s="3" t="n"/>
       <c r="L38" s="3" t="n"/>
       <c r="M38" s="3" t="n"/>
       <c r="Q38" s="3" t="n"/>
       <c r="R38" s="3" t="n"/>
       <c r="S38" s="3" t="n"/>
       <c r="T38" s="3" t="n"/>
+      <c r="Z38" s="3" t="n"/>
+      <c r="AA38" s="3" t="n"/>
+      <c r="AB38" s="3" t="n"/>
+      <c r="AC38" s="3" t="n"/>
+      <c r="AD38" s="3" t="n"/>
+      <c r="AJ38" s="3" t="n"/>
+      <c r="AK38" s="3" t="n"/>
+      <c r="AL38" s="3" t="n"/>
+      <c r="AM38" s="3" t="n"/>
+      <c r="AN38" s="3" t="n"/>
+      <c r="AT38" s="3" t="n"/>
+      <c r="AU38" s="3" t="n"/>
+      <c r="AV38" s="3" t="n"/>
+      <c r="AW38" s="3" t="n"/>
+      <c r="AX38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -1808,10 +2404,10 @@
         </is>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C39" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
@@ -1826,12 +2422,28 @@
       <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
       <c r="J39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
       <c r="L39" s="3" t="n"/>
       <c r="M39" s="3" t="n"/>
       <c r="Q39" s="3" t="n"/>
       <c r="R39" s="3" t="n"/>
       <c r="S39" s="3" t="n"/>
       <c r="T39" s="3" t="n"/>
+      <c r="Z39" s="3" t="n"/>
+      <c r="AA39" s="3" t="n"/>
+      <c r="AB39" s="3" t="n"/>
+      <c r="AC39" s="3" t="n"/>
+      <c r="AD39" s="3" t="n"/>
+      <c r="AJ39" s="3" t="n"/>
+      <c r="AK39" s="3" t="n"/>
+      <c r="AL39" s="3" t="n"/>
+      <c r="AM39" s="3" t="n"/>
+      <c r="AN39" s="3" t="n"/>
+      <c r="AT39" s="3" t="n"/>
+      <c r="AU39" s="3" t="n"/>
+      <c r="AV39" s="3" t="n"/>
+      <c r="AW39" s="3" t="n"/>
+      <c r="AX39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -1840,10 +2452,10 @@
         </is>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="C40" s="3" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
@@ -1858,12 +2470,28 @@
       <c r="H40" s="3" t="n"/>
       <c r="I40" s="3" t="n"/>
       <c r="J40" s="3" t="n"/>
+      <c r="K40" s="3" t="n"/>
       <c r="L40" s="3" t="n"/>
       <c r="M40" s="3" t="n"/>
       <c r="Q40" s="3" t="n"/>
       <c r="R40" s="3" t="n"/>
       <c r="S40" s="3" t="n"/>
       <c r="T40" s="3" t="n"/>
+      <c r="Z40" s="3" t="n"/>
+      <c r="AA40" s="3" t="n"/>
+      <c r="AB40" s="3" t="n"/>
+      <c r="AC40" s="3" t="n"/>
+      <c r="AD40" s="3" t="n"/>
+      <c r="AJ40" s="3" t="n"/>
+      <c r="AK40" s="3" t="n"/>
+      <c r="AL40" s="3" t="n"/>
+      <c r="AM40" s="3" t="n"/>
+      <c r="AN40" s="3" t="n"/>
+      <c r="AT40" s="3" t="n"/>
+      <c r="AU40" s="3" t="n"/>
+      <c r="AV40" s="3" t="n"/>
+      <c r="AW40" s="3" t="n"/>
+      <c r="AX40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -1875,7 +2503,7 @@
         <v>0.09</v>
       </c>
       <c r="C41" s="3" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
@@ -1890,12 +2518,28 @@
       <c r="H41" s="3" t="n"/>
       <c r="I41" s="3" t="n"/>
       <c r="J41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
       <c r="L41" s="3" t="n"/>
       <c r="M41" s="3" t="n"/>
       <c r="Q41" s="3" t="n"/>
       <c r="R41" s="3" t="n"/>
       <c r="S41" s="3" t="n"/>
       <c r="T41" s="3" t="n"/>
+      <c r="Z41" s="3" t="n"/>
+      <c r="AA41" s="3" t="n"/>
+      <c r="AB41" s="3" t="n"/>
+      <c r="AC41" s="3" t="n"/>
+      <c r="AD41" s="3" t="n"/>
+      <c r="AJ41" s="3" t="n"/>
+      <c r="AK41" s="3" t="n"/>
+      <c r="AL41" s="3" t="n"/>
+      <c r="AM41" s="3" t="n"/>
+      <c r="AN41" s="3" t="n"/>
+      <c r="AT41" s="3" t="n"/>
+      <c r="AU41" s="3" t="n"/>
+      <c r="AV41" s="3" t="n"/>
+      <c r="AW41" s="3" t="n"/>
+      <c r="AX41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -1904,7 +2548,7 @@
         </is>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr">
@@ -1920,12 +2564,28 @@
       <c r="H42" s="3" t="n"/>
       <c r="I42" s="3" t="n"/>
       <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="n"/>
       <c r="L42" s="3" t="n"/>
       <c r="M42" s="3" t="n"/>
       <c r="Q42" s="3" t="n"/>
       <c r="R42" s="3" t="n"/>
       <c r="S42" s="3" t="n"/>
       <c r="T42" s="3" t="n"/>
+      <c r="Z42" s="3" t="n"/>
+      <c r="AA42" s="3" t="n"/>
+      <c r="AB42" s="3" t="n"/>
+      <c r="AC42" s="3" t="n"/>
+      <c r="AD42" s="3" t="n"/>
+      <c r="AJ42" s="3" t="n"/>
+      <c r="AK42" s="3" t="n"/>
+      <c r="AL42" s="3" t="n"/>
+      <c r="AM42" s="3" t="n"/>
+      <c r="AN42" s="3" t="n"/>
+      <c r="AT42" s="3" t="n"/>
+      <c r="AU42" s="3" t="n"/>
+      <c r="AV42" s="3" t="n"/>
+      <c r="AW42" s="3" t="n"/>
+      <c r="AX42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -1934,10 +2594,10 @@
         </is>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
@@ -1952,12 +2612,28 @@
       <c r="H43" s="3" t="n"/>
       <c r="I43" s="3" t="n"/>
       <c r="J43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
       <c r="L43" s="3" t="n"/>
       <c r="M43" s="3" t="n"/>
       <c r="Q43" s="3" t="n"/>
       <c r="R43" s="3" t="n"/>
       <c r="S43" s="3" t="n"/>
       <c r="T43" s="3" t="n"/>
+      <c r="Z43" s="3" t="n"/>
+      <c r="AA43" s="3" t="n"/>
+      <c r="AB43" s="3" t="n"/>
+      <c r="AC43" s="3" t="n"/>
+      <c r="AD43" s="3" t="n"/>
+      <c r="AJ43" s="3" t="n"/>
+      <c r="AK43" s="3" t="n"/>
+      <c r="AL43" s="3" t="n"/>
+      <c r="AM43" s="3" t="n"/>
+      <c r="AN43" s="3" t="n"/>
+      <c r="AT43" s="3" t="n"/>
+      <c r="AU43" s="3" t="n"/>
+      <c r="AV43" s="3" t="n"/>
+      <c r="AW43" s="3" t="n"/>
+      <c r="AX43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -1966,10 +2642,10 @@
         </is>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C44" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
@@ -1984,12 +2660,28 @@
       <c r="H44" s="3" t="n"/>
       <c r="I44" s="3" t="n"/>
       <c r="J44" s="3" t="n"/>
+      <c r="K44" s="3" t="n"/>
       <c r="L44" s="3" t="n"/>
       <c r="M44" s="3" t="n"/>
       <c r="Q44" s="3" t="n"/>
       <c r="R44" s="3" t="n"/>
       <c r="S44" s="3" t="n"/>
       <c r="T44" s="3" t="n"/>
+      <c r="Z44" s="3" t="n"/>
+      <c r="AA44" s="3" t="n"/>
+      <c r="AB44" s="3" t="n"/>
+      <c r="AC44" s="3" t="n"/>
+      <c r="AD44" s="3" t="n"/>
+      <c r="AJ44" s="3" t="n"/>
+      <c r="AK44" s="3" t="n"/>
+      <c r="AL44" s="3" t="n"/>
+      <c r="AM44" s="3" t="n"/>
+      <c r="AN44" s="3" t="n"/>
+      <c r="AT44" s="3" t="n"/>
+      <c r="AU44" s="3" t="n"/>
+      <c r="AV44" s="3" t="n"/>
+      <c r="AW44" s="3" t="n"/>
+      <c r="AX44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -1998,10 +2690,10 @@
         </is>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="C45" s="3" t="n">
-        <v>0.61</v>
+        <v>0.86</v>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
@@ -2016,12 +2708,28 @@
       <c r="H45" s="3" t="n"/>
       <c r="I45" s="3" t="n"/>
       <c r="J45" s="3" t="n"/>
+      <c r="K45" s="3" t="n"/>
       <c r="L45" s="3" t="n"/>
       <c r="M45" s="3" t="n"/>
       <c r="Q45" s="3" t="n"/>
       <c r="R45" s="3" t="n"/>
       <c r="S45" s="3" t="n"/>
       <c r="T45" s="3" t="n"/>
+      <c r="Z45" s="3" t="n"/>
+      <c r="AA45" s="3" t="n"/>
+      <c r="AB45" s="3" t="n"/>
+      <c r="AC45" s="3" t="n"/>
+      <c r="AD45" s="3" t="n"/>
+      <c r="AJ45" s="3" t="n"/>
+      <c r="AK45" s="3" t="n"/>
+      <c r="AL45" s="3" t="n"/>
+      <c r="AM45" s="3" t="n"/>
+      <c r="AN45" s="3" t="n"/>
+      <c r="AT45" s="3" t="n"/>
+      <c r="AU45" s="3" t="n"/>
+      <c r="AV45" s="3" t="n"/>
+      <c r="AW45" s="3" t="n"/>
+      <c r="AX45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -2030,7 +2738,7 @@
         </is>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr">
@@ -2046,12 +2754,28 @@
       <c r="H46" s="3" t="n"/>
       <c r="I46" s="3" t="n"/>
       <c r="J46" s="3" t="n"/>
+      <c r="K46" s="3" t="n"/>
       <c r="L46" s="3" t="n"/>
       <c r="M46" s="3" t="n"/>
       <c r="Q46" s="3" t="n"/>
       <c r="R46" s="3" t="n"/>
       <c r="S46" s="3" t="n"/>
       <c r="T46" s="3" t="n"/>
+      <c r="Z46" s="3" t="n"/>
+      <c r="AA46" s="3" t="n"/>
+      <c r="AB46" s="3" t="n"/>
+      <c r="AC46" s="3" t="n"/>
+      <c r="AD46" s="3" t="n"/>
+      <c r="AJ46" s="3" t="n"/>
+      <c r="AK46" s="3" t="n"/>
+      <c r="AL46" s="3" t="n"/>
+      <c r="AM46" s="3" t="n"/>
+      <c r="AN46" s="3" t="n"/>
+      <c r="AT46" s="3" t="n"/>
+      <c r="AU46" s="3" t="n"/>
+      <c r="AV46" s="3" t="n"/>
+      <c r="AW46" s="3" t="n"/>
+      <c r="AX46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
@@ -2060,10 +2784,10 @@
         </is>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="C47" s="3" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
@@ -2078,12 +2802,28 @@
       <c r="H47" s="3" t="n"/>
       <c r="I47" s="3" t="n"/>
       <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="n"/>
       <c r="L47" s="3" t="n"/>
       <c r="M47" s="3" t="n"/>
       <c r="Q47" s="3" t="n"/>
       <c r="R47" s="3" t="n"/>
       <c r="S47" s="3" t="n"/>
       <c r="T47" s="3" t="n"/>
+      <c r="Z47" s="3" t="n"/>
+      <c r="AA47" s="3" t="n"/>
+      <c r="AB47" s="3" t="n"/>
+      <c r="AC47" s="3" t="n"/>
+      <c r="AD47" s="3" t="n"/>
+      <c r="AJ47" s="3" t="n"/>
+      <c r="AK47" s="3" t="n"/>
+      <c r="AL47" s="3" t="n"/>
+      <c r="AM47" s="3" t="n"/>
+      <c r="AN47" s="3" t="n"/>
+      <c r="AT47" s="3" t="n"/>
+      <c r="AU47" s="3" t="n"/>
+      <c r="AV47" s="3" t="n"/>
+      <c r="AW47" s="3" t="n"/>
+      <c r="AX47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -2092,10 +2832,10 @@
         </is>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="C48" s="3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
@@ -2110,12 +2850,28 @@
       <c r="H48" s="3" t="n"/>
       <c r="I48" s="3" t="n"/>
       <c r="J48" s="3" t="n"/>
+      <c r="K48" s="3" t="n"/>
       <c r="L48" s="3" t="n"/>
       <c r="M48" s="3" t="n"/>
       <c r="Q48" s="3" t="n"/>
       <c r="R48" s="3" t="n"/>
       <c r="S48" s="3" t="n"/>
       <c r="T48" s="3" t="n"/>
+      <c r="Z48" s="3" t="n"/>
+      <c r="AA48" s="3" t="n"/>
+      <c r="AB48" s="3" t="n"/>
+      <c r="AC48" s="3" t="n"/>
+      <c r="AD48" s="3" t="n"/>
+      <c r="AJ48" s="3" t="n"/>
+      <c r="AK48" s="3" t="n"/>
+      <c r="AL48" s="3" t="n"/>
+      <c r="AM48" s="3" t="n"/>
+      <c r="AN48" s="3" t="n"/>
+      <c r="AT48" s="3" t="n"/>
+      <c r="AU48" s="3" t="n"/>
+      <c r="AV48" s="3" t="n"/>
+      <c r="AW48" s="3" t="n"/>
+      <c r="AX48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -2124,10 +2880,10 @@
         </is>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="C49" s="3" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
@@ -2142,12 +2898,28 @@
       <c r="H49" s="3" t="n"/>
       <c r="I49" s="3" t="n"/>
       <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="n"/>
       <c r="L49" s="3" t="n"/>
       <c r="M49" s="3" t="n"/>
       <c r="Q49" s="3" t="n"/>
       <c r="R49" s="3" t="n"/>
       <c r="S49" s="3" t="n"/>
       <c r="T49" s="3" t="n"/>
+      <c r="Z49" s="3" t="n"/>
+      <c r="AA49" s="3" t="n"/>
+      <c r="AB49" s="3" t="n"/>
+      <c r="AC49" s="3" t="n"/>
+      <c r="AD49" s="3" t="n"/>
+      <c r="AJ49" s="3" t="n"/>
+      <c r="AK49" s="3" t="n"/>
+      <c r="AL49" s="3" t="n"/>
+      <c r="AM49" s="3" t="n"/>
+      <c r="AN49" s="3" t="n"/>
+      <c r="AT49" s="3" t="n"/>
+      <c r="AU49" s="3" t="n"/>
+      <c r="AV49" s="3" t="n"/>
+      <c r="AW49" s="3" t="n"/>
+      <c r="AX49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -2156,7 +2928,7 @@
         </is>
       </c>
       <c r="B50" s="3" t="n">
-        <v>24.61</v>
+        <v>24.56</v>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr">
@@ -2172,12 +2944,28 @@
       <c r="H50" s="3" t="n"/>
       <c r="I50" s="3" t="n"/>
       <c r="J50" s="3" t="n"/>
+      <c r="K50" s="3" t="n"/>
       <c r="L50" s="3" t="n"/>
       <c r="M50" s="3" t="n"/>
       <c r="Q50" s="3" t="n"/>
       <c r="R50" s="3" t="n"/>
       <c r="S50" s="3" t="n"/>
       <c r="T50" s="3" t="n"/>
+      <c r="Z50" s="3" t="n"/>
+      <c r="AA50" s="3" t="n"/>
+      <c r="AB50" s="3" t="n"/>
+      <c r="AC50" s="3" t="n"/>
+      <c r="AD50" s="3" t="n"/>
+      <c r="AJ50" s="3" t="n"/>
+      <c r="AK50" s="3" t="n"/>
+      <c r="AL50" s="3" t="n"/>
+      <c r="AM50" s="3" t="n"/>
+      <c r="AN50" s="3" t="n"/>
+      <c r="AT50" s="3" t="n"/>
+      <c r="AU50" s="3" t="n"/>
+      <c r="AV50" s="3" t="n"/>
+      <c r="AW50" s="3" t="n"/>
+      <c r="AX50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -2186,10 +2974,10 @@
         </is>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
@@ -2204,12 +2992,28 @@
       <c r="H51" s="3" t="n"/>
       <c r="I51" s="3" t="n"/>
       <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="n"/>
       <c r="L51" s="3" t="n"/>
       <c r="M51" s="3" t="n"/>
       <c r="Q51" s="3" t="n"/>
       <c r="R51" s="3" t="n"/>
       <c r="S51" s="3" t="n"/>
       <c r="T51" s="3" t="n"/>
+      <c r="Z51" s="3" t="n"/>
+      <c r="AA51" s="3" t="n"/>
+      <c r="AB51" s="3" t="n"/>
+      <c r="AC51" s="3" t="n"/>
+      <c r="AD51" s="3" t="n"/>
+      <c r="AJ51" s="3" t="n"/>
+      <c r="AK51" s="3" t="n"/>
+      <c r="AL51" s="3" t="n"/>
+      <c r="AM51" s="3" t="n"/>
+      <c r="AN51" s="3" t="n"/>
+      <c r="AT51" s="3" t="n"/>
+      <c r="AU51" s="3" t="n"/>
+      <c r="AV51" s="3" t="n"/>
+      <c r="AW51" s="3" t="n"/>
+      <c r="AX51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
@@ -2221,7 +3025,7 @@
         <v>0.11</v>
       </c>
       <c r="C52" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
@@ -2236,12 +3040,28 @@
       <c r="H52" s="3" t="n"/>
       <c r="I52" s="3" t="n"/>
       <c r="J52" s="3" t="n"/>
+      <c r="K52" s="3" t="n"/>
       <c r="L52" s="3" t="n"/>
       <c r="M52" s="3" t="n"/>
       <c r="Q52" s="3" t="n"/>
       <c r="R52" s="3" t="n"/>
       <c r="S52" s="3" t="n"/>
       <c r="T52" s="3" t="n"/>
+      <c r="Z52" s="3" t="n"/>
+      <c r="AA52" s="3" t="n"/>
+      <c r="AB52" s="3" t="n"/>
+      <c r="AC52" s="3" t="n"/>
+      <c r="AD52" s="3" t="n"/>
+      <c r="AJ52" s="3" t="n"/>
+      <c r="AK52" s="3" t="n"/>
+      <c r="AL52" s="3" t="n"/>
+      <c r="AM52" s="3" t="n"/>
+      <c r="AN52" s="3" t="n"/>
+      <c r="AT52" s="3" t="n"/>
+      <c r="AU52" s="3" t="n"/>
+      <c r="AV52" s="3" t="n"/>
+      <c r="AW52" s="3" t="n"/>
+      <c r="AX52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -2268,12 +3088,28 @@
       <c r="H53" s="3" t="n"/>
       <c r="I53" s="3" t="n"/>
       <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
       <c r="L53" s="3" t="n"/>
       <c r="M53" s="3" t="n"/>
       <c r="Q53" s="3" t="n"/>
       <c r="R53" s="3" t="n"/>
       <c r="S53" s="3" t="n"/>
       <c r="T53" s="3" t="n"/>
+      <c r="Z53" s="3" t="n"/>
+      <c r="AA53" s="3" t="n"/>
+      <c r="AB53" s="3" t="n"/>
+      <c r="AC53" s="3" t="n"/>
+      <c r="AD53" s="3" t="n"/>
+      <c r="AJ53" s="3" t="n"/>
+      <c r="AK53" s="3" t="n"/>
+      <c r="AL53" s="3" t="n"/>
+      <c r="AM53" s="3" t="n"/>
+      <c r="AN53" s="3" t="n"/>
+      <c r="AT53" s="3" t="n"/>
+      <c r="AU53" s="3" t="n"/>
+      <c r="AV53" s="3" t="n"/>
+      <c r="AW53" s="3" t="n"/>
+      <c r="AX53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -2285,7 +3121,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
@@ -2300,12 +3136,28 @@
       <c r="H54" s="3" t="n"/>
       <c r="I54" s="3" t="n"/>
       <c r="J54" s="3" t="n"/>
+      <c r="K54" s="3" t="n"/>
       <c r="L54" s="3" t="n"/>
       <c r="M54" s="3" t="n"/>
       <c r="Q54" s="3" t="n"/>
       <c r="R54" s="3" t="n"/>
       <c r="S54" s="3" t="n"/>
       <c r="T54" s="3" t="n"/>
+      <c r="Z54" s="3" t="n"/>
+      <c r="AA54" s="3" t="n"/>
+      <c r="AB54" s="3" t="n"/>
+      <c r="AC54" s="3" t="n"/>
+      <c r="AD54" s="3" t="n"/>
+      <c r="AJ54" s="3" t="n"/>
+      <c r="AK54" s="3" t="n"/>
+      <c r="AL54" s="3" t="n"/>
+      <c r="AM54" s="3" t="n"/>
+      <c r="AN54" s="3" t="n"/>
+      <c r="AT54" s="3" t="n"/>
+      <c r="AU54" s="3" t="n"/>
+      <c r="AV54" s="3" t="n"/>
+      <c r="AW54" s="3" t="n"/>
+      <c r="AX54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -2314,7 +3166,7 @@
         </is>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>0.22</v>
@@ -2332,12 +3184,28 @@
       <c r="H55" s="3" t="n"/>
       <c r="I55" s="3" t="n"/>
       <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
       <c r="L55" s="3" t="n"/>
       <c r="M55" s="3" t="n"/>
       <c r="Q55" s="3" t="n"/>
       <c r="R55" s="3" t="n"/>
       <c r="S55" s="3" t="n"/>
       <c r="T55" s="3" t="n"/>
+      <c r="Z55" s="3" t="n"/>
+      <c r="AA55" s="3" t="n"/>
+      <c r="AB55" s="3" t="n"/>
+      <c r="AC55" s="3" t="n"/>
+      <c r="AD55" s="3" t="n"/>
+      <c r="AJ55" s="3" t="n"/>
+      <c r="AK55" s="3" t="n"/>
+      <c r="AL55" s="3" t="n"/>
+      <c r="AM55" s="3" t="n"/>
+      <c r="AN55" s="3" t="n"/>
+      <c r="AT55" s="3" t="n"/>
+      <c r="AU55" s="3" t="n"/>
+      <c r="AV55" s="3" t="n"/>
+      <c r="AW55" s="3" t="n"/>
+      <c r="AX55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -2346,10 +3214,10 @@
         </is>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C56" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
@@ -2364,12 +3232,28 @@
       <c r="H56" s="3" t="n"/>
       <c r="I56" s="3" t="n"/>
       <c r="J56" s="3" t="n"/>
+      <c r="K56" s="3" t="n"/>
       <c r="L56" s="3" t="n"/>
       <c r="M56" s="3" t="n"/>
       <c r="Q56" s="3" t="n"/>
       <c r="R56" s="3" t="n"/>
       <c r="S56" s="3" t="n"/>
       <c r="T56" s="3" t="n"/>
+      <c r="Z56" s="3" t="n"/>
+      <c r="AA56" s="3" t="n"/>
+      <c r="AB56" s="3" t="n"/>
+      <c r="AC56" s="3" t="n"/>
+      <c r="AD56" s="3" t="n"/>
+      <c r="AJ56" s="3" t="n"/>
+      <c r="AK56" s="3" t="n"/>
+      <c r="AL56" s="3" t="n"/>
+      <c r="AM56" s="3" t="n"/>
+      <c r="AN56" s="3" t="n"/>
+      <c r="AT56" s="3" t="n"/>
+      <c r="AU56" s="3" t="n"/>
+      <c r="AV56" s="3" t="n"/>
+      <c r="AW56" s="3" t="n"/>
+      <c r="AX56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -2381,7 +3265,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
@@ -2396,12 +3280,28 @@
       <c r="H57" s="3" t="n"/>
       <c r="I57" s="3" t="n"/>
       <c r="J57" s="3" t="n"/>
+      <c r="K57" s="3" t="n"/>
       <c r="L57" s="3" t="n"/>
       <c r="M57" s="3" t="n"/>
       <c r="Q57" s="3" t="n"/>
       <c r="R57" s="3" t="n"/>
       <c r="S57" s="3" t="n"/>
       <c r="T57" s="3" t="n"/>
+      <c r="Z57" s="3" t="n"/>
+      <c r="AA57" s="3" t="n"/>
+      <c r="AB57" s="3" t="n"/>
+      <c r="AC57" s="3" t="n"/>
+      <c r="AD57" s="3" t="n"/>
+      <c r="AJ57" s="3" t="n"/>
+      <c r="AK57" s="3" t="n"/>
+      <c r="AL57" s="3" t="n"/>
+      <c r="AM57" s="3" t="n"/>
+      <c r="AN57" s="3" t="n"/>
+      <c r="AT57" s="3" t="n"/>
+      <c r="AU57" s="3" t="n"/>
+      <c r="AV57" s="3" t="n"/>
+      <c r="AW57" s="3" t="n"/>
+      <c r="AX57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
@@ -2413,7 +3313,7 @@
         <v>0.11</v>
       </c>
       <c r="C58" s="3" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
@@ -2428,12 +3328,28 @@
       <c r="H58" s="3" t="n"/>
       <c r="I58" s="3" t="n"/>
       <c r="J58" s="3" t="n"/>
+      <c r="K58" s="3" t="n"/>
       <c r="L58" s="3" t="n"/>
       <c r="M58" s="3" t="n"/>
       <c r="Q58" s="3" t="n"/>
       <c r="R58" s="3" t="n"/>
       <c r="S58" s="3" t="n"/>
       <c r="T58" s="3" t="n"/>
+      <c r="Z58" s="3" t="n"/>
+      <c r="AA58" s="3" t="n"/>
+      <c r="AB58" s="3" t="n"/>
+      <c r="AC58" s="3" t="n"/>
+      <c r="AD58" s="3" t="n"/>
+      <c r="AJ58" s="3" t="n"/>
+      <c r="AK58" s="3" t="n"/>
+      <c r="AL58" s="3" t="n"/>
+      <c r="AM58" s="3" t="n"/>
+      <c r="AN58" s="3" t="n"/>
+      <c r="AT58" s="3" t="n"/>
+      <c r="AU58" s="3" t="n"/>
+      <c r="AV58" s="3" t="n"/>
+      <c r="AW58" s="3" t="n"/>
+      <c r="AX58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -2442,10 +3358,10 @@
         </is>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="C59" s="3" t="n">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
@@ -2460,12 +3376,28 @@
       <c r="H59" s="3" t="n"/>
       <c r="I59" s="3" t="n"/>
       <c r="J59" s="3" t="n"/>
+      <c r="K59" s="3" t="n"/>
       <c r="L59" s="3" t="n"/>
       <c r="M59" s="3" t="n"/>
       <c r="Q59" s="3" t="n"/>
       <c r="R59" s="3" t="n"/>
       <c r="S59" s="3" t="n"/>
       <c r="T59" s="3" t="n"/>
+      <c r="Z59" s="3" t="n"/>
+      <c r="AA59" s="3" t="n"/>
+      <c r="AB59" s="3" t="n"/>
+      <c r="AC59" s="3" t="n"/>
+      <c r="AD59" s="3" t="n"/>
+      <c r="AJ59" s="3" t="n"/>
+      <c r="AK59" s="3" t="n"/>
+      <c r="AL59" s="3" t="n"/>
+      <c r="AM59" s="3" t="n"/>
+      <c r="AN59" s="3" t="n"/>
+      <c r="AT59" s="3" t="n"/>
+      <c r="AU59" s="3" t="n"/>
+      <c r="AV59" s="3" t="n"/>
+      <c r="AW59" s="3" t="n"/>
+      <c r="AX59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -2477,7 +3409,7 @@
         <v>0.12</v>
       </c>
       <c r="C60" s="3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
@@ -2492,12 +3424,28 @@
       <c r="H60" s="3" t="n"/>
       <c r="I60" s="3" t="n"/>
       <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="n"/>
       <c r="L60" s="3" t="n"/>
       <c r="M60" s="3" t="n"/>
       <c r="Q60" s="3" t="n"/>
       <c r="R60" s="3" t="n"/>
       <c r="S60" s="3" t="n"/>
       <c r="T60" s="3" t="n"/>
+      <c r="Z60" s="3" t="n"/>
+      <c r="AA60" s="3" t="n"/>
+      <c r="AB60" s="3" t="n"/>
+      <c r="AC60" s="3" t="n"/>
+      <c r="AD60" s="3" t="n"/>
+      <c r="AJ60" s="3" t="n"/>
+      <c r="AK60" s="3" t="n"/>
+      <c r="AL60" s="3" t="n"/>
+      <c r="AM60" s="3" t="n"/>
+      <c r="AN60" s="3" t="n"/>
+      <c r="AT60" s="3" t="n"/>
+      <c r="AU60" s="3" t="n"/>
+      <c r="AV60" s="3" t="n"/>
+      <c r="AW60" s="3" t="n"/>
+      <c r="AX60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
@@ -2506,7 +3454,7 @@
         </is>
       </c>
       <c r="B61" s="3" t="n">
-        <v>6.54</v>
+        <v>6.46</v>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
       <c r="D61" s="3" t="inlineStr">
@@ -2522,12 +3470,28 @@
       <c r="H61" s="3" t="n"/>
       <c r="I61" s="3" t="n"/>
       <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
       <c r="L61" s="3" t="n"/>
       <c r="M61" s="3" t="n"/>
       <c r="Q61" s="3" t="n"/>
       <c r="R61" s="3" t="n"/>
       <c r="S61" s="3" t="n"/>
       <c r="T61" s="3" t="n"/>
+      <c r="Z61" s="3" t="n"/>
+      <c r="AA61" s="3" t="n"/>
+      <c r="AB61" s="3" t="n"/>
+      <c r="AC61" s="3" t="n"/>
+      <c r="AD61" s="3" t="n"/>
+      <c r="AJ61" s="3" t="n"/>
+      <c r="AK61" s="3" t="n"/>
+      <c r="AL61" s="3" t="n"/>
+      <c r="AM61" s="3" t="n"/>
+      <c r="AN61" s="3" t="n"/>
+      <c r="AT61" s="3" t="n"/>
+      <c r="AU61" s="3" t="n"/>
+      <c r="AV61" s="3" t="n"/>
+      <c r="AW61" s="3" t="n"/>
+      <c r="AX61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
@@ -2536,7 +3500,7 @@
         </is>
       </c>
       <c r="B62" s="3" t="n">
-        <v>14.18</v>
+        <v>14.31</v>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr">
@@ -2552,12 +3516,28 @@
       <c r="H62" s="3" t="n"/>
       <c r="I62" s="3" t="n"/>
       <c r="J62" s="3" t="n"/>
+      <c r="K62" s="3" t="n"/>
       <c r="L62" s="3" t="n"/>
       <c r="M62" s="3" t="n"/>
       <c r="Q62" s="3" t="n"/>
       <c r="R62" s="3" t="n"/>
       <c r="S62" s="3" t="n"/>
       <c r="T62" s="3" t="n"/>
+      <c r="Z62" s="3" t="n"/>
+      <c r="AA62" s="3" t="n"/>
+      <c r="AB62" s="3" t="n"/>
+      <c r="AC62" s="3" t="n"/>
+      <c r="AD62" s="3" t="n"/>
+      <c r="AJ62" s="3" t="n"/>
+      <c r="AK62" s="3" t="n"/>
+      <c r="AL62" s="3" t="n"/>
+      <c r="AM62" s="3" t="n"/>
+      <c r="AN62" s="3" t="n"/>
+      <c r="AT62" s="3" t="n"/>
+      <c r="AU62" s="3" t="n"/>
+      <c r="AV62" s="3" t="n"/>
+      <c r="AW62" s="3" t="n"/>
+      <c r="AX62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
@@ -2566,10 +3546,10 @@
         </is>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C63" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
@@ -2584,12 +3564,28 @@
       <c r="H63" s="3" t="n"/>
       <c r="I63" s="3" t="n"/>
       <c r="J63" s="3" t="n"/>
+      <c r="K63" s="3" t="n"/>
       <c r="L63" s="3" t="n"/>
       <c r="M63" s="3" t="n"/>
       <c r="Q63" s="3" t="n"/>
       <c r="R63" s="3" t="n"/>
       <c r="S63" s="3" t="n"/>
       <c r="T63" s="3" t="n"/>
+      <c r="Z63" s="3" t="n"/>
+      <c r="AA63" s="3" t="n"/>
+      <c r="AB63" s="3" t="n"/>
+      <c r="AC63" s="3" t="n"/>
+      <c r="AD63" s="3" t="n"/>
+      <c r="AJ63" s="3" t="n"/>
+      <c r="AK63" s="3" t="n"/>
+      <c r="AL63" s="3" t="n"/>
+      <c r="AM63" s="3" t="n"/>
+      <c r="AN63" s="3" t="n"/>
+      <c r="AT63" s="3" t="n"/>
+      <c r="AU63" s="3" t="n"/>
+      <c r="AV63" s="3" t="n"/>
+      <c r="AW63" s="3" t="n"/>
+      <c r="AX63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
@@ -2598,10 +3594,10 @@
         </is>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="C64" s="3" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
@@ -2616,12 +3612,28 @@
       <c r="H64" s="3" t="n"/>
       <c r="I64" s="3" t="n"/>
       <c r="J64" s="3" t="n"/>
+      <c r="K64" s="3" t="n"/>
       <c r="L64" s="3" t="n"/>
       <c r="M64" s="3" t="n"/>
       <c r="Q64" s="3" t="n"/>
       <c r="R64" s="3" t="n"/>
       <c r="S64" s="3" t="n"/>
       <c r="T64" s="3" t="n"/>
+      <c r="Z64" s="3" t="n"/>
+      <c r="AA64" s="3" t="n"/>
+      <c r="AB64" s="3" t="n"/>
+      <c r="AC64" s="3" t="n"/>
+      <c r="AD64" s="3" t="n"/>
+      <c r="AJ64" s="3" t="n"/>
+      <c r="AK64" s="3" t="n"/>
+      <c r="AL64" s="3" t="n"/>
+      <c r="AM64" s="3" t="n"/>
+      <c r="AN64" s="3" t="n"/>
+      <c r="AT64" s="3" t="n"/>
+      <c r="AU64" s="3" t="n"/>
+      <c r="AV64" s="3" t="n"/>
+      <c r="AW64" s="3" t="n"/>
+      <c r="AX64" s="3" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
@@ -2630,7 +3642,7 @@
         </is>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>0.14</v>
@@ -2648,12 +3660,28 @@
       <c r="H65" s="3" t="n"/>
       <c r="I65" s="3" t="n"/>
       <c r="J65" s="3" t="n"/>
+      <c r="K65" s="3" t="n"/>
       <c r="L65" s="3" t="n"/>
       <c r="M65" s="3" t="n"/>
       <c r="Q65" s="3" t="n"/>
       <c r="R65" s="3" t="n"/>
       <c r="S65" s="3" t="n"/>
       <c r="T65" s="3" t="n"/>
+      <c r="Z65" s="3" t="n"/>
+      <c r="AA65" s="3" t="n"/>
+      <c r="AB65" s="3" t="n"/>
+      <c r="AC65" s="3" t="n"/>
+      <c r="AD65" s="3" t="n"/>
+      <c r="AJ65" s="3" t="n"/>
+      <c r="AK65" s="3" t="n"/>
+      <c r="AL65" s="3" t="n"/>
+      <c r="AM65" s="3" t="n"/>
+      <c r="AN65" s="3" t="n"/>
+      <c r="AT65" s="3" t="n"/>
+      <c r="AU65" s="3" t="n"/>
+      <c r="AV65" s="3" t="n"/>
+      <c r="AW65" s="3" t="n"/>
+      <c r="AX65" s="3" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
@@ -2665,7 +3693,7 @@
         <v>0.08</v>
       </c>
       <c r="C66" s="3" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
@@ -2680,12 +3708,28 @@
       <c r="H66" s="3" t="n"/>
       <c r="I66" s="3" t="n"/>
       <c r="J66" s="3" t="n"/>
+      <c r="K66" s="3" t="n"/>
       <c r="L66" s="3" t="n"/>
       <c r="M66" s="3" t="n"/>
       <c r="Q66" s="3" t="n"/>
       <c r="R66" s="3" t="n"/>
       <c r="S66" s="3" t="n"/>
       <c r="T66" s="3" t="n"/>
+      <c r="Z66" s="3" t="n"/>
+      <c r="AA66" s="3" t="n"/>
+      <c r="AB66" s="3" t="n"/>
+      <c r="AC66" s="3" t="n"/>
+      <c r="AD66" s="3" t="n"/>
+      <c r="AJ66" s="3" t="n"/>
+      <c r="AK66" s="3" t="n"/>
+      <c r="AL66" s="3" t="n"/>
+      <c r="AM66" s="3" t="n"/>
+      <c r="AN66" s="3" t="n"/>
+      <c r="AT66" s="3" t="n"/>
+      <c r="AU66" s="3" t="n"/>
+      <c r="AV66" s="3" t="n"/>
+      <c r="AW66" s="3" t="n"/>
+      <c r="AX66" s="3" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
@@ -2694,10 +3738,10 @@
         </is>
       </c>
       <c r="B67" s="3" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C67" s="3" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
@@ -2712,12 +3756,28 @@
       <c r="H67" s="3" t="n"/>
       <c r="I67" s="3" t="n"/>
       <c r="J67" s="3" t="n"/>
+      <c r="K67" s="3" t="n"/>
       <c r="L67" s="3" t="n"/>
       <c r="M67" s="3" t="n"/>
       <c r="Q67" s="3" t="n"/>
       <c r="R67" s="3" t="n"/>
       <c r="S67" s="3" t="n"/>
       <c r="T67" s="3" t="n"/>
+      <c r="Z67" s="3" t="n"/>
+      <c r="AA67" s="3" t="n"/>
+      <c r="AB67" s="3" t="n"/>
+      <c r="AC67" s="3" t="n"/>
+      <c r="AD67" s="3" t="n"/>
+      <c r="AJ67" s="3" t="n"/>
+      <c r="AK67" s="3" t="n"/>
+      <c r="AL67" s="3" t="n"/>
+      <c r="AM67" s="3" t="n"/>
+      <c r="AN67" s="3" t="n"/>
+      <c r="AT67" s="3" t="n"/>
+      <c r="AU67" s="3" t="n"/>
+      <c r="AV67" s="3" t="n"/>
+      <c r="AW67" s="3" t="n"/>
+      <c r="AX67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
@@ -2726,10 +3786,10 @@
         </is>
       </c>
       <c r="B68" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C68" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
@@ -2744,12 +3804,28 @@
       <c r="H68" s="3" t="n"/>
       <c r="I68" s="3" t="n"/>
       <c r="J68" s="3" t="n"/>
+      <c r="K68" s="3" t="n"/>
       <c r="L68" s="3" t="n"/>
       <c r="M68" s="3" t="n"/>
       <c r="Q68" s="3" t="n"/>
       <c r="R68" s="3" t="n"/>
       <c r="S68" s="3" t="n"/>
       <c r="T68" s="3" t="n"/>
+      <c r="Z68" s="3" t="n"/>
+      <c r="AA68" s="3" t="n"/>
+      <c r="AB68" s="3" t="n"/>
+      <c r="AC68" s="3" t="n"/>
+      <c r="AD68" s="3" t="n"/>
+      <c r="AJ68" s="3" t="n"/>
+      <c r="AK68" s="3" t="n"/>
+      <c r="AL68" s="3" t="n"/>
+      <c r="AM68" s="3" t="n"/>
+      <c r="AN68" s="3" t="n"/>
+      <c r="AT68" s="3" t="n"/>
+      <c r="AU68" s="3" t="n"/>
+      <c r="AV68" s="3" t="n"/>
+      <c r="AW68" s="3" t="n"/>
+      <c r="AX68" s="3" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
@@ -2758,10 +3834,10 @@
         </is>
       </c>
       <c r="B69" s="3" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="C69" s="3" t="n">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
@@ -2776,12 +3852,28 @@
       <c r="H69" s="3" t="n"/>
       <c r="I69" s="3" t="n"/>
       <c r="J69" s="3" t="n"/>
+      <c r="K69" s="3" t="n"/>
       <c r="L69" s="3" t="n"/>
       <c r="M69" s="3" t="n"/>
       <c r="Q69" s="3" t="n"/>
       <c r="R69" s="3" t="n"/>
       <c r="S69" s="3" t="n"/>
       <c r="T69" s="3" t="n"/>
+      <c r="Z69" s="3" t="n"/>
+      <c r="AA69" s="3" t="n"/>
+      <c r="AB69" s="3" t="n"/>
+      <c r="AC69" s="3" t="n"/>
+      <c r="AD69" s="3" t="n"/>
+      <c r="AJ69" s="3" t="n"/>
+      <c r="AK69" s="3" t="n"/>
+      <c r="AL69" s="3" t="n"/>
+      <c r="AM69" s="3" t="n"/>
+      <c r="AN69" s="3" t="n"/>
+      <c r="AT69" s="3" t="n"/>
+      <c r="AU69" s="3" t="n"/>
+      <c r="AV69" s="3" t="n"/>
+      <c r="AW69" s="3" t="n"/>
+      <c r="AX69" s="3" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
@@ -2793,7 +3885,7 @@
         <v>0.04</v>
       </c>
       <c r="C70" s="3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
@@ -2808,12 +3900,28 @@
       <c r="H70" s="3" t="n"/>
       <c r="I70" s="3" t="n"/>
       <c r="J70" s="3" t="n"/>
+      <c r="K70" s="3" t="n"/>
       <c r="L70" s="3" t="n"/>
       <c r="M70" s="3" t="n"/>
       <c r="Q70" s="3" t="n"/>
       <c r="R70" s="3" t="n"/>
       <c r="S70" s="3" t="n"/>
       <c r="T70" s="3" t="n"/>
+      <c r="Z70" s="3" t="n"/>
+      <c r="AA70" s="3" t="n"/>
+      <c r="AB70" s="3" t="n"/>
+      <c r="AC70" s="3" t="n"/>
+      <c r="AD70" s="3" t="n"/>
+      <c r="AJ70" s="3" t="n"/>
+      <c r="AK70" s="3" t="n"/>
+      <c r="AL70" s="3" t="n"/>
+      <c r="AM70" s="3" t="n"/>
+      <c r="AN70" s="3" t="n"/>
+      <c r="AT70" s="3" t="n"/>
+      <c r="AU70" s="3" t="n"/>
+      <c r="AV70" s="3" t="n"/>
+      <c r="AW70" s="3" t="n"/>
+      <c r="AX70" s="3" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
@@ -2825,7 +3933,7 @@
         <v>0.12</v>
       </c>
       <c r="C71" s="3" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
@@ -2840,12 +3948,28 @@
       <c r="H71" s="3" t="n"/>
       <c r="I71" s="3" t="n"/>
       <c r="J71" s="3" t="n"/>
+      <c r="K71" s="3" t="n"/>
       <c r="L71" s="3" t="n"/>
       <c r="M71" s="3" t="n"/>
       <c r="Q71" s="3" t="n"/>
       <c r="R71" s="3" t="n"/>
       <c r="S71" s="3" t="n"/>
       <c r="T71" s="3" t="n"/>
+      <c r="Z71" s="3" t="n"/>
+      <c r="AA71" s="3" t="n"/>
+      <c r="AB71" s="3" t="n"/>
+      <c r="AC71" s="3" t="n"/>
+      <c r="AD71" s="3" t="n"/>
+      <c r="AJ71" s="3" t="n"/>
+      <c r="AK71" s="3" t="n"/>
+      <c r="AL71" s="3" t="n"/>
+      <c r="AM71" s="3" t="n"/>
+      <c r="AN71" s="3" t="n"/>
+      <c r="AT71" s="3" t="n"/>
+      <c r="AU71" s="3" t="n"/>
+      <c r="AV71" s="3" t="n"/>
+      <c r="AW71" s="3" t="n"/>
+      <c r="AX71" s="3" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -2854,7 +3978,7 @@
         </is>
       </c>
       <c r="B72" s="3" t="n">
-        <v>4.99</v>
+        <v>4.66</v>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr">
@@ -2870,12 +3994,28 @@
       <c r="H72" s="3" t="n"/>
       <c r="I72" s="3" t="n"/>
       <c r="J72" s="3" t="n"/>
+      <c r="K72" s="3" t="n"/>
       <c r="L72" s="3" t="n"/>
       <c r="M72" s="3" t="n"/>
       <c r="Q72" s="3" t="n"/>
       <c r="R72" s="3" t="n"/>
       <c r="S72" s="3" t="n"/>
       <c r="T72" s="3" t="n"/>
+      <c r="Z72" s="3" t="n"/>
+      <c r="AA72" s="3" t="n"/>
+      <c r="AB72" s="3" t="n"/>
+      <c r="AC72" s="3" t="n"/>
+      <c r="AD72" s="3" t="n"/>
+      <c r="AJ72" s="3" t="n"/>
+      <c r="AK72" s="3" t="n"/>
+      <c r="AL72" s="3" t="n"/>
+      <c r="AM72" s="3" t="n"/>
+      <c r="AN72" s="3" t="n"/>
+      <c r="AT72" s="3" t="n"/>
+      <c r="AU72" s="3" t="n"/>
+      <c r="AV72" s="3" t="n"/>
+      <c r="AW72" s="3" t="n"/>
+      <c r="AX72" s="3" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
@@ -2884,7 +4024,7 @@
         </is>
       </c>
       <c r="B73" s="3" t="n">
-        <v>12.78</v>
+        <v>13.6</v>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
       <c r="D73" s="3" t="inlineStr">
@@ -2900,12 +4040,28 @@
       <c r="H73" s="3" t="n"/>
       <c r="I73" s="3" t="n"/>
       <c r="J73" s="3" t="n"/>
+      <c r="K73" s="3" t="n"/>
       <c r="L73" s="3" t="n"/>
       <c r="M73" s="3" t="n"/>
       <c r="Q73" s="3" t="n"/>
       <c r="R73" s="3" t="n"/>
       <c r="S73" s="3" t="n"/>
       <c r="T73" s="3" t="n"/>
+      <c r="Z73" s="3" t="n"/>
+      <c r="AA73" s="3" t="n"/>
+      <c r="AB73" s="3" t="n"/>
+      <c r="AC73" s="3" t="n"/>
+      <c r="AD73" s="3" t="n"/>
+      <c r="AJ73" s="3" t="n"/>
+      <c r="AK73" s="3" t="n"/>
+      <c r="AL73" s="3" t="n"/>
+      <c r="AM73" s="3" t="n"/>
+      <c r="AN73" s="3" t="n"/>
+      <c r="AT73" s="3" t="n"/>
+      <c r="AU73" s="3" t="n"/>
+      <c r="AV73" s="3" t="n"/>
+      <c r="AW73" s="3" t="n"/>
+      <c r="AX73" s="3" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
@@ -2917,7 +4073,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C74" s="3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
@@ -2932,12 +4088,28 @@
       <c r="H74" s="3" t="n"/>
       <c r="I74" s="3" t="n"/>
       <c r="J74" s="3" t="n"/>
+      <c r="K74" s="3" t="n"/>
       <c r="L74" s="3" t="n"/>
       <c r="M74" s="3" t="n"/>
       <c r="Q74" s="3" t="n"/>
       <c r="R74" s="3" t="n"/>
       <c r="S74" s="3" t="n"/>
       <c r="T74" s="3" t="n"/>
+      <c r="Z74" s="3" t="n"/>
+      <c r="AA74" s="3" t="n"/>
+      <c r="AB74" s="3" t="n"/>
+      <c r="AC74" s="3" t="n"/>
+      <c r="AD74" s="3" t="n"/>
+      <c r="AJ74" s="3" t="n"/>
+      <c r="AK74" s="3" t="n"/>
+      <c r="AL74" s="3" t="n"/>
+      <c r="AM74" s="3" t="n"/>
+      <c r="AN74" s="3" t="n"/>
+      <c r="AT74" s="3" t="n"/>
+      <c r="AU74" s="3" t="n"/>
+      <c r="AV74" s="3" t="n"/>
+      <c r="AW74" s="3" t="n"/>
+      <c r="AX74" s="3" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
@@ -2946,10 +4118,10 @@
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="C75" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D75" s="3" t="inlineStr">
         <is>
@@ -2964,12 +4136,28 @@
       <c r="H75" s="3" t="n"/>
       <c r="I75" s="3" t="n"/>
       <c r="J75" s="3" t="n"/>
+      <c r="K75" s="3" t="n"/>
       <c r="L75" s="3" t="n"/>
       <c r="M75" s="3" t="n"/>
       <c r="Q75" s="3" t="n"/>
       <c r="R75" s="3" t="n"/>
       <c r="S75" s="3" t="n"/>
       <c r="T75" s="3" t="n"/>
+      <c r="Z75" s="3" t="n"/>
+      <c r="AA75" s="3" t="n"/>
+      <c r="AB75" s="3" t="n"/>
+      <c r="AC75" s="3" t="n"/>
+      <c r="AD75" s="3" t="n"/>
+      <c r="AJ75" s="3" t="n"/>
+      <c r="AK75" s="3" t="n"/>
+      <c r="AL75" s="3" t="n"/>
+      <c r="AM75" s="3" t="n"/>
+      <c r="AN75" s="3" t="n"/>
+      <c r="AT75" s="3" t="n"/>
+      <c r="AU75" s="3" t="n"/>
+      <c r="AV75" s="3" t="n"/>
+      <c r="AW75" s="3" t="n"/>
+      <c r="AX75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
@@ -2981,7 +4169,7 @@
         <v>0.05</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
@@ -2996,12 +4184,28 @@
       <c r="H76" s="3" t="n"/>
       <c r="I76" s="3" t="n"/>
       <c r="J76" s="3" t="n"/>
+      <c r="K76" s="3" t="n"/>
       <c r="L76" s="3" t="n"/>
       <c r="M76" s="3" t="n"/>
       <c r="Q76" s="3" t="n"/>
       <c r="R76" s="3" t="n"/>
       <c r="S76" s="3" t="n"/>
       <c r="T76" s="3" t="n"/>
+      <c r="Z76" s="3" t="n"/>
+      <c r="AA76" s="3" t="n"/>
+      <c r="AB76" s="3" t="n"/>
+      <c r="AC76" s="3" t="n"/>
+      <c r="AD76" s="3" t="n"/>
+      <c r="AJ76" s="3" t="n"/>
+      <c r="AK76" s="3" t="n"/>
+      <c r="AL76" s="3" t="n"/>
+      <c r="AM76" s="3" t="n"/>
+      <c r="AN76" s="3" t="n"/>
+      <c r="AT76" s="3" t="n"/>
+      <c r="AU76" s="3" t="n"/>
+      <c r="AV76" s="3" t="n"/>
+      <c r="AW76" s="3" t="n"/>
+      <c r="AX76" s="3" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
@@ -3010,10 +4214,10 @@
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C77" s="3" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
@@ -3028,12 +4232,28 @@
       <c r="H77" s="3" t="n"/>
       <c r="I77" s="3" t="n"/>
       <c r="J77" s="3" t="n"/>
+      <c r="K77" s="3" t="n"/>
       <c r="L77" s="3" t="n"/>
       <c r="M77" s="3" t="n"/>
       <c r="Q77" s="3" t="n"/>
       <c r="R77" s="3" t="n"/>
       <c r="S77" s="3" t="n"/>
       <c r="T77" s="3" t="n"/>
+      <c r="Z77" s="3" t="n"/>
+      <c r="AA77" s="3" t="n"/>
+      <c r="AB77" s="3" t="n"/>
+      <c r="AC77" s="3" t="n"/>
+      <c r="AD77" s="3" t="n"/>
+      <c r="AJ77" s="3" t="n"/>
+      <c r="AK77" s="3" t="n"/>
+      <c r="AL77" s="3" t="n"/>
+      <c r="AM77" s="3" t="n"/>
+      <c r="AN77" s="3" t="n"/>
+      <c r="AT77" s="3" t="n"/>
+      <c r="AU77" s="3" t="n"/>
+      <c r="AV77" s="3" t="n"/>
+      <c r="AW77" s="3" t="n"/>
+      <c r="AX77" s="3" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
@@ -3042,7 +4262,7 @@
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="C78" s="3" t="inlineStr"/>
       <c r="D78" s="3" t="inlineStr">
@@ -3058,12 +4278,28 @@
       <c r="H78" s="3" t="n"/>
       <c r="I78" s="3" t="n"/>
       <c r="J78" s="3" t="n"/>
+      <c r="K78" s="3" t="n"/>
       <c r="L78" s="3" t="n"/>
       <c r="M78" s="3" t="n"/>
       <c r="Q78" s="3" t="n"/>
       <c r="R78" s="3" t="n"/>
       <c r="S78" s="3" t="n"/>
       <c r="T78" s="3" t="n"/>
+      <c r="Z78" s="3" t="n"/>
+      <c r="AA78" s="3" t="n"/>
+      <c r="AB78" s="3" t="n"/>
+      <c r="AC78" s="3" t="n"/>
+      <c r="AD78" s="3" t="n"/>
+      <c r="AJ78" s="3" t="n"/>
+      <c r="AK78" s="3" t="n"/>
+      <c r="AL78" s="3" t="n"/>
+      <c r="AM78" s="3" t="n"/>
+      <c r="AN78" s="3" t="n"/>
+      <c r="AT78" s="3" t="n"/>
+      <c r="AU78" s="3" t="n"/>
+      <c r="AV78" s="3" t="n"/>
+      <c r="AW78" s="3" t="n"/>
+      <c r="AX78" s="3" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
@@ -3072,7 +4308,7 @@
         </is>
       </c>
       <c r="B79" s="3" t="n">
-        <v>4.35</v>
+        <v>4.52</v>
       </c>
       <c r="C79" s="3" t="inlineStr"/>
       <c r="D79" s="3" t="inlineStr">
@@ -3088,12 +4324,28 @@
       <c r="H79" s="3" t="n"/>
       <c r="I79" s="3" t="n"/>
       <c r="J79" s="3" t="n"/>
+      <c r="K79" s="3" t="n"/>
       <c r="L79" s="3" t="n"/>
       <c r="M79" s="3" t="n"/>
       <c r="Q79" s="3" t="n"/>
       <c r="R79" s="3" t="n"/>
       <c r="S79" s="3" t="n"/>
       <c r="T79" s="3" t="n"/>
+      <c r="Z79" s="3" t="n"/>
+      <c r="AA79" s="3" t="n"/>
+      <c r="AB79" s="3" t="n"/>
+      <c r="AC79" s="3" t="n"/>
+      <c r="AD79" s="3" t="n"/>
+      <c r="AJ79" s="3" t="n"/>
+      <c r="AK79" s="3" t="n"/>
+      <c r="AL79" s="3" t="n"/>
+      <c r="AM79" s="3" t="n"/>
+      <c r="AN79" s="3" t="n"/>
+      <c r="AT79" s="3" t="n"/>
+      <c r="AU79" s="3" t="n"/>
+      <c r="AV79" s="3" t="n"/>
+      <c r="AW79" s="3" t="n"/>
+      <c r="AX79" s="3" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
@@ -3102,10 +4354,10 @@
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="C80" s="3" t="n">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
@@ -3120,12 +4372,28 @@
       <c r="H80" s="3" t="n"/>
       <c r="I80" s="3" t="n"/>
       <c r="J80" s="3" t="n"/>
+      <c r="K80" s="3" t="n"/>
       <c r="L80" s="3" t="n"/>
       <c r="M80" s="3" t="n"/>
       <c r="Q80" s="3" t="n"/>
       <c r="R80" s="3" t="n"/>
       <c r="S80" s="3" t="n"/>
       <c r="T80" s="3" t="n"/>
+      <c r="Z80" s="3" t="n"/>
+      <c r="AA80" s="3" t="n"/>
+      <c r="AB80" s="3" t="n"/>
+      <c r="AC80" s="3" t="n"/>
+      <c r="AD80" s="3" t="n"/>
+      <c r="AJ80" s="3" t="n"/>
+      <c r="AK80" s="3" t="n"/>
+      <c r="AL80" s="3" t="n"/>
+      <c r="AM80" s="3" t="n"/>
+      <c r="AN80" s="3" t="n"/>
+      <c r="AT80" s="3" t="n"/>
+      <c r="AU80" s="3" t="n"/>
+      <c r="AV80" s="3" t="n"/>
+      <c r="AW80" s="3" t="n"/>
+      <c r="AX80" s="3" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
@@ -3137,7 +4405,7 @@
         <v>0.06</v>
       </c>
       <c r="C81" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D81" s="3" t="inlineStr">
         <is>
@@ -3152,12 +4420,28 @@
       <c r="H81" s="3" t="n"/>
       <c r="I81" s="3" t="n"/>
       <c r="J81" s="3" t="n"/>
+      <c r="K81" s="3" t="n"/>
       <c r="L81" s="3" t="n"/>
       <c r="M81" s="3" t="n"/>
       <c r="Q81" s="3" t="n"/>
       <c r="R81" s="3" t="n"/>
       <c r="S81" s="3" t="n"/>
       <c r="T81" s="3" t="n"/>
+      <c r="Z81" s="3" t="n"/>
+      <c r="AA81" s="3" t="n"/>
+      <c r="AB81" s="3" t="n"/>
+      <c r="AC81" s="3" t="n"/>
+      <c r="AD81" s="3" t="n"/>
+      <c r="AJ81" s="3" t="n"/>
+      <c r="AK81" s="3" t="n"/>
+      <c r="AL81" s="3" t="n"/>
+      <c r="AM81" s="3" t="n"/>
+      <c r="AN81" s="3" t="n"/>
+      <c r="AT81" s="3" t="n"/>
+      <c r="AU81" s="3" t="n"/>
+      <c r="AV81" s="3" t="n"/>
+      <c r="AW81" s="3" t="n"/>
+      <c r="AX81" s="3" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
@@ -3166,10 +4450,10 @@
         </is>
       </c>
       <c r="B82" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C82" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="D82" s="3" t="inlineStr">
         <is>
@@ -3184,12 +4468,28 @@
       <c r="H82" s="3" t="n"/>
       <c r="I82" s="3" t="n"/>
       <c r="J82" s="3" t="n"/>
+      <c r="K82" s="3" t="n"/>
       <c r="L82" s="3" t="n"/>
       <c r="M82" s="3" t="n"/>
       <c r="Q82" s="3" t="n"/>
       <c r="R82" s="3" t="n"/>
       <c r="S82" s="3" t="n"/>
       <c r="T82" s="3" t="n"/>
+      <c r="Z82" s="3" t="n"/>
+      <c r="AA82" s="3" t="n"/>
+      <c r="AB82" s="3" t="n"/>
+      <c r="AC82" s="3" t="n"/>
+      <c r="AD82" s="3" t="n"/>
+      <c r="AJ82" s="3" t="n"/>
+      <c r="AK82" s="3" t="n"/>
+      <c r="AL82" s="3" t="n"/>
+      <c r="AM82" s="3" t="n"/>
+      <c r="AN82" s="3" t="n"/>
+      <c r="AT82" s="3" t="n"/>
+      <c r="AU82" s="3" t="n"/>
+      <c r="AV82" s="3" t="n"/>
+      <c r="AW82" s="3" t="n"/>
+      <c r="AX82" s="3" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
@@ -3216,12 +4516,28 @@
       <c r="H83" s="3" t="n"/>
       <c r="I83" s="3" t="n"/>
       <c r="J83" s="3" t="n"/>
+      <c r="K83" s="3" t="n"/>
       <c r="L83" s="3" t="n"/>
       <c r="M83" s="3" t="n"/>
       <c r="Q83" s="3" t="n"/>
       <c r="R83" s="3" t="n"/>
       <c r="S83" s="3" t="n"/>
       <c r="T83" s="3" t="n"/>
+      <c r="Z83" s="3" t="n"/>
+      <c r="AA83" s="3" t="n"/>
+      <c r="AB83" s="3" t="n"/>
+      <c r="AC83" s="3" t="n"/>
+      <c r="AD83" s="3" t="n"/>
+      <c r="AJ83" s="3" t="n"/>
+      <c r="AK83" s="3" t="n"/>
+      <c r="AL83" s="3" t="n"/>
+      <c r="AM83" s="3" t="n"/>
+      <c r="AN83" s="3" t="n"/>
+      <c r="AT83" s="3" t="n"/>
+      <c r="AU83" s="3" t="n"/>
+      <c r="AV83" s="3" t="n"/>
+      <c r="AW83" s="3" t="n"/>
+      <c r="AX83" s="3" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
@@ -3230,10 +4546,10 @@
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="C84" s="3" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="D84" s="3" t="inlineStr">
         <is>
@@ -3248,12 +4564,28 @@
       <c r="H84" s="3" t="n"/>
       <c r="I84" s="3" t="n"/>
       <c r="J84" s="3" t="n"/>
+      <c r="K84" s="3" t="n"/>
       <c r="L84" s="3" t="n"/>
       <c r="M84" s="3" t="n"/>
       <c r="Q84" s="3" t="n"/>
       <c r="R84" s="3" t="n"/>
       <c r="S84" s="3" t="n"/>
       <c r="T84" s="3" t="n"/>
+      <c r="Z84" s="3" t="n"/>
+      <c r="AA84" s="3" t="n"/>
+      <c r="AB84" s="3" t="n"/>
+      <c r="AC84" s="3" t="n"/>
+      <c r="AD84" s="3" t="n"/>
+      <c r="AJ84" s="3" t="n"/>
+      <c r="AK84" s="3" t="n"/>
+      <c r="AL84" s="3" t="n"/>
+      <c r="AM84" s="3" t="n"/>
+      <c r="AN84" s="3" t="n"/>
+      <c r="AT84" s="3" t="n"/>
+      <c r="AU84" s="3" t="n"/>
+      <c r="AV84" s="3" t="n"/>
+      <c r="AW84" s="3" t="n"/>
+      <c r="AX84" s="3" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
@@ -3262,10 +4594,10 @@
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C85" s="3" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D85" s="3" t="inlineStr">
         <is>
@@ -3280,12 +4612,28 @@
       <c r="H85" s="3" t="n"/>
       <c r="I85" s="3" t="n"/>
       <c r="J85" s="3" t="n"/>
+      <c r="K85" s="3" t="n"/>
       <c r="L85" s="3" t="n"/>
       <c r="M85" s="3" t="n"/>
       <c r="Q85" s="3" t="n"/>
       <c r="R85" s="3" t="n"/>
       <c r="S85" s="3" t="n"/>
       <c r="T85" s="3" t="n"/>
+      <c r="Z85" s="3" t="n"/>
+      <c r="AA85" s="3" t="n"/>
+      <c r="AB85" s="3" t="n"/>
+      <c r="AC85" s="3" t="n"/>
+      <c r="AD85" s="3" t="n"/>
+      <c r="AJ85" s="3" t="n"/>
+      <c r="AK85" s="3" t="n"/>
+      <c r="AL85" s="3" t="n"/>
+      <c r="AM85" s="3" t="n"/>
+      <c r="AN85" s="3" t="n"/>
+      <c r="AT85" s="3" t="n"/>
+      <c r="AU85" s="3" t="n"/>
+      <c r="AV85" s="3" t="n"/>
+      <c r="AW85" s="3" t="n"/>
+      <c r="AX85" s="3" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
@@ -3294,10 +4642,10 @@
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C86" s="3" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
@@ -3312,12 +4660,28 @@
       <c r="H86" s="3" t="n"/>
       <c r="I86" s="3" t="n"/>
       <c r="J86" s="3" t="n"/>
+      <c r="K86" s="3" t="n"/>
       <c r="L86" s="3" t="n"/>
       <c r="M86" s="3" t="n"/>
       <c r="Q86" s="3" t="n"/>
       <c r="R86" s="3" t="n"/>
       <c r="S86" s="3" t="n"/>
       <c r="T86" s="3" t="n"/>
+      <c r="Z86" s="3" t="n"/>
+      <c r="AA86" s="3" t="n"/>
+      <c r="AB86" s="3" t="n"/>
+      <c r="AC86" s="3" t="n"/>
+      <c r="AD86" s="3" t="n"/>
+      <c r="AJ86" s="3" t="n"/>
+      <c r="AK86" s="3" t="n"/>
+      <c r="AL86" s="3" t="n"/>
+      <c r="AM86" s="3" t="n"/>
+      <c r="AN86" s="3" t="n"/>
+      <c r="AT86" s="3" t="n"/>
+      <c r="AU86" s="3" t="n"/>
+      <c r="AV86" s="3" t="n"/>
+      <c r="AW86" s="3" t="n"/>
+      <c r="AX86" s="3" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
@@ -3326,10 +4690,10 @@
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="C87" s="3" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
@@ -3344,12 +4708,28 @@
       <c r="H87" s="3" t="n"/>
       <c r="I87" s="3" t="n"/>
       <c r="J87" s="3" t="n"/>
+      <c r="K87" s="3" t="n"/>
       <c r="L87" s="3" t="n"/>
       <c r="M87" s="3" t="n"/>
       <c r="Q87" s="3" t="n"/>
       <c r="R87" s="3" t="n"/>
       <c r="S87" s="3" t="n"/>
       <c r="T87" s="3" t="n"/>
+      <c r="Z87" s="3" t="n"/>
+      <c r="AA87" s="3" t="n"/>
+      <c r="AB87" s="3" t="n"/>
+      <c r="AC87" s="3" t="n"/>
+      <c r="AD87" s="3" t="n"/>
+      <c r="AJ87" s="3" t="n"/>
+      <c r="AK87" s="3" t="n"/>
+      <c r="AL87" s="3" t="n"/>
+      <c r="AM87" s="3" t="n"/>
+      <c r="AN87" s="3" t="n"/>
+      <c r="AT87" s="3" t="n"/>
+      <c r="AU87" s="3" t="n"/>
+      <c r="AV87" s="3" t="n"/>
+      <c r="AW87" s="3" t="n"/>
+      <c r="AX87" s="3" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
@@ -3358,10 +4738,10 @@
         </is>
       </c>
       <c r="B88" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="D88" s="3" t="inlineStr">
         <is>
@@ -3376,12 +4756,28 @@
       <c r="H88" s="3" t="n"/>
       <c r="I88" s="3" t="n"/>
       <c r="J88" s="3" t="n"/>
+      <c r="K88" s="3" t="n"/>
       <c r="L88" s="3" t="n"/>
       <c r="M88" s="3" t="n"/>
       <c r="Q88" s="3" t="n"/>
       <c r="R88" s="3" t="n"/>
       <c r="S88" s="3" t="n"/>
       <c r="T88" s="3" t="n"/>
+      <c r="Z88" s="3" t="n"/>
+      <c r="AA88" s="3" t="n"/>
+      <c r="AB88" s="3" t="n"/>
+      <c r="AC88" s="3" t="n"/>
+      <c r="AD88" s="3" t="n"/>
+      <c r="AJ88" s="3" t="n"/>
+      <c r="AK88" s="3" t="n"/>
+      <c r="AL88" s="3" t="n"/>
+      <c r="AM88" s="3" t="n"/>
+      <c r="AN88" s="3" t="n"/>
+      <c r="AT88" s="3" t="n"/>
+      <c r="AU88" s="3" t="n"/>
+      <c r="AV88" s="3" t="n"/>
+      <c r="AW88" s="3" t="n"/>
+      <c r="AX88" s="3" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
@@ -3390,10 +4786,10 @@
         </is>
       </c>
       <c r="B89" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C89" s="3" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
@@ -3408,12 +4804,28 @@
       <c r="H89" s="3" t="n"/>
       <c r="I89" s="3" t="n"/>
       <c r="J89" s="3" t="n"/>
+      <c r="K89" s="3" t="n"/>
       <c r="L89" s="3" t="n"/>
       <c r="M89" s="3" t="n"/>
       <c r="Q89" s="3" t="n"/>
       <c r="R89" s="3" t="n"/>
       <c r="S89" s="3" t="n"/>
       <c r="T89" s="3" t="n"/>
+      <c r="Z89" s="3" t="n"/>
+      <c r="AA89" s="3" t="n"/>
+      <c r="AB89" s="3" t="n"/>
+      <c r="AC89" s="3" t="n"/>
+      <c r="AD89" s="3" t="n"/>
+      <c r="AJ89" s="3" t="n"/>
+      <c r="AK89" s="3" t="n"/>
+      <c r="AL89" s="3" t="n"/>
+      <c r="AM89" s="3" t="n"/>
+      <c r="AN89" s="3" t="n"/>
+      <c r="AT89" s="3" t="n"/>
+      <c r="AU89" s="3" t="n"/>
+      <c r="AV89" s="3" t="n"/>
+      <c r="AW89" s="3" t="n"/>
+      <c r="AX89" s="3" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
@@ -3422,10 +4834,10 @@
         </is>
       </c>
       <c r="B90" s="3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="C90" s="3" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
@@ -3440,12 +4852,28 @@
       <c r="H90" s="3" t="n"/>
       <c r="I90" s="3" t="n"/>
       <c r="J90" s="3" t="n"/>
+      <c r="K90" s="3" t="n"/>
       <c r="L90" s="3" t="n"/>
       <c r="M90" s="3" t="n"/>
       <c r="Q90" s="3" t="n"/>
       <c r="R90" s="3" t="n"/>
       <c r="S90" s="3" t="n"/>
       <c r="T90" s="3" t="n"/>
+      <c r="Z90" s="3" t="n"/>
+      <c r="AA90" s="3" t="n"/>
+      <c r="AB90" s="3" t="n"/>
+      <c r="AC90" s="3" t="n"/>
+      <c r="AD90" s="3" t="n"/>
+      <c r="AJ90" s="3" t="n"/>
+      <c r="AK90" s="3" t="n"/>
+      <c r="AL90" s="3" t="n"/>
+      <c r="AM90" s="3" t="n"/>
+      <c r="AN90" s="3" t="n"/>
+      <c r="AT90" s="3" t="n"/>
+      <c r="AU90" s="3" t="n"/>
+      <c r="AV90" s="3" t="n"/>
+      <c r="AW90" s="3" t="n"/>
+      <c r="AX90" s="3" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
@@ -3454,7 +4882,7 @@
         </is>
       </c>
       <c r="B91" s="3" t="n">
-        <v>27.4</v>
+        <v>27.28</v>
       </c>
       <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr">
@@ -3470,12 +4898,28 @@
       <c r="H91" s="3" t="n"/>
       <c r="I91" s="3" t="n"/>
       <c r="J91" s="3" t="n"/>
+      <c r="K91" s="3" t="n"/>
       <c r="L91" s="3" t="n"/>
       <c r="M91" s="3" t="n"/>
       <c r="Q91" s="3" t="n"/>
       <c r="R91" s="3" t="n"/>
       <c r="S91" s="3" t="n"/>
       <c r="T91" s="3" t="n"/>
+      <c r="Z91" s="3" t="n"/>
+      <c r="AA91" s="3" t="n"/>
+      <c r="AB91" s="3" t="n"/>
+      <c r="AC91" s="3" t="n"/>
+      <c r="AD91" s="3" t="n"/>
+      <c r="AJ91" s="3" t="n"/>
+      <c r="AK91" s="3" t="n"/>
+      <c r="AL91" s="3" t="n"/>
+      <c r="AM91" s="3" t="n"/>
+      <c r="AN91" s="3" t="n"/>
+      <c r="AT91" s="3" t="n"/>
+      <c r="AU91" s="3" t="n"/>
+      <c r="AV91" s="3" t="n"/>
+      <c r="AW91" s="3" t="n"/>
+      <c r="AX91" s="3" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
@@ -3484,10 +4928,10 @@
         </is>
       </c>
       <c r="B92" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="C92" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="D92" s="3" t="inlineStr">
         <is>
@@ -3502,12 +4946,28 @@
       <c r="H92" s="3" t="n"/>
       <c r="I92" s="3" t="n"/>
       <c r="J92" s="3" t="n"/>
+      <c r="K92" s="3" t="n"/>
       <c r="L92" s="3" t="n"/>
       <c r="M92" s="3" t="n"/>
       <c r="Q92" s="3" t="n"/>
       <c r="R92" s="3" t="n"/>
       <c r="S92" s="3" t="n"/>
       <c r="T92" s="3" t="n"/>
+      <c r="Z92" s="3" t="n"/>
+      <c r="AA92" s="3" t="n"/>
+      <c r="AB92" s="3" t="n"/>
+      <c r="AC92" s="3" t="n"/>
+      <c r="AD92" s="3" t="n"/>
+      <c r="AJ92" s="3" t="n"/>
+      <c r="AK92" s="3" t="n"/>
+      <c r="AL92" s="3" t="n"/>
+      <c r="AM92" s="3" t="n"/>
+      <c r="AN92" s="3" t="n"/>
+      <c r="AT92" s="3" t="n"/>
+      <c r="AU92" s="3" t="n"/>
+      <c r="AV92" s="3" t="n"/>
+      <c r="AW92" s="3" t="n"/>
+      <c r="AX92" s="3" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
@@ -3516,10 +4976,10 @@
         </is>
       </c>
       <c r="B93" s="3" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="C93" s="3" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="D93" s="3" t="inlineStr">
         <is>
@@ -3534,12 +4994,28 @@
       <c r="H93" s="3" t="n"/>
       <c r="I93" s="3" t="n"/>
       <c r="J93" s="3" t="n"/>
+      <c r="K93" s="3" t="n"/>
       <c r="L93" s="3" t="n"/>
       <c r="M93" s="3" t="n"/>
       <c r="Q93" s="3" t="n"/>
       <c r="R93" s="3" t="n"/>
       <c r="S93" s="3" t="n"/>
       <c r="T93" s="3" t="n"/>
+      <c r="Z93" s="3" t="n"/>
+      <c r="AA93" s="3" t="n"/>
+      <c r="AB93" s="3" t="n"/>
+      <c r="AC93" s="3" t="n"/>
+      <c r="AD93" s="3" t="n"/>
+      <c r="AJ93" s="3" t="n"/>
+      <c r="AK93" s="3" t="n"/>
+      <c r="AL93" s="3" t="n"/>
+      <c r="AM93" s="3" t="n"/>
+      <c r="AN93" s="3" t="n"/>
+      <c r="AT93" s="3" t="n"/>
+      <c r="AU93" s="3" t="n"/>
+      <c r="AV93" s="3" t="n"/>
+      <c r="AW93" s="3" t="n"/>
+      <c r="AX93" s="3" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
@@ -3548,7 +5024,7 @@
         </is>
       </c>
       <c r="B94" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr">
@@ -3564,12 +5040,28 @@
       <c r="H94" s="3" t="n"/>
       <c r="I94" s="3" t="n"/>
       <c r="J94" s="3" t="n"/>
+      <c r="K94" s="3" t="n"/>
       <c r="L94" s="3" t="n"/>
       <c r="M94" s="3" t="n"/>
       <c r="Q94" s="3" t="n"/>
       <c r="R94" s="3" t="n"/>
       <c r="S94" s="3" t="n"/>
       <c r="T94" s="3" t="n"/>
+      <c r="Z94" s="3" t="n"/>
+      <c r="AA94" s="3" t="n"/>
+      <c r="AB94" s="3" t="n"/>
+      <c r="AC94" s="3" t="n"/>
+      <c r="AD94" s="3" t="n"/>
+      <c r="AJ94" s="3" t="n"/>
+      <c r="AK94" s="3" t="n"/>
+      <c r="AL94" s="3" t="n"/>
+      <c r="AM94" s="3" t="n"/>
+      <c r="AN94" s="3" t="n"/>
+      <c r="AT94" s="3" t="n"/>
+      <c r="AU94" s="3" t="n"/>
+      <c r="AV94" s="3" t="n"/>
+      <c r="AW94" s="3" t="n"/>
+      <c r="AX94" s="3" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
@@ -3578,7 +5070,7 @@
         </is>
       </c>
       <c r="B95" s="3" t="n">
-        <v>5.33</v>
+        <v>4.45</v>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
       <c r="D95" s="3" t="inlineStr">
@@ -3594,12 +5086,28 @@
       <c r="H95" s="3" t="n"/>
       <c r="I95" s="3" t="n"/>
       <c r="J95" s="3" t="n"/>
+      <c r="K95" s="3" t="n"/>
       <c r="L95" s="3" t="n"/>
       <c r="M95" s="3" t="n"/>
       <c r="Q95" s="3" t="n"/>
       <c r="R95" s="3" t="n"/>
       <c r="S95" s="3" t="n"/>
       <c r="T95" s="3" t="n"/>
+      <c r="Z95" s="3" t="n"/>
+      <c r="AA95" s="3" t="n"/>
+      <c r="AB95" s="3" t="n"/>
+      <c r="AC95" s="3" t="n"/>
+      <c r="AD95" s="3" t="n"/>
+      <c r="AJ95" s="3" t="n"/>
+      <c r="AK95" s="3" t="n"/>
+      <c r="AL95" s="3" t="n"/>
+      <c r="AM95" s="3" t="n"/>
+      <c r="AN95" s="3" t="n"/>
+      <c r="AT95" s="3" t="n"/>
+      <c r="AU95" s="3" t="n"/>
+      <c r="AV95" s="3" t="n"/>
+      <c r="AW95" s="3" t="n"/>
+      <c r="AX95" s="3" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
@@ -3608,10 +5116,10 @@
         </is>
       </c>
       <c r="B96" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C96" s="3" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="D96" s="3" t="inlineStr">
         <is>
@@ -3626,12 +5134,28 @@
       <c r="H96" s="3" t="n"/>
       <c r="I96" s="3" t="n"/>
       <c r="J96" s="3" t="n"/>
+      <c r="K96" s="3" t="n"/>
       <c r="L96" s="3" t="n"/>
       <c r="M96" s="3" t="n"/>
       <c r="Q96" s="3" t="n"/>
       <c r="R96" s="3" t="n"/>
       <c r="S96" s="3" t="n"/>
       <c r="T96" s="3" t="n"/>
+      <c r="Z96" s="3" t="n"/>
+      <c r="AA96" s="3" t="n"/>
+      <c r="AB96" s="3" t="n"/>
+      <c r="AC96" s="3" t="n"/>
+      <c r="AD96" s="3" t="n"/>
+      <c r="AJ96" s="3" t="n"/>
+      <c r="AK96" s="3" t="n"/>
+      <c r="AL96" s="3" t="n"/>
+      <c r="AM96" s="3" t="n"/>
+      <c r="AN96" s="3" t="n"/>
+      <c r="AT96" s="3" t="n"/>
+      <c r="AU96" s="3" t="n"/>
+      <c r="AV96" s="3" t="n"/>
+      <c r="AW96" s="3" t="n"/>
+      <c r="AX96" s="3" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
@@ -3640,10 +5164,10 @@
         </is>
       </c>
       <c r="B97" s="3" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="C97" s="3" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="D97" s="3" t="inlineStr">
         <is>
@@ -3658,12 +5182,28 @@
       <c r="H97" s="3" t="n"/>
       <c r="I97" s="3" t="n"/>
       <c r="J97" s="3" t="n"/>
+      <c r="K97" s="3" t="n"/>
       <c r="L97" s="3" t="n"/>
       <c r="M97" s="3" t="n"/>
       <c r="Q97" s="3" t="n"/>
       <c r="R97" s="3" t="n"/>
       <c r="S97" s="3" t="n"/>
       <c r="T97" s="3" t="n"/>
+      <c r="Z97" s="3" t="n"/>
+      <c r="AA97" s="3" t="n"/>
+      <c r="AB97" s="3" t="n"/>
+      <c r="AC97" s="3" t="n"/>
+      <c r="AD97" s="3" t="n"/>
+      <c r="AJ97" s="3" t="n"/>
+      <c r="AK97" s="3" t="n"/>
+      <c r="AL97" s="3" t="n"/>
+      <c r="AM97" s="3" t="n"/>
+      <c r="AN97" s="3" t="n"/>
+      <c r="AT97" s="3" t="n"/>
+      <c r="AU97" s="3" t="n"/>
+      <c r="AV97" s="3" t="n"/>
+      <c r="AW97" s="3" t="n"/>
+      <c r="AX97" s="3" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
@@ -3672,10 +5212,10 @@
         </is>
       </c>
       <c r="B98" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="D98" s="3" t="inlineStr">
         <is>
@@ -3690,12 +5230,28 @@
       <c r="H98" s="3" t="n"/>
       <c r="I98" s="3" t="n"/>
       <c r="J98" s="3" t="n"/>
+      <c r="K98" s="3" t="n"/>
       <c r="L98" s="3" t="n"/>
       <c r="M98" s="3" t="n"/>
       <c r="Q98" s="3" t="n"/>
       <c r="R98" s="3" t="n"/>
       <c r="S98" s="3" t="n"/>
       <c r="T98" s="3" t="n"/>
+      <c r="Z98" s="3" t="n"/>
+      <c r="AA98" s="3" t="n"/>
+      <c r="AB98" s="3" t="n"/>
+      <c r="AC98" s="3" t="n"/>
+      <c r="AD98" s="3" t="n"/>
+      <c r="AJ98" s="3" t="n"/>
+      <c r="AK98" s="3" t="n"/>
+      <c r="AL98" s="3" t="n"/>
+      <c r="AM98" s="3" t="n"/>
+      <c r="AN98" s="3" t="n"/>
+      <c r="AT98" s="3" t="n"/>
+      <c r="AU98" s="3" t="n"/>
+      <c r="AV98" s="3" t="n"/>
+      <c r="AW98" s="3" t="n"/>
+      <c r="AX98" s="3" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
@@ -3707,7 +5263,7 @@
         <v>0.11</v>
       </c>
       <c r="C99" s="3" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
@@ -3722,12 +5278,28 @@
       <c r="H99" s="3" t="n"/>
       <c r="I99" s="3" t="n"/>
       <c r="J99" s="3" t="n"/>
+      <c r="K99" s="3" t="n"/>
       <c r="L99" s="3" t="n"/>
       <c r="M99" s="3" t="n"/>
       <c r="Q99" s="3" t="n"/>
       <c r="R99" s="3" t="n"/>
       <c r="S99" s="3" t="n"/>
       <c r="T99" s="3" t="n"/>
+      <c r="Z99" s="3" t="n"/>
+      <c r="AA99" s="3" t="n"/>
+      <c r="AB99" s="3" t="n"/>
+      <c r="AC99" s="3" t="n"/>
+      <c r="AD99" s="3" t="n"/>
+      <c r="AJ99" s="3" t="n"/>
+      <c r="AK99" s="3" t="n"/>
+      <c r="AL99" s="3" t="n"/>
+      <c r="AM99" s="3" t="n"/>
+      <c r="AN99" s="3" t="n"/>
+      <c r="AT99" s="3" t="n"/>
+      <c r="AU99" s="3" t="n"/>
+      <c r="AV99" s="3" t="n"/>
+      <c r="AW99" s="3" t="n"/>
+      <c r="AX99" s="3" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
@@ -3736,7 +5308,7 @@
         </is>
       </c>
       <c r="B100" s="3" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="C100" s="3" t="inlineStr"/>
       <c r="D100" s="3" t="inlineStr">
@@ -3752,12 +5324,28 @@
       <c r="H100" s="3" t="n"/>
       <c r="I100" s="3" t="n"/>
       <c r="J100" s="3" t="n"/>
+      <c r="K100" s="3" t="n"/>
       <c r="L100" s="3" t="n"/>
       <c r="M100" s="3" t="n"/>
       <c r="Q100" s="3" t="n"/>
       <c r="R100" s="3" t="n"/>
       <c r="S100" s="3" t="n"/>
       <c r="T100" s="3" t="n"/>
+      <c r="Z100" s="3" t="n"/>
+      <c r="AA100" s="3" t="n"/>
+      <c r="AB100" s="3" t="n"/>
+      <c r="AC100" s="3" t="n"/>
+      <c r="AD100" s="3" t="n"/>
+      <c r="AJ100" s="3" t="n"/>
+      <c r="AK100" s="3" t="n"/>
+      <c r="AL100" s="3" t="n"/>
+      <c r="AM100" s="3" t="n"/>
+      <c r="AN100" s="3" t="n"/>
+      <c r="AT100" s="3" t="n"/>
+      <c r="AU100" s="3" t="n"/>
+      <c r="AV100" s="3" t="n"/>
+      <c r="AW100" s="3" t="n"/>
+      <c r="AX100" s="3" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
@@ -3766,7 +5354,7 @@
         </is>
       </c>
       <c r="B101" s="3" t="n">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="C101" s="3" t="inlineStr"/>
       <c r="D101" s="3" t="inlineStr">
@@ -3782,12 +5370,28 @@
       <c r="H101" s="3" t="n"/>
       <c r="I101" s="3" t="n"/>
       <c r="J101" s="3" t="n"/>
+      <c r="K101" s="3" t="n"/>
       <c r="L101" s="3" t="n"/>
       <c r="M101" s="3" t="n"/>
       <c r="Q101" s="3" t="n"/>
       <c r="R101" s="3" t="n"/>
       <c r="S101" s="3" t="n"/>
       <c r="T101" s="3" t="n"/>
+      <c r="Z101" s="3" t="n"/>
+      <c r="AA101" s="3" t="n"/>
+      <c r="AB101" s="3" t="n"/>
+      <c r="AC101" s="3" t="n"/>
+      <c r="AD101" s="3" t="n"/>
+      <c r="AJ101" s="3" t="n"/>
+      <c r="AK101" s="3" t="n"/>
+      <c r="AL101" s="3" t="n"/>
+      <c r="AM101" s="3" t="n"/>
+      <c r="AN101" s="3" t="n"/>
+      <c r="AT101" s="3" t="n"/>
+      <c r="AU101" s="3" t="n"/>
+      <c r="AV101" s="3" t="n"/>
+      <c r="AW101" s="3" t="n"/>
+      <c r="AX101" s="3" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
@@ -3796,10 +5400,10 @@
         </is>
       </c>
       <c r="B102" s="3" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
@@ -3814,12 +5418,28 @@
       <c r="H102" s="3" t="n"/>
       <c r="I102" s="3" t="n"/>
       <c r="J102" s="3" t="n"/>
+      <c r="K102" s="3" t="n"/>
       <c r="L102" s="3" t="n"/>
       <c r="M102" s="3" t="n"/>
       <c r="Q102" s="3" t="n"/>
       <c r="R102" s="3" t="n"/>
       <c r="S102" s="3" t="n"/>
       <c r="T102" s="3" t="n"/>
+      <c r="Z102" s="3" t="n"/>
+      <c r="AA102" s="3" t="n"/>
+      <c r="AB102" s="3" t="n"/>
+      <c r="AC102" s="3" t="n"/>
+      <c r="AD102" s="3" t="n"/>
+      <c r="AJ102" s="3" t="n"/>
+      <c r="AK102" s="3" t="n"/>
+      <c r="AL102" s="3" t="n"/>
+      <c r="AM102" s="3" t="n"/>
+      <c r="AN102" s="3" t="n"/>
+      <c r="AT102" s="3" t="n"/>
+      <c r="AU102" s="3" t="n"/>
+      <c r="AV102" s="3" t="n"/>
+      <c r="AW102" s="3" t="n"/>
+      <c r="AX102" s="3" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
@@ -3828,10 +5448,10 @@
         </is>
       </c>
       <c r="B103" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C103" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="D103" s="3" t="inlineStr">
         <is>
@@ -3846,12 +5466,28 @@
       <c r="H103" s="3" t="n"/>
       <c r="I103" s="3" t="n"/>
       <c r="J103" s="3" t="n"/>
+      <c r="K103" s="3" t="n"/>
       <c r="L103" s="3" t="n"/>
       <c r="M103" s="3" t="n"/>
       <c r="Q103" s="3" t="n"/>
       <c r="R103" s="3" t="n"/>
       <c r="S103" s="3" t="n"/>
       <c r="T103" s="3" t="n"/>
+      <c r="Z103" s="3" t="n"/>
+      <c r="AA103" s="3" t="n"/>
+      <c r="AB103" s="3" t="n"/>
+      <c r="AC103" s="3" t="n"/>
+      <c r="AD103" s="3" t="n"/>
+      <c r="AJ103" s="3" t="n"/>
+      <c r="AK103" s="3" t="n"/>
+      <c r="AL103" s="3" t="n"/>
+      <c r="AM103" s="3" t="n"/>
+      <c r="AN103" s="3" t="n"/>
+      <c r="AT103" s="3" t="n"/>
+      <c r="AU103" s="3" t="n"/>
+      <c r="AV103" s="3" t="n"/>
+      <c r="AW103" s="3" t="n"/>
+      <c r="AX103" s="3" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
@@ -3860,10 +5496,10 @@
         </is>
       </c>
       <c r="B104" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C104" s="3" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
@@ -3878,12 +5514,28 @@
       <c r="H104" s="3" t="n"/>
       <c r="I104" s="3" t="n"/>
       <c r="J104" s="3" t="n"/>
+      <c r="K104" s="3" t="n"/>
       <c r="L104" s="3" t="n"/>
       <c r="M104" s="3" t="n"/>
       <c r="Q104" s="3" t="n"/>
       <c r="R104" s="3" t="n"/>
       <c r="S104" s="3" t="n"/>
       <c r="T104" s="3" t="n"/>
+      <c r="Z104" s="3" t="n"/>
+      <c r="AA104" s="3" t="n"/>
+      <c r="AB104" s="3" t="n"/>
+      <c r="AC104" s="3" t="n"/>
+      <c r="AD104" s="3" t="n"/>
+      <c r="AJ104" s="3" t="n"/>
+      <c r="AK104" s="3" t="n"/>
+      <c r="AL104" s="3" t="n"/>
+      <c r="AM104" s="3" t="n"/>
+      <c r="AN104" s="3" t="n"/>
+      <c r="AT104" s="3" t="n"/>
+      <c r="AU104" s="3" t="n"/>
+      <c r="AV104" s="3" t="n"/>
+      <c r="AW104" s="3" t="n"/>
+      <c r="AX104" s="3" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
@@ -3892,10 +5544,10 @@
         </is>
       </c>
       <c r="B105" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="D105" s="3" t="inlineStr">
         <is>
@@ -3910,12 +5562,28 @@
       <c r="H105" s="3" t="n"/>
       <c r="I105" s="3" t="n"/>
       <c r="J105" s="3" t="n"/>
+      <c r="K105" s="3" t="n"/>
       <c r="L105" s="3" t="n"/>
       <c r="M105" s="3" t="n"/>
       <c r="Q105" s="3" t="n"/>
       <c r="R105" s="3" t="n"/>
       <c r="S105" s="3" t="n"/>
       <c r="T105" s="3" t="n"/>
+      <c r="Z105" s="3" t="n"/>
+      <c r="AA105" s="3" t="n"/>
+      <c r="AB105" s="3" t="n"/>
+      <c r="AC105" s="3" t="n"/>
+      <c r="AD105" s="3" t="n"/>
+      <c r="AJ105" s="3" t="n"/>
+      <c r="AK105" s="3" t="n"/>
+      <c r="AL105" s="3" t="n"/>
+      <c r="AM105" s="3" t="n"/>
+      <c r="AN105" s="3" t="n"/>
+      <c r="AT105" s="3" t="n"/>
+      <c r="AU105" s="3" t="n"/>
+      <c r="AV105" s="3" t="n"/>
+      <c r="AW105" s="3" t="n"/>
+      <c r="AX105" s="3" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
@@ -3942,12 +5610,28 @@
       <c r="H106" s="3" t="n"/>
       <c r="I106" s="3" t="n"/>
       <c r="J106" s="3" t="n"/>
+      <c r="K106" s="3" t="n"/>
       <c r="L106" s="3" t="n"/>
       <c r="M106" s="3" t="n"/>
       <c r="Q106" s="3" t="n"/>
       <c r="R106" s="3" t="n"/>
       <c r="S106" s="3" t="n"/>
       <c r="T106" s="3" t="n"/>
+      <c r="Z106" s="3" t="n"/>
+      <c r="AA106" s="3" t="n"/>
+      <c r="AB106" s="3" t="n"/>
+      <c r="AC106" s="3" t="n"/>
+      <c r="AD106" s="3" t="n"/>
+      <c r="AJ106" s="3" t="n"/>
+      <c r="AK106" s="3" t="n"/>
+      <c r="AL106" s="3" t="n"/>
+      <c r="AM106" s="3" t="n"/>
+      <c r="AN106" s="3" t="n"/>
+      <c r="AT106" s="3" t="n"/>
+      <c r="AU106" s="3" t="n"/>
+      <c r="AV106" s="3" t="n"/>
+      <c r="AW106" s="3" t="n"/>
+      <c r="AX106" s="3" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
@@ -3956,10 +5640,10 @@
         </is>
       </c>
       <c r="B107" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="D107" s="3" t="inlineStr">
         <is>
@@ -3974,12 +5658,28 @@
       <c r="H107" s="3" t="n"/>
       <c r="I107" s="3" t="n"/>
       <c r="J107" s="3" t="n"/>
+      <c r="K107" s="3" t="n"/>
       <c r="L107" s="3" t="n"/>
       <c r="M107" s="3" t="n"/>
       <c r="Q107" s="3" t="n"/>
       <c r="R107" s="3" t="n"/>
       <c r="S107" s="3" t="n"/>
       <c r="T107" s="3" t="n"/>
+      <c r="Z107" s="3" t="n"/>
+      <c r="AA107" s="3" t="n"/>
+      <c r="AB107" s="3" t="n"/>
+      <c r="AC107" s="3" t="n"/>
+      <c r="AD107" s="3" t="n"/>
+      <c r="AJ107" s="3" t="n"/>
+      <c r="AK107" s="3" t="n"/>
+      <c r="AL107" s="3" t="n"/>
+      <c r="AM107" s="3" t="n"/>
+      <c r="AN107" s="3" t="n"/>
+      <c r="AT107" s="3" t="n"/>
+      <c r="AU107" s="3" t="n"/>
+      <c r="AV107" s="3" t="n"/>
+      <c r="AW107" s="3" t="n"/>
+      <c r="AX107" s="3" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
@@ -3988,10 +5688,10 @@
         </is>
       </c>
       <c r="B108" s="3" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="C108" s="3" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="D108" s="3" t="inlineStr">
         <is>
@@ -4006,12 +5706,28 @@
       <c r="H108" s="3" t="n"/>
       <c r="I108" s="3" t="n"/>
       <c r="J108" s="3" t="n"/>
+      <c r="K108" s="3" t="n"/>
       <c r="L108" s="3" t="n"/>
       <c r="M108" s="3" t="n"/>
       <c r="Q108" s="3" t="n"/>
       <c r="R108" s="3" t="n"/>
       <c r="S108" s="3" t="n"/>
       <c r="T108" s="3" t="n"/>
+      <c r="Z108" s="3" t="n"/>
+      <c r="AA108" s="3" t="n"/>
+      <c r="AB108" s="3" t="n"/>
+      <c r="AC108" s="3" t="n"/>
+      <c r="AD108" s="3" t="n"/>
+      <c r="AJ108" s="3" t="n"/>
+      <c r="AK108" s="3" t="n"/>
+      <c r="AL108" s="3" t="n"/>
+      <c r="AM108" s="3" t="n"/>
+      <c r="AN108" s="3" t="n"/>
+      <c r="AT108" s="3" t="n"/>
+      <c r="AU108" s="3" t="n"/>
+      <c r="AV108" s="3" t="n"/>
+      <c r="AW108" s="3" t="n"/>
+      <c r="AX108" s="3" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
@@ -4020,10 +5736,10 @@
         </is>
       </c>
       <c r="B109" s="3" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="D109" s="3" t="inlineStr">
         <is>
@@ -4038,12 +5754,28 @@
       <c r="H109" s="3" t="n"/>
       <c r="I109" s="3" t="n"/>
       <c r="J109" s="3" t="n"/>
+      <c r="K109" s="3" t="n"/>
       <c r="L109" s="3" t="n"/>
       <c r="M109" s="3" t="n"/>
       <c r="Q109" s="3" t="n"/>
       <c r="R109" s="3" t="n"/>
       <c r="S109" s="3" t="n"/>
       <c r="T109" s="3" t="n"/>
+      <c r="Z109" s="3" t="n"/>
+      <c r="AA109" s="3" t="n"/>
+      <c r="AB109" s="3" t="n"/>
+      <c r="AC109" s="3" t="n"/>
+      <c r="AD109" s="3" t="n"/>
+      <c r="AJ109" s="3" t="n"/>
+      <c r="AK109" s="3" t="n"/>
+      <c r="AL109" s="3" t="n"/>
+      <c r="AM109" s="3" t="n"/>
+      <c r="AN109" s="3" t="n"/>
+      <c r="AT109" s="3" t="n"/>
+      <c r="AU109" s="3" t="n"/>
+      <c r="AV109" s="3" t="n"/>
+      <c r="AW109" s="3" t="n"/>
+      <c r="AX109" s="3" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
@@ -4052,7 +5784,7 @@
         </is>
       </c>
       <c r="B110" s="3" t="n">
-        <v>10.73</v>
+        <v>9.34</v>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr">
@@ -4068,12 +5800,28 @@
       <c r="H110" s="3" t="n"/>
       <c r="I110" s="3" t="n"/>
       <c r="J110" s="3" t="n"/>
+      <c r="K110" s="3" t="n"/>
       <c r="L110" s="3" t="n"/>
       <c r="M110" s="3" t="n"/>
       <c r="Q110" s="3" t="n"/>
       <c r="R110" s="3" t="n"/>
       <c r="S110" s="3" t="n"/>
       <c r="T110" s="3" t="n"/>
+      <c r="Z110" s="3" t="n"/>
+      <c r="AA110" s="3" t="n"/>
+      <c r="AB110" s="3" t="n"/>
+      <c r="AC110" s="3" t="n"/>
+      <c r="AD110" s="3" t="n"/>
+      <c r="AJ110" s="3" t="n"/>
+      <c r="AK110" s="3" t="n"/>
+      <c r="AL110" s="3" t="n"/>
+      <c r="AM110" s="3" t="n"/>
+      <c r="AN110" s="3" t="n"/>
+      <c r="AT110" s="3" t="n"/>
+      <c r="AU110" s="3" t="n"/>
+      <c r="AV110" s="3" t="n"/>
+      <c r="AW110" s="3" t="n"/>
+      <c r="AX110" s="3" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
@@ -4082,7 +5830,7 @@
         </is>
       </c>
       <c r="B111" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C111" s="3" t="n">
         <v>0.14</v>
@@ -4100,12 +5848,28 @@
       <c r="H111" s="3" t="n"/>
       <c r="I111" s="3" t="n"/>
       <c r="J111" s="3" t="n"/>
+      <c r="K111" s="3" t="n"/>
       <c r="L111" s="3" t="n"/>
       <c r="M111" s="3" t="n"/>
       <c r="Q111" s="3" t="n"/>
       <c r="R111" s="3" t="n"/>
       <c r="S111" s="3" t="n"/>
       <c r="T111" s="3" t="n"/>
+      <c r="Z111" s="3" t="n"/>
+      <c r="AA111" s="3" t="n"/>
+      <c r="AB111" s="3" t="n"/>
+      <c r="AC111" s="3" t="n"/>
+      <c r="AD111" s="3" t="n"/>
+      <c r="AJ111" s="3" t="n"/>
+      <c r="AK111" s="3" t="n"/>
+      <c r="AL111" s="3" t="n"/>
+      <c r="AM111" s="3" t="n"/>
+      <c r="AN111" s="3" t="n"/>
+      <c r="AT111" s="3" t="n"/>
+      <c r="AU111" s="3" t="n"/>
+      <c r="AV111" s="3" t="n"/>
+      <c r="AW111" s="3" t="n"/>
+      <c r="AX111" s="3" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
@@ -4117,7 +5881,7 @@
         <v>0.06</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
@@ -4132,12 +5896,28 @@
       <c r="H112" s="3" t="n"/>
       <c r="I112" s="3" t="n"/>
       <c r="J112" s="3" t="n"/>
+      <c r="K112" s="3" t="n"/>
       <c r="L112" s="3" t="n"/>
       <c r="M112" s="3" t="n"/>
       <c r="Q112" s="3" t="n"/>
       <c r="R112" s="3" t="n"/>
       <c r="S112" s="3" t="n"/>
       <c r="T112" s="3" t="n"/>
+      <c r="Z112" s="3" t="n"/>
+      <c r="AA112" s="3" t="n"/>
+      <c r="AB112" s="3" t="n"/>
+      <c r="AC112" s="3" t="n"/>
+      <c r="AD112" s="3" t="n"/>
+      <c r="AJ112" s="3" t="n"/>
+      <c r="AK112" s="3" t="n"/>
+      <c r="AL112" s="3" t="n"/>
+      <c r="AM112" s="3" t="n"/>
+      <c r="AN112" s="3" t="n"/>
+      <c r="AT112" s="3" t="n"/>
+      <c r="AU112" s="3" t="n"/>
+      <c r="AV112" s="3" t="n"/>
+      <c r="AW112" s="3" t="n"/>
+      <c r="AX112" s="3" t="n"/>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
@@ -4146,10 +5926,10 @@
         </is>
       </c>
       <c r="B113" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
@@ -4164,12 +5944,28 @@
       <c r="H113" s="3" t="n"/>
       <c r="I113" s="3" t="n"/>
       <c r="J113" s="3" t="n"/>
+      <c r="K113" s="3" t="n"/>
       <c r="L113" s="3" t="n"/>
       <c r="M113" s="3" t="n"/>
       <c r="Q113" s="3" t="n"/>
       <c r="R113" s="3" t="n"/>
       <c r="S113" s="3" t="n"/>
       <c r="T113" s="3" t="n"/>
+      <c r="Z113" s="3" t="n"/>
+      <c r="AA113" s="3" t="n"/>
+      <c r="AB113" s="3" t="n"/>
+      <c r="AC113" s="3" t="n"/>
+      <c r="AD113" s="3" t="n"/>
+      <c r="AJ113" s="3" t="n"/>
+      <c r="AK113" s="3" t="n"/>
+      <c r="AL113" s="3" t="n"/>
+      <c r="AM113" s="3" t="n"/>
+      <c r="AN113" s="3" t="n"/>
+      <c r="AT113" s="3" t="n"/>
+      <c r="AU113" s="3" t="n"/>
+      <c r="AV113" s="3" t="n"/>
+      <c r="AW113" s="3" t="n"/>
+      <c r="AX113" s="3" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
@@ -4178,10 +5974,10 @@
         </is>
       </c>
       <c r="B114" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="D114" s="3" t="inlineStr">
         <is>
@@ -4196,12 +5992,28 @@
       <c r="H114" s="3" t="n"/>
       <c r="I114" s="3" t="n"/>
       <c r="J114" s="3" t="n"/>
+      <c r="K114" s="3" t="n"/>
       <c r="L114" s="3" t="n"/>
       <c r="M114" s="3" t="n"/>
       <c r="Q114" s="3" t="n"/>
       <c r="R114" s="3" t="n"/>
       <c r="S114" s="3" t="n"/>
       <c r="T114" s="3" t="n"/>
+      <c r="Z114" s="3" t="n"/>
+      <c r="AA114" s="3" t="n"/>
+      <c r="AB114" s="3" t="n"/>
+      <c r="AC114" s="3" t="n"/>
+      <c r="AD114" s="3" t="n"/>
+      <c r="AJ114" s="3" t="n"/>
+      <c r="AK114" s="3" t="n"/>
+      <c r="AL114" s="3" t="n"/>
+      <c r="AM114" s="3" t="n"/>
+      <c r="AN114" s="3" t="n"/>
+      <c r="AT114" s="3" t="n"/>
+      <c r="AU114" s="3" t="n"/>
+      <c r="AV114" s="3" t="n"/>
+      <c r="AW114" s="3" t="n"/>
+      <c r="AX114" s="3" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
@@ -4210,10 +6022,10 @@
         </is>
       </c>
       <c r="B115" s="3" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="D115" s="3" t="inlineStr">
         <is>
@@ -4228,12 +6040,28 @@
       <c r="H115" s="3" t="n"/>
       <c r="I115" s="3" t="n"/>
       <c r="J115" s="3" t="n"/>
+      <c r="K115" s="3" t="n"/>
       <c r="L115" s="3" t="n"/>
       <c r="M115" s="3" t="n"/>
       <c r="Q115" s="3" t="n"/>
       <c r="R115" s="3" t="n"/>
       <c r="S115" s="3" t="n"/>
       <c r="T115" s="3" t="n"/>
+      <c r="Z115" s="3" t="n"/>
+      <c r="AA115" s="3" t="n"/>
+      <c r="AB115" s="3" t="n"/>
+      <c r="AC115" s="3" t="n"/>
+      <c r="AD115" s="3" t="n"/>
+      <c r="AJ115" s="3" t="n"/>
+      <c r="AK115" s="3" t="n"/>
+      <c r="AL115" s="3" t="n"/>
+      <c r="AM115" s="3" t="n"/>
+      <c r="AN115" s="3" t="n"/>
+      <c r="AT115" s="3" t="n"/>
+      <c r="AU115" s="3" t="n"/>
+      <c r="AV115" s="3" t="n"/>
+      <c r="AW115" s="3" t="n"/>
+      <c r="AX115" s="3" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
@@ -4242,7 +6070,7 @@
         </is>
       </c>
       <c r="B116" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C116" s="3" t="n">
         <v>0.13</v>
@@ -4260,12 +6088,28 @@
       <c r="H116" s="3" t="n"/>
       <c r="I116" s="3" t="n"/>
       <c r="J116" s="3" t="n"/>
+      <c r="K116" s="3" t="n"/>
       <c r="L116" s="3" t="n"/>
       <c r="M116" s="3" t="n"/>
       <c r="Q116" s="3" t="n"/>
       <c r="R116" s="3" t="n"/>
       <c r="S116" s="3" t="n"/>
       <c r="T116" s="3" t="n"/>
+      <c r="Z116" s="3" t="n"/>
+      <c r="AA116" s="3" t="n"/>
+      <c r="AB116" s="3" t="n"/>
+      <c r="AC116" s="3" t="n"/>
+      <c r="AD116" s="3" t="n"/>
+      <c r="AJ116" s="3" t="n"/>
+      <c r="AK116" s="3" t="n"/>
+      <c r="AL116" s="3" t="n"/>
+      <c r="AM116" s="3" t="n"/>
+      <c r="AN116" s="3" t="n"/>
+      <c r="AT116" s="3" t="n"/>
+      <c r="AU116" s="3" t="n"/>
+      <c r="AV116" s="3" t="n"/>
+      <c r="AW116" s="3" t="n"/>
+      <c r="AX116" s="3" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
@@ -4274,10 +6118,10 @@
         </is>
       </c>
       <c r="B117" s="3" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="D117" s="3" t="inlineStr">
         <is>
@@ -4292,12 +6136,28 @@
       <c r="H117" s="3" t="n"/>
       <c r="I117" s="3" t="n"/>
       <c r="J117" s="3" t="n"/>
+      <c r="K117" s="3" t="n"/>
       <c r="L117" s="3" t="n"/>
       <c r="M117" s="3" t="n"/>
       <c r="Q117" s="3" t="n"/>
       <c r="R117" s="3" t="n"/>
       <c r="S117" s="3" t="n"/>
       <c r="T117" s="3" t="n"/>
+      <c r="Z117" s="3" t="n"/>
+      <c r="AA117" s="3" t="n"/>
+      <c r="AB117" s="3" t="n"/>
+      <c r="AC117" s="3" t="n"/>
+      <c r="AD117" s="3" t="n"/>
+      <c r="AJ117" s="3" t="n"/>
+      <c r="AK117" s="3" t="n"/>
+      <c r="AL117" s="3" t="n"/>
+      <c r="AM117" s="3" t="n"/>
+      <c r="AN117" s="3" t="n"/>
+      <c r="AT117" s="3" t="n"/>
+      <c r="AU117" s="3" t="n"/>
+      <c r="AV117" s="3" t="n"/>
+      <c r="AW117" s="3" t="n"/>
+      <c r="AX117" s="3" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
@@ -4324,12 +6184,28 @@
       <c r="H118" s="3" t="n"/>
       <c r="I118" s="3" t="n"/>
       <c r="J118" s="3" t="n"/>
+      <c r="K118" s="3" t="n"/>
       <c r="L118" s="3" t="n"/>
       <c r="M118" s="3" t="n"/>
       <c r="Q118" s="3" t="n"/>
       <c r="R118" s="3" t="n"/>
       <c r="S118" s="3" t="n"/>
       <c r="T118" s="3" t="n"/>
+      <c r="Z118" s="3" t="n"/>
+      <c r="AA118" s="3" t="n"/>
+      <c r="AB118" s="3" t="n"/>
+      <c r="AC118" s="3" t="n"/>
+      <c r="AD118" s="3" t="n"/>
+      <c r="AJ118" s="3" t="n"/>
+      <c r="AK118" s="3" t="n"/>
+      <c r="AL118" s="3" t="n"/>
+      <c r="AM118" s="3" t="n"/>
+      <c r="AN118" s="3" t="n"/>
+      <c r="AT118" s="3" t="n"/>
+      <c r="AU118" s="3" t="n"/>
+      <c r="AV118" s="3" t="n"/>
+      <c r="AW118" s="3" t="n"/>
+      <c r="AX118" s="3" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
@@ -4338,10 +6214,10 @@
         </is>
       </c>
       <c r="B119" s="3" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="C119" s="3" t="n">
-        <v>2.44</v>
+        <v>2.27</v>
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
@@ -4356,12 +6232,28 @@
       <c r="H119" s="3" t="n"/>
       <c r="I119" s="3" t="n"/>
       <c r="J119" s="3" t="n"/>
+      <c r="K119" s="3" t="n"/>
       <c r="L119" s="3" t="n"/>
       <c r="M119" s="3" t="n"/>
       <c r="Q119" s="3" t="n"/>
       <c r="R119" s="3" t="n"/>
       <c r="S119" s="3" t="n"/>
       <c r="T119" s="3" t="n"/>
+      <c r="Z119" s="3" t="n"/>
+      <c r="AA119" s="3" t="n"/>
+      <c r="AB119" s="3" t="n"/>
+      <c r="AC119" s="3" t="n"/>
+      <c r="AD119" s="3" t="n"/>
+      <c r="AJ119" s="3" t="n"/>
+      <c r="AK119" s="3" t="n"/>
+      <c r="AL119" s="3" t="n"/>
+      <c r="AM119" s="3" t="n"/>
+      <c r="AN119" s="3" t="n"/>
+      <c r="AT119" s="3" t="n"/>
+      <c r="AU119" s="3" t="n"/>
+      <c r="AV119" s="3" t="n"/>
+      <c r="AW119" s="3" t="n"/>
+      <c r="AX119" s="3" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
@@ -4370,7 +6262,7 @@
         </is>
       </c>
       <c r="B120" s="3" t="n">
-        <v>6.7</v>
+        <v>6.71</v>
       </c>
       <c r="C120" s="3" t="inlineStr"/>
       <c r="D120" s="3" t="inlineStr">
@@ -4386,12 +6278,28 @@
       <c r="H120" s="3" t="n"/>
       <c r="I120" s="3" t="n"/>
       <c r="J120" s="3" t="n"/>
+      <c r="K120" s="3" t="n"/>
       <c r="L120" s="3" t="n"/>
       <c r="M120" s="3" t="n"/>
       <c r="Q120" s="3" t="n"/>
       <c r="R120" s="3" t="n"/>
       <c r="S120" s="3" t="n"/>
       <c r="T120" s="3" t="n"/>
+      <c r="Z120" s="3" t="n"/>
+      <c r="AA120" s="3" t="n"/>
+      <c r="AB120" s="3" t="n"/>
+      <c r="AC120" s="3" t="n"/>
+      <c r="AD120" s="3" t="n"/>
+      <c r="AJ120" s="3" t="n"/>
+      <c r="AK120" s="3" t="n"/>
+      <c r="AL120" s="3" t="n"/>
+      <c r="AM120" s="3" t="n"/>
+      <c r="AN120" s="3" t="n"/>
+      <c r="AT120" s="3" t="n"/>
+      <c r="AU120" s="3" t="n"/>
+      <c r="AV120" s="3" t="n"/>
+      <c r="AW120" s="3" t="n"/>
+      <c r="AX120" s="3" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
@@ -4400,7 +6308,7 @@
         </is>
       </c>
       <c r="B121" s="3" t="n">
-        <v>18.15</v>
+        <v>16.94</v>
       </c>
       <c r="C121" s="3" t="inlineStr"/>
       <c r="D121" s="3" t="inlineStr">
@@ -4416,12 +6324,28 @@
       <c r="H121" s="3" t="n"/>
       <c r="I121" s="3" t="n"/>
       <c r="J121" s="3" t="n"/>
+      <c r="K121" s="3" t="n"/>
       <c r="L121" s="3" t="n"/>
       <c r="M121" s="3" t="n"/>
       <c r="Q121" s="3" t="n"/>
       <c r="R121" s="3" t="n"/>
       <c r="S121" s="3" t="n"/>
       <c r="T121" s="3" t="n"/>
+      <c r="Z121" s="3" t="n"/>
+      <c r="AA121" s="3" t="n"/>
+      <c r="AB121" s="3" t="n"/>
+      <c r="AC121" s="3" t="n"/>
+      <c r="AD121" s="3" t="n"/>
+      <c r="AJ121" s="3" t="n"/>
+      <c r="AK121" s="3" t="n"/>
+      <c r="AL121" s="3" t="n"/>
+      <c r="AM121" s="3" t="n"/>
+      <c r="AN121" s="3" t="n"/>
+      <c r="AT121" s="3" t="n"/>
+      <c r="AU121" s="3" t="n"/>
+      <c r="AV121" s="3" t="n"/>
+      <c r="AW121" s="3" t="n"/>
+      <c r="AX121" s="3" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
@@ -4430,7 +6354,7 @@
         </is>
       </c>
       <c r="B122" s="3" t="n">
-        <v>14.09</v>
+        <v>14.24</v>
       </c>
       <c r="C122" s="3" t="inlineStr"/>
       <c r="D122" s="3" t="inlineStr">
@@ -4446,12 +6370,28 @@
       <c r="H122" s="3" t="n"/>
       <c r="I122" s="3" t="n"/>
       <c r="J122" s="3" t="n"/>
+      <c r="K122" s="3" t="n"/>
       <c r="L122" s="3" t="n"/>
       <c r="M122" s="3" t="n"/>
       <c r="Q122" s="3" t="n"/>
       <c r="R122" s="3" t="n"/>
       <c r="S122" s="3" t="n"/>
       <c r="T122" s="3" t="n"/>
+      <c r="Z122" s="3" t="n"/>
+      <c r="AA122" s="3" t="n"/>
+      <c r="AB122" s="3" t="n"/>
+      <c r="AC122" s="3" t="n"/>
+      <c r="AD122" s="3" t="n"/>
+      <c r="AJ122" s="3" t="n"/>
+      <c r="AK122" s="3" t="n"/>
+      <c r="AL122" s="3" t="n"/>
+      <c r="AM122" s="3" t="n"/>
+      <c r="AN122" s="3" t="n"/>
+      <c r="AT122" s="3" t="n"/>
+      <c r="AU122" s="3" t="n"/>
+      <c r="AV122" s="3" t="n"/>
+      <c r="AW122" s="3" t="n"/>
+      <c r="AX122" s="3" t="n"/>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
@@ -4460,7 +6400,7 @@
         </is>
       </c>
       <c r="B123" s="3" t="n">
-        <v>8.98</v>
+        <v>8.65</v>
       </c>
       <c r="C123" s="3" t="inlineStr"/>
       <c r="D123" s="3" t="inlineStr">
@@ -4476,12 +6416,28 @@
       <c r="H123" s="3" t="n"/>
       <c r="I123" s="3" t="n"/>
       <c r="J123" s="3" t="n"/>
+      <c r="K123" s="3" t="n"/>
       <c r="L123" s="3" t="n"/>
       <c r="M123" s="3" t="n"/>
       <c r="Q123" s="3" t="n"/>
       <c r="R123" s="3" t="n"/>
       <c r="S123" s="3" t="n"/>
       <c r="T123" s="3" t="n"/>
+      <c r="Z123" s="3" t="n"/>
+      <c r="AA123" s="3" t="n"/>
+      <c r="AB123" s="3" t="n"/>
+      <c r="AC123" s="3" t="n"/>
+      <c r="AD123" s="3" t="n"/>
+      <c r="AJ123" s="3" t="n"/>
+      <c r="AK123" s="3" t="n"/>
+      <c r="AL123" s="3" t="n"/>
+      <c r="AM123" s="3" t="n"/>
+      <c r="AN123" s="3" t="n"/>
+      <c r="AT123" s="3" t="n"/>
+      <c r="AU123" s="3" t="n"/>
+      <c r="AV123" s="3" t="n"/>
+      <c r="AW123" s="3" t="n"/>
+      <c r="AX123" s="3" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
@@ -4490,10 +6446,10 @@
         </is>
       </c>
       <c r="B124" s="3" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="C124" s="3" t="n">
-        <v>1.63</v>
+        <v>1.42</v>
       </c>
       <c r="D124" s="3" t="inlineStr">
         <is>
@@ -4508,12 +6464,28 @@
       <c r="H124" s="3" t="n"/>
       <c r="I124" s="3" t="n"/>
       <c r="J124" s="3" t="n"/>
+      <c r="K124" s="3" t="n"/>
       <c r="L124" s="3" t="n"/>
       <c r="M124" s="3" t="n"/>
       <c r="Q124" s="3" t="n"/>
       <c r="R124" s="3" t="n"/>
       <c r="S124" s="3" t="n"/>
       <c r="T124" s="3" t="n"/>
+      <c r="Z124" s="3" t="n"/>
+      <c r="AA124" s="3" t="n"/>
+      <c r="AB124" s="3" t="n"/>
+      <c r="AC124" s="3" t="n"/>
+      <c r="AD124" s="3" t="n"/>
+      <c r="AJ124" s="3" t="n"/>
+      <c r="AK124" s="3" t="n"/>
+      <c r="AL124" s="3" t="n"/>
+      <c r="AM124" s="3" t="n"/>
+      <c r="AN124" s="3" t="n"/>
+      <c r="AT124" s="3" t="n"/>
+      <c r="AU124" s="3" t="n"/>
+      <c r="AV124" s="3" t="n"/>
+      <c r="AW124" s="3" t="n"/>
+      <c r="AX124" s="3" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
@@ -4522,10 +6494,10 @@
         </is>
       </c>
       <c r="B125" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="C125" s="3" t="n">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
@@ -4540,12 +6512,28 @@
       <c r="H125" s="3" t="n"/>
       <c r="I125" s="3" t="n"/>
       <c r="J125" s="3" t="n"/>
+      <c r="K125" s="3" t="n"/>
       <c r="L125" s="3" t="n"/>
       <c r="M125" s="3" t="n"/>
       <c r="Q125" s="3" t="n"/>
       <c r="R125" s="3" t="n"/>
       <c r="S125" s="3" t="n"/>
       <c r="T125" s="3" t="n"/>
+      <c r="Z125" s="3" t="n"/>
+      <c r="AA125" s="3" t="n"/>
+      <c r="AB125" s="3" t="n"/>
+      <c r="AC125" s="3" t="n"/>
+      <c r="AD125" s="3" t="n"/>
+      <c r="AJ125" s="3" t="n"/>
+      <c r="AK125" s="3" t="n"/>
+      <c r="AL125" s="3" t="n"/>
+      <c r="AM125" s="3" t="n"/>
+      <c r="AN125" s="3" t="n"/>
+      <c r="AT125" s="3" t="n"/>
+      <c r="AU125" s="3" t="n"/>
+      <c r="AV125" s="3" t="n"/>
+      <c r="AW125" s="3" t="n"/>
+      <c r="AX125" s="3" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
@@ -4554,10 +6542,10 @@
         </is>
       </c>
       <c r="B126" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="C126" s="3" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
@@ -4572,12 +6560,28 @@
       <c r="H126" s="3" t="n"/>
       <c r="I126" s="3" t="n"/>
       <c r="J126" s="3" t="n"/>
+      <c r="K126" s="3" t="n"/>
       <c r="L126" s="3" t="n"/>
       <c r="M126" s="3" t="n"/>
       <c r="Q126" s="3" t="n"/>
       <c r="R126" s="3" t="n"/>
       <c r="S126" s="3" t="n"/>
       <c r="T126" s="3" t="n"/>
+      <c r="Z126" s="3" t="n"/>
+      <c r="AA126" s="3" t="n"/>
+      <c r="AB126" s="3" t="n"/>
+      <c r="AC126" s="3" t="n"/>
+      <c r="AD126" s="3" t="n"/>
+      <c r="AJ126" s="3" t="n"/>
+      <c r="AK126" s="3" t="n"/>
+      <c r="AL126" s="3" t="n"/>
+      <c r="AM126" s="3" t="n"/>
+      <c r="AN126" s="3" t="n"/>
+      <c r="AT126" s="3" t="n"/>
+      <c r="AU126" s="3" t="n"/>
+      <c r="AV126" s="3" t="n"/>
+      <c r="AW126" s="3" t="n"/>
+      <c r="AX126" s="3" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
@@ -4586,7 +6590,7 @@
         </is>
       </c>
       <c r="B127" s="3" t="n">
-        <v>5.64</v>
+        <v>5.52</v>
       </c>
       <c r="C127" s="3" t="inlineStr"/>
       <c r="D127" s="3" t="inlineStr">
@@ -4602,12 +6606,28 @@
       <c r="H127" s="3" t="n"/>
       <c r="I127" s="3" t="n"/>
       <c r="J127" s="3" t="n"/>
+      <c r="K127" s="3" t="n"/>
       <c r="L127" s="3" t="n"/>
       <c r="M127" s="3" t="n"/>
       <c r="Q127" s="3" t="n"/>
       <c r="R127" s="3" t="n"/>
       <c r="S127" s="3" t="n"/>
       <c r="T127" s="3" t="n"/>
+      <c r="Z127" s="3" t="n"/>
+      <c r="AA127" s="3" t="n"/>
+      <c r="AB127" s="3" t="n"/>
+      <c r="AC127" s="3" t="n"/>
+      <c r="AD127" s="3" t="n"/>
+      <c r="AJ127" s="3" t="n"/>
+      <c r="AK127" s="3" t="n"/>
+      <c r="AL127" s="3" t="n"/>
+      <c r="AM127" s="3" t="n"/>
+      <c r="AN127" s="3" t="n"/>
+      <c r="AT127" s="3" t="n"/>
+      <c r="AU127" s="3" t="n"/>
+      <c r="AV127" s="3" t="n"/>
+      <c r="AW127" s="3" t="n"/>
+      <c r="AX127" s="3" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
@@ -4619,7 +6639,7 @@
         <v>0.08</v>
       </c>
       <c r="C128" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D128" s="3" t="inlineStr">
         <is>
@@ -4634,12 +6654,28 @@
       <c r="H128" s="3" t="n"/>
       <c r="I128" s="3" t="n"/>
       <c r="J128" s="3" t="n"/>
+      <c r="K128" s="3" t="n"/>
       <c r="L128" s="3" t="n"/>
       <c r="M128" s="3" t="n"/>
       <c r="Q128" s="3" t="n"/>
       <c r="R128" s="3" t="n"/>
       <c r="S128" s="3" t="n"/>
       <c r="T128" s="3" t="n"/>
+      <c r="Z128" s="3" t="n"/>
+      <c r="AA128" s="3" t="n"/>
+      <c r="AB128" s="3" t="n"/>
+      <c r="AC128" s="3" t="n"/>
+      <c r="AD128" s="3" t="n"/>
+      <c r="AJ128" s="3" t="n"/>
+      <c r="AK128" s="3" t="n"/>
+      <c r="AL128" s="3" t="n"/>
+      <c r="AM128" s="3" t="n"/>
+      <c r="AN128" s="3" t="n"/>
+      <c r="AT128" s="3" t="n"/>
+      <c r="AU128" s="3" t="n"/>
+      <c r="AV128" s="3" t="n"/>
+      <c r="AW128" s="3" t="n"/>
+      <c r="AX128" s="3" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
@@ -4648,10 +6684,10 @@
         </is>
       </c>
       <c r="B129" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="C129" s="3" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
@@ -4666,12 +6702,28 @@
       <c r="H129" s="3" t="n"/>
       <c r="I129" s="3" t="n"/>
       <c r="J129" s="3" t="n"/>
+      <c r="K129" s="3" t="n"/>
       <c r="L129" s="3" t="n"/>
       <c r="M129" s="3" t="n"/>
       <c r="Q129" s="3" t="n"/>
       <c r="R129" s="3" t="n"/>
       <c r="S129" s="3" t="n"/>
       <c r="T129" s="3" t="n"/>
+      <c r="Z129" s="3" t="n"/>
+      <c r="AA129" s="3" t="n"/>
+      <c r="AB129" s="3" t="n"/>
+      <c r="AC129" s="3" t="n"/>
+      <c r="AD129" s="3" t="n"/>
+      <c r="AJ129" s="3" t="n"/>
+      <c r="AK129" s="3" t="n"/>
+      <c r="AL129" s="3" t="n"/>
+      <c r="AM129" s="3" t="n"/>
+      <c r="AN129" s="3" t="n"/>
+      <c r="AT129" s="3" t="n"/>
+      <c r="AU129" s="3" t="n"/>
+      <c r="AV129" s="3" t="n"/>
+      <c r="AW129" s="3" t="n"/>
+      <c r="AX129" s="3" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
@@ -4680,7 +6732,7 @@
         </is>
       </c>
       <c r="B130" s="3" t="n">
-        <v>9.58</v>
+        <v>9.48</v>
       </c>
       <c r="C130" s="3" t="inlineStr"/>
       <c r="D130" s="3" t="inlineStr">
@@ -4696,12 +6748,28 @@
       <c r="H130" s="3" t="n"/>
       <c r="I130" s="3" t="n"/>
       <c r="J130" s="3" t="n"/>
+      <c r="K130" s="3" t="n"/>
       <c r="L130" s="3" t="n"/>
       <c r="M130" s="3" t="n"/>
       <c r="Q130" s="3" t="n"/>
       <c r="R130" s="3" t="n"/>
       <c r="S130" s="3" t="n"/>
       <c r="T130" s="3" t="n"/>
+      <c r="Z130" s="3" t="n"/>
+      <c r="AA130" s="3" t="n"/>
+      <c r="AB130" s="3" t="n"/>
+      <c r="AC130" s="3" t="n"/>
+      <c r="AD130" s="3" t="n"/>
+      <c r="AJ130" s="3" t="n"/>
+      <c r="AK130" s="3" t="n"/>
+      <c r="AL130" s="3" t="n"/>
+      <c r="AM130" s="3" t="n"/>
+      <c r="AN130" s="3" t="n"/>
+      <c r="AT130" s="3" t="n"/>
+      <c r="AU130" s="3" t="n"/>
+      <c r="AV130" s="3" t="n"/>
+      <c r="AW130" s="3" t="n"/>
+      <c r="AX130" s="3" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
@@ -4713,7 +6781,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C131" s="3" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="D131" s="3" t="inlineStr">
         <is>
@@ -4728,12 +6796,28 @@
       <c r="H131" s="3" t="n"/>
       <c r="I131" s="3" t="n"/>
       <c r="J131" s="3" t="n"/>
+      <c r="K131" s="3" t="n"/>
       <c r="L131" s="3" t="n"/>
       <c r="M131" s="3" t="n"/>
       <c r="Q131" s="3" t="n"/>
       <c r="R131" s="3" t="n"/>
       <c r="S131" s="3" t="n"/>
       <c r="T131" s="3" t="n"/>
+      <c r="Z131" s="3" t="n"/>
+      <c r="AA131" s="3" t="n"/>
+      <c r="AB131" s="3" t="n"/>
+      <c r="AC131" s="3" t="n"/>
+      <c r="AD131" s="3" t="n"/>
+      <c r="AJ131" s="3" t="n"/>
+      <c r="AK131" s="3" t="n"/>
+      <c r="AL131" s="3" t="n"/>
+      <c r="AM131" s="3" t="n"/>
+      <c r="AN131" s="3" t="n"/>
+      <c r="AT131" s="3" t="n"/>
+      <c r="AU131" s="3" t="n"/>
+      <c r="AV131" s="3" t="n"/>
+      <c r="AW131" s="3" t="n"/>
+      <c r="AX131" s="3" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
@@ -4742,10 +6826,10 @@
         </is>
       </c>
       <c r="B132" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="C132" s="3" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="D132" s="3" t="inlineStr">
         <is>
@@ -4760,12 +6844,28 @@
       <c r="H132" s="3" t="n"/>
       <c r="I132" s="3" t="n"/>
       <c r="J132" s="3" t="n"/>
+      <c r="K132" s="3" t="n"/>
       <c r="L132" s="3" t="n"/>
       <c r="M132" s="3" t="n"/>
       <c r="Q132" s="3" t="n"/>
       <c r="R132" s="3" t="n"/>
       <c r="S132" s="3" t="n"/>
       <c r="T132" s="3" t="n"/>
+      <c r="Z132" s="3" t="n"/>
+      <c r="AA132" s="3" t="n"/>
+      <c r="AB132" s="3" t="n"/>
+      <c r="AC132" s="3" t="n"/>
+      <c r="AD132" s="3" t="n"/>
+      <c r="AJ132" s="3" t="n"/>
+      <c r="AK132" s="3" t="n"/>
+      <c r="AL132" s="3" t="n"/>
+      <c r="AM132" s="3" t="n"/>
+      <c r="AN132" s="3" t="n"/>
+      <c r="AT132" s="3" t="n"/>
+      <c r="AU132" s="3" t="n"/>
+      <c r="AV132" s="3" t="n"/>
+      <c r="AW132" s="3" t="n"/>
+      <c r="AX132" s="3" t="n"/>
     </row>
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
@@ -4774,10 +6874,10 @@
         </is>
       </c>
       <c r="B133" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="C133" s="3" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="D133" s="3" t="inlineStr">
         <is>
@@ -4792,12 +6892,28 @@
       <c r="H133" s="3" t="n"/>
       <c r="I133" s="3" t="n"/>
       <c r="J133" s="3" t="n"/>
+      <c r="K133" s="3" t="n"/>
       <c r="L133" s="3" t="n"/>
       <c r="M133" s="3" t="n"/>
       <c r="Q133" s="3" t="n"/>
       <c r="R133" s="3" t="n"/>
       <c r="S133" s="3" t="n"/>
       <c r="T133" s="3" t="n"/>
+      <c r="Z133" s="3" t="n"/>
+      <c r="AA133" s="3" t="n"/>
+      <c r="AB133" s="3" t="n"/>
+      <c r="AC133" s="3" t="n"/>
+      <c r="AD133" s="3" t="n"/>
+      <c r="AJ133" s="3" t="n"/>
+      <c r="AK133" s="3" t="n"/>
+      <c r="AL133" s="3" t="n"/>
+      <c r="AM133" s="3" t="n"/>
+      <c r="AN133" s="3" t="n"/>
+      <c r="AT133" s="3" t="n"/>
+      <c r="AU133" s="3" t="n"/>
+      <c r="AV133" s="3" t="n"/>
+      <c r="AW133" s="3" t="n"/>
+      <c r="AX133" s="3" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
@@ -4806,10 +6922,10 @@
         </is>
       </c>
       <c r="B134" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C134" s="3" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="D134" s="3" t="inlineStr">
         <is>
@@ -4824,12 +6940,28 @@
       <c r="H134" s="3" t="n"/>
       <c r="I134" s="3" t="n"/>
       <c r="J134" s="3" t="n"/>
+      <c r="K134" s="3" t="n"/>
       <c r="L134" s="3" t="n"/>
       <c r="M134" s="3" t="n"/>
       <c r="Q134" s="3" t="n"/>
       <c r="R134" s="3" t="n"/>
       <c r="S134" s="3" t="n"/>
       <c r="T134" s="3" t="n"/>
+      <c r="Z134" s="3" t="n"/>
+      <c r="AA134" s="3" t="n"/>
+      <c r="AB134" s="3" t="n"/>
+      <c r="AC134" s="3" t="n"/>
+      <c r="AD134" s="3" t="n"/>
+      <c r="AJ134" s="3" t="n"/>
+      <c r="AK134" s="3" t="n"/>
+      <c r="AL134" s="3" t="n"/>
+      <c r="AM134" s="3" t="n"/>
+      <c r="AN134" s="3" t="n"/>
+      <c r="AT134" s="3" t="n"/>
+      <c r="AU134" s="3" t="n"/>
+      <c r="AV134" s="3" t="n"/>
+      <c r="AW134" s="3" t="n"/>
+      <c r="AX134" s="3" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
@@ -4838,10 +6970,10 @@
         </is>
       </c>
       <c r="B135" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="C135" s="3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
@@ -4856,12 +6988,28 @@
       <c r="H135" s="3" t="n"/>
       <c r="I135" s="3" t="n"/>
       <c r="J135" s="3" t="n"/>
+      <c r="K135" s="3" t="n"/>
       <c r="L135" s="3" t="n"/>
       <c r="M135" s="3" t="n"/>
       <c r="Q135" s="3" t="n"/>
       <c r="R135" s="3" t="n"/>
       <c r="S135" s="3" t="n"/>
       <c r="T135" s="3" t="n"/>
+      <c r="Z135" s="3" t="n"/>
+      <c r="AA135" s="3" t="n"/>
+      <c r="AB135" s="3" t="n"/>
+      <c r="AC135" s="3" t="n"/>
+      <c r="AD135" s="3" t="n"/>
+      <c r="AJ135" s="3" t="n"/>
+      <c r="AK135" s="3" t="n"/>
+      <c r="AL135" s="3" t="n"/>
+      <c r="AM135" s="3" t="n"/>
+      <c r="AN135" s="3" t="n"/>
+      <c r="AT135" s="3" t="n"/>
+      <c r="AU135" s="3" t="n"/>
+      <c r="AV135" s="3" t="n"/>
+      <c r="AW135" s="3" t="n"/>
+      <c r="AX135" s="3" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
@@ -4870,7 +7018,7 @@
         </is>
       </c>
       <c r="B136" s="3" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="C136" s="3" t="inlineStr"/>
       <c r="D136" s="3" t="inlineStr">
@@ -4886,12 +7034,28 @@
       <c r="H136" s="3" t="n"/>
       <c r="I136" s="3" t="n"/>
       <c r="J136" s="3" t="n"/>
+      <c r="K136" s="3" t="n"/>
       <c r="L136" s="3" t="n"/>
       <c r="M136" s="3" t="n"/>
       <c r="Q136" s="3" t="n"/>
       <c r="R136" s="3" t="n"/>
       <c r="S136" s="3" t="n"/>
       <c r="T136" s="3" t="n"/>
+      <c r="Z136" s="3" t="n"/>
+      <c r="AA136" s="3" t="n"/>
+      <c r="AB136" s="3" t="n"/>
+      <c r="AC136" s="3" t="n"/>
+      <c r="AD136" s="3" t="n"/>
+      <c r="AJ136" s="3" t="n"/>
+      <c r="AK136" s="3" t="n"/>
+      <c r="AL136" s="3" t="n"/>
+      <c r="AM136" s="3" t="n"/>
+      <c r="AN136" s="3" t="n"/>
+      <c r="AT136" s="3" t="n"/>
+      <c r="AU136" s="3" t="n"/>
+      <c r="AV136" s="3" t="n"/>
+      <c r="AW136" s="3" t="n"/>
+      <c r="AX136" s="3" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
@@ -4900,7 +7064,7 @@
         </is>
       </c>
       <c r="B137" s="3" t="n">
-        <v>6.89</v>
+        <v>6.79</v>
       </c>
       <c r="C137" s="3" t="inlineStr"/>
       <c r="D137" s="3" t="inlineStr">
@@ -4916,12 +7080,28 @@
       <c r="H137" s="3" t="n"/>
       <c r="I137" s="3" t="n"/>
       <c r="J137" s="3" t="n"/>
+      <c r="K137" s="3" t="n"/>
       <c r="L137" s="3" t="n"/>
       <c r="M137" s="3" t="n"/>
       <c r="Q137" s="3" t="n"/>
       <c r="R137" s="3" t="n"/>
       <c r="S137" s="3" t="n"/>
       <c r="T137" s="3" t="n"/>
+      <c r="Z137" s="3" t="n"/>
+      <c r="AA137" s="3" t="n"/>
+      <c r="AB137" s="3" t="n"/>
+      <c r="AC137" s="3" t="n"/>
+      <c r="AD137" s="3" t="n"/>
+      <c r="AJ137" s="3" t="n"/>
+      <c r="AK137" s="3" t="n"/>
+      <c r="AL137" s="3" t="n"/>
+      <c r="AM137" s="3" t="n"/>
+      <c r="AN137" s="3" t="n"/>
+      <c r="AT137" s="3" t="n"/>
+      <c r="AU137" s="3" t="n"/>
+      <c r="AV137" s="3" t="n"/>
+      <c r="AW137" s="3" t="n"/>
+      <c r="AX137" s="3" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
@@ -4930,10 +7110,10 @@
         </is>
       </c>
       <c r="B138" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C138" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
@@ -4948,12 +7128,28 @@
       <c r="H138" s="3" t="n"/>
       <c r="I138" s="3" t="n"/>
       <c r="J138" s="3" t="n"/>
+      <c r="K138" s="3" t="n"/>
       <c r="L138" s="3" t="n"/>
       <c r="M138" s="3" t="n"/>
       <c r="Q138" s="3" t="n"/>
       <c r="R138" s="3" t="n"/>
       <c r="S138" s="3" t="n"/>
       <c r="T138" s="3" t="n"/>
+      <c r="Z138" s="3" t="n"/>
+      <c r="AA138" s="3" t="n"/>
+      <c r="AB138" s="3" t="n"/>
+      <c r="AC138" s="3" t="n"/>
+      <c r="AD138" s="3" t="n"/>
+      <c r="AJ138" s="3" t="n"/>
+      <c r="AK138" s="3" t="n"/>
+      <c r="AL138" s="3" t="n"/>
+      <c r="AM138" s="3" t="n"/>
+      <c r="AN138" s="3" t="n"/>
+      <c r="AT138" s="3" t="n"/>
+      <c r="AU138" s="3" t="n"/>
+      <c r="AV138" s="3" t="n"/>
+      <c r="AW138" s="3" t="n"/>
+      <c r="AX138" s="3" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
@@ -4962,10 +7158,10 @@
         </is>
       </c>
       <c r="B139" s="3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="C139" s="3" t="n">
-        <v>2.28</v>
+        <v>2.19</v>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
@@ -4980,12 +7176,28 @@
       <c r="H139" s="3" t="n"/>
       <c r="I139" s="3" t="n"/>
       <c r="J139" s="3" t="n"/>
+      <c r="K139" s="3" t="n"/>
       <c r="L139" s="3" t="n"/>
       <c r="M139" s="3" t="n"/>
       <c r="Q139" s="3" t="n"/>
       <c r="R139" s="3" t="n"/>
       <c r="S139" s="3" t="n"/>
       <c r="T139" s="3" t="n"/>
+      <c r="Z139" s="3" t="n"/>
+      <c r="AA139" s="3" t="n"/>
+      <c r="AB139" s="3" t="n"/>
+      <c r="AC139" s="3" t="n"/>
+      <c r="AD139" s="3" t="n"/>
+      <c r="AJ139" s="3" t="n"/>
+      <c r="AK139" s="3" t="n"/>
+      <c r="AL139" s="3" t="n"/>
+      <c r="AM139" s="3" t="n"/>
+      <c r="AN139" s="3" t="n"/>
+      <c r="AT139" s="3" t="n"/>
+      <c r="AU139" s="3" t="n"/>
+      <c r="AV139" s="3" t="n"/>
+      <c r="AW139" s="3" t="n"/>
+      <c r="AX139" s="3" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
@@ -4994,7 +7206,7 @@
         </is>
       </c>
       <c r="B140" s="3" t="n">
-        <v>7.33</v>
+        <v>7.05</v>
       </c>
       <c r="C140" s="3" t="inlineStr"/>
       <c r="D140" s="3" t="inlineStr">
@@ -5010,12 +7222,28 @@
       <c r="H140" s="3" t="n"/>
       <c r="I140" s="3" t="n"/>
       <c r="J140" s="3" t="n"/>
+      <c r="K140" s="3" t="n"/>
       <c r="L140" s="3" t="n"/>
       <c r="M140" s="3" t="n"/>
       <c r="Q140" s="3" t="n"/>
       <c r="R140" s="3" t="n"/>
       <c r="S140" s="3" t="n"/>
       <c r="T140" s="3" t="n"/>
+      <c r="Z140" s="3" t="n"/>
+      <c r="AA140" s="3" t="n"/>
+      <c r="AB140" s="3" t="n"/>
+      <c r="AC140" s="3" t="n"/>
+      <c r="AD140" s="3" t="n"/>
+      <c r="AJ140" s="3" t="n"/>
+      <c r="AK140" s="3" t="n"/>
+      <c r="AL140" s="3" t="n"/>
+      <c r="AM140" s="3" t="n"/>
+      <c r="AN140" s="3" t="n"/>
+      <c r="AT140" s="3" t="n"/>
+      <c r="AU140" s="3" t="n"/>
+      <c r="AV140" s="3" t="n"/>
+      <c r="AW140" s="3" t="n"/>
+      <c r="AX140" s="3" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
@@ -5024,10 +7252,10 @@
         </is>
       </c>
       <c r="B141" s="3" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="C141" s="3" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="D141" s="3" t="inlineStr">
         <is>
@@ -5042,12 +7270,28 @@
       <c r="H141" s="3" t="n"/>
       <c r="I141" s="3" t="n"/>
       <c r="J141" s="3" t="n"/>
+      <c r="K141" s="3" t="n"/>
       <c r="L141" s="3" t="n"/>
       <c r="M141" s="3" t="n"/>
       <c r="Q141" s="3" t="n"/>
       <c r="R141" s="3" t="n"/>
       <c r="S141" s="3" t="n"/>
       <c r="T141" s="3" t="n"/>
+      <c r="Z141" s="3" t="n"/>
+      <c r="AA141" s="3" t="n"/>
+      <c r="AB141" s="3" t="n"/>
+      <c r="AC141" s="3" t="n"/>
+      <c r="AD141" s="3" t="n"/>
+      <c r="AJ141" s="3" t="n"/>
+      <c r="AK141" s="3" t="n"/>
+      <c r="AL141" s="3" t="n"/>
+      <c r="AM141" s="3" t="n"/>
+      <c r="AN141" s="3" t="n"/>
+      <c r="AT141" s="3" t="n"/>
+      <c r="AU141" s="3" t="n"/>
+      <c r="AV141" s="3" t="n"/>
+      <c r="AW141" s="3" t="n"/>
+      <c r="AX141" s="3" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
@@ -5059,7 +7303,7 @@
         <v>0.08</v>
       </c>
       <c r="C142" s="3" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="D142" s="3" t="inlineStr">
         <is>
@@ -5074,12 +7318,28 @@
       <c r="H142" s="3" t="n"/>
       <c r="I142" s="3" t="n"/>
       <c r="J142" s="3" t="n"/>
+      <c r="K142" s="3" t="n"/>
       <c r="L142" s="3" t="n"/>
       <c r="M142" s="3" t="n"/>
       <c r="Q142" s="3" t="n"/>
       <c r="R142" s="3" t="n"/>
       <c r="S142" s="3" t="n"/>
       <c r="T142" s="3" t="n"/>
+      <c r="Z142" s="3" t="n"/>
+      <c r="AA142" s="3" t="n"/>
+      <c r="AB142" s="3" t="n"/>
+      <c r="AC142" s="3" t="n"/>
+      <c r="AD142" s="3" t="n"/>
+      <c r="AJ142" s="3" t="n"/>
+      <c r="AK142" s="3" t="n"/>
+      <c r="AL142" s="3" t="n"/>
+      <c r="AM142" s="3" t="n"/>
+      <c r="AN142" s="3" t="n"/>
+      <c r="AT142" s="3" t="n"/>
+      <c r="AU142" s="3" t="n"/>
+      <c r="AV142" s="3" t="n"/>
+      <c r="AW142" s="3" t="n"/>
+      <c r="AX142" s="3" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
@@ -5088,10 +7348,10 @@
         </is>
       </c>
       <c r="B143" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="C143" s="3" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="D143" s="3" t="inlineStr">
         <is>
@@ -5106,12 +7366,28 @@
       <c r="H143" s="3" t="n"/>
       <c r="I143" s="3" t="n"/>
       <c r="J143" s="3" t="n"/>
+      <c r="K143" s="3" t="n"/>
       <c r="L143" s="3" t="n"/>
       <c r="M143" s="3" t="n"/>
       <c r="Q143" s="3" t="n"/>
       <c r="R143" s="3" t="n"/>
       <c r="S143" s="3" t="n"/>
       <c r="T143" s="3" t="n"/>
+      <c r="Z143" s="3" t="n"/>
+      <c r="AA143" s="3" t="n"/>
+      <c r="AB143" s="3" t="n"/>
+      <c r="AC143" s="3" t="n"/>
+      <c r="AD143" s="3" t="n"/>
+      <c r="AJ143" s="3" t="n"/>
+      <c r="AK143" s="3" t="n"/>
+      <c r="AL143" s="3" t="n"/>
+      <c r="AM143" s="3" t="n"/>
+      <c r="AN143" s="3" t="n"/>
+      <c r="AT143" s="3" t="n"/>
+      <c r="AU143" s="3" t="n"/>
+      <c r="AV143" s="3" t="n"/>
+      <c r="AW143" s="3" t="n"/>
+      <c r="AX143" s="3" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
@@ -5120,10 +7396,10 @@
         </is>
       </c>
       <c r="B144" s="3" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C144" s="3" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="D144" s="3" t="inlineStr">
         <is>
@@ -5138,12 +7414,28 @@
       <c r="H144" s="3" t="n"/>
       <c r="I144" s="3" t="n"/>
       <c r="J144" s="3" t="n"/>
+      <c r="K144" s="3" t="n"/>
       <c r="L144" s="3" t="n"/>
       <c r="M144" s="3" t="n"/>
       <c r="Q144" s="3" t="n"/>
       <c r="R144" s="3" t="n"/>
       <c r="S144" s="3" t="n"/>
       <c r="T144" s="3" t="n"/>
+      <c r="Z144" s="3" t="n"/>
+      <c r="AA144" s="3" t="n"/>
+      <c r="AB144" s="3" t="n"/>
+      <c r="AC144" s="3" t="n"/>
+      <c r="AD144" s="3" t="n"/>
+      <c r="AJ144" s="3" t="n"/>
+      <c r="AK144" s="3" t="n"/>
+      <c r="AL144" s="3" t="n"/>
+      <c r="AM144" s="3" t="n"/>
+      <c r="AN144" s="3" t="n"/>
+      <c r="AT144" s="3" t="n"/>
+      <c r="AU144" s="3" t="n"/>
+      <c r="AV144" s="3" t="n"/>
+      <c r="AW144" s="3" t="n"/>
+      <c r="AX144" s="3" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
@@ -5155,7 +7447,7 @@
         <v>0.06</v>
       </c>
       <c r="C145" s="3" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D145" s="3" t="inlineStr">
         <is>
@@ -5170,12 +7462,28 @@
       <c r="H145" s="3" t="n"/>
       <c r="I145" s="3" t="n"/>
       <c r="J145" s="3" t="n"/>
+      <c r="K145" s="3" t="n"/>
       <c r="L145" s="3" t="n"/>
       <c r="M145" s="3" t="n"/>
       <c r="Q145" s="3" t="n"/>
       <c r="R145" s="3" t="n"/>
       <c r="S145" s="3" t="n"/>
       <c r="T145" s="3" t="n"/>
+      <c r="Z145" s="3" t="n"/>
+      <c r="AA145" s="3" t="n"/>
+      <c r="AB145" s="3" t="n"/>
+      <c r="AC145" s="3" t="n"/>
+      <c r="AD145" s="3" t="n"/>
+      <c r="AJ145" s="3" t="n"/>
+      <c r="AK145" s="3" t="n"/>
+      <c r="AL145" s="3" t="n"/>
+      <c r="AM145" s="3" t="n"/>
+      <c r="AN145" s="3" t="n"/>
+      <c r="AT145" s="3" t="n"/>
+      <c r="AU145" s="3" t="n"/>
+      <c r="AV145" s="3" t="n"/>
+      <c r="AW145" s="3" t="n"/>
+      <c r="AX145" s="3" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
@@ -5187,7 +7495,7 @@
         <v>0.06</v>
       </c>
       <c r="C146" s="3" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D146" s="3" t="inlineStr">
         <is>
@@ -5202,12 +7510,28 @@
       <c r="H146" s="3" t="n"/>
       <c r="I146" s="3" t="n"/>
       <c r="J146" s="3" t="n"/>
+      <c r="K146" s="3" t="n"/>
       <c r="L146" s="3" t="n"/>
       <c r="M146" s="3" t="n"/>
       <c r="Q146" s="3" t="n"/>
       <c r="R146" s="3" t="n"/>
       <c r="S146" s="3" t="n"/>
       <c r="T146" s="3" t="n"/>
+      <c r="Z146" s="3" t="n"/>
+      <c r="AA146" s="3" t="n"/>
+      <c r="AB146" s="3" t="n"/>
+      <c r="AC146" s="3" t="n"/>
+      <c r="AD146" s="3" t="n"/>
+      <c r="AJ146" s="3" t="n"/>
+      <c r="AK146" s="3" t="n"/>
+      <c r="AL146" s="3" t="n"/>
+      <c r="AM146" s="3" t="n"/>
+      <c r="AN146" s="3" t="n"/>
+      <c r="AT146" s="3" t="n"/>
+      <c r="AU146" s="3" t="n"/>
+      <c r="AV146" s="3" t="n"/>
+      <c r="AW146" s="3" t="n"/>
+      <c r="AX146" s="3" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
@@ -5216,10 +7540,10 @@
         </is>
       </c>
       <c r="B147" s="3" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="C147" s="3" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
@@ -5234,12 +7558,28 @@
       <c r="H147" s="3" t="n"/>
       <c r="I147" s="3" t="n"/>
       <c r="J147" s="3" t="n"/>
+      <c r="K147" s="3" t="n"/>
       <c r="L147" s="3" t="n"/>
       <c r="M147" s="3" t="n"/>
       <c r="Q147" s="3" t="n"/>
       <c r="R147" s="3" t="n"/>
       <c r="S147" s="3" t="n"/>
       <c r="T147" s="3" t="n"/>
+      <c r="Z147" s="3" t="n"/>
+      <c r="AA147" s="3" t="n"/>
+      <c r="AB147" s="3" t="n"/>
+      <c r="AC147" s="3" t="n"/>
+      <c r="AD147" s="3" t="n"/>
+      <c r="AJ147" s="3" t="n"/>
+      <c r="AK147" s="3" t="n"/>
+      <c r="AL147" s="3" t="n"/>
+      <c r="AM147" s="3" t="n"/>
+      <c r="AN147" s="3" t="n"/>
+      <c r="AT147" s="3" t="n"/>
+      <c r="AU147" s="3" t="n"/>
+      <c r="AV147" s="3" t="n"/>
+      <c r="AW147" s="3" t="n"/>
+      <c r="AX147" s="3" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
@@ -5248,10 +7588,10 @@
         </is>
       </c>
       <c r="B148" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="C148" s="3" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="D148" s="3" t="inlineStr">
         <is>
@@ -5266,12 +7606,28 @@
       <c r="H148" s="3" t="n"/>
       <c r="I148" s="3" t="n"/>
       <c r="J148" s="3" t="n"/>
+      <c r="K148" s="3" t="n"/>
       <c r="L148" s="3" t="n"/>
       <c r="M148" s="3" t="n"/>
       <c r="Q148" s="3" t="n"/>
       <c r="R148" s="3" t="n"/>
       <c r="S148" s="3" t="n"/>
       <c r="T148" s="3" t="n"/>
+      <c r="Z148" s="3" t="n"/>
+      <c r="AA148" s="3" t="n"/>
+      <c r="AB148" s="3" t="n"/>
+      <c r="AC148" s="3" t="n"/>
+      <c r="AD148" s="3" t="n"/>
+      <c r="AJ148" s="3" t="n"/>
+      <c r="AK148" s="3" t="n"/>
+      <c r="AL148" s="3" t="n"/>
+      <c r="AM148" s="3" t="n"/>
+      <c r="AN148" s="3" t="n"/>
+      <c r="AT148" s="3" t="n"/>
+      <c r="AU148" s="3" t="n"/>
+      <c r="AV148" s="3" t="n"/>
+      <c r="AW148" s="3" t="n"/>
+      <c r="AX148" s="3" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
@@ -5280,10 +7636,10 @@
         </is>
       </c>
       <c r="B149" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C149" s="3" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="D149" s="3" t="inlineStr">
         <is>
@@ -5298,12 +7654,28 @@
       <c r="H149" s="3" t="n"/>
       <c r="I149" s="3" t="n"/>
       <c r="J149" s="3" t="n"/>
+      <c r="K149" s="3" t="n"/>
       <c r="L149" s="3" t="n"/>
       <c r="M149" s="3" t="n"/>
       <c r="Q149" s="3" t="n"/>
       <c r="R149" s="3" t="n"/>
       <c r="S149" s="3" t="n"/>
       <c r="T149" s="3" t="n"/>
+      <c r="Z149" s="3" t="n"/>
+      <c r="AA149" s="3" t="n"/>
+      <c r="AB149" s="3" t="n"/>
+      <c r="AC149" s="3" t="n"/>
+      <c r="AD149" s="3" t="n"/>
+      <c r="AJ149" s="3" t="n"/>
+      <c r="AK149" s="3" t="n"/>
+      <c r="AL149" s="3" t="n"/>
+      <c r="AM149" s="3" t="n"/>
+      <c r="AN149" s="3" t="n"/>
+      <c r="AT149" s="3" t="n"/>
+      <c r="AU149" s="3" t="n"/>
+      <c r="AV149" s="3" t="n"/>
+      <c r="AW149" s="3" t="n"/>
+      <c r="AX149" s="3" t="n"/>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
@@ -5312,7 +7684,7 @@
         </is>
       </c>
       <c r="B150" s="3" t="n">
-        <v>28.35</v>
+        <v>27.51</v>
       </c>
       <c r="C150" s="3" t="inlineStr"/>
       <c r="D150" s="3" t="inlineStr">
@@ -5328,12 +7700,28 @@
       <c r="H150" s="3" t="n"/>
       <c r="I150" s="3" t="n"/>
       <c r="J150" s="3" t="n"/>
+      <c r="K150" s="3" t="n"/>
       <c r="L150" s="3" t="n"/>
       <c r="M150" s="3" t="n"/>
       <c r="Q150" s="3" t="n"/>
       <c r="R150" s="3" t="n"/>
       <c r="S150" s="3" t="n"/>
       <c r="T150" s="3" t="n"/>
+      <c r="Z150" s="3" t="n"/>
+      <c r="AA150" s="3" t="n"/>
+      <c r="AB150" s="3" t="n"/>
+      <c r="AC150" s="3" t="n"/>
+      <c r="AD150" s="3" t="n"/>
+      <c r="AJ150" s="3" t="n"/>
+      <c r="AK150" s="3" t="n"/>
+      <c r="AL150" s="3" t="n"/>
+      <c r="AM150" s="3" t="n"/>
+      <c r="AN150" s="3" t="n"/>
+      <c r="AT150" s="3" t="n"/>
+      <c r="AU150" s="3" t="n"/>
+      <c r="AV150" s="3" t="n"/>
+      <c r="AW150" s="3" t="n"/>
+      <c r="AX150" s="3" t="n"/>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
@@ -5342,10 +7730,10 @@
         </is>
       </c>
       <c r="B151" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C151" s="3" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
@@ -5360,12 +7748,28 @@
       <c r="H151" s="3" t="n"/>
       <c r="I151" s="3" t="n"/>
       <c r="J151" s="3" t="n"/>
+      <c r="K151" s="3" t="n"/>
       <c r="L151" s="3" t="n"/>
       <c r="M151" s="3" t="n"/>
       <c r="Q151" s="3" t="n"/>
       <c r="R151" s="3" t="n"/>
       <c r="S151" s="3" t="n"/>
       <c r="T151" s="3" t="n"/>
+      <c r="Z151" s="3" t="n"/>
+      <c r="AA151" s="3" t="n"/>
+      <c r="AB151" s="3" t="n"/>
+      <c r="AC151" s="3" t="n"/>
+      <c r="AD151" s="3" t="n"/>
+      <c r="AJ151" s="3" t="n"/>
+      <c r="AK151" s="3" t="n"/>
+      <c r="AL151" s="3" t="n"/>
+      <c r="AM151" s="3" t="n"/>
+      <c r="AN151" s="3" t="n"/>
+      <c r="AT151" s="3" t="n"/>
+      <c r="AU151" s="3" t="n"/>
+      <c r="AV151" s="3" t="n"/>
+      <c r="AW151" s="3" t="n"/>
+      <c r="AX151" s="3" t="n"/>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
@@ -5374,10 +7778,10 @@
         </is>
       </c>
       <c r="B152" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C152" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
@@ -5392,12 +7796,28 @@
       <c r="H152" s="3" t="n"/>
       <c r="I152" s="3" t="n"/>
       <c r="J152" s="3" t="n"/>
+      <c r="K152" s="3" t="n"/>
       <c r="L152" s="3" t="n"/>
       <c r="M152" s="3" t="n"/>
       <c r="Q152" s="3" t="n"/>
       <c r="R152" s="3" t="n"/>
       <c r="S152" s="3" t="n"/>
       <c r="T152" s="3" t="n"/>
+      <c r="Z152" s="3" t="n"/>
+      <c r="AA152" s="3" t="n"/>
+      <c r="AB152" s="3" t="n"/>
+      <c r="AC152" s="3" t="n"/>
+      <c r="AD152" s="3" t="n"/>
+      <c r="AJ152" s="3" t="n"/>
+      <c r="AK152" s="3" t="n"/>
+      <c r="AL152" s="3" t="n"/>
+      <c r="AM152" s="3" t="n"/>
+      <c r="AN152" s="3" t="n"/>
+      <c r="AT152" s="3" t="n"/>
+      <c r="AU152" s="3" t="n"/>
+      <c r="AV152" s="3" t="n"/>
+      <c r="AW152" s="3" t="n"/>
+      <c r="AX152" s="3" t="n"/>
     </row>
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
@@ -5409,7 +7829,7 @@
         <v>0.11</v>
       </c>
       <c r="C153" s="3" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="D153" s="3" t="inlineStr">
         <is>
@@ -5424,12 +7844,28 @@
       <c r="H153" s="3" t="n"/>
       <c r="I153" s="3" t="n"/>
       <c r="J153" s="3" t="n"/>
+      <c r="K153" s="3" t="n"/>
       <c r="L153" s="3" t="n"/>
       <c r="M153" s="3" t="n"/>
       <c r="Q153" s="3" t="n"/>
       <c r="R153" s="3" t="n"/>
       <c r="S153" s="3" t="n"/>
       <c r="T153" s="3" t="n"/>
+      <c r="Z153" s="3" t="n"/>
+      <c r="AA153" s="3" t="n"/>
+      <c r="AB153" s="3" t="n"/>
+      <c r="AC153" s="3" t="n"/>
+      <c r="AD153" s="3" t="n"/>
+      <c r="AJ153" s="3" t="n"/>
+      <c r="AK153" s="3" t="n"/>
+      <c r="AL153" s="3" t="n"/>
+      <c r="AM153" s="3" t="n"/>
+      <c r="AN153" s="3" t="n"/>
+      <c r="AT153" s="3" t="n"/>
+      <c r="AU153" s="3" t="n"/>
+      <c r="AV153" s="3" t="n"/>
+      <c r="AW153" s="3" t="n"/>
+      <c r="AX153" s="3" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
@@ -5438,7 +7874,7 @@
         </is>
       </c>
       <c r="B154" s="3" t="n">
-        <v>18.77</v>
+        <v>15.56</v>
       </c>
       <c r="C154" s="3" t="inlineStr"/>
       <c r="D154" s="3" t="inlineStr">
@@ -5454,12 +7890,28 @@
       <c r="H154" s="3" t="n"/>
       <c r="I154" s="3" t="n"/>
       <c r="J154" s="3" t="n"/>
+      <c r="K154" s="3" t="n"/>
       <c r="L154" s="3" t="n"/>
       <c r="M154" s="3" t="n"/>
       <c r="Q154" s="3" t="n"/>
       <c r="R154" s="3" t="n"/>
       <c r="S154" s="3" t="n"/>
       <c r="T154" s="3" t="n"/>
+      <c r="Z154" s="3" t="n"/>
+      <c r="AA154" s="3" t="n"/>
+      <c r="AB154" s="3" t="n"/>
+      <c r="AC154" s="3" t="n"/>
+      <c r="AD154" s="3" t="n"/>
+      <c r="AJ154" s="3" t="n"/>
+      <c r="AK154" s="3" t="n"/>
+      <c r="AL154" s="3" t="n"/>
+      <c r="AM154" s="3" t="n"/>
+      <c r="AN154" s="3" t="n"/>
+      <c r="AT154" s="3" t="n"/>
+      <c r="AU154" s="3" t="n"/>
+      <c r="AV154" s="3" t="n"/>
+      <c r="AW154" s="3" t="n"/>
+      <c r="AX154" s="3" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
@@ -5468,10 +7920,10 @@
         </is>
       </c>
       <c r="B155" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C155" s="3" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
@@ -5486,12 +7938,28 @@
       <c r="H155" s="3" t="n"/>
       <c r="I155" s="3" t="n"/>
       <c r="J155" s="3" t="n"/>
+      <c r="K155" s="3" t="n"/>
       <c r="L155" s="3" t="n"/>
       <c r="M155" s="3" t="n"/>
       <c r="Q155" s="3" t="n"/>
       <c r="R155" s="3" t="n"/>
       <c r="S155" s="3" t="n"/>
       <c r="T155" s="3" t="n"/>
+      <c r="Z155" s="3" t="n"/>
+      <c r="AA155" s="3" t="n"/>
+      <c r="AB155" s="3" t="n"/>
+      <c r="AC155" s="3" t="n"/>
+      <c r="AD155" s="3" t="n"/>
+      <c r="AJ155" s="3" t="n"/>
+      <c r="AK155" s="3" t="n"/>
+      <c r="AL155" s="3" t="n"/>
+      <c r="AM155" s="3" t="n"/>
+      <c r="AN155" s="3" t="n"/>
+      <c r="AT155" s="3" t="n"/>
+      <c r="AU155" s="3" t="n"/>
+      <c r="AV155" s="3" t="n"/>
+      <c r="AW155" s="3" t="n"/>
+      <c r="AX155" s="3" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
@@ -5500,10 +7968,10 @@
         </is>
       </c>
       <c r="B156" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C156" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
@@ -5518,12 +7986,28 @@
       <c r="H156" s="3" t="n"/>
       <c r="I156" s="3" t="n"/>
       <c r="J156" s="3" t="n"/>
+      <c r="K156" s="3" t="n"/>
       <c r="L156" s="3" t="n"/>
       <c r="M156" s="3" t="n"/>
       <c r="Q156" s="3" t="n"/>
       <c r="R156" s="3" t="n"/>
       <c r="S156" s="3" t="n"/>
       <c r="T156" s="3" t="n"/>
+      <c r="Z156" s="3" t="n"/>
+      <c r="AA156" s="3" t="n"/>
+      <c r="AB156" s="3" t="n"/>
+      <c r="AC156" s="3" t="n"/>
+      <c r="AD156" s="3" t="n"/>
+      <c r="AJ156" s="3" t="n"/>
+      <c r="AK156" s="3" t="n"/>
+      <c r="AL156" s="3" t="n"/>
+      <c r="AM156" s="3" t="n"/>
+      <c r="AN156" s="3" t="n"/>
+      <c r="AT156" s="3" t="n"/>
+      <c r="AU156" s="3" t="n"/>
+      <c r="AV156" s="3" t="n"/>
+      <c r="AW156" s="3" t="n"/>
+      <c r="AX156" s="3" t="n"/>
     </row>
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
@@ -5535,7 +8019,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C157" s="3" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="D157" s="3" t="inlineStr">
         <is>
@@ -5550,12 +8034,28 @@
       <c r="H157" s="3" t="n"/>
       <c r="I157" s="3" t="n"/>
       <c r="J157" s="3" t="n"/>
+      <c r="K157" s="3" t="n"/>
       <c r="L157" s="3" t="n"/>
       <c r="M157" s="3" t="n"/>
       <c r="Q157" s="3" t="n"/>
       <c r="R157" s="3" t="n"/>
       <c r="S157" s="3" t="n"/>
       <c r="T157" s="3" t="n"/>
+      <c r="Z157" s="3" t="n"/>
+      <c r="AA157" s="3" t="n"/>
+      <c r="AB157" s="3" t="n"/>
+      <c r="AC157" s="3" t="n"/>
+      <c r="AD157" s="3" t="n"/>
+      <c r="AJ157" s="3" t="n"/>
+      <c r="AK157" s="3" t="n"/>
+      <c r="AL157" s="3" t="n"/>
+      <c r="AM157" s="3" t="n"/>
+      <c r="AN157" s="3" t="n"/>
+      <c r="AT157" s="3" t="n"/>
+      <c r="AU157" s="3" t="n"/>
+      <c r="AV157" s="3" t="n"/>
+      <c r="AW157" s="3" t="n"/>
+      <c r="AX157" s="3" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
@@ -5564,10 +8064,10 @@
         </is>
       </c>
       <c r="B158" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C158" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
@@ -5582,12 +8082,28 @@
       <c r="H158" s="3" t="n"/>
       <c r="I158" s="3" t="n"/>
       <c r="J158" s="3" t="n"/>
+      <c r="K158" s="3" t="n"/>
       <c r="L158" s="3" t="n"/>
       <c r="M158" s="3" t="n"/>
       <c r="Q158" s="3" t="n"/>
       <c r="R158" s="3" t="n"/>
       <c r="S158" s="3" t="n"/>
       <c r="T158" s="3" t="n"/>
+      <c r="Z158" s="3" t="n"/>
+      <c r="AA158" s="3" t="n"/>
+      <c r="AB158" s="3" t="n"/>
+      <c r="AC158" s="3" t="n"/>
+      <c r="AD158" s="3" t="n"/>
+      <c r="AJ158" s="3" t="n"/>
+      <c r="AK158" s="3" t="n"/>
+      <c r="AL158" s="3" t="n"/>
+      <c r="AM158" s="3" t="n"/>
+      <c r="AN158" s="3" t="n"/>
+      <c r="AT158" s="3" t="n"/>
+      <c r="AU158" s="3" t="n"/>
+      <c r="AV158" s="3" t="n"/>
+      <c r="AW158" s="3" t="n"/>
+      <c r="AX158" s="3" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
@@ -5596,10 +8112,10 @@
         </is>
       </c>
       <c r="B159" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="C159" s="3" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
@@ -5614,12 +8130,28 @@
       <c r="H159" s="3" t="n"/>
       <c r="I159" s="3" t="n"/>
       <c r="J159" s="3" t="n"/>
+      <c r="K159" s="3" t="n"/>
       <c r="L159" s="3" t="n"/>
       <c r="M159" s="3" t="n"/>
       <c r="Q159" s="3" t="n"/>
       <c r="R159" s="3" t="n"/>
       <c r="S159" s="3" t="n"/>
       <c r="T159" s="3" t="n"/>
+      <c r="Z159" s="3" t="n"/>
+      <c r="AA159" s="3" t="n"/>
+      <c r="AB159" s="3" t="n"/>
+      <c r="AC159" s="3" t="n"/>
+      <c r="AD159" s="3" t="n"/>
+      <c r="AJ159" s="3" t="n"/>
+      <c r="AK159" s="3" t="n"/>
+      <c r="AL159" s="3" t="n"/>
+      <c r="AM159" s="3" t="n"/>
+      <c r="AN159" s="3" t="n"/>
+      <c r="AT159" s="3" t="n"/>
+      <c r="AU159" s="3" t="n"/>
+      <c r="AV159" s="3" t="n"/>
+      <c r="AW159" s="3" t="n"/>
+      <c r="AX159" s="3" t="n"/>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
@@ -5628,10 +8160,10 @@
         </is>
       </c>
       <c r="B160" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="C160" s="3" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
@@ -5646,12 +8178,28 @@
       <c r="H160" s="3" t="n"/>
       <c r="I160" s="3" t="n"/>
       <c r="J160" s="3" t="n"/>
+      <c r="K160" s="3" t="n"/>
       <c r="L160" s="3" t="n"/>
       <c r="M160" s="3" t="n"/>
       <c r="Q160" s="3" t="n"/>
       <c r="R160" s="3" t="n"/>
       <c r="S160" s="3" t="n"/>
       <c r="T160" s="3" t="n"/>
+      <c r="Z160" s="3" t="n"/>
+      <c r="AA160" s="3" t="n"/>
+      <c r="AB160" s="3" t="n"/>
+      <c r="AC160" s="3" t="n"/>
+      <c r="AD160" s="3" t="n"/>
+      <c r="AJ160" s="3" t="n"/>
+      <c r="AK160" s="3" t="n"/>
+      <c r="AL160" s="3" t="n"/>
+      <c r="AM160" s="3" t="n"/>
+      <c r="AN160" s="3" t="n"/>
+      <c r="AT160" s="3" t="n"/>
+      <c r="AU160" s="3" t="n"/>
+      <c r="AV160" s="3" t="n"/>
+      <c r="AW160" s="3" t="n"/>
+      <c r="AX160" s="3" t="n"/>
     </row>
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
@@ -5660,7 +8208,7 @@
         </is>
       </c>
       <c r="B161" s="3" t="n">
-        <v>19.5</v>
+        <v>20.68</v>
       </c>
       <c r="C161" s="3" t="inlineStr"/>
       <c r="D161" s="3" t="inlineStr">
@@ -5676,12 +8224,28 @@
       <c r="H161" s="3" t="n"/>
       <c r="I161" s="3" t="n"/>
       <c r="J161" s="3" t="n"/>
+      <c r="K161" s="3" t="n"/>
       <c r="L161" s="3" t="n"/>
       <c r="M161" s="3" t="n"/>
       <c r="Q161" s="3" t="n"/>
       <c r="R161" s="3" t="n"/>
       <c r="S161" s="3" t="n"/>
       <c r="T161" s="3" t="n"/>
+      <c r="Z161" s="3" t="n"/>
+      <c r="AA161" s="3" t="n"/>
+      <c r="AB161" s="3" t="n"/>
+      <c r="AC161" s="3" t="n"/>
+      <c r="AD161" s="3" t="n"/>
+      <c r="AJ161" s="3" t="n"/>
+      <c r="AK161" s="3" t="n"/>
+      <c r="AL161" s="3" t="n"/>
+      <c r="AM161" s="3" t="n"/>
+      <c r="AN161" s="3" t="n"/>
+      <c r="AT161" s="3" t="n"/>
+      <c r="AU161" s="3" t="n"/>
+      <c r="AV161" s="3" t="n"/>
+      <c r="AW161" s="3" t="n"/>
+      <c r="AX161" s="3" t="n"/>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
@@ -5690,7 +8254,7 @@
         </is>
       </c>
       <c r="B162" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="C162" s="3" t="n">
         <v>0.92</v>
@@ -5708,12 +8272,28 @@
       <c r="H162" s="3" t="n"/>
       <c r="I162" s="3" t="n"/>
       <c r="J162" s="3" t="n"/>
+      <c r="K162" s="3" t="n"/>
       <c r="L162" s="3" t="n"/>
       <c r="M162" s="3" t="n"/>
       <c r="Q162" s="3" t="n"/>
       <c r="R162" s="3" t="n"/>
       <c r="S162" s="3" t="n"/>
       <c r="T162" s="3" t="n"/>
+      <c r="Z162" s="3" t="n"/>
+      <c r="AA162" s="3" t="n"/>
+      <c r="AB162" s="3" t="n"/>
+      <c r="AC162" s="3" t="n"/>
+      <c r="AD162" s="3" t="n"/>
+      <c r="AJ162" s="3" t="n"/>
+      <c r="AK162" s="3" t="n"/>
+      <c r="AL162" s="3" t="n"/>
+      <c r="AM162" s="3" t="n"/>
+      <c r="AN162" s="3" t="n"/>
+      <c r="AT162" s="3" t="n"/>
+      <c r="AU162" s="3" t="n"/>
+      <c r="AV162" s="3" t="n"/>
+      <c r="AW162" s="3" t="n"/>
+      <c r="AX162" s="3" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
@@ -5722,10 +8302,10 @@
         </is>
       </c>
       <c r="B163" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="C163" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
@@ -5740,12 +8320,28 @@
       <c r="H163" s="3" t="n"/>
       <c r="I163" s="3" t="n"/>
       <c r="J163" s="3" t="n"/>
+      <c r="K163" s="3" t="n"/>
       <c r="L163" s="3" t="n"/>
       <c r="M163" s="3" t="n"/>
       <c r="Q163" s="3" t="n"/>
       <c r="R163" s="3" t="n"/>
       <c r="S163" s="3" t="n"/>
       <c r="T163" s="3" t="n"/>
+      <c r="Z163" s="3" t="n"/>
+      <c r="AA163" s="3" t="n"/>
+      <c r="AB163" s="3" t="n"/>
+      <c r="AC163" s="3" t="n"/>
+      <c r="AD163" s="3" t="n"/>
+      <c r="AJ163" s="3" t="n"/>
+      <c r="AK163" s="3" t="n"/>
+      <c r="AL163" s="3" t="n"/>
+      <c r="AM163" s="3" t="n"/>
+      <c r="AN163" s="3" t="n"/>
+      <c r="AT163" s="3" t="n"/>
+      <c r="AU163" s="3" t="n"/>
+      <c r="AV163" s="3" t="n"/>
+      <c r="AW163" s="3" t="n"/>
+      <c r="AX163" s="3" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
@@ -5754,10 +8350,10 @@
         </is>
       </c>
       <c r="B164" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C164" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
@@ -5772,12 +8368,28 @@
       <c r="H164" s="3" t="n"/>
       <c r="I164" s="3" t="n"/>
       <c r="J164" s="3" t="n"/>
+      <c r="K164" s="3" t="n"/>
       <c r="L164" s="3" t="n"/>
       <c r="M164" s="3" t="n"/>
       <c r="Q164" s="3" t="n"/>
       <c r="R164" s="3" t="n"/>
       <c r="S164" s="3" t="n"/>
       <c r="T164" s="3" t="n"/>
+      <c r="Z164" s="3" t="n"/>
+      <c r="AA164" s="3" t="n"/>
+      <c r="AB164" s="3" t="n"/>
+      <c r="AC164" s="3" t="n"/>
+      <c r="AD164" s="3" t="n"/>
+      <c r="AJ164" s="3" t="n"/>
+      <c r="AK164" s="3" t="n"/>
+      <c r="AL164" s="3" t="n"/>
+      <c r="AM164" s="3" t="n"/>
+      <c r="AN164" s="3" t="n"/>
+      <c r="AT164" s="3" t="n"/>
+      <c r="AU164" s="3" t="n"/>
+      <c r="AV164" s="3" t="n"/>
+      <c r="AW164" s="3" t="n"/>
+      <c r="AX164" s="3" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
@@ -5786,10 +8398,10 @@
         </is>
       </c>
       <c r="B165" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="C165" s="3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="D165" s="3" t="inlineStr">
         <is>
@@ -5804,12 +8416,28 @@
       <c r="H165" s="3" t="n"/>
       <c r="I165" s="3" t="n"/>
       <c r="J165" s="3" t="n"/>
+      <c r="K165" s="3" t="n"/>
       <c r="L165" s="3" t="n"/>
       <c r="M165" s="3" t="n"/>
       <c r="Q165" s="3" t="n"/>
       <c r="R165" s="3" t="n"/>
       <c r="S165" s="3" t="n"/>
       <c r="T165" s="3" t="n"/>
+      <c r="Z165" s="3" t="n"/>
+      <c r="AA165" s="3" t="n"/>
+      <c r="AB165" s="3" t="n"/>
+      <c r="AC165" s="3" t="n"/>
+      <c r="AD165" s="3" t="n"/>
+      <c r="AJ165" s="3" t="n"/>
+      <c r="AK165" s="3" t="n"/>
+      <c r="AL165" s="3" t="n"/>
+      <c r="AM165" s="3" t="n"/>
+      <c r="AN165" s="3" t="n"/>
+      <c r="AT165" s="3" t="n"/>
+      <c r="AU165" s="3" t="n"/>
+      <c r="AV165" s="3" t="n"/>
+      <c r="AW165" s="3" t="n"/>
+      <c r="AX165" s="3" t="n"/>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
@@ -5818,10 +8446,10 @@
         </is>
       </c>
       <c r="B166" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="C166" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="D166" s="3" t="inlineStr">
         <is>
@@ -5836,12 +8464,28 @@
       <c r="H166" s="3" t="n"/>
       <c r="I166" s="3" t="n"/>
       <c r="J166" s="3" t="n"/>
+      <c r="K166" s="3" t="n"/>
       <c r="L166" s="3" t="n"/>
       <c r="M166" s="3" t="n"/>
       <c r="Q166" s="3" t="n"/>
       <c r="R166" s="3" t="n"/>
       <c r="S166" s="3" t="n"/>
       <c r="T166" s="3" t="n"/>
+      <c r="Z166" s="3" t="n"/>
+      <c r="AA166" s="3" t="n"/>
+      <c r="AB166" s="3" t="n"/>
+      <c r="AC166" s="3" t="n"/>
+      <c r="AD166" s="3" t="n"/>
+      <c r="AJ166" s="3" t="n"/>
+      <c r="AK166" s="3" t="n"/>
+      <c r="AL166" s="3" t="n"/>
+      <c r="AM166" s="3" t="n"/>
+      <c r="AN166" s="3" t="n"/>
+      <c r="AT166" s="3" t="n"/>
+      <c r="AU166" s="3" t="n"/>
+      <c r="AV166" s="3" t="n"/>
+      <c r="AW166" s="3" t="n"/>
+      <c r="AX166" s="3" t="n"/>
     </row>
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
@@ -5853,7 +8497,7 @@
         <v>0.06</v>
       </c>
       <c r="C167" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="D167" s="3" t="inlineStr">
         <is>
@@ -5868,12 +8512,28 @@
       <c r="H167" s="3" t="n"/>
       <c r="I167" s="3" t="n"/>
       <c r="J167" s="3" t="n"/>
+      <c r="K167" s="3" t="n"/>
       <c r="L167" s="3" t="n"/>
       <c r="M167" s="3" t="n"/>
       <c r="Q167" s="3" t="n"/>
       <c r="R167" s="3" t="n"/>
       <c r="S167" s="3" t="n"/>
       <c r="T167" s="3" t="n"/>
+      <c r="Z167" s="3" t="n"/>
+      <c r="AA167" s="3" t="n"/>
+      <c r="AB167" s="3" t="n"/>
+      <c r="AC167" s="3" t="n"/>
+      <c r="AD167" s="3" t="n"/>
+      <c r="AJ167" s="3" t="n"/>
+      <c r="AK167" s="3" t="n"/>
+      <c r="AL167" s="3" t="n"/>
+      <c r="AM167" s="3" t="n"/>
+      <c r="AN167" s="3" t="n"/>
+      <c r="AT167" s="3" t="n"/>
+      <c r="AU167" s="3" t="n"/>
+      <c r="AV167" s="3" t="n"/>
+      <c r="AW167" s="3" t="n"/>
+      <c r="AX167" s="3" t="n"/>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
@@ -5882,10 +8542,10 @@
         </is>
       </c>
       <c r="B168" s="3" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="C168" s="3" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="D168" s="3" t="inlineStr">
         <is>
@@ -5900,12 +8560,28 @@
       <c r="H168" s="3" t="n"/>
       <c r="I168" s="3" t="n"/>
       <c r="J168" s="3" t="n"/>
+      <c r="K168" s="3" t="n"/>
       <c r="L168" s="3" t="n"/>
       <c r="M168" s="3" t="n"/>
       <c r="Q168" s="3" t="n"/>
       <c r="R168" s="3" t="n"/>
       <c r="S168" s="3" t="n"/>
       <c r="T168" s="3" t="n"/>
+      <c r="Z168" s="3" t="n"/>
+      <c r="AA168" s="3" t="n"/>
+      <c r="AB168" s="3" t="n"/>
+      <c r="AC168" s="3" t="n"/>
+      <c r="AD168" s="3" t="n"/>
+      <c r="AJ168" s="3" t="n"/>
+      <c r="AK168" s="3" t="n"/>
+      <c r="AL168" s="3" t="n"/>
+      <c r="AM168" s="3" t="n"/>
+      <c r="AN168" s="3" t="n"/>
+      <c r="AT168" s="3" t="n"/>
+      <c r="AU168" s="3" t="n"/>
+      <c r="AV168" s="3" t="n"/>
+      <c r="AW168" s="3" t="n"/>
+      <c r="AX168" s="3" t="n"/>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
@@ -5914,10 +8590,10 @@
         </is>
       </c>
       <c r="B169" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="C169" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D169" s="3" t="inlineStr">
         <is>
@@ -5932,12 +8608,28 @@
       <c r="H169" s="3" t="n"/>
       <c r="I169" s="3" t="n"/>
       <c r="J169" s="3" t="n"/>
+      <c r="K169" s="3" t="n"/>
       <c r="L169" s="3" t="n"/>
       <c r="M169" s="3" t="n"/>
       <c r="Q169" s="3" t="n"/>
       <c r="R169" s="3" t="n"/>
       <c r="S169" s="3" t="n"/>
       <c r="T169" s="3" t="n"/>
+      <c r="Z169" s="3" t="n"/>
+      <c r="AA169" s="3" t="n"/>
+      <c r="AB169" s="3" t="n"/>
+      <c r="AC169" s="3" t="n"/>
+      <c r="AD169" s="3" t="n"/>
+      <c r="AJ169" s="3" t="n"/>
+      <c r="AK169" s="3" t="n"/>
+      <c r="AL169" s="3" t="n"/>
+      <c r="AM169" s="3" t="n"/>
+      <c r="AN169" s="3" t="n"/>
+      <c r="AT169" s="3" t="n"/>
+      <c r="AU169" s="3" t="n"/>
+      <c r="AV169" s="3" t="n"/>
+      <c r="AW169" s="3" t="n"/>
+      <c r="AX169" s="3" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
@@ -5949,7 +8641,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C170" s="3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="D170" s="3" t="inlineStr">
         <is>
@@ -5964,12 +8656,28 @@
       <c r="H170" s="3" t="n"/>
       <c r="I170" s="3" t="n"/>
       <c r="J170" s="3" t="n"/>
+      <c r="K170" s="3" t="n"/>
       <c r="L170" s="3" t="n"/>
       <c r="M170" s="3" t="n"/>
       <c r="Q170" s="3" t="n"/>
       <c r="R170" s="3" t="n"/>
       <c r="S170" s="3" t="n"/>
       <c r="T170" s="3" t="n"/>
+      <c r="Z170" s="3" t="n"/>
+      <c r="AA170" s="3" t="n"/>
+      <c r="AB170" s="3" t="n"/>
+      <c r="AC170" s="3" t="n"/>
+      <c r="AD170" s="3" t="n"/>
+      <c r="AJ170" s="3" t="n"/>
+      <c r="AK170" s="3" t="n"/>
+      <c r="AL170" s="3" t="n"/>
+      <c r="AM170" s="3" t="n"/>
+      <c r="AN170" s="3" t="n"/>
+      <c r="AT170" s="3" t="n"/>
+      <c r="AU170" s="3" t="n"/>
+      <c r="AV170" s="3" t="n"/>
+      <c r="AW170" s="3" t="n"/>
+      <c r="AX170" s="3" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
@@ -5978,7 +8686,7 @@
         </is>
       </c>
       <c r="B171" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="C171" s="3" t="n">
         <v>2.44</v>
@@ -5996,12 +8704,28 @@
       <c r="H171" s="3" t="n"/>
       <c r="I171" s="3" t="n"/>
       <c r="J171" s="3" t="n"/>
+      <c r="K171" s="3" t="n"/>
       <c r="L171" s="3" t="n"/>
       <c r="M171" s="3" t="n"/>
       <c r="Q171" s="3" t="n"/>
       <c r="R171" s="3" t="n"/>
       <c r="S171" s="3" t="n"/>
       <c r="T171" s="3" t="n"/>
+      <c r="Z171" s="3" t="n"/>
+      <c r="AA171" s="3" t="n"/>
+      <c r="AB171" s="3" t="n"/>
+      <c r="AC171" s="3" t="n"/>
+      <c r="AD171" s="3" t="n"/>
+      <c r="AJ171" s="3" t="n"/>
+      <c r="AK171" s="3" t="n"/>
+      <c r="AL171" s="3" t="n"/>
+      <c r="AM171" s="3" t="n"/>
+      <c r="AN171" s="3" t="n"/>
+      <c r="AT171" s="3" t="n"/>
+      <c r="AU171" s="3" t="n"/>
+      <c r="AV171" s="3" t="n"/>
+      <c r="AW171" s="3" t="n"/>
+      <c r="AX171" s="3" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
@@ -6013,7 +8737,7 @@
         <v>0.06</v>
       </c>
       <c r="C172" s="3" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="D172" s="3" t="inlineStr">
         <is>
@@ -6028,12 +8752,28 @@
       <c r="H172" s="3" t="n"/>
       <c r="I172" s="3" t="n"/>
       <c r="J172" s="3" t="n"/>
+      <c r="K172" s="3" t="n"/>
       <c r="L172" s="3" t="n"/>
       <c r="M172" s="3" t="n"/>
       <c r="Q172" s="3" t="n"/>
       <c r="R172" s="3" t="n"/>
       <c r="S172" s="3" t="n"/>
       <c r="T172" s="3" t="n"/>
+      <c r="Z172" s="3" t="n"/>
+      <c r="AA172" s="3" t="n"/>
+      <c r="AB172" s="3" t="n"/>
+      <c r="AC172" s="3" t="n"/>
+      <c r="AD172" s="3" t="n"/>
+      <c r="AJ172" s="3" t="n"/>
+      <c r="AK172" s="3" t="n"/>
+      <c r="AL172" s="3" t="n"/>
+      <c r="AM172" s="3" t="n"/>
+      <c r="AN172" s="3" t="n"/>
+      <c r="AT172" s="3" t="n"/>
+      <c r="AU172" s="3" t="n"/>
+      <c r="AV172" s="3" t="n"/>
+      <c r="AW172" s="3" t="n"/>
+      <c r="AX172" s="3" t="n"/>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
@@ -6045,7 +8785,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C173" s="3" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="D173" s="3" t="inlineStr">
         <is>
@@ -6060,12 +8800,28 @@
       <c r="H173" s="3" t="n"/>
       <c r="I173" s="3" t="n"/>
       <c r="J173" s="3" t="n"/>
+      <c r="K173" s="3" t="n"/>
       <c r="L173" s="3" t="n"/>
       <c r="M173" s="3" t="n"/>
       <c r="Q173" s="3" t="n"/>
       <c r="R173" s="3" t="n"/>
       <c r="S173" s="3" t="n"/>
       <c r="T173" s="3" t="n"/>
+      <c r="Z173" s="3" t="n"/>
+      <c r="AA173" s="3" t="n"/>
+      <c r="AB173" s="3" t="n"/>
+      <c r="AC173" s="3" t="n"/>
+      <c r="AD173" s="3" t="n"/>
+      <c r="AJ173" s="3" t="n"/>
+      <c r="AK173" s="3" t="n"/>
+      <c r="AL173" s="3" t="n"/>
+      <c r="AM173" s="3" t="n"/>
+      <c r="AN173" s="3" t="n"/>
+      <c r="AT173" s="3" t="n"/>
+      <c r="AU173" s="3" t="n"/>
+      <c r="AV173" s="3" t="n"/>
+      <c r="AW173" s="3" t="n"/>
+      <c r="AX173" s="3" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
@@ -6074,10 +8830,10 @@
         </is>
       </c>
       <c r="B174" s="3" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="C174" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="D174" s="3" t="inlineStr">
         <is>
@@ -6092,12 +8848,28 @@
       <c r="H174" s="3" t="n"/>
       <c r="I174" s="3" t="n"/>
       <c r="J174" s="3" t="n"/>
+      <c r="K174" s="3" t="n"/>
       <c r="L174" s="3" t="n"/>
       <c r="M174" s="3" t="n"/>
       <c r="Q174" s="3" t="n"/>
       <c r="R174" s="3" t="n"/>
       <c r="S174" s="3" t="n"/>
       <c r="T174" s="3" t="n"/>
+      <c r="Z174" s="3" t="n"/>
+      <c r="AA174" s="3" t="n"/>
+      <c r="AB174" s="3" t="n"/>
+      <c r="AC174" s="3" t="n"/>
+      <c r="AD174" s="3" t="n"/>
+      <c r="AJ174" s="3" t="n"/>
+      <c r="AK174" s="3" t="n"/>
+      <c r="AL174" s="3" t="n"/>
+      <c r="AM174" s="3" t="n"/>
+      <c r="AN174" s="3" t="n"/>
+      <c r="AT174" s="3" t="n"/>
+      <c r="AU174" s="3" t="n"/>
+      <c r="AV174" s="3" t="n"/>
+      <c r="AW174" s="3" t="n"/>
+      <c r="AX174" s="3" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
@@ -6124,12 +8896,28 @@
       <c r="H175" s="3" t="n"/>
       <c r="I175" s="3" t="n"/>
       <c r="J175" s="3" t="n"/>
+      <c r="K175" s="3" t="n"/>
       <c r="L175" s="3" t="n"/>
       <c r="M175" s="3" t="n"/>
       <c r="Q175" s="3" t="n"/>
       <c r="R175" s="3" t="n"/>
       <c r="S175" s="3" t="n"/>
       <c r="T175" s="3" t="n"/>
+      <c r="Z175" s="3" t="n"/>
+      <c r="AA175" s="3" t="n"/>
+      <c r="AB175" s="3" t="n"/>
+      <c r="AC175" s="3" t="n"/>
+      <c r="AD175" s="3" t="n"/>
+      <c r="AJ175" s="3" t="n"/>
+      <c r="AK175" s="3" t="n"/>
+      <c r="AL175" s="3" t="n"/>
+      <c r="AM175" s="3" t="n"/>
+      <c r="AN175" s="3" t="n"/>
+      <c r="AT175" s="3" t="n"/>
+      <c r="AU175" s="3" t="n"/>
+      <c r="AV175" s="3" t="n"/>
+      <c r="AW175" s="3" t="n"/>
+      <c r="AX175" s="3" t="n"/>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
@@ -6138,10 +8926,10 @@
         </is>
       </c>
       <c r="B176" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C176" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
@@ -6156,12 +8944,28 @@
       <c r="H176" s="3" t="n"/>
       <c r="I176" s="3" t="n"/>
       <c r="J176" s="3" t="n"/>
+      <c r="K176" s="3" t="n"/>
       <c r="L176" s="3" t="n"/>
       <c r="M176" s="3" t="n"/>
       <c r="Q176" s="3" t="n"/>
       <c r="R176" s="3" t="n"/>
       <c r="S176" s="3" t="n"/>
       <c r="T176" s="3" t="n"/>
+      <c r="Z176" s="3" t="n"/>
+      <c r="AA176" s="3" t="n"/>
+      <c r="AB176" s="3" t="n"/>
+      <c r="AC176" s="3" t="n"/>
+      <c r="AD176" s="3" t="n"/>
+      <c r="AJ176" s="3" t="n"/>
+      <c r="AK176" s="3" t="n"/>
+      <c r="AL176" s="3" t="n"/>
+      <c r="AM176" s="3" t="n"/>
+      <c r="AN176" s="3" t="n"/>
+      <c r="AT176" s="3" t="n"/>
+      <c r="AU176" s="3" t="n"/>
+      <c r="AV176" s="3" t="n"/>
+      <c r="AW176" s="3" t="n"/>
+      <c r="AX176" s="3" t="n"/>
     </row>
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
@@ -6173,7 +8977,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C177" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="D177" s="3" t="inlineStr">
         <is>
@@ -6188,12 +8992,28 @@
       <c r="H177" s="3" t="n"/>
       <c r="I177" s="3" t="n"/>
       <c r="J177" s="3" t="n"/>
+      <c r="K177" s="3" t="n"/>
       <c r="L177" s="3" t="n"/>
       <c r="M177" s="3" t="n"/>
       <c r="Q177" s="3" t="n"/>
       <c r="R177" s="3" t="n"/>
       <c r="S177" s="3" t="n"/>
       <c r="T177" s="3" t="n"/>
+      <c r="Z177" s="3" t="n"/>
+      <c r="AA177" s="3" t="n"/>
+      <c r="AB177" s="3" t="n"/>
+      <c r="AC177" s="3" t="n"/>
+      <c r="AD177" s="3" t="n"/>
+      <c r="AJ177" s="3" t="n"/>
+      <c r="AK177" s="3" t="n"/>
+      <c r="AL177" s="3" t="n"/>
+      <c r="AM177" s="3" t="n"/>
+      <c r="AN177" s="3" t="n"/>
+      <c r="AT177" s="3" t="n"/>
+      <c r="AU177" s="3" t="n"/>
+      <c r="AV177" s="3" t="n"/>
+      <c r="AW177" s="3" t="n"/>
+      <c r="AX177" s="3" t="n"/>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
@@ -6202,10 +9022,10 @@
         </is>
       </c>
       <c r="B178" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="C178" s="3" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="D178" s="3" t="inlineStr">
         <is>
@@ -6220,12 +9040,28 @@
       <c r="H178" s="3" t="n"/>
       <c r="I178" s="3" t="n"/>
       <c r="J178" s="3" t="n"/>
+      <c r="K178" s="3" t="n"/>
       <c r="L178" s="3" t="n"/>
       <c r="M178" s="3" t="n"/>
       <c r="Q178" s="3" t="n"/>
       <c r="R178" s="3" t="n"/>
       <c r="S178" s="3" t="n"/>
       <c r="T178" s="3" t="n"/>
+      <c r="Z178" s="3" t="n"/>
+      <c r="AA178" s="3" t="n"/>
+      <c r="AB178" s="3" t="n"/>
+      <c r="AC178" s="3" t="n"/>
+      <c r="AD178" s="3" t="n"/>
+      <c r="AJ178" s="3" t="n"/>
+      <c r="AK178" s="3" t="n"/>
+      <c r="AL178" s="3" t="n"/>
+      <c r="AM178" s="3" t="n"/>
+      <c r="AN178" s="3" t="n"/>
+      <c r="AT178" s="3" t="n"/>
+      <c r="AU178" s="3" t="n"/>
+      <c r="AV178" s="3" t="n"/>
+      <c r="AW178" s="3" t="n"/>
+      <c r="AX178" s="3" t="n"/>
     </row>
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
@@ -6237,7 +9073,7 @@
         <v>0.06</v>
       </c>
       <c r="C179" s="3" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="D179" s="3" t="inlineStr">
         <is>
@@ -6252,12 +9088,28 @@
       <c r="H179" s="3" t="n"/>
       <c r="I179" s="3" t="n"/>
       <c r="J179" s="3" t="n"/>
+      <c r="K179" s="3" t="n"/>
       <c r="L179" s="3" t="n"/>
       <c r="M179" s="3" t="n"/>
       <c r="Q179" s="3" t="n"/>
       <c r="R179" s="3" t="n"/>
       <c r="S179" s="3" t="n"/>
       <c r="T179" s="3" t="n"/>
+      <c r="Z179" s="3" t="n"/>
+      <c r="AA179" s="3" t="n"/>
+      <c r="AB179" s="3" t="n"/>
+      <c r="AC179" s="3" t="n"/>
+      <c r="AD179" s="3" t="n"/>
+      <c r="AJ179" s="3" t="n"/>
+      <c r="AK179" s="3" t="n"/>
+      <c r="AL179" s="3" t="n"/>
+      <c r="AM179" s="3" t="n"/>
+      <c r="AN179" s="3" t="n"/>
+      <c r="AT179" s="3" t="n"/>
+      <c r="AU179" s="3" t="n"/>
+      <c r="AV179" s="3" t="n"/>
+      <c r="AW179" s="3" t="n"/>
+      <c r="AX179" s="3" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
@@ -6266,10 +9118,10 @@
         </is>
       </c>
       <c r="B180" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C180" s="3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
@@ -6284,12 +9136,28 @@
       <c r="H180" s="3" t="n"/>
       <c r="I180" s="3" t="n"/>
       <c r="J180" s="3" t="n"/>
+      <c r="K180" s="3" t="n"/>
       <c r="L180" s="3" t="n"/>
       <c r="M180" s="3" t="n"/>
       <c r="Q180" s="3" t="n"/>
       <c r="R180" s="3" t="n"/>
       <c r="S180" s="3" t="n"/>
       <c r="T180" s="3" t="n"/>
+      <c r="Z180" s="3" t="n"/>
+      <c r="AA180" s="3" t="n"/>
+      <c r="AB180" s="3" t="n"/>
+      <c r="AC180" s="3" t="n"/>
+      <c r="AD180" s="3" t="n"/>
+      <c r="AJ180" s="3" t="n"/>
+      <c r="AK180" s="3" t="n"/>
+      <c r="AL180" s="3" t="n"/>
+      <c r="AM180" s="3" t="n"/>
+      <c r="AN180" s="3" t="n"/>
+      <c r="AT180" s="3" t="n"/>
+      <c r="AU180" s="3" t="n"/>
+      <c r="AV180" s="3" t="n"/>
+      <c r="AW180" s="3" t="n"/>
+      <c r="AX180" s="3" t="n"/>
     </row>
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
@@ -6298,7 +9166,7 @@
         </is>
       </c>
       <c r="B181" s="3" t="n">
-        <v>45.29</v>
+        <v>44.39</v>
       </c>
       <c r="C181" s="3" t="inlineStr"/>
       <c r="D181" s="3" t="inlineStr">
@@ -6314,12 +9182,28 @@
       <c r="H181" s="3" t="n"/>
       <c r="I181" s="3" t="n"/>
       <c r="J181" s="3" t="n"/>
+      <c r="K181" s="3" t="n"/>
       <c r="L181" s="3" t="n"/>
       <c r="M181" s="3" t="n"/>
       <c r="Q181" s="3" t="n"/>
       <c r="R181" s="3" t="n"/>
       <c r="S181" s="3" t="n"/>
       <c r="T181" s="3" t="n"/>
+      <c r="Z181" s="3" t="n"/>
+      <c r="AA181" s="3" t="n"/>
+      <c r="AB181" s="3" t="n"/>
+      <c r="AC181" s="3" t="n"/>
+      <c r="AD181" s="3" t="n"/>
+      <c r="AJ181" s="3" t="n"/>
+      <c r="AK181" s="3" t="n"/>
+      <c r="AL181" s="3" t="n"/>
+      <c r="AM181" s="3" t="n"/>
+      <c r="AN181" s="3" t="n"/>
+      <c r="AT181" s="3" t="n"/>
+      <c r="AU181" s="3" t="n"/>
+      <c r="AV181" s="3" t="n"/>
+      <c r="AW181" s="3" t="n"/>
+      <c r="AX181" s="3" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="3" t="inlineStr">
@@ -6328,10 +9212,10 @@
         </is>
       </c>
       <c r="B182" s="3" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="C182" s="3" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="D182" s="3" t="inlineStr">
         <is>
@@ -6346,12 +9230,28 @@
       <c r="H182" s="3" t="n"/>
       <c r="I182" s="3" t="n"/>
       <c r="J182" s="3" t="n"/>
+      <c r="K182" s="3" t="n"/>
       <c r="L182" s="3" t="n"/>
       <c r="M182" s="3" t="n"/>
       <c r="Q182" s="3" t="n"/>
       <c r="R182" s="3" t="n"/>
       <c r="S182" s="3" t="n"/>
       <c r="T182" s="3" t="n"/>
+      <c r="Z182" s="3" t="n"/>
+      <c r="AA182" s="3" t="n"/>
+      <c r="AB182" s="3" t="n"/>
+      <c r="AC182" s="3" t="n"/>
+      <c r="AD182" s="3" t="n"/>
+      <c r="AJ182" s="3" t="n"/>
+      <c r="AK182" s="3" t="n"/>
+      <c r="AL182" s="3" t="n"/>
+      <c r="AM182" s="3" t="n"/>
+      <c r="AN182" s="3" t="n"/>
+      <c r="AT182" s="3" t="n"/>
+      <c r="AU182" s="3" t="n"/>
+      <c r="AV182" s="3" t="n"/>
+      <c r="AW182" s="3" t="n"/>
+      <c r="AX182" s="3" t="n"/>
     </row>
     <row r="183">
       <c r="A183" s="3" t="inlineStr">
@@ -6360,10 +9260,10 @@
         </is>
       </c>
       <c r="B183" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="C183" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="D183" s="3" t="inlineStr">
         <is>
@@ -6378,12 +9278,28 @@
       <c r="H183" s="3" t="n"/>
       <c r="I183" s="3" t="n"/>
       <c r="J183" s="3" t="n"/>
+      <c r="K183" s="3" t="n"/>
       <c r="L183" s="3" t="n"/>
       <c r="M183" s="3" t="n"/>
       <c r="Q183" s="3" t="n"/>
       <c r="R183" s="3" t="n"/>
       <c r="S183" s="3" t="n"/>
       <c r="T183" s="3" t="n"/>
+      <c r="Z183" s="3" t="n"/>
+      <c r="AA183" s="3" t="n"/>
+      <c r="AB183" s="3" t="n"/>
+      <c r="AC183" s="3" t="n"/>
+      <c r="AD183" s="3" t="n"/>
+      <c r="AJ183" s="3" t="n"/>
+      <c r="AK183" s="3" t="n"/>
+      <c r="AL183" s="3" t="n"/>
+      <c r="AM183" s="3" t="n"/>
+      <c r="AN183" s="3" t="n"/>
+      <c r="AT183" s="3" t="n"/>
+      <c r="AU183" s="3" t="n"/>
+      <c r="AV183" s="3" t="n"/>
+      <c r="AW183" s="3" t="n"/>
+      <c r="AX183" s="3" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="3" t="inlineStr">
@@ -6392,7 +9308,7 @@
         </is>
       </c>
       <c r="B184" s="3" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="C184" s="3" t="inlineStr"/>
       <c r="D184" s="3" t="inlineStr">
@@ -6408,12 +9324,28 @@
       <c r="H184" s="3" t="n"/>
       <c r="I184" s="3" t="n"/>
       <c r="J184" s="3" t="n"/>
+      <c r="K184" s="3" t="n"/>
       <c r="L184" s="3" t="n"/>
       <c r="M184" s="3" t="n"/>
       <c r="Q184" s="3" t="n"/>
       <c r="R184" s="3" t="n"/>
       <c r="S184" s="3" t="n"/>
       <c r="T184" s="3" t="n"/>
+      <c r="Z184" s="3" t="n"/>
+      <c r="AA184" s="3" t="n"/>
+      <c r="AB184" s="3" t="n"/>
+      <c r="AC184" s="3" t="n"/>
+      <c r="AD184" s="3" t="n"/>
+      <c r="AJ184" s="3" t="n"/>
+      <c r="AK184" s="3" t="n"/>
+      <c r="AL184" s="3" t="n"/>
+      <c r="AM184" s="3" t="n"/>
+      <c r="AN184" s="3" t="n"/>
+      <c r="AT184" s="3" t="n"/>
+      <c r="AU184" s="3" t="n"/>
+      <c r="AV184" s="3" t="n"/>
+      <c r="AW184" s="3" t="n"/>
+      <c r="AX184" s="3" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
@@ -6422,7 +9354,7 @@
         </is>
       </c>
       <c r="B185" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C185" s="3" t="n">
         <v>0.17</v>
@@ -6440,12 +9372,28 @@
       <c r="H185" s="3" t="n"/>
       <c r="I185" s="3" t="n"/>
       <c r="J185" s="3" t="n"/>
+      <c r="K185" s="3" t="n"/>
       <c r="L185" s="3" t="n"/>
       <c r="M185" s="3" t="n"/>
       <c r="Q185" s="3" t="n"/>
       <c r="R185" s="3" t="n"/>
       <c r="S185" s="3" t="n"/>
       <c r="T185" s="3" t="n"/>
+      <c r="Z185" s="3" t="n"/>
+      <c r="AA185" s="3" t="n"/>
+      <c r="AB185" s="3" t="n"/>
+      <c r="AC185" s="3" t="n"/>
+      <c r="AD185" s="3" t="n"/>
+      <c r="AJ185" s="3" t="n"/>
+      <c r="AK185" s="3" t="n"/>
+      <c r="AL185" s="3" t="n"/>
+      <c r="AM185" s="3" t="n"/>
+      <c r="AN185" s="3" t="n"/>
+      <c r="AT185" s="3" t="n"/>
+      <c r="AU185" s="3" t="n"/>
+      <c r="AV185" s="3" t="n"/>
+      <c r="AW185" s="3" t="n"/>
+      <c r="AX185" s="3" t="n"/>
     </row>
     <row r="186">
       <c r="A186" s="3" t="inlineStr">
@@ -6454,7 +9402,7 @@
         </is>
       </c>
       <c r="B186" s="3" t="n">
-        <v>6.74</v>
+        <v>6.71</v>
       </c>
       <c r="C186" s="3" t="inlineStr"/>
       <c r="D186" s="3" t="inlineStr">
@@ -6470,12 +9418,28 @@
       <c r="H186" s="3" t="n"/>
       <c r="I186" s="3" t="n"/>
       <c r="J186" s="3" t="n"/>
+      <c r="K186" s="3" t="n"/>
       <c r="L186" s="3" t="n"/>
       <c r="M186" s="3" t="n"/>
       <c r="Q186" s="3" t="n"/>
       <c r="R186" s="3" t="n"/>
       <c r="S186" s="3" t="n"/>
       <c r="T186" s="3" t="n"/>
+      <c r="Z186" s="3" t="n"/>
+      <c r="AA186" s="3" t="n"/>
+      <c r="AB186" s="3" t="n"/>
+      <c r="AC186" s="3" t="n"/>
+      <c r="AD186" s="3" t="n"/>
+      <c r="AJ186" s="3" t="n"/>
+      <c r="AK186" s="3" t="n"/>
+      <c r="AL186" s="3" t="n"/>
+      <c r="AM186" s="3" t="n"/>
+      <c r="AN186" s="3" t="n"/>
+      <c r="AT186" s="3" t="n"/>
+      <c r="AU186" s="3" t="n"/>
+      <c r="AV186" s="3" t="n"/>
+      <c r="AW186" s="3" t="n"/>
+      <c r="AX186" s="3" t="n"/>
     </row>
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
@@ -6484,10 +9448,10 @@
         </is>
       </c>
       <c r="B187" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="C187" s="3" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
@@ -6502,12 +9466,28 @@
       <c r="H187" s="3" t="n"/>
       <c r="I187" s="3" t="n"/>
       <c r="J187" s="3" t="n"/>
+      <c r="K187" s="3" t="n"/>
       <c r="L187" s="3" t="n"/>
       <c r="M187" s="3" t="n"/>
       <c r="Q187" s="3" t="n"/>
       <c r="R187" s="3" t="n"/>
       <c r="S187" s="3" t="n"/>
       <c r="T187" s="3" t="n"/>
+      <c r="Z187" s="3" t="n"/>
+      <c r="AA187" s="3" t="n"/>
+      <c r="AB187" s="3" t="n"/>
+      <c r="AC187" s="3" t="n"/>
+      <c r="AD187" s="3" t="n"/>
+      <c r="AJ187" s="3" t="n"/>
+      <c r="AK187" s="3" t="n"/>
+      <c r="AL187" s="3" t="n"/>
+      <c r="AM187" s="3" t="n"/>
+      <c r="AN187" s="3" t="n"/>
+      <c r="AT187" s="3" t="n"/>
+      <c r="AU187" s="3" t="n"/>
+      <c r="AV187" s="3" t="n"/>
+      <c r="AW187" s="3" t="n"/>
+      <c r="AX187" s="3" t="n"/>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
@@ -6519,7 +9499,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="C188" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
@@ -6534,12 +9514,28 @@
       <c r="H188" s="3" t="n"/>
       <c r="I188" s="3" t="n"/>
       <c r="J188" s="3" t="n"/>
+      <c r="K188" s="3" t="n"/>
       <c r="L188" s="3" t="n"/>
       <c r="M188" s="3" t="n"/>
       <c r="Q188" s="3" t="n"/>
       <c r="R188" s="3" t="n"/>
       <c r="S188" s="3" t="n"/>
       <c r="T188" s="3" t="n"/>
+      <c r="Z188" s="3" t="n"/>
+      <c r="AA188" s="3" t="n"/>
+      <c r="AB188" s="3" t="n"/>
+      <c r="AC188" s="3" t="n"/>
+      <c r="AD188" s="3" t="n"/>
+      <c r="AJ188" s="3" t="n"/>
+      <c r="AK188" s="3" t="n"/>
+      <c r="AL188" s="3" t="n"/>
+      <c r="AM188" s="3" t="n"/>
+      <c r="AN188" s="3" t="n"/>
+      <c r="AT188" s="3" t="n"/>
+      <c r="AU188" s="3" t="n"/>
+      <c r="AV188" s="3" t="n"/>
+      <c r="AW188" s="3" t="n"/>
+      <c r="AX188" s="3" t="n"/>
     </row>
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
@@ -6566,12 +9562,28 @@
       <c r="H189" s="3" t="n"/>
       <c r="I189" s="3" t="n"/>
       <c r="J189" s="3" t="n"/>
+      <c r="K189" s="3" t="n"/>
       <c r="L189" s="3" t="n"/>
       <c r="M189" s="3" t="n"/>
       <c r="Q189" s="3" t="n"/>
       <c r="R189" s="3" t="n"/>
       <c r="S189" s="3" t="n"/>
       <c r="T189" s="3" t="n"/>
+      <c r="Z189" s="3" t="n"/>
+      <c r="AA189" s="3" t="n"/>
+      <c r="AB189" s="3" t="n"/>
+      <c r="AC189" s="3" t="n"/>
+      <c r="AD189" s="3" t="n"/>
+      <c r="AJ189" s="3" t="n"/>
+      <c r="AK189" s="3" t="n"/>
+      <c r="AL189" s="3" t="n"/>
+      <c r="AM189" s="3" t="n"/>
+      <c r="AN189" s="3" t="n"/>
+      <c r="AT189" s="3" t="n"/>
+      <c r="AU189" s="3" t="n"/>
+      <c r="AV189" s="3" t="n"/>
+      <c r="AW189" s="3" t="n"/>
+      <c r="AX189" s="3" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
@@ -6583,7 +9595,7 @@
         <v>0.24</v>
       </c>
       <c r="C190" s="3" t="n">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
@@ -6598,12 +9610,28 @@
       <c r="H190" s="3" t="n"/>
       <c r="I190" s="3" t="n"/>
       <c r="J190" s="3" t="n"/>
+      <c r="K190" s="3" t="n"/>
       <c r="L190" s="3" t="n"/>
       <c r="M190" s="3" t="n"/>
       <c r="Q190" s="3" t="n"/>
       <c r="R190" s="3" t="n"/>
       <c r="S190" s="3" t="n"/>
       <c r="T190" s="3" t="n"/>
+      <c r="Z190" s="3" t="n"/>
+      <c r="AA190" s="3" t="n"/>
+      <c r="AB190" s="3" t="n"/>
+      <c r="AC190" s="3" t="n"/>
+      <c r="AD190" s="3" t="n"/>
+      <c r="AJ190" s="3" t="n"/>
+      <c r="AK190" s="3" t="n"/>
+      <c r="AL190" s="3" t="n"/>
+      <c r="AM190" s="3" t="n"/>
+      <c r="AN190" s="3" t="n"/>
+      <c r="AT190" s="3" t="n"/>
+      <c r="AU190" s="3" t="n"/>
+      <c r="AV190" s="3" t="n"/>
+      <c r="AW190" s="3" t="n"/>
+      <c r="AX190" s="3" t="n"/>
     </row>
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
@@ -6612,10 +9640,10 @@
         </is>
       </c>
       <c r="B191" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C191" s="3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
@@ -6630,12 +9658,28 @@
       <c r="H191" s="3" t="n"/>
       <c r="I191" s="3" t="n"/>
       <c r="J191" s="3" t="n"/>
+      <c r="K191" s="3" t="n"/>
       <c r="L191" s="3" t="n"/>
       <c r="M191" s="3" t="n"/>
       <c r="Q191" s="3" t="n"/>
       <c r="R191" s="3" t="n"/>
       <c r="S191" s="3" t="n"/>
       <c r="T191" s="3" t="n"/>
+      <c r="Z191" s="3" t="n"/>
+      <c r="AA191" s="3" t="n"/>
+      <c r="AB191" s="3" t="n"/>
+      <c r="AC191" s="3" t="n"/>
+      <c r="AD191" s="3" t="n"/>
+      <c r="AJ191" s="3" t="n"/>
+      <c r="AK191" s="3" t="n"/>
+      <c r="AL191" s="3" t="n"/>
+      <c r="AM191" s="3" t="n"/>
+      <c r="AN191" s="3" t="n"/>
+      <c r="AT191" s="3" t="n"/>
+      <c r="AU191" s="3" t="n"/>
+      <c r="AV191" s="3" t="n"/>
+      <c r="AW191" s="3" t="n"/>
+      <c r="AX191" s="3" t="n"/>
     </row>
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
@@ -6644,10 +9688,10 @@
         </is>
       </c>
       <c r="B192" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C192" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
@@ -6662,12 +9706,28 @@
       <c r="H192" s="3" t="n"/>
       <c r="I192" s="3" t="n"/>
       <c r="J192" s="3" t="n"/>
+      <c r="K192" s="3" t="n"/>
       <c r="L192" s="3" t="n"/>
       <c r="M192" s="3" t="n"/>
       <c r="Q192" s="3" t="n"/>
       <c r="R192" s="3" t="n"/>
       <c r="S192" s="3" t="n"/>
       <c r="T192" s="3" t="n"/>
+      <c r="Z192" s="3" t="n"/>
+      <c r="AA192" s="3" t="n"/>
+      <c r="AB192" s="3" t="n"/>
+      <c r="AC192" s="3" t="n"/>
+      <c r="AD192" s="3" t="n"/>
+      <c r="AJ192" s="3" t="n"/>
+      <c r="AK192" s="3" t="n"/>
+      <c r="AL192" s="3" t="n"/>
+      <c r="AM192" s="3" t="n"/>
+      <c r="AN192" s="3" t="n"/>
+      <c r="AT192" s="3" t="n"/>
+      <c r="AU192" s="3" t="n"/>
+      <c r="AV192" s="3" t="n"/>
+      <c r="AW192" s="3" t="n"/>
+      <c r="AX192" s="3" t="n"/>
     </row>
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
@@ -6692,12 +9752,28 @@
       <c r="H193" s="3" t="n"/>
       <c r="I193" s="3" t="n"/>
       <c r="J193" s="3" t="n"/>
+      <c r="K193" s="3" t="n"/>
       <c r="L193" s="3" t="n"/>
       <c r="M193" s="3" t="n"/>
       <c r="Q193" s="3" t="n"/>
       <c r="R193" s="3" t="n"/>
       <c r="S193" s="3" t="n"/>
       <c r="T193" s="3" t="n"/>
+      <c r="Z193" s="3" t="n"/>
+      <c r="AA193" s="3" t="n"/>
+      <c r="AB193" s="3" t="n"/>
+      <c r="AC193" s="3" t="n"/>
+      <c r="AD193" s="3" t="n"/>
+      <c r="AJ193" s="3" t="n"/>
+      <c r="AK193" s="3" t="n"/>
+      <c r="AL193" s="3" t="n"/>
+      <c r="AM193" s="3" t="n"/>
+      <c r="AN193" s="3" t="n"/>
+      <c r="AT193" s="3" t="n"/>
+      <c r="AU193" s="3" t="n"/>
+      <c r="AV193" s="3" t="n"/>
+      <c r="AW193" s="3" t="n"/>
+      <c r="AX193" s="3" t="n"/>
     </row>
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
@@ -6706,7 +9782,7 @@
         </is>
       </c>
       <c r="B194" s="3" t="n">
-        <v>10.92</v>
+        <v>10.74</v>
       </c>
       <c r="C194" s="3" t="inlineStr"/>
       <c r="D194" s="3" t="inlineStr">
@@ -6722,12 +9798,28 @@
       <c r="H194" s="3" t="n"/>
       <c r="I194" s="3" t="n"/>
       <c r="J194" s="3" t="n"/>
+      <c r="K194" s="3" t="n"/>
       <c r="L194" s="3" t="n"/>
       <c r="M194" s="3" t="n"/>
       <c r="Q194" s="3" t="n"/>
       <c r="R194" s="3" t="n"/>
       <c r="S194" s="3" t="n"/>
       <c r="T194" s="3" t="n"/>
+      <c r="Z194" s="3" t="n"/>
+      <c r="AA194" s="3" t="n"/>
+      <c r="AB194" s="3" t="n"/>
+      <c r="AC194" s="3" t="n"/>
+      <c r="AD194" s="3" t="n"/>
+      <c r="AJ194" s="3" t="n"/>
+      <c r="AK194" s="3" t="n"/>
+      <c r="AL194" s="3" t="n"/>
+      <c r="AM194" s="3" t="n"/>
+      <c r="AN194" s="3" t="n"/>
+      <c r="AT194" s="3" t="n"/>
+      <c r="AU194" s="3" t="n"/>
+      <c r="AV194" s="3" t="n"/>
+      <c r="AW194" s="3" t="n"/>
+      <c r="AX194" s="3" t="n"/>
     </row>
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
@@ -6736,7 +9828,7 @@
         </is>
       </c>
       <c r="B195" s="3" t="n">
-        <v>66.29000000000001</v>
+        <v>68.61</v>
       </c>
       <c r="C195" s="3" t="inlineStr"/>
       <c r="D195" s="3" t="inlineStr">
@@ -6752,12 +9844,28 @@
       <c r="H195" s="3" t="n"/>
       <c r="I195" s="3" t="n"/>
       <c r="J195" s="3" t="n"/>
+      <c r="K195" s="3" t="n"/>
       <c r="L195" s="3" t="n"/>
       <c r="M195" s="3" t="n"/>
       <c r="Q195" s="3" t="n"/>
       <c r="R195" s="3" t="n"/>
       <c r="S195" s="3" t="n"/>
       <c r="T195" s="3" t="n"/>
+      <c r="Z195" s="3" t="n"/>
+      <c r="AA195" s="3" t="n"/>
+      <c r="AB195" s="3" t="n"/>
+      <c r="AC195" s="3" t="n"/>
+      <c r="AD195" s="3" t="n"/>
+      <c r="AJ195" s="3" t="n"/>
+      <c r="AK195" s="3" t="n"/>
+      <c r="AL195" s="3" t="n"/>
+      <c r="AM195" s="3" t="n"/>
+      <c r="AN195" s="3" t="n"/>
+      <c r="AT195" s="3" t="n"/>
+      <c r="AU195" s="3" t="n"/>
+      <c r="AV195" s="3" t="n"/>
+      <c r="AW195" s="3" t="n"/>
+      <c r="AX195" s="3" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
@@ -6769,7 +9877,7 @@
         <v>0.06</v>
       </c>
       <c r="C196" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
@@ -6784,12 +9892,28 @@
       <c r="H196" s="3" t="n"/>
       <c r="I196" s="3" t="n"/>
       <c r="J196" s="3" t="n"/>
+      <c r="K196" s="3" t="n"/>
       <c r="L196" s="3" t="n"/>
       <c r="M196" s="3" t="n"/>
       <c r="Q196" s="3" t="n"/>
       <c r="R196" s="3" t="n"/>
       <c r="S196" s="3" t="n"/>
       <c r="T196" s="3" t="n"/>
+      <c r="Z196" s="3" t="n"/>
+      <c r="AA196" s="3" t="n"/>
+      <c r="AB196" s="3" t="n"/>
+      <c r="AC196" s="3" t="n"/>
+      <c r="AD196" s="3" t="n"/>
+      <c r="AJ196" s="3" t="n"/>
+      <c r="AK196" s="3" t="n"/>
+      <c r="AL196" s="3" t="n"/>
+      <c r="AM196" s="3" t="n"/>
+      <c r="AN196" s="3" t="n"/>
+      <c r="AT196" s="3" t="n"/>
+      <c r="AU196" s="3" t="n"/>
+      <c r="AV196" s="3" t="n"/>
+      <c r="AW196" s="3" t="n"/>
+      <c r="AX196" s="3" t="n"/>
     </row>
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
@@ -6798,10 +9922,10 @@
         </is>
       </c>
       <c r="B197" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="C197" s="3" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
@@ -6816,12 +9940,28 @@
       <c r="H197" s="3" t="n"/>
       <c r="I197" s="3" t="n"/>
       <c r="J197" s="3" t="n"/>
+      <c r="K197" s="3" t="n"/>
       <c r="L197" s="3" t="n"/>
       <c r="M197" s="3" t="n"/>
       <c r="Q197" s="3" t="n"/>
       <c r="R197" s="3" t="n"/>
       <c r="S197" s="3" t="n"/>
       <c r="T197" s="3" t="n"/>
+      <c r="Z197" s="3" t="n"/>
+      <c r="AA197" s="3" t="n"/>
+      <c r="AB197" s="3" t="n"/>
+      <c r="AC197" s="3" t="n"/>
+      <c r="AD197" s="3" t="n"/>
+      <c r="AJ197" s="3" t="n"/>
+      <c r="AK197" s="3" t="n"/>
+      <c r="AL197" s="3" t="n"/>
+      <c r="AM197" s="3" t="n"/>
+      <c r="AN197" s="3" t="n"/>
+      <c r="AT197" s="3" t="n"/>
+      <c r="AU197" s="3" t="n"/>
+      <c r="AV197" s="3" t="n"/>
+      <c r="AW197" s="3" t="n"/>
+      <c r="AX197" s="3" t="n"/>
     </row>
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
@@ -6830,10 +9970,10 @@
         </is>
       </c>
       <c r="B198" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C198" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
@@ -6848,12 +9988,28 @@
       <c r="H198" s="3" t="n"/>
       <c r="I198" s="3" t="n"/>
       <c r="J198" s="3" t="n"/>
+      <c r="K198" s="3" t="n"/>
       <c r="L198" s="3" t="n"/>
       <c r="M198" s="3" t="n"/>
       <c r="Q198" s="3" t="n"/>
       <c r="R198" s="3" t="n"/>
       <c r="S198" s="3" t="n"/>
       <c r="T198" s="3" t="n"/>
+      <c r="Z198" s="3" t="n"/>
+      <c r="AA198" s="3" t="n"/>
+      <c r="AB198" s="3" t="n"/>
+      <c r="AC198" s="3" t="n"/>
+      <c r="AD198" s="3" t="n"/>
+      <c r="AJ198" s="3" t="n"/>
+      <c r="AK198" s="3" t="n"/>
+      <c r="AL198" s="3" t="n"/>
+      <c r="AM198" s="3" t="n"/>
+      <c r="AN198" s="3" t="n"/>
+      <c r="AT198" s="3" t="n"/>
+      <c r="AU198" s="3" t="n"/>
+      <c r="AV198" s="3" t="n"/>
+      <c r="AW198" s="3" t="n"/>
+      <c r="AX198" s="3" t="n"/>
     </row>
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
@@ -6862,10 +10018,10 @@
         </is>
       </c>
       <c r="B199" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C199" s="3" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
@@ -6880,12 +10036,28 @@
       <c r="H199" s="3" t="n"/>
       <c r="I199" s="3" t="n"/>
       <c r="J199" s="3" t="n"/>
+      <c r="K199" s="3" t="n"/>
       <c r="L199" s="3" t="n"/>
       <c r="M199" s="3" t="n"/>
       <c r="Q199" s="3" t="n"/>
       <c r="R199" s="3" t="n"/>
       <c r="S199" s="3" t="n"/>
       <c r="T199" s="3" t="n"/>
+      <c r="Z199" s="3" t="n"/>
+      <c r="AA199" s="3" t="n"/>
+      <c r="AB199" s="3" t="n"/>
+      <c r="AC199" s="3" t="n"/>
+      <c r="AD199" s="3" t="n"/>
+      <c r="AJ199" s="3" t="n"/>
+      <c r="AK199" s="3" t="n"/>
+      <c r="AL199" s="3" t="n"/>
+      <c r="AM199" s="3" t="n"/>
+      <c r="AN199" s="3" t="n"/>
+      <c r="AT199" s="3" t="n"/>
+      <c r="AU199" s="3" t="n"/>
+      <c r="AV199" s="3" t="n"/>
+      <c r="AW199" s="3" t="n"/>
+      <c r="AX199" s="3" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="3" t="inlineStr">
@@ -6894,10 +10066,10 @@
         </is>
       </c>
       <c r="B200" s="3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="C200" s="3" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="D200" s="3" t="inlineStr">
         <is>
@@ -6912,12 +10084,28 @@
       <c r="H200" s="3" t="n"/>
       <c r="I200" s="3" t="n"/>
       <c r="J200" s="3" t="n"/>
+      <c r="K200" s="3" t="n"/>
       <c r="L200" s="3" t="n"/>
       <c r="M200" s="3" t="n"/>
       <c r="Q200" s="3" t="n"/>
       <c r="R200" s="3" t="n"/>
       <c r="S200" s="3" t="n"/>
       <c r="T200" s="3" t="n"/>
+      <c r="Z200" s="3" t="n"/>
+      <c r="AA200" s="3" t="n"/>
+      <c r="AB200" s="3" t="n"/>
+      <c r="AC200" s="3" t="n"/>
+      <c r="AD200" s="3" t="n"/>
+      <c r="AJ200" s="3" t="n"/>
+      <c r="AK200" s="3" t="n"/>
+      <c r="AL200" s="3" t="n"/>
+      <c r="AM200" s="3" t="n"/>
+      <c r="AN200" s="3" t="n"/>
+      <c r="AT200" s="3" t="n"/>
+      <c r="AU200" s="3" t="n"/>
+      <c r="AV200" s="3" t="n"/>
+      <c r="AW200" s="3" t="n"/>
+      <c r="AX200" s="3" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
@@ -6926,7 +10114,7 @@
         </is>
       </c>
       <c r="B201" s="3" t="n">
-        <v>28.22</v>
+        <v>26.2</v>
       </c>
       <c r="C201" s="3" t="inlineStr"/>
       <c r="D201" s="3" t="inlineStr">
@@ -6942,12 +10130,28 @@
       <c r="H201" s="3" t="n"/>
       <c r="I201" s="3" t="n"/>
       <c r="J201" s="3" t="n"/>
+      <c r="K201" s="3" t="n"/>
       <c r="L201" s="3" t="n"/>
       <c r="M201" s="3" t="n"/>
       <c r="Q201" s="3" t="n"/>
       <c r="R201" s="3" t="n"/>
       <c r="S201" s="3" t="n"/>
       <c r="T201" s="3" t="n"/>
+      <c r="Z201" s="3" t="n"/>
+      <c r="AA201" s="3" t="n"/>
+      <c r="AB201" s="3" t="n"/>
+      <c r="AC201" s="3" t="n"/>
+      <c r="AD201" s="3" t="n"/>
+      <c r="AJ201" s="3" t="n"/>
+      <c r="AK201" s="3" t="n"/>
+      <c r="AL201" s="3" t="n"/>
+      <c r="AM201" s="3" t="n"/>
+      <c r="AN201" s="3" t="n"/>
+      <c r="AT201" s="3" t="n"/>
+      <c r="AU201" s="3" t="n"/>
+      <c r="AV201" s="3" t="n"/>
+      <c r="AW201" s="3" t="n"/>
+      <c r="AX201" s="3" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
@@ -6956,7 +10160,7 @@
         </is>
       </c>
       <c r="B202" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="C202" s="3" t="n">
         <v>0.12</v>
@@ -6974,12 +10178,28 @@
       <c r="H202" s="3" t="n"/>
       <c r="I202" s="3" t="n"/>
       <c r="J202" s="3" t="n"/>
+      <c r="K202" s="3" t="n"/>
       <c r="L202" s="3" t="n"/>
       <c r="M202" s="3" t="n"/>
       <c r="Q202" s="3" t="n"/>
       <c r="R202" s="3" t="n"/>
       <c r="S202" s="3" t="n"/>
       <c r="T202" s="3" t="n"/>
+      <c r="Z202" s="3" t="n"/>
+      <c r="AA202" s="3" t="n"/>
+      <c r="AB202" s="3" t="n"/>
+      <c r="AC202" s="3" t="n"/>
+      <c r="AD202" s="3" t="n"/>
+      <c r="AJ202" s="3" t="n"/>
+      <c r="AK202" s="3" t="n"/>
+      <c r="AL202" s="3" t="n"/>
+      <c r="AM202" s="3" t="n"/>
+      <c r="AN202" s="3" t="n"/>
+      <c r="AT202" s="3" t="n"/>
+      <c r="AU202" s="3" t="n"/>
+      <c r="AV202" s="3" t="n"/>
+      <c r="AW202" s="3" t="n"/>
+      <c r="AX202" s="3" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
@@ -6988,10 +10208,10 @@
         </is>
       </c>
       <c r="B203" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="C203" s="3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
@@ -7006,12 +10226,28 @@
       <c r="H203" s="3" t="n"/>
       <c r="I203" s="3" t="n"/>
       <c r="J203" s="3" t="n"/>
+      <c r="K203" s="3" t="n"/>
       <c r="L203" s="3" t="n"/>
       <c r="M203" s="3" t="n"/>
       <c r="Q203" s="3" t="n"/>
       <c r="R203" s="3" t="n"/>
       <c r="S203" s="3" t="n"/>
       <c r="T203" s="3" t="n"/>
+      <c r="Z203" s="3" t="n"/>
+      <c r="AA203" s="3" t="n"/>
+      <c r="AB203" s="3" t="n"/>
+      <c r="AC203" s="3" t="n"/>
+      <c r="AD203" s="3" t="n"/>
+      <c r="AJ203" s="3" t="n"/>
+      <c r="AK203" s="3" t="n"/>
+      <c r="AL203" s="3" t="n"/>
+      <c r="AM203" s="3" t="n"/>
+      <c r="AN203" s="3" t="n"/>
+      <c r="AT203" s="3" t="n"/>
+      <c r="AU203" s="3" t="n"/>
+      <c r="AV203" s="3" t="n"/>
+      <c r="AW203" s="3" t="n"/>
+      <c r="AX203" s="3" t="n"/>
     </row>
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
@@ -7023,7 +10259,7 @@
         <v>0.16</v>
       </c>
       <c r="C204" s="3" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
@@ -7038,12 +10274,28 @@
       <c r="H204" s="3" t="n"/>
       <c r="I204" s="3" t="n"/>
       <c r="J204" s="3" t="n"/>
+      <c r="K204" s="3" t="n"/>
       <c r="L204" s="3" t="n"/>
       <c r="M204" s="3" t="n"/>
       <c r="Q204" s="3" t="n"/>
       <c r="R204" s="3" t="n"/>
       <c r="S204" s="3" t="n"/>
       <c r="T204" s="3" t="n"/>
+      <c r="Z204" s="3" t="n"/>
+      <c r="AA204" s="3" t="n"/>
+      <c r="AB204" s="3" t="n"/>
+      <c r="AC204" s="3" t="n"/>
+      <c r="AD204" s="3" t="n"/>
+      <c r="AJ204" s="3" t="n"/>
+      <c r="AK204" s="3" t="n"/>
+      <c r="AL204" s="3" t="n"/>
+      <c r="AM204" s="3" t="n"/>
+      <c r="AN204" s="3" t="n"/>
+      <c r="AT204" s="3" t="n"/>
+      <c r="AU204" s="3" t="n"/>
+      <c r="AV204" s="3" t="n"/>
+      <c r="AW204" s="3" t="n"/>
+      <c r="AX204" s="3" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
@@ -7052,7 +10304,7 @@
         </is>
       </c>
       <c r="B205" s="3" t="n">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
       <c r="C205" s="3" t="inlineStr"/>
       <c r="D205" s="3" t="inlineStr">
@@ -7068,12 +10320,28 @@
       <c r="H205" s="3" t="n"/>
       <c r="I205" s="3" t="n"/>
       <c r="J205" s="3" t="n"/>
+      <c r="K205" s="3" t="n"/>
       <c r="L205" s="3" t="n"/>
       <c r="M205" s="3" t="n"/>
       <c r="Q205" s="3" t="n"/>
       <c r="R205" s="3" t="n"/>
       <c r="S205" s="3" t="n"/>
       <c r="T205" s="3" t="n"/>
+      <c r="Z205" s="3" t="n"/>
+      <c r="AA205" s="3" t="n"/>
+      <c r="AB205" s="3" t="n"/>
+      <c r="AC205" s="3" t="n"/>
+      <c r="AD205" s="3" t="n"/>
+      <c r="AJ205" s="3" t="n"/>
+      <c r="AK205" s="3" t="n"/>
+      <c r="AL205" s="3" t="n"/>
+      <c r="AM205" s="3" t="n"/>
+      <c r="AN205" s="3" t="n"/>
+      <c r="AT205" s="3" t="n"/>
+      <c r="AU205" s="3" t="n"/>
+      <c r="AV205" s="3" t="n"/>
+      <c r="AW205" s="3" t="n"/>
+      <c r="AX205" s="3" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
@@ -7082,7 +10350,7 @@
         </is>
       </c>
       <c r="B206" s="3" t="n">
-        <v>7.18</v>
+        <v>6.3</v>
       </c>
       <c r="C206" s="3" t="inlineStr"/>
       <c r="D206" s="3" t="inlineStr">
@@ -7098,12 +10366,28 @@
       <c r="H206" s="3" t="n"/>
       <c r="I206" s="3" t="n"/>
       <c r="J206" s="3" t="n"/>
+      <c r="K206" s="3" t="n"/>
       <c r="L206" s="3" t="n"/>
       <c r="M206" s="3" t="n"/>
       <c r="Q206" s="3" t="n"/>
       <c r="R206" s="3" t="n"/>
       <c r="S206" s="3" t="n"/>
       <c r="T206" s="3" t="n"/>
+      <c r="Z206" s="3" t="n"/>
+      <c r="AA206" s="3" t="n"/>
+      <c r="AB206" s="3" t="n"/>
+      <c r="AC206" s="3" t="n"/>
+      <c r="AD206" s="3" t="n"/>
+      <c r="AJ206" s="3" t="n"/>
+      <c r="AK206" s="3" t="n"/>
+      <c r="AL206" s="3" t="n"/>
+      <c r="AM206" s="3" t="n"/>
+      <c r="AN206" s="3" t="n"/>
+      <c r="AT206" s="3" t="n"/>
+      <c r="AU206" s="3" t="n"/>
+      <c r="AV206" s="3" t="n"/>
+      <c r="AW206" s="3" t="n"/>
+      <c r="AX206" s="3" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
@@ -7112,7 +10396,7 @@
         </is>
       </c>
       <c r="B207" s="3" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="C207" s="3" t="inlineStr"/>
       <c r="D207" s="3" t="inlineStr">
@@ -7128,12 +10412,28 @@
       <c r="H207" s="3" t="n"/>
       <c r="I207" s="3" t="n"/>
       <c r="J207" s="3" t="n"/>
+      <c r="K207" s="3" t="n"/>
       <c r="L207" s="3" t="n"/>
       <c r="M207" s="3" t="n"/>
       <c r="Q207" s="3" t="n"/>
       <c r="R207" s="3" t="n"/>
       <c r="S207" s="3" t="n"/>
       <c r="T207" s="3" t="n"/>
+      <c r="Z207" s="3" t="n"/>
+      <c r="AA207" s="3" t="n"/>
+      <c r="AB207" s="3" t="n"/>
+      <c r="AC207" s="3" t="n"/>
+      <c r="AD207" s="3" t="n"/>
+      <c r="AJ207" s="3" t="n"/>
+      <c r="AK207" s="3" t="n"/>
+      <c r="AL207" s="3" t="n"/>
+      <c r="AM207" s="3" t="n"/>
+      <c r="AN207" s="3" t="n"/>
+      <c r="AT207" s="3" t="n"/>
+      <c r="AU207" s="3" t="n"/>
+      <c r="AV207" s="3" t="n"/>
+      <c r="AW207" s="3" t="n"/>
+      <c r="AX207" s="3" t="n"/>
     </row>
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
@@ -7158,12 +10458,28 @@
       <c r="H208" s="3" t="n"/>
       <c r="I208" s="3" t="n"/>
       <c r="J208" s="3" t="n"/>
+      <c r="K208" s="3" t="n"/>
       <c r="L208" s="3" t="n"/>
       <c r="M208" s="3" t="n"/>
       <c r="Q208" s="3" t="n"/>
       <c r="R208" s="3" t="n"/>
       <c r="S208" s="3" t="n"/>
       <c r="T208" s="3" t="n"/>
+      <c r="Z208" s="3" t="n"/>
+      <c r="AA208" s="3" t="n"/>
+      <c r="AB208" s="3" t="n"/>
+      <c r="AC208" s="3" t="n"/>
+      <c r="AD208" s="3" t="n"/>
+      <c r="AJ208" s="3" t="n"/>
+      <c r="AK208" s="3" t="n"/>
+      <c r="AL208" s="3" t="n"/>
+      <c r="AM208" s="3" t="n"/>
+      <c r="AN208" s="3" t="n"/>
+      <c r="AT208" s="3" t="n"/>
+      <c r="AU208" s="3" t="n"/>
+      <c r="AV208" s="3" t="n"/>
+      <c r="AW208" s="3" t="n"/>
+      <c r="AX208" s="3" t="n"/>
     </row>
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
@@ -7172,7 +10488,7 @@
         </is>
       </c>
       <c r="B209" s="3" t="n">
-        <v>54.16</v>
+        <v>53.48</v>
       </c>
       <c r="C209" s="3" t="inlineStr"/>
       <c r="D209" s="3" t="inlineStr">
@@ -7188,12 +10504,28 @@
       <c r="H209" s="3" t="n"/>
       <c r="I209" s="3" t="n"/>
       <c r="J209" s="3" t="n"/>
+      <c r="K209" s="3" t="n"/>
       <c r="L209" s="3" t="n"/>
       <c r="M209" s="3" t="n"/>
       <c r="Q209" s="3" t="n"/>
       <c r="R209" s="3" t="n"/>
       <c r="S209" s="3" t="n"/>
       <c r="T209" s="3" t="n"/>
+      <c r="Z209" s="3" t="n"/>
+      <c r="AA209" s="3" t="n"/>
+      <c r="AB209" s="3" t="n"/>
+      <c r="AC209" s="3" t="n"/>
+      <c r="AD209" s="3" t="n"/>
+      <c r="AJ209" s="3" t="n"/>
+      <c r="AK209" s="3" t="n"/>
+      <c r="AL209" s="3" t="n"/>
+      <c r="AM209" s="3" t="n"/>
+      <c r="AN209" s="3" t="n"/>
+      <c r="AT209" s="3" t="n"/>
+      <c r="AU209" s="3" t="n"/>
+      <c r="AV209" s="3" t="n"/>
+      <c r="AW209" s="3" t="n"/>
+      <c r="AX209" s="3" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
@@ -7205,7 +10537,7 @@
         <v>0.06</v>
       </c>
       <c r="C210" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
@@ -7220,228 +10552,94 @@
       <c r="H210" s="3" t="n"/>
       <c r="I210" s="3" t="n"/>
       <c r="J210" s="3" t="n"/>
+      <c r="K210" s="3" t="n"/>
       <c r="L210" s="3" t="n"/>
       <c r="M210" s="3" t="n"/>
       <c r="Q210" s="3" t="n"/>
       <c r="R210" s="3" t="n"/>
       <c r="S210" s="3" t="n"/>
       <c r="T210" s="3" t="n"/>
+      <c r="Z210" s="3" t="n"/>
+      <c r="AA210" s="3" t="n"/>
+      <c r="AB210" s="3" t="n"/>
+      <c r="AC210" s="3" t="n"/>
+      <c r="AD210" s="3" t="n"/>
+      <c r="AJ210" s="3" t="n"/>
+      <c r="AK210" s="3" t="n"/>
+      <c r="AL210" s="3" t="n"/>
+      <c r="AM210" s="3" t="n"/>
+      <c r="AN210" s="3" t="n"/>
+      <c r="AT210" s="3" t="n"/>
+      <c r="AU210" s="3" t="n"/>
+      <c r="AV210" s="3" t="n"/>
+      <c r="AW210" s="3" t="n"/>
+      <c r="AX210" s="3" t="n"/>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="inlineStr">
-        <is>
-          <t>Weezing</t>
-        </is>
-      </c>
-      <c r="B211" s="3" t="inlineStr">
-        <is>
-          <t>rare</t>
-        </is>
-      </c>
-      <c r="C211" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D211" s="3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E211" s="3" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F211" s="3">
-        <f>IF(B211="common", 4, IF(B211="uncommon", 3, IF(B211="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="A211" s="3" t="n"/>
+      <c r="B211" s="3" t="n"/>
+      <c r="C211" s="3" t="n"/>
+      <c r="D211" s="3" t="n"/>
+      <c r="E211" s="3" t="n"/>
+      <c r="F211" s="3" t="n"/>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="inlineStr">
-        <is>
-          <t>Pack Prices:</t>
-        </is>
-      </c>
-      <c r="B212" s="3" t="inlineStr">
-        <is>
-          <t>double rare</t>
-        </is>
-      </c>
-      <c r="C212" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D212" s="3" t="n">
-        <v>0.6899999999999999</v>
-      </c>
+      <c r="A212" s="3" t="n"/>
+      <c r="B212" s="3" t="n"/>
+      <c r="C212" s="3" t="n"/>
+      <c r="D212" s="3" t="n"/>
       <c r="E212" s="3" t="n"/>
-      <c r="F212" s="3" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="G212" s="3" t="inlineStr">
-        <is>
-          <t>224.85</t>
-        </is>
-      </c>
-      <c r="H212" s="3" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="I212" s="3" t="inlineStr">
-        <is>
-          <t>261.66</t>
-        </is>
-      </c>
-      <c r="J212" s="3" t="inlineStr">
-        <is>
-          <t>224.85</t>
-        </is>
-      </c>
-      <c r="L212" s="3" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="M212" s="3" t="inlineStr">
-        <is>
-          <t>261.66</t>
-        </is>
-      </c>
-      <c r="Q212" s="3" t="inlineStr">
-        <is>
-          <t>10.76</t>
-        </is>
-      </c>
-      <c r="R212" s="3" t="inlineStr">
-        <is>
-          <t>224.84</t>
-        </is>
-      </c>
-      <c r="S212" s="3" t="inlineStr">
-        <is>
-          <t>Unavailable</t>
-        </is>
-      </c>
-      <c r="T212" s="3" t="inlineStr">
-        <is>
-          <t>261.66</t>
-        </is>
-      </c>
+      <c r="F212" s="3" t="n"/>
+      <c r="G212" s="3" t="n"/>
+      <c r="H212" s="3" t="n"/>
+      <c r="I212" s="3" t="n"/>
+      <c r="J212" s="3" t="n"/>
+      <c r="L212" s="3" t="n"/>
+      <c r="M212" s="3" t="n"/>
+      <c r="Q212" s="3" t="n"/>
+      <c r="R212" s="3" t="n"/>
+      <c r="S212" s="3" t="n"/>
+      <c r="T212" s="3" t="n"/>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="inlineStr">
-        <is>
-          <t>Wigglytuff ex - 187/165</t>
-        </is>
-      </c>
-      <c r="B213" s="3" t="inlineStr">
-        <is>
-          <t>ultra rare</t>
-        </is>
-      </c>
-      <c r="C213" s="3" t="n">
-        <v>248</v>
-      </c>
-      <c r="D213" s="3" t="n">
-        <v>6.97</v>
-      </c>
+      <c r="A213" s="3" t="n"/>
+      <c r="B213" s="3" t="n"/>
+      <c r="C213" s="3" t="n"/>
+      <c r="D213" s="3" t="n"/>
       <c r="E213" s="3" t="n"/>
-      <c r="F213" s="3">
-        <f>IF(B213="common", 4, IF(B213="uncommon", 3, IF(B213="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F213" s="3" t="n"/>
     </row>
     <row r="214">
-      <c r="A214" s="3" t="inlineStr">
-        <is>
-          <t>Zapdos ex - 145/165</t>
-        </is>
-      </c>
-      <c r="B214" s="3" t="inlineStr">
-        <is>
-          <t>double rare</t>
-        </is>
-      </c>
-      <c r="C214" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D214" s="3" t="n">
-        <v>0.79</v>
-      </c>
+      <c r="A214" s="3" t="n"/>
+      <c r="B214" s="3" t="n"/>
+      <c r="C214" s="3" t="n"/>
+      <c r="D214" s="3" t="n"/>
       <c r="E214" s="3" t="n"/>
-      <c r="F214" s="3">
-        <f>IF(B214="common", 4, IF(B214="uncommon", 3, IF(B214="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F214" s="3" t="n"/>
     </row>
     <row r="215">
-      <c r="A215" s="3" t="inlineStr">
-        <is>
-          <t>Zapdos ex - 192/165</t>
-        </is>
-      </c>
-      <c r="B215" s="3" t="inlineStr">
-        <is>
-          <t>ultra rare</t>
-        </is>
-      </c>
-      <c r="C215" s="3" t="n">
-        <v>248</v>
-      </c>
-      <c r="D215" s="3" t="n">
-        <v>8.029999999999999</v>
-      </c>
+      <c r="A215" s="3" t="n"/>
+      <c r="B215" s="3" t="n"/>
+      <c r="C215" s="3" t="n"/>
+      <c r="D215" s="3" t="n"/>
       <c r="E215" s="3" t="n"/>
-      <c r="F215" s="3">
-        <f>IF(B215="common", 4, IF(B215="uncommon", 3, IF(B215="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F215" s="3" t="n"/>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="inlineStr">
-        <is>
-          <t>Zapdos ex - 202/165</t>
-        </is>
-      </c>
-      <c r="B216" s="3" t="inlineStr">
-        <is>
-          <t>special illustration rare</t>
-        </is>
-      </c>
-      <c r="C216" s="3" t="n">
-        <v>225</v>
-      </c>
-      <c r="D216" s="3" t="n">
-        <v>50.83</v>
-      </c>
+      <c r="A216" s="3" t="n"/>
+      <c r="B216" s="3" t="n"/>
+      <c r="C216" s="3" t="n"/>
+      <c r="D216" s="3" t="n"/>
       <c r="E216" s="3" t="n"/>
-      <c r="F216" s="3">
-        <f>IF(B216="common", 4, IF(B216="uncommon", 3, IF(B216="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="F216" s="3" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="inlineStr">
-        <is>
-          <t>Zubat</t>
-        </is>
-      </c>
-      <c r="B217" s="3" t="inlineStr">
-        <is>
-          <t>common</t>
-        </is>
-      </c>
-      <c r="C217" s="3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D217" s="3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E217" s="3" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F217" s="3">
-        <f>IF(B217="common", 4, IF(B217="uncommon", 3, IF(B217="rare", 1.74127216869152, 1)))</f>
-        <v/>
-      </c>
+      <c r="A217" s="3" t="n"/>
+      <c r="B217" s="3" t="n"/>
+      <c r="C217" s="3" t="n"/>
+      <c r="D217" s="3" t="n"/>
+      <c r="E217" s="3" t="n"/>
+      <c r="F217" s="3" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="3" t="n"/>
@@ -14030,7 +17228,7 @@
         </is>
       </c>
       <c r="B2" s="12" t="n">
-        <v>0.4469565217391304</v>
+        <v>0.4017391304347826</v>
       </c>
     </row>
     <row r="3">
@@ -14040,7 +17238,7 @@
         </is>
       </c>
       <c r="B3" s="12" t="n">
-        <v>0.4954545454545455</v>
+        <v>0.4472727272727273</v>
       </c>
     </row>
     <row r="4">
@@ -14050,7 +17248,7 @@
         </is>
       </c>
       <c r="B4" s="12" t="n">
-        <v>0.2148360177404295</v>
+        <v>0.213703314659197</v>
       </c>
     </row>
     <row r="5">
@@ -14060,7 +17258,7 @@
         </is>
       </c>
       <c r="B5" s="12" t="n">
-        <v>5.413358438813602</v>
+        <v>5.400100549360059</v>
       </c>
     </row>
     <row r="6">
@@ -14100,7 +17298,7 @@
         </is>
       </c>
       <c r="B9" s="12" t="n">
-        <v>1.936063829787234</v>
+        <v>1.88063829787234</v>
       </c>
     </row>
     <row r="10">
@@ -14110,7 +17308,7 @@
         </is>
       </c>
       <c r="B10" s="12" t="n">
-        <v>2.105955555555556</v>
+        <v>2.089422222222222</v>
       </c>
     </row>
     <row r="11">
@@ -14120,7 +17318,7 @@
         </is>
       </c>
       <c r="B11" s="12" t="n">
-        <v>0.3091111111111111</v>
+        <v>0.3071111111111112</v>
       </c>
     </row>
     <row r="12">
@@ -14130,7 +17328,7 @@
         </is>
       </c>
       <c r="B12" s="12" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.1379220779220779</v>
       </c>
     </row>
     <row r="13">
@@ -14140,7 +17338,7 @@
         </is>
       </c>
       <c r="B13" s="12" t="n">
-        <v>0.5658467741935483</v>
+        <v>0.5426612903225806</v>
       </c>
     </row>
     <row r="14">
@@ -14170,7 +17368,7 @@
         </is>
       </c>
       <c r="B16" s="12" t="n">
-        <v>5.053340907011087</v>
+        <v>4.957754999450333</v>
       </c>
     </row>
     <row r="17">
@@ -14180,7 +17378,7 @@
         </is>
       </c>
       <c r="B17" s="12" t="n">
-        <v>11.62394643075879</v>
+        <v>11.4205707211771</v>
       </c>
     </row>
     <row r="18">
@@ -14190,7 +17388,7 @@
         </is>
       </c>
       <c r="B18" s="12" t="n">
-        <v>0.7339464307587917</v>
+        <v>1.070570721177099</v>
       </c>
     </row>
     <row r="19">
@@ -14200,7 +17398,7 @@
         </is>
       </c>
       <c r="B19" s="13" t="n">
-        <v>1.067396366460862</v>
+        <v>1.103436784654792</v>
       </c>
     </row>
     <row r="20">
@@ -14210,7 +17408,7 @@
         </is>
       </c>
       <c r="B20" s="14" t="n">
-        <v>0.06739636646086233</v>
+        <v>0.1034367846547921</v>
       </c>
     </row>
     <row r="21">

--- a/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -544,8 +544,8 @@
   </sheetPr>
   <dimension ref="A1:AZ1263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -664,10 +664,10 @@
         <v>46</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F2" s="3">
         <f>IF(B2:B210="common", 4, IF(B2:B210="uncommon", 3, IF(B2:B210="rare", 0.792892156862745, 1)))</f>
@@ -682,20 +682,20 @@
         <v/>
       </c>
       <c r="I2" s="3" t="n">
-        <v>9.43</v>
+        <v>9.56</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>64.86</v>
+        <v>66.05</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>228.78</v>
+        <v>231.7</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>5.77</v>
+        <v>5.84</v>
       </c>
       <c r="M2" s="3" t="n"/>
       <c r="N2" s="3" t="n">
-        <v>370</v>
+        <v>373.07</v>
       </c>
       <c r="R2" s="3" t="n"/>
       <c r="S2" s="3" t="n"/>
@@ -733,10 +733,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="F3" s="3">
         <f>IF(B3:B211="common", 4, IF(B3:B211="uncommon", 3, IF(B3:B211="rare", 0.792892156862745, 1)))</f>
@@ -789,7 +789,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3">
@@ -843,7 +843,7 @@
         <v>248</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>7.42</v>
+        <v>7.37</v>
       </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3">
@@ -852,7 +852,7 @@
       </c>
       <c r="G5" s="3" t="n"/>
       <c r="H5" s="3">
-        <f>1.88541666666666* SUMPRODUCT((E2:E217&lt;&gt;"") * (#REF!&lt;&gt;"") * (#REF! / E2:E217))</f>
+        <f>1.88541666666666 * SUMPRODUCT((C2:C210&lt;&gt;"") * (E2:E210&lt;&gt;"") * (E2:E210 / C2:C210))</f>
         <v/>
       </c>
       <c r="I5" s="3" t="n"/>
@@ -897,7 +897,7 @@
         <v>225</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>38.64</v>
+        <v>37.41</v>
       </c>
       <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3">
@@ -906,7 +906,7 @@
       </c>
       <c r="G6" s="3" t="n"/>
       <c r="H6" s="3">
-        <f>SUMPRODUCT((#REF!="Illustration Rare") *#REF! * F2:F217 / E2:E217)</f>
+        <f>SUMPRODUCT((B2:B210="Illustration Rare") *D2:D210 * F2:F210 / C2:C210)</f>
         <v/>
       </c>
       <c r="I6" s="3" t="n"/>
@@ -951,7 +951,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0.51</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3">
-        <f>SUMPRODUCT((#REF!="Special Illustration Rare") *#REF! * F2:F217 / E2:E217)</f>
+        <f>SUMPRODUCT((B2:B210="Special Illustration Rare") *D2:D210 * F2:F210 / C2:C210)</f>
         <v/>
       </c>
       <c r="I7" s="3" t="n"/>
@@ -1007,10 +1007,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F8" s="3">
         <f>IF(B8:B216="common", 4, IF(B8:B216="uncommon", 3, IF(B8:B216="rare", 0.792892156862745, 1)))</f>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="3">
-        <f>SUMPRODUCT((#REF!="Double Rare") *#REF! * F2:F217 / E2:E217)</f>
+        <f>SUMPRODUCT((B2:B210="Double Rare") *D2:D210 * F2:F210 / C2:C210)</f>
         <v/>
       </c>
       <c r="I8" s="3" t="n"/>
@@ -1063,10 +1063,10 @@
         <v>46</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="F9" s="3">
         <f>IF(B9:B217="common", 4, IF(B9:B217="uncommon", 3, IF(B9:B217="rare", 0.792892156862745, 1)))</f>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3">
-        <f>SUMPRODUCT((#REF!="Hyper Rare") *#REF! * F2:F217 / E2:E217)</f>
+        <f>SUMPRODUCT((B2:B210="Hyper Rare") *D2:D210 * F2:F210 / C2:C210)</f>
         <v/>
       </c>
       <c r="I9" s="3" t="n"/>
@@ -1119,7 +1119,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="E10" s="3" t="inlineStr"/>
       <c r="F10" s="3">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3">
-        <f>SUMPRODUCT((#REF!="Ultra Rare") *#REF! * F2:F217 / E2:E217)</f>
+        <f>SUMPRODUCT((B2:B210="Ultra Rare") *D2:D210 * F2:F210 / C2:C210)</f>
         <v/>
       </c>
       <c r="I10" s="3" t="n"/>
@@ -1173,7 +1173,7 @@
         <v>248</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>5.24</v>
+        <v>5.63</v>
       </c>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3">
@@ -1224,10 +1224,10 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F12" s="3">
         <f>IF(B12:B220="common", 4, IF(B12:B220="uncommon", 3, IF(B12:B220="rare", 0.792892156862745, 1)))</f>
@@ -1280,7 +1280,7 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="F13" s="3">
         <f>IF(B13:B221="common", 4, IF(B13:B221="uncommon", 3, IF(B13:B221="rare", 0.792892156862745, 1)))</f>
@@ -1330,7 +1330,7 @@
         <v>154</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.15</v>
+        <v>4.21</v>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3">
@@ -1381,10 +1381,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="F15" s="3">
         <f>IF(B15:B223="common", 4, IF(B15:B223="uncommon", 3, IF(B15:B223="rare", 0.792892156862745, 1)))</f>
@@ -1434,10 +1434,10 @@
         <v>46</v>
       </c>
       <c r="D16" s="3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E16" s="3" t="n">
         <v>0.1</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>0.11</v>
       </c>
       <c r="F16" s="3">
         <f>IF(B16:B224="common", 4, IF(B16:B224="uncommon", 3, IF(B16:B224="rare", 0.792892156862745, 1)))</f>
@@ -1490,7 +1490,7 @@
         <v>0.08</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F17" s="3">
         <f>IF(B17:B225="common", 4, IF(B17:B225="uncommon", 3, IF(B17:B225="rare", 0.792892156862745, 1)))</f>
@@ -1540,10 +1540,10 @@
         <v>33</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="F18" s="3">
         <f>IF(B18:B226="common", 4, IF(B18:B226="uncommon", 3, IF(B18:B226="rare", 0.792892156862745, 1)))</f>
@@ -1593,7 +1593,7 @@
         <v>248</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.11</v>
+        <v>3.27</v>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3">
@@ -1644,7 +1644,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3">
@@ -1695,7 +1695,7 @@
         <v>248</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>13.55</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3">
@@ -1746,7 +1746,7 @@
         <v>225</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>70.56</v>
+        <v>68.63</v>
       </c>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3">
@@ -1797,10 +1797,10 @@
         <v>46</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="F23" s="3">
         <f>IF(B23:B231="common", 4, IF(B23:B231="uncommon", 3, IF(B23:B231="rare", 0.792892156862745, 1)))</f>
@@ -1850,7 +1850,7 @@
         <v>188</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>38.45</v>
+        <v>37.15</v>
       </c>
       <c r="E24" s="3" t="inlineStr"/>
       <c r="F24" s="3">
@@ -1901,10 +1901,10 @@
         <v>33</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F25" s="3">
         <f>IF(B25:B233="common", 4, IF(B25:B233="uncommon", 3, IF(B25:B233="rare", 0.792892156862745, 1)))</f>
@@ -1957,7 +1957,7 @@
         <v>0.05</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F26" s="3">
         <f>IF(B26:B234="common", 4, IF(B26:B234="uncommon", 3, IF(B26:B234="rare", 0.792892156862745, 1)))</f>
@@ -2007,7 +2007,7 @@
         <v>188</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.92</v>
+        <v>7.82</v>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3">
@@ -2061,7 +2061,7 @@
         <v>0.16</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="F28" s="3">
         <f>IF(B28:B236="common", 4, IF(B28:B236="uncommon", 3, IF(B28:B236="rare", 0.792892156862745, 1)))</f>
@@ -2111,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.74</v>
+        <v>4.11</v>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3">
@@ -2162,7 +2162,7 @@
         <v>248</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>29.35</v>
+        <v>27.19</v>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3">
@@ -2213,7 +2213,7 @@
         <v>225</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>206.34</v>
+        <v>208.72</v>
       </c>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3">
@@ -2264,10 +2264,10 @@
         <v>46</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="F32" s="3">
         <f>IF(B32:B240="common", 4, IF(B32:B240="uncommon", 3, IF(B32:B240="rare", 0.792892156862745, 1)))</f>
@@ -2317,7 +2317,7 @@
         <v>188</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>47.04</v>
+        <v>46.03</v>
       </c>
       <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3">
@@ -2368,10 +2368,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="F34" s="3">
         <f>IF(B34:B242="common", 4, IF(B34:B242="uncommon", 3, IF(B34:B242="rare", 0.792892156862745, 1)))</f>
@@ -2421,7 +2421,7 @@
         <v>188</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>32.31</v>
+        <v>33.1</v>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3">
@@ -2472,10 +2472,10 @@
         <v>33</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F36" s="3">
         <f>IF(B36:B244="common", 4, IF(B36:B244="uncommon", 3, IF(B36:B244="rare", 0.792892156862745, 1)))</f>
@@ -2525,7 +2525,7 @@
         <v>46</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>0.12</v>
@@ -2578,10 +2578,10 @@
         <v>33</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F38" s="3">
         <f>IF(B38:B246="common", 4, IF(B38:B246="uncommon", 3, IF(B38:B246="rare", 0.792892156862745, 1)))</f>
@@ -2631,10 +2631,10 @@
         <v>46</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F39" s="3">
         <f>IF(B39:B247="common", 4, IF(B39:B247="uncommon", 3, IF(B39:B247="rare", 0.792892156862745, 1)))</f>
@@ -2684,10 +2684,10 @@
         <v>33</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="F40" s="3">
         <f>IF(B40:B248="common", 4, IF(B40:B248="uncommon", 3, IF(B40:B248="rare", 0.792892156862745, 1)))</f>
@@ -2737,10 +2737,10 @@
         <v>33</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="F41" s="3">
         <f>IF(B41:B249="common", 4, IF(B41:B249="uncommon", 3, IF(B41:B249="rare", 0.792892156862745, 1)))</f>
@@ -2790,7 +2790,7 @@
         <v>248</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.28</v>
+        <v>2.77</v>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3">
@@ -2841,10 +2841,10 @@
         <v>33</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F43" s="3">
         <f>IF(B43:B251="common", 4, IF(B43:B251="uncommon", 3, IF(B43:B251="rare", 0.792892156862745, 1)))</f>
@@ -2894,7 +2894,7 @@
         <v>46</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E44" s="3" t="n">
         <v>0.11</v>
@@ -2947,10 +2947,10 @@
         <v>21</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="F45" s="3">
         <f>IF(B45:B253="common", 4, IF(B45:B253="uncommon", 3, IF(B45:B253="rare", 0.792892156862745, 1)))</f>
@@ -3000,7 +3000,7 @@
         <v>21</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3">
@@ -3051,10 +3051,10 @@
         <v>21</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F47" s="3">
         <f>IF(B47:B255="common", 4, IF(B47:B255="uncommon", 3, IF(B47:B255="rare", 0.792892156862745, 1)))</f>
@@ -3104,7 +3104,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E48" s="3" t="n">
         <v>0.15</v>
@@ -3157,10 +3157,10 @@
         <v>33</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="F49" s="3">
         <f>IF(B49:B257="common", 4, IF(B49:B257="uncommon", 3, IF(B49:B257="rare", 0.792892156862745, 1)))</f>
@@ -3210,7 +3210,7 @@
         <v>188</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>23.25</v>
+        <v>23.41</v>
       </c>
       <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="3">
@@ -3261,10 +3261,10 @@
         <v>21</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="F51" s="3">
         <f>IF(B51:B259="common", 4, IF(B51:B259="uncommon", 3, IF(B51:B259="rare", 0.792892156862745, 1)))</f>
@@ -3314,10 +3314,10 @@
         <v>46</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F52" s="3">
         <f>IF(B52:B260="common", 4, IF(B52:B260="uncommon", 3, IF(B52:B260="rare", 0.792892156862745, 1)))</f>
@@ -3370,7 +3370,7 @@
         <v>0.06</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F53" s="3">
         <f>IF(B53:B261="common", 4, IF(B53:B261="uncommon", 3, IF(B53:B261="rare", 0.792892156862745, 1)))</f>
@@ -3420,7 +3420,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E54" s="3" t="n">
         <v>0.11</v>
@@ -3473,10 +3473,10 @@
         <v>46</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="F55" s="3">
         <f>IF(B55:B263="common", 4, IF(B55:B263="uncommon", 3, IF(B55:B263="rare", 0.792892156862745, 1)))</f>
@@ -3582,7 +3582,7 @@
         <v>0.06</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="F57" s="3">
         <f>IF(B57:B265="common", 4, IF(B57:B265="uncommon", 3, IF(B57:B265="rare", 0.792892156862745, 1)))</f>
@@ -3632,10 +3632,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="F58" s="3">
         <f>IF(B58:B266="common", 4, IF(B58:B266="uncommon", 3, IF(B58:B266="rare", 0.792892156862745, 1)))</f>
@@ -3685,10 +3685,10 @@
         <v>33</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="F59" s="3">
         <f>IF(B59:B267="common", 4, IF(B59:B267="uncommon", 3, IF(B59:B267="rare", 0.792892156862745, 1)))</f>
@@ -3738,10 +3738,10 @@
         <v>33</v>
       </c>
       <c r="D60" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="F60" s="3">
         <f>IF(B60:B268="common", 4, IF(B60:B268="uncommon", 3, IF(B60:B268="rare", 0.792892156862745, 1)))</f>
@@ -3791,7 +3791,7 @@
         <v>248</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.4</v>
+        <v>4.95</v>
       </c>
       <c r="E61" s="3" t="inlineStr"/>
       <c r="F61" s="3">
@@ -3842,7 +3842,7 @@
         <v>225</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>14.43</v>
+        <v>13.96</v>
       </c>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3">
@@ -3896,7 +3896,7 @@
         <v>0.06</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F63" s="3">
         <f>IF(B63:B271="common", 4, IF(B63:B271="uncommon", 3, IF(B63:B271="rare", 0.792892156862745, 1)))</f>
@@ -3949,7 +3949,7 @@
         <v>0.08</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="F64" s="3">
         <f>IF(B64:B272="common", 4, IF(B64:B272="uncommon", 3, IF(B64:B272="rare", 0.792892156862745, 1)))</f>
@@ -4055,7 +4055,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F66" s="3">
         <f>IF(B66:B274="common", 4, IF(B66:B274="uncommon", 3, IF(B66:B274="rare", 0.792892156862745, 1)))</f>
@@ -4105,10 +4105,10 @@
         <v>21</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="F67" s="3">
         <f>IF(B67:B275="common", 4, IF(B67:B275="uncommon", 3, IF(B67:B275="rare", 0.792892156862745, 1)))</f>
@@ -4158,7 +4158,7 @@
         <v>46</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E68" s="3" t="n">
         <v>0.13</v>
@@ -4211,10 +4211,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>1.66</v>
+        <v>1.89</v>
       </c>
       <c r="F69" s="3">
         <f>IF(B69:B277="common", 4, IF(B69:B277="uncommon", 3, IF(B69:B277="rare", 0.792892156862745, 1)))</f>
@@ -4264,10 +4264,10 @@
         <v>46</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F70" s="3">
         <f>IF(B70:B278="common", 4, IF(B70:B278="uncommon", 3, IF(B70:B278="rare", 0.792892156862745, 1)))</f>
@@ -4320,7 +4320,7 @@
         <v>0.11</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F71" s="3">
         <f>IF(B71:B279="common", 4, IF(B71:B279="uncommon", 3, IF(B71:B279="rare", 0.792892156862745, 1)))</f>
@@ -4370,7 +4370,7 @@
         <v>248</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>5.05</v>
+        <v>5.21</v>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3">
@@ -4421,7 +4421,7 @@
         <v>225</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>13.53</v>
+        <v>13.36</v>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3">
@@ -4472,7 +4472,7 @@
         <v>33</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E74" s="3" t="n">
         <v>0.14</v>
@@ -4581,7 +4581,7 @@
         <v>0.06</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F76" s="3">
         <f>IF(B76:B284="common", 4, IF(B76:B284="uncommon", 3, IF(B76:B284="rare", 0.792892156862745, 1)))</f>
@@ -4631,10 +4631,10 @@
         <v>33</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F77" s="3">
         <f>IF(B77:B285="common", 4, IF(B77:B285="uncommon", 3, IF(B77:B285="rare", 0.792892156862745, 1)))</f>
@@ -4684,7 +4684,7 @@
         <v>90</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3">
@@ -4735,7 +4735,7 @@
         <v>248</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>5.63</v>
+        <v>5.37</v>
       </c>
       <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="3">
@@ -4786,10 +4786,10 @@
         <v>33</v>
       </c>
       <c r="D80" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="F80" s="3">
         <f>IF(B80:B288="common", 4, IF(B80:B288="uncommon", 3, IF(B80:B288="rare", 0.792892156862745, 1)))</f>
@@ -4839,10 +4839,10 @@
         <v>33</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="F81" s="3">
         <f>IF(B81:B289="common", 4, IF(B81:B289="uncommon", 3, IF(B81:B289="rare", 0.792892156862745, 1)))</f>
@@ -4895,7 +4895,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F82" s="3">
         <f>IF(B82:B290="common", 4, IF(B82:B290="uncommon", 3, IF(B82:B290="rare", 0.792892156862745, 1)))</f>
@@ -4945,10 +4945,10 @@
         <v>46</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F83" s="3">
         <f>IF(B83:B291="common", 4, IF(B83:B291="uncommon", 3, IF(B83:B291="rare", 0.792892156862745, 1)))</f>
@@ -4998,10 +4998,10 @@
         <v>21</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F84" s="3">
         <f>IF(B84:B292="common", 4, IF(B84:B292="uncommon", 3, IF(B84:B292="rare", 0.792892156862745, 1)))</f>
@@ -5051,10 +5051,10 @@
         <v>33</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F85" s="3">
         <f>IF(B85:B293="common", 4, IF(B85:B293="uncommon", 3, IF(B85:B293="rare", 0.792892156862745, 1)))</f>
@@ -5104,10 +5104,10 @@
         <v>33</v>
       </c>
       <c r="D86" s="3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="F86" s="3">
         <f>IF(B86:B294="common", 4, IF(B86:B294="uncommon", 3, IF(B86:B294="rare", 0.792892156862745, 1)))</f>
@@ -5160,7 +5160,7 @@
         <v>0.12</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="F87" s="3">
         <f>IF(B87:B295="common", 4, IF(B87:B295="uncommon", 3, IF(B87:B295="rare", 0.792892156862745, 1)))</f>
@@ -5263,10 +5263,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="F89" s="3">
         <f>IF(B89:B297="common", 4, IF(B89:B297="uncommon", 3, IF(B89:B297="rare", 0.792892156862745, 1)))</f>
@@ -5316,10 +5316,10 @@
         <v>33</v>
       </c>
       <c r="D90" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="F90" s="3">
         <f>IF(B90:B298="common", 4, IF(B90:B298="uncommon", 3, IF(B90:B298="rare", 0.792892156862745, 1)))</f>
@@ -5369,7 +5369,7 @@
         <v>188</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>27.62</v>
+        <v>27.64</v>
       </c>
       <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3">
@@ -5423,7 +5423,7 @@
         <v>0.08</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F92" s="3">
         <f>IF(B92:B300="common", 4, IF(B92:B300="uncommon", 3, IF(B92:B300="rare", 0.792892156862745, 1)))</f>
@@ -5473,10 +5473,10 @@
         <v>21</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="F93" s="3">
         <f>IF(B93:B301="common", 4, IF(B93:B301="uncommon", 3, IF(B93:B301="rare", 0.792892156862745, 1)))</f>
@@ -5526,7 +5526,7 @@
         <v>90</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>0.95</v>
+        <v>1.17</v>
       </c>
       <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3">
@@ -5577,7 +5577,7 @@
         <v>248</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>5.14</v>
+        <v>4.93</v>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="3">
@@ -5628,10 +5628,10 @@
         <v>33</v>
       </c>
       <c r="D96" s="3" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="F96" s="3">
         <f>IF(B96:B304="common", 4, IF(B96:B304="uncommon", 3, IF(B96:B304="rare", 0.792892156862745, 1)))</f>
@@ -5681,10 +5681,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F97" s="3">
         <f>IF(B97:B305="common", 4, IF(B97:B305="uncommon", 3, IF(B97:B305="rare", 0.792892156862745, 1)))</f>
@@ -5734,7 +5734,7 @@
         <v>33</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E98" s="3" t="n">
         <v>0.19</v>
@@ -5790,7 +5790,7 @@
         <v>0.09</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="F99" s="3">
         <f>IF(B99:B307="common", 4, IF(B99:B307="uncommon", 3, IF(B99:B307="rare", 0.792892156862745, 1)))</f>
@@ -5840,7 +5840,7 @@
         <v>90</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3">
@@ -5891,7 +5891,7 @@
         <v>248</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>4.71</v>
+        <v>4.44</v>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3">
@@ -5942,10 +5942,10 @@
         <v>33</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="F102" s="3">
         <f>IF(B102:B310="common", 4, IF(B102:B310="uncommon", 3, IF(B102:B310="rare", 0.792892156862745, 1)))</f>
@@ -5995,10 +5995,10 @@
         <v>46</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F103" s="3">
         <f>IF(B103:B311="common", 4, IF(B103:B311="uncommon", 3, IF(B103:B311="rare", 0.792892156862745, 1)))</f>
@@ -6048,7 +6048,7 @@
         <v>46</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E104" s="3" t="n">
         <v>0.12</v>
@@ -6104,7 +6104,7 @@
         <v>0.1</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="F105" s="3">
         <f>IF(B105:B313="common", 4, IF(B105:B313="uncommon", 3, IF(B105:B313="rare", 0.792892156862745, 1)))</f>
@@ -6154,10 +6154,10 @@
         <v>33</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E106" s="3" t="n">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="F106" s="3">
         <f>IF(B106:B314="common", 4, IF(B106:B314="uncommon", 3, IF(B106:B314="rare", 0.792892156862745, 1)))</f>
@@ -6210,7 +6210,7 @@
         <v>0.08</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F107" s="3">
         <f>IF(B107:B315="common", 4, IF(B107:B315="uncommon", 3, IF(B107:B315="rare", 0.792892156862745, 1)))</f>
@@ -6260,10 +6260,10 @@
         <v>21</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="F108" s="3">
         <f>IF(B108:B316="common", 4, IF(B108:B316="uncommon", 3, IF(B108:B316="rare", 0.792892156862745, 1)))</f>
@@ -6316,7 +6316,7 @@
         <v>0.09</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F109" s="3">
         <f>IF(B109:B317="common", 4, IF(B109:B317="uncommon", 3, IF(B109:B317="rare", 0.792892156862745, 1)))</f>
@@ -6366,7 +6366,7 @@
         <v>188</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>9.529999999999999</v>
+        <v>9.07</v>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3">
@@ -6417,10 +6417,10 @@
         <v>46</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F111" s="3">
         <f>IF(B111:B319="common", 4, IF(B111:B319="uncommon", 3, IF(B111:B319="rare", 0.792892156862745, 1)))</f>
@@ -6470,10 +6470,10 @@
         <v>46</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F112" s="3">
         <f>IF(B112:B320="common", 4, IF(B112:B320="uncommon", 3, IF(B112:B320="rare", 0.792892156862745, 1)))</f>
@@ -6523,10 +6523,10 @@
         <v>46</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="F113" s="3">
         <f>IF(B113:B321="common", 4, IF(B113:B321="uncommon", 3, IF(B113:B321="rare", 0.792892156862745, 1)))</f>
@@ -6632,7 +6632,7 @@
         <v>0.1</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F115" s="3">
         <f>IF(B115:B323="common", 4, IF(B115:B323="uncommon", 3, IF(B115:B323="rare", 0.792892156862745, 1)))</f>
@@ -6682,7 +6682,7 @@
         <v>46</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E116" s="3" t="n">
         <v>0.11</v>
@@ -6735,10 +6735,10 @@
         <v>21</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="F117" s="3">
         <f>IF(B117:B325="common", 4, IF(B117:B325="uncommon", 3, IF(B117:B325="rare", 0.792892156862745, 1)))</f>
@@ -6788,10 +6788,10 @@
         <v>46</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F118" s="3">
         <f>IF(B118:B326="common", 4, IF(B118:B326="uncommon", 3, IF(B118:B326="rare", 0.792892156862745, 1)))</f>
@@ -6841,10 +6841,10 @@
         <v>46</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="F119" s="3">
         <f>IF(B119:B327="common", 4, IF(B119:B327="uncommon", 3, IF(B119:B327="rare", 0.792892156862745, 1)))</f>
@@ -6894,7 +6894,7 @@
         <v>90</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>7.15</v>
+        <v>8.68</v>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3">
@@ -6945,7 +6945,7 @@
         <v>248</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>18.07</v>
+        <v>19.31</v>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
       <c r="F121" s="3">
@@ -6996,7 +6996,7 @@
         <v>154</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>13.23</v>
+        <v>12.75</v>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
       <c r="F122" s="3">
@@ -7047,7 +7047,7 @@
         <v>90</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>8.94</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
       <c r="F123" s="3">
@@ -7098,10 +7098,10 @@
         <v>21</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="F124" s="3">
         <f>IF(B124:B332="common", 4, IF(B124:B332="uncommon", 3, IF(B124:B332="rare", 0.792892156862745, 1)))</f>
@@ -7154,7 +7154,7 @@
         <v>0.2</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F125" s="3">
         <f>IF(B125:B333="common", 4, IF(B125:B333="uncommon", 3, IF(B125:B333="rare", 0.792892156862745, 1)))</f>
@@ -7207,7 +7207,7 @@
         <v>0.16</v>
       </c>
       <c r="E126" s="3" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="F126" s="3">
         <f>IF(B126:B334="common", 4, IF(B126:B334="uncommon", 3, IF(B126:B334="rare", 0.792892156862745, 1)))</f>
@@ -7257,7 +7257,7 @@
         <v>188</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>6.22</v>
+        <v>5.86</v>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3">
@@ -7308,10 +7308,10 @@
         <v>33</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E128" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F128" s="3">
         <f>IF(B128:B336="common", 4, IF(B128:B336="uncommon", 3, IF(B128:B336="rare", 0.792892156862745, 1)))</f>
@@ -7361,10 +7361,10 @@
         <v>21</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>0.59</v>
+        <v>0.71</v>
       </c>
       <c r="F129" s="3">
         <f>IF(B129:B337="common", 4, IF(B129:B337="uncommon", 3, IF(B129:B337="rare", 0.792892156862745, 1)))</f>
@@ -7414,7 +7414,7 @@
         <v>188</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>9.56</v>
+        <v>9.27</v>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3">
@@ -7465,10 +7465,10 @@
         <v>33</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E131" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F131" s="3">
         <f>IF(B131:B339="common", 4, IF(B131:B339="uncommon", 3, IF(B131:B339="rare", 0.792892156862745, 1)))</f>
@@ -7521,7 +7521,7 @@
         <v>0.13</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="F132" s="3">
         <f>IF(B132:B340="common", 4, IF(B132:B340="uncommon", 3, IF(B132:B340="rare", 0.792892156862745, 1)))</f>
@@ -7571,10 +7571,10 @@
         <v>46</v>
       </c>
       <c r="D133" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="F133" s="3">
         <f>IF(B133:B341="common", 4, IF(B133:B341="uncommon", 3, IF(B133:B341="rare", 0.792892156862745, 1)))</f>
@@ -7624,10 +7624,10 @@
         <v>33</v>
       </c>
       <c r="D134" s="3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E134" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F134" s="3">
         <f>IF(B134:B342="common", 4, IF(B134:B342="uncommon", 3, IF(B134:B342="rare", 0.792892156862745, 1)))</f>
@@ -7730,7 +7730,7 @@
         <v>90</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3">
@@ -7781,7 +7781,7 @@
         <v>248</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>8.52</v>
+        <v>7.61</v>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3">
@@ -7885,10 +7885,10 @@
         <v>33</v>
       </c>
       <c r="D139" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="F139" s="3">
         <f>IF(B139:B347="common", 4, IF(B139:B347="uncommon", 3, IF(B139:B347="rare", 0.792892156862745, 1)))</f>
@@ -7938,7 +7938,7 @@
         <v>188</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>5.57</v>
+        <v>5.48</v>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3">
@@ -7992,7 +7992,7 @@
         <v>0.13</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="F141" s="3">
         <f>IF(B141:B349="common", 4, IF(B141:B349="uncommon", 3, IF(B141:B349="rare", 0.792892156862745, 1)))</f>
@@ -8045,7 +8045,7 @@
         <v>0.08</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="F142" s="3">
         <f>IF(B142:B350="common", 4, IF(B142:B350="uncommon", 3, IF(B142:B350="rare", 0.792892156862745, 1)))</f>
@@ -8148,10 +8148,10 @@
         <v>33</v>
       </c>
       <c r="D144" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E144" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F144" s="3">
         <f>IF(B144:B352="common", 4, IF(B144:B352="uncommon", 3, IF(B144:B352="rare", 0.792892156862745, 1)))</f>
@@ -8204,7 +8204,7 @@
         <v>0.08</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F145" s="3">
         <f>IF(B145:B353="common", 4, IF(B145:B353="uncommon", 3, IF(B145:B353="rare", 0.792892156862745, 1)))</f>
@@ -8257,7 +8257,7 @@
         <v>0.09</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F146" s="3">
         <f>IF(B146:B354="common", 4, IF(B146:B354="uncommon", 3, IF(B146:B354="rare", 0.792892156862745, 1)))</f>
@@ -8307,10 +8307,10 @@
         <v>46</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>2.13</v>
+        <v>2.02</v>
       </c>
       <c r="F147" s="3">
         <f>IF(B147:B355="common", 4, IF(B147:B355="uncommon", 3, IF(B147:B355="rare", 0.792892156862745, 1)))</f>
@@ -8363,7 +8363,7 @@
         <v>0.11</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F148" s="3">
         <f>IF(B148:B356="common", 4, IF(B148:B356="uncommon", 3, IF(B148:B356="rare", 0.792892156862745, 1)))</f>
@@ -8413,10 +8413,10 @@
         <v>46</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="F149" s="3">
         <f>IF(B149:B357="common", 4, IF(B149:B357="uncommon", 3, IF(B149:B357="rare", 0.792892156862745, 1)))</f>
@@ -8466,7 +8466,7 @@
         <v>188</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>25.05</v>
+        <v>26.2</v>
       </c>
       <c r="E150" s="3" t="inlineStr"/>
       <c r="F150" s="3">
@@ -8517,10 +8517,10 @@
         <v>33</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="F151" s="3">
         <f>IF(B151:B359="common", 4, IF(B151:B359="uncommon", 3, IF(B151:B359="rare", 0.792892156862745, 1)))</f>
@@ -8570,10 +8570,10 @@
         <v>46</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E152" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F152" s="3">
         <f>IF(B152:B360="common", 4, IF(B152:B360="uncommon", 3, IF(B152:B360="rare", 0.792892156862745, 1)))</f>
@@ -8623,10 +8623,10 @@
         <v>46</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="F153" s="3">
         <f>IF(B153:B361="common", 4, IF(B153:B361="uncommon", 3, IF(B153:B361="rare", 0.792892156862745, 1)))</f>
@@ -8676,7 +8676,7 @@
         <v>188</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>16.47</v>
+        <v>15.85</v>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3">
@@ -8780,7 +8780,7 @@
         <v>46</v>
       </c>
       <c r="D156" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E156" s="3" t="n">
         <v>0.11</v>
@@ -8836,7 +8836,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F157" s="3">
         <f>IF(B157:B365="common", 4, IF(B157:B365="uncommon", 3, IF(B157:B365="rare", 0.792892156862745, 1)))</f>
@@ -8886,10 +8886,10 @@
         <v>33</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E158" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F158" s="3">
         <f>IF(B158:B366="common", 4, IF(B158:B366="uncommon", 3, IF(B158:B366="rare", 0.792892156862745, 1)))</f>
@@ -8942,7 +8942,7 @@
         <v>0.12</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F159" s="3">
         <f>IF(B159:B367="common", 4, IF(B159:B367="uncommon", 3, IF(B159:B367="rare", 0.792892156862745, 1)))</f>
@@ -8992,10 +8992,10 @@
         <v>46</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F160" s="3">
         <f>IF(B160:B368="common", 4, IF(B160:B368="uncommon", 3, IF(B160:B368="rare", 0.792892156862745, 1)))</f>
@@ -9045,7 +9045,7 @@
         <v>188</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>17.87</v>
+        <v>17.69</v>
       </c>
       <c r="E161" s="3" t="inlineStr"/>
       <c r="F161" s="3">
@@ -9096,10 +9096,10 @@
         <v>21</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="F162" s="3">
         <f>IF(B162:B370="common", 4, IF(B162:B370="uncommon", 3, IF(B162:B370="rare", 0.792892156862745, 1)))</f>
@@ -9149,10 +9149,10 @@
         <v>33</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F163" s="3">
         <f>IF(B163:B371="common", 4, IF(B163:B371="uncommon", 3, IF(B163:B371="rare", 0.792892156862745, 1)))</f>
@@ -9202,7 +9202,7 @@
         <v>33</v>
       </c>
       <c r="D164" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E164" s="3" t="n">
         <v>0.14</v>
@@ -9258,7 +9258,7 @@
         <v>0.05</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F165" s="3">
         <f>IF(B165:B373="common", 4, IF(B165:B373="uncommon", 3, IF(B165:B373="rare", 0.792892156862745, 1)))</f>
@@ -9308,7 +9308,7 @@
         <v>33</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E166" s="3" t="n">
         <v>0.12</v>
@@ -9364,7 +9364,7 @@
         <v>0.06</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F167" s="3">
         <f>IF(B167:B375="common", 4, IF(B167:B375="uncommon", 3, IF(B167:B375="rare", 0.792892156862745, 1)))</f>
@@ -9414,10 +9414,10 @@
         <v>33</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>1.05</v>
+        <v>0.97</v>
       </c>
       <c r="F168" s="3">
         <f>IF(B168:B376="common", 4, IF(B168:B376="uncommon", 3, IF(B168:B376="rare", 0.792892156862745, 1)))</f>
@@ -9467,7 +9467,7 @@
         <v>46</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E169" s="3" t="n">
         <v>0.15</v>
@@ -9523,7 +9523,7 @@
         <v>0.06</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F170" s="3">
         <f>IF(B170:B378="common", 4, IF(B170:B378="uncommon", 3, IF(B170:B378="rare", 0.792892156862745, 1)))</f>
@@ -9573,10 +9573,10 @@
         <v>33</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="F171" s="3">
         <f>IF(B171:B379="common", 4, IF(B171:B379="uncommon", 3, IF(B171:B379="rare", 0.792892156862745, 1)))</f>
@@ -9626,10 +9626,10 @@
         <v>33</v>
       </c>
       <c r="D172" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F172" s="3">
         <f>IF(B172:B380="common", 4, IF(B172:B380="uncommon", 3, IF(B172:B380="rare", 0.792892156862745, 1)))</f>
@@ -9679,7 +9679,7 @@
         <v>33</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E173" s="3" t="n">
         <v>0.85</v>
@@ -9732,7 +9732,7 @@
         <v>46</v>
       </c>
       <c r="D174" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E174" s="3" t="n">
         <v>0.13</v>
@@ -9788,7 +9788,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F175" s="3">
         <f>IF(B175:B383="common", 4, IF(B175:B383="uncommon", 3, IF(B175:B383="rare", 0.792892156862745, 1)))</f>
@@ -9841,7 +9841,7 @@
         <v>0.09</v>
       </c>
       <c r="E176" s="3" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F176" s="3">
         <f>IF(B176:B384="common", 4, IF(B176:B384="uncommon", 3, IF(B176:B384="rare", 0.792892156862745, 1)))</f>
@@ -9891,10 +9891,10 @@
         <v>46</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F177" s="3">
         <f>IF(B177:B385="common", 4, IF(B177:B385="uncommon", 3, IF(B177:B385="rare", 0.792892156862745, 1)))</f>
@@ -9944,10 +9944,10 @@
         <v>33</v>
       </c>
       <c r="D178" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E178" s="3" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="F178" s="3">
         <f>IF(B178:B386="common", 4, IF(B178:B386="uncommon", 3, IF(B178:B386="rare", 0.792892156862745, 1)))</f>
@@ -10000,7 +10000,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="F179" s="3">
         <f>IF(B179:B387="common", 4, IF(B179:B387="uncommon", 3, IF(B179:B387="rare", 0.792892156862745, 1)))</f>
@@ -10050,7 +10050,7 @@
         <v>46</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E180" s="3" t="n">
         <v>0.22</v>
@@ -10103,7 +10103,7 @@
         <v>188</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>41.55</v>
+        <v>42.27</v>
       </c>
       <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="3">
@@ -10154,10 +10154,10 @@
         <v>21</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F182" s="3">
         <f>IF(B182:B390="common", 4, IF(B182:B390="uncommon", 3, IF(B182:B390="rare", 0.792892156862745, 1)))</f>
@@ -10210,7 +10210,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F183" s="3">
         <f>IF(B183:B391="common", 4, IF(B183:B391="uncommon", 3, IF(B183:B391="rare", 0.792892156862745, 1)))</f>
@@ -10260,7 +10260,7 @@
         <v>154</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="E184" s="3" t="inlineStr"/>
       <c r="F184" s="3">
@@ -10311,10 +10311,10 @@
         <v>46</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F185" s="3">
         <f>IF(B185:B393="common", 4, IF(B185:B393="uncommon", 3, IF(B185:B393="rare", 0.792892156862745, 1)))</f>
@@ -10364,7 +10364,7 @@
         <v>188</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>6.49</v>
+        <v>6.11</v>
       </c>
       <c r="E186" s="3" t="inlineStr"/>
       <c r="F186" s="3">
@@ -10415,10 +10415,10 @@
         <v>33</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E187" s="3" t="n">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="F187" s="3">
         <f>IF(B187:B395="common", 4, IF(B187:B395="uncommon", 3, IF(B187:B395="rare", 0.792892156862745, 1)))</f>
@@ -10468,7 +10468,7 @@
         <v>46</v>
       </c>
       <c r="D188" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E188" s="3" t="n">
         <v>0.11</v>
@@ -10524,7 +10524,7 @@
         <v>0.05</v>
       </c>
       <c r="E189" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F189" s="3">
         <f>IF(B189:B397="common", 4, IF(B189:B397="uncommon", 3, IF(B189:B397="rare", 0.792892156862745, 1)))</f>
@@ -10574,10 +10574,10 @@
         <v>21</v>
       </c>
       <c r="D190" s="3" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="F190" s="3">
         <f>IF(B190:B398="common", 4, IF(B190:B398="uncommon", 3, IF(B190:B398="rare", 0.792892156862745, 1)))</f>
@@ -10627,10 +10627,10 @@
         <v>33</v>
       </c>
       <c r="D191" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E191" s="3" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F191" s="3">
         <f>IF(B191:B399="common", 4, IF(B191:B399="uncommon", 3, IF(B191:B399="rare", 0.792892156862745, 1)))</f>
@@ -10680,10 +10680,10 @@
         <v>46</v>
       </c>
       <c r="D192" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E192" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F192" s="3">
         <f>IF(B192:B400="common", 4, IF(B192:B400="uncommon", 3, IF(B192:B400="rare", 0.792892156862745, 1)))</f>
@@ -10733,7 +10733,7 @@
         <v>90</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3">
@@ -10784,7 +10784,7 @@
         <v>248</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>9.75</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E194" s="3" t="inlineStr"/>
       <c r="F194" s="3">
@@ -10835,7 +10835,7 @@
         <v>225</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>62.3</v>
+        <v>59.53</v>
       </c>
       <c r="E195" s="3" t="inlineStr"/>
       <c r="F195" s="3">
@@ -10889,7 +10889,7 @@
         <v>0.08</v>
       </c>
       <c r="E196" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F196" s="3">
         <f>IF(B196:B404="common", 4, IF(B196:B404="uncommon", 3, IF(B196:B404="rare", 0.792892156862745, 1)))</f>
@@ -10939,10 +10939,10 @@
         <v>21</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E197" s="3" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="F197" s="3">
         <f>IF(B197:B405="common", 4, IF(B197:B405="uncommon", 3, IF(B197:B405="rare", 0.792892156862745, 1)))</f>
@@ -11045,10 +11045,10 @@
         <v>46</v>
       </c>
       <c r="D199" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E199" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F199" s="3">
         <f>IF(B199:B407="common", 4, IF(B199:B407="uncommon", 3, IF(B199:B407="rare", 0.792892156862745, 1)))</f>
@@ -11101,7 +11101,7 @@
         <v>0.1</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="F200" s="3">
         <f>IF(B200:B408="common", 4, IF(B200:B408="uncommon", 3, IF(B200:B408="rare", 0.792892156862745, 1)))</f>
@@ -11151,7 +11151,7 @@
         <v>188</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>25.92</v>
+        <v>25.79</v>
       </c>
       <c r="E201" s="3" t="inlineStr"/>
       <c r="F201" s="3">
@@ -11202,7 +11202,7 @@
         <v>46</v>
       </c>
       <c r="D202" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E202" s="3" t="n">
         <v>0.13</v>
@@ -11255,10 +11255,10 @@
         <v>46</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E203" s="3" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="F203" s="3">
         <f>IF(B203:B411="common", 4, IF(B203:B411="uncommon", 3, IF(B203:B411="rare", 0.792892156862745, 1)))</f>
@@ -11308,10 +11308,10 @@
         <v>21</v>
       </c>
       <c r="D204" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E204" s="3" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F204" s="3">
         <f>IF(B204:B412="common", 4, IF(B204:B412="uncommon", 3, IF(B204:B412="rare", 0.792892156862745, 1)))</f>
@@ -11361,7 +11361,7 @@
         <v>90</v>
       </c>
       <c r="D205" s="3" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="E205" s="3" t="inlineStr"/>
       <c r="F205" s="3">
@@ -11412,7 +11412,7 @@
         <v>248</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>6.73</v>
+        <v>6.57</v>
       </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="3">
@@ -11514,7 +11514,7 @@
         <v>248</v>
       </c>
       <c r="D208" s="3" t="n">
-        <v>8.390000000000001</v>
+        <v>7.56</v>
       </c>
       <c r="E208" s="3" t="inlineStr"/>
       <c r="F208" s="3">
@@ -11565,7 +11565,7 @@
         <v>225</v>
       </c>
       <c r="D209" s="3" t="n">
-        <v>50.6</v>
+        <v>47.94</v>
       </c>
       <c r="E209" s="3" t="inlineStr"/>
       <c r="F209" s="3">
@@ -18308,7 +18308,7 @@
         </is>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.4417391304347826</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -18318,7 +18318,7 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.4863636363636364</v>
+        <v>0.4936363636363635</v>
       </c>
     </row>
     <row r="4">
@@ -18328,7 +18328,7 @@
         </is>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.1940697945845005</v>
+        <v>0.1970903361344538</v>
       </c>
     </row>
     <row r="5">
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>4.939317917137211</v>
+        <v>5.123054663482653</v>
       </c>
     </row>
     <row r="6">
@@ -18378,7 +18378,7 @@
         </is>
       </c>
       <c r="B9" s="13" t="n">
-        <v>1.812872340425532</v>
+        <v>1.801808510638298</v>
       </c>
     </row>
     <row r="10">
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="B10" s="13" t="n">
-        <v>2.028444444444444</v>
+        <v>1.998</v>
       </c>
     </row>
     <row r="11">
@@ -18398,7 +18398,7 @@
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.327</v>
+        <v>0.3487777777777778</v>
       </c>
     </row>
     <row r="12">
@@ -18408,7 +18408,7 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0.1297402597402597</v>
+        <v>0.1273376623376623</v>
       </c>
     </row>
     <row r="13">
@@ -18418,7 +18418,7 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0.5618548387096775</v>
+        <v>0.5482258064516129</v>
       </c>
     </row>
     <row r="14">
@@ -18448,7 +18448,7 @@
         </is>
       </c>
       <c r="B16" s="13" t="n">
-        <v>4.859911883319915</v>
+        <v>4.824149757205351</v>
       </c>
     </row>
     <row r="17">
@@ -18458,7 +18458,7 @@
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>10.92140236184004</v>
+        <v>11.07793112045882</v>
       </c>
     </row>
     <row r="18">
@@ -18468,7 +18468,7 @@
         </is>
       </c>
       <c r="B18" s="13" t="n">
-        <v>1.491402361840045</v>
+        <v>1.517931120458821</v>
       </c>
     </row>
     <row r="19">
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="B19" s="14" t="n">
-        <v>1.158155075486749</v>
+        <v>1.158779405905734</v>
       </c>
     </row>
     <row r="20">
@@ -18488,7 +18488,7 @@
         </is>
       </c>
       <c r="B20" s="15" t="n">
-        <v>0.1581550754867491</v>
+        <v>0.1587794059057344</v>
       </c>
     </row>
     <row r="21">

--- a/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -664,10 +664,10 @@
         <v>46</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F2" s="3">
         <f>IF(B2:B210="common", 4, IF(B2:B210="uncommon", 3, IF(B2:B210="rare", 0.792892156862745, 1)))</f>
@@ -682,20 +682,20 @@
         <v/>
       </c>
       <c r="I2" s="3" t="n">
-        <v>9.56</v>
+        <v>9.73</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>66.05</v>
+        <v>65.38</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>231.7</v>
+        <v>232.49</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="M2" s="3" t="n"/>
       <c r="N2" s="3" t="n">
-        <v>373.07</v>
+        <v>372.1</v>
       </c>
       <c r="R2" s="3" t="n"/>
       <c r="S2" s="3" t="n"/>
@@ -733,10 +733,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="F3" s="3">
         <f>IF(B3:B211="common", 4, IF(B3:B211="uncommon", 3, IF(B3:B211="rare", 0.792892156862745, 1)))</f>
@@ -789,7 +789,7 @@
         <v>90</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="E4" s="3" t="inlineStr"/>
       <c r="F4" s="3">
@@ -843,7 +843,7 @@
         <v>248</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>7.37</v>
+        <v>7.41</v>
       </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3">
@@ -897,7 +897,7 @@
         <v>225</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>37.41</v>
+        <v>36.43</v>
       </c>
       <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3">
@@ -951,10 +951,10 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="F7" s="3">
         <f>IF(B7:B215="common", 4, IF(B7:B215="uncommon", 3, IF(B7:B215="rare", 0.792892156862745, 1)))</f>
@@ -1007,10 +1007,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F8" s="3">
         <f>IF(B8:B216="common", 4, IF(B8:B216="uncommon", 3, IF(B8:B216="rare", 0.792892156862745, 1)))</f>
@@ -1063,10 +1063,10 @@
         <v>46</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="F9" s="3">
         <f>IF(B9:B217="common", 4, IF(B9:B217="uncommon", 3, IF(B9:B217="rare", 0.792892156862745, 1)))</f>
@@ -1119,7 +1119,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E10" s="3" t="inlineStr"/>
       <c r="F10" s="3">
@@ -1173,7 +1173,7 @@
         <v>248</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>5.63</v>
+        <v>5.38</v>
       </c>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3">
@@ -1224,10 +1224,10 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F12" s="3">
         <f>IF(B12:B220="common", 4, IF(B12:B220="uncommon", 3, IF(B12:B220="rare", 0.792892156862745, 1)))</f>
@@ -1280,7 +1280,7 @@
         <v>0.2</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>0.92</v>
+        <v>1.1</v>
       </c>
       <c r="F13" s="3">
         <f>IF(B13:B221="common", 4, IF(B13:B221="uncommon", 3, IF(B13:B221="rare", 0.792892156862745, 1)))</f>
@@ -1330,7 +1330,7 @@
         <v>154</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.21</v>
+        <v>4.61</v>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3">
@@ -1381,10 +1381,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="F15" s="3">
         <f>IF(B15:B223="common", 4, IF(B15:B223="uncommon", 3, IF(B15:B223="rare", 0.792892156862745, 1)))</f>
@@ -1437,7 +1437,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F16" s="3">
         <f>IF(B16:B224="common", 4, IF(B16:B224="uncommon", 3, IF(B16:B224="rare", 0.792892156862745, 1)))</f>
@@ -1487,10 +1487,10 @@
         <v>33</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F17" s="3">
         <f>IF(B17:B225="common", 4, IF(B17:B225="uncommon", 3, IF(B17:B225="rare", 0.792892156862745, 1)))</f>
@@ -1543,7 +1543,7 @@
         <v>0.11</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="F18" s="3">
         <f>IF(B18:B226="common", 4, IF(B18:B226="uncommon", 3, IF(B18:B226="rare", 0.792892156862745, 1)))</f>
@@ -1593,7 +1593,7 @@
         <v>248</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.27</v>
+        <v>3.06</v>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3">
@@ -1644,7 +1644,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3">
@@ -1695,7 +1695,7 @@
         <v>248</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>14</v>
+        <v>13.25</v>
       </c>
       <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3">
@@ -1746,7 +1746,7 @@
         <v>225</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>68.63</v>
+        <v>65.98</v>
       </c>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3">
@@ -1800,7 +1800,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="F23" s="3">
         <f>IF(B23:B231="common", 4, IF(B23:B231="uncommon", 3, IF(B23:B231="rare", 0.792892156862745, 1)))</f>
@@ -1850,7 +1850,7 @@
         <v>188</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>37.15</v>
+        <v>33.97</v>
       </c>
       <c r="E24" s="3" t="inlineStr"/>
       <c r="F24" s="3">
@@ -1901,10 +1901,10 @@
         <v>33</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F25" s="3">
         <f>IF(B25:B233="common", 4, IF(B25:B233="uncommon", 3, IF(B25:B233="rare", 0.792892156862745, 1)))</f>
@@ -1954,10 +1954,10 @@
         <v>46</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F26" s="3">
         <f>IF(B26:B234="common", 4, IF(B26:B234="uncommon", 3, IF(B26:B234="rare", 0.792892156862745, 1)))</f>
@@ -2007,7 +2007,7 @@
         <v>188</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.82</v>
+        <v>7.77</v>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3">
@@ -2058,10 +2058,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="F28" s="3">
         <f>IF(B28:B236="common", 4, IF(B28:B236="uncommon", 3, IF(B28:B236="rare", 0.792892156862745, 1)))</f>
@@ -2111,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>4.11</v>
+        <v>3.86</v>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3">
@@ -2162,7 +2162,7 @@
         <v>248</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>27.19</v>
+        <v>25.18</v>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3">
@@ -2213,7 +2213,7 @@
         <v>225</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>208.72</v>
+        <v>206.26</v>
       </c>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3">
@@ -2264,10 +2264,10 @@
         <v>46</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F32" s="3">
         <f>IF(B32:B240="common", 4, IF(B32:B240="uncommon", 3, IF(B32:B240="rare", 0.792892156862745, 1)))</f>
@@ -2317,7 +2317,7 @@
         <v>188</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46.03</v>
+        <v>42.53</v>
       </c>
       <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3">
@@ -2368,10 +2368,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="F34" s="3">
         <f>IF(B34:B242="common", 4, IF(B34:B242="uncommon", 3, IF(B34:B242="rare", 0.792892156862745, 1)))</f>
@@ -2421,7 +2421,7 @@
         <v>188</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>33.1</v>
+        <v>32.92</v>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3">
@@ -2475,7 +2475,7 @@
         <v>0.06</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F36" s="3">
         <f>IF(B36:B244="common", 4, IF(B36:B244="uncommon", 3, IF(B36:B244="rare", 0.792892156862745, 1)))</f>
@@ -2528,7 +2528,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E37" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F37" s="3">
         <f>IF(B37:B245="common", 4, IF(B37:B245="uncommon", 3, IF(B37:B245="rare", 0.792892156862745, 1)))</f>
@@ -2581,7 +2581,7 @@
         <v>0.06</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F38" s="3">
         <f>IF(B38:B246="common", 4, IF(B38:B246="uncommon", 3, IF(B38:B246="rare", 0.792892156862745, 1)))</f>
@@ -2634,7 +2634,7 @@
         <v>0.08</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F39" s="3">
         <f>IF(B39:B247="common", 4, IF(B39:B247="uncommon", 3, IF(B39:B247="rare", 0.792892156862745, 1)))</f>
@@ -2684,10 +2684,10 @@
         <v>33</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="F40" s="3">
         <f>IF(B40:B248="common", 4, IF(B40:B248="uncommon", 3, IF(B40:B248="rare", 0.792892156862745, 1)))</f>
@@ -2740,7 +2740,7 @@
         <v>0.09</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="F41" s="3">
         <f>IF(B41:B249="common", 4, IF(B41:B249="uncommon", 3, IF(B41:B249="rare", 0.792892156862745, 1)))</f>
@@ -2790,7 +2790,7 @@
         <v>248</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>2.77</v>
+        <v>3.18</v>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3">
@@ -2844,7 +2844,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F43" s="3">
         <f>IF(B43:B251="common", 4, IF(B43:B251="uncommon", 3, IF(B43:B251="rare", 0.792892156862745, 1)))</f>
@@ -2897,7 +2897,7 @@
         <v>0.05</v>
       </c>
       <c r="E44" s="3" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F44" s="3">
         <f>IF(B44:B252="common", 4, IF(B44:B252="uncommon", 3, IF(B44:B252="rare", 0.792892156862745, 1)))</f>
@@ -2950,7 +2950,7 @@
         <v>0.28</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F45" s="3">
         <f>IF(B45:B253="common", 4, IF(B45:B253="uncommon", 3, IF(B45:B253="rare", 0.792892156862745, 1)))</f>
@@ -3000,7 +3000,7 @@
         <v>21</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3">
@@ -3054,7 +3054,7 @@
         <v>0.13</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
       <c r="F47" s="3">
         <f>IF(B47:B255="common", 4, IF(B47:B255="uncommon", 3, IF(B47:B255="rare", 0.792892156862745, 1)))</f>
@@ -3160,7 +3160,7 @@
         <v>0.13</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="F49" s="3">
         <f>IF(B49:B257="common", 4, IF(B49:B257="uncommon", 3, IF(B49:B257="rare", 0.792892156862745, 1)))</f>
@@ -3210,7 +3210,7 @@
         <v>188</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>23.41</v>
+        <v>20.09</v>
       </c>
       <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="3">
@@ -3261,10 +3261,10 @@
         <v>21</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="F51" s="3">
         <f>IF(B51:B259="common", 4, IF(B51:B259="uncommon", 3, IF(B51:B259="rare", 0.792892156862745, 1)))</f>
@@ -3317,7 +3317,7 @@
         <v>0.1</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F52" s="3">
         <f>IF(B52:B260="common", 4, IF(B52:B260="uncommon", 3, IF(B52:B260="rare", 0.792892156862745, 1)))</f>
@@ -3367,10 +3367,10 @@
         <v>46</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F53" s="3">
         <f>IF(B53:B261="common", 4, IF(B53:B261="uncommon", 3, IF(B53:B261="rare", 0.792892156862745, 1)))</f>
@@ -3423,7 +3423,7 @@
         <v>0.06</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F54" s="3">
         <f>IF(B54:B262="common", 4, IF(B54:B262="uncommon", 3, IF(B54:B262="rare", 0.792892156862745, 1)))</f>
@@ -3473,10 +3473,10 @@
         <v>46</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="F55" s="3">
         <f>IF(B55:B263="common", 4, IF(B55:B263="uncommon", 3, IF(B55:B263="rare", 0.792892156862745, 1)))</f>
@@ -3526,10 +3526,10 @@
         <v>46</v>
       </c>
       <c r="D56" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F56" s="3">
         <f>IF(B56:B264="common", 4, IF(B56:B264="uncommon", 3, IF(B56:B264="rare", 0.792892156862745, 1)))</f>
@@ -3582,7 +3582,7 @@
         <v>0.06</v>
       </c>
       <c r="E57" s="3" t="n">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="F57" s="3">
         <f>IF(B57:B265="common", 4, IF(B57:B265="uncommon", 3, IF(B57:B265="rare", 0.792892156862745, 1)))</f>
@@ -3635,7 +3635,7 @@
         <v>0.14</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="F58" s="3">
         <f>IF(B58:B266="common", 4, IF(B58:B266="uncommon", 3, IF(B58:B266="rare", 0.792892156862745, 1)))</f>
@@ -3685,10 +3685,10 @@
         <v>33</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="F59" s="3">
         <f>IF(B59:B267="common", 4, IF(B59:B267="uncommon", 3, IF(B59:B267="rare", 0.792892156862745, 1)))</f>
@@ -3741,7 +3741,7 @@
         <v>0.09</v>
       </c>
       <c r="E60" s="3" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="F60" s="3">
         <f>IF(B60:B268="common", 4, IF(B60:B268="uncommon", 3, IF(B60:B268="rare", 0.792892156862745, 1)))</f>
@@ -3791,7 +3791,7 @@
         <v>248</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>4.95</v>
+        <v>5.88</v>
       </c>
       <c r="E61" s="3" t="inlineStr"/>
       <c r="F61" s="3">
@@ -3842,7 +3842,7 @@
         <v>225</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>13.96</v>
+        <v>13.84</v>
       </c>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3">
@@ -3949,7 +3949,7 @@
         <v>0.08</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="F64" s="3">
         <f>IF(B64:B272="common", 4, IF(B64:B272="uncommon", 3, IF(B64:B272="rare", 0.792892156862745, 1)))</f>
@@ -4002,7 +4002,7 @@
         <v>0.05</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F65" s="3">
         <f>IF(B65:B273="common", 4, IF(B65:B273="uncommon", 3, IF(B65:B273="rare", 0.792892156862745, 1)))</f>
@@ -4052,10 +4052,10 @@
         <v>33</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F66" s="3">
         <f>IF(B66:B274="common", 4, IF(B66:B274="uncommon", 3, IF(B66:B274="rare", 0.792892156862745, 1)))</f>
@@ -4105,10 +4105,10 @@
         <v>21</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="F67" s="3">
         <f>IF(B67:B275="common", 4, IF(B67:B275="uncommon", 3, IF(B67:B275="rare", 0.792892156862745, 1)))</f>
@@ -4158,10 +4158,10 @@
         <v>46</v>
       </c>
       <c r="D68" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F68" s="3">
         <f>IF(B68:B276="common", 4, IF(B68:B276="uncommon", 3, IF(B68:B276="rare", 0.792892156862745, 1)))</f>
@@ -4211,10 +4211,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="F69" s="3">
         <f>IF(B69:B277="common", 4, IF(B69:B277="uncommon", 3, IF(B69:B277="rare", 0.792892156862745, 1)))</f>
@@ -4264,10 +4264,10 @@
         <v>46</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F70" s="3">
         <f>IF(B70:B278="common", 4, IF(B70:B278="uncommon", 3, IF(B70:B278="rare", 0.792892156862745, 1)))</f>
@@ -4317,10 +4317,10 @@
         <v>33</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F71" s="3">
         <f>IF(B71:B279="common", 4, IF(B71:B279="uncommon", 3, IF(B71:B279="rare", 0.792892156862745, 1)))</f>
@@ -4370,7 +4370,7 @@
         <v>248</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>5.21</v>
+        <v>5.54</v>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3">
@@ -4421,7 +4421,7 @@
         <v>225</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>13.36</v>
+        <v>13.18</v>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3">
@@ -4472,10 +4472,10 @@
         <v>33</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F74" s="3">
         <f>IF(B74:B282="common", 4, IF(B74:B282="uncommon", 3, IF(B74:B282="rare", 0.792892156862745, 1)))</f>
@@ -4525,10 +4525,10 @@
         <v>33</v>
       </c>
       <c r="D75" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E75" s="3" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="F75" s="3">
         <f>IF(B75:B283="common", 4, IF(B75:B283="uncommon", 3, IF(B75:B283="rare", 0.792892156862745, 1)))</f>
@@ -4578,10 +4578,10 @@
         <v>46</v>
       </c>
       <c r="D76" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E76" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F76" s="3">
         <f>IF(B76:B284="common", 4, IF(B76:B284="uncommon", 3, IF(B76:B284="rare", 0.792892156862745, 1)))</f>
@@ -4684,7 +4684,7 @@
         <v>90</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3">
@@ -4789,7 +4789,7 @@
         <v>0.12</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="F80" s="3">
         <f>IF(B80:B288="common", 4, IF(B80:B288="uncommon", 3, IF(B80:B288="rare", 0.792892156862745, 1)))</f>
@@ -4842,7 +4842,7 @@
         <v>0.06</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F81" s="3">
         <f>IF(B81:B289="common", 4, IF(B81:B289="uncommon", 3, IF(B81:B289="rare", 0.792892156862745, 1)))</f>
@@ -4895,7 +4895,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="F82" s="3">
         <f>IF(B82:B290="common", 4, IF(B82:B290="uncommon", 3, IF(B82:B290="rare", 0.792892156862745, 1)))</f>
@@ -4945,10 +4945,10 @@
         <v>46</v>
       </c>
       <c r="D83" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F83" s="3">
         <f>IF(B83:B291="common", 4, IF(B83:B291="uncommon", 3, IF(B83:B291="rare", 0.792892156862745, 1)))</f>
@@ -4998,10 +4998,10 @@
         <v>21</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F84" s="3">
         <f>IF(B84:B292="common", 4, IF(B84:B292="uncommon", 3, IF(B84:B292="rare", 0.792892156862745, 1)))</f>
@@ -5051,10 +5051,10 @@
         <v>33</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="F85" s="3">
         <f>IF(B85:B293="common", 4, IF(B85:B293="uncommon", 3, IF(B85:B293="rare", 0.792892156862745, 1)))</f>
@@ -5107,7 +5107,7 @@
         <v>0.11</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="F86" s="3">
         <f>IF(B86:B294="common", 4, IF(B86:B294="uncommon", 3, IF(B86:B294="rare", 0.792892156862745, 1)))</f>
@@ -5160,7 +5160,7 @@
         <v>0.12</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="F87" s="3">
         <f>IF(B87:B295="common", 4, IF(B87:B295="uncommon", 3, IF(B87:B295="rare", 0.792892156862745, 1)))</f>
@@ -5210,10 +5210,10 @@
         <v>46</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F88" s="3">
         <f>IF(B88:B296="common", 4, IF(B88:B296="uncommon", 3, IF(B88:B296="rare", 0.792892156862745, 1)))</f>
@@ -5263,10 +5263,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="F89" s="3">
         <f>IF(B89:B297="common", 4, IF(B89:B297="uncommon", 3, IF(B89:B297="rare", 0.792892156862745, 1)))</f>
@@ -5319,7 +5319,7 @@
         <v>0.1</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="F90" s="3">
         <f>IF(B90:B298="common", 4, IF(B90:B298="uncommon", 3, IF(B90:B298="rare", 0.792892156862745, 1)))</f>
@@ -5369,7 +5369,7 @@
         <v>188</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>27.64</v>
+        <v>27.43</v>
       </c>
       <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3">
@@ -5423,7 +5423,7 @@
         <v>0.08</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F92" s="3">
         <f>IF(B92:B300="common", 4, IF(B92:B300="uncommon", 3, IF(B92:B300="rare", 0.792892156862745, 1)))</f>
@@ -5473,10 +5473,10 @@
         <v>21</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="F93" s="3">
         <f>IF(B93:B301="common", 4, IF(B93:B301="uncommon", 3, IF(B93:B301="rare", 0.792892156862745, 1)))</f>
@@ -5526,7 +5526,7 @@
         <v>90</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3">
@@ -5577,7 +5577,7 @@
         <v>248</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>4.93</v>
+        <v>4.34</v>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="3">
@@ -5631,7 +5631,7 @@
         <v>0.08</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="F96" s="3">
         <f>IF(B96:B304="common", 4, IF(B96:B304="uncommon", 3, IF(B96:B304="rare", 0.792892156862745, 1)))</f>
@@ -5681,10 +5681,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="F97" s="3">
         <f>IF(B97:B305="common", 4, IF(B97:B305="uncommon", 3, IF(B97:B305="rare", 0.792892156862745, 1)))</f>
@@ -5734,7 +5734,7 @@
         <v>33</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E98" s="3" t="n">
         <v>0.19</v>
@@ -5790,7 +5790,7 @@
         <v>0.09</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="F99" s="3">
         <f>IF(B99:B307="common", 4, IF(B99:B307="uncommon", 3, IF(B99:B307="rare", 0.792892156862745, 1)))</f>
@@ -5840,7 +5840,7 @@
         <v>90</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3">
@@ -5891,7 +5891,7 @@
         <v>248</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>4.44</v>
+        <v>4.81</v>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3">
@@ -5942,10 +5942,10 @@
         <v>33</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="F102" s="3">
         <f>IF(B102:B310="common", 4, IF(B102:B310="uncommon", 3, IF(B102:B310="rare", 0.792892156862745, 1)))</f>
@@ -5998,7 +5998,7 @@
         <v>0.08</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F103" s="3">
         <f>IF(B103:B311="common", 4, IF(B103:B311="uncommon", 3, IF(B103:B311="rare", 0.792892156862745, 1)))</f>
@@ -6048,10 +6048,10 @@
         <v>46</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E104" s="3" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="F104" s="3">
         <f>IF(B104:B312="common", 4, IF(B104:B312="uncommon", 3, IF(B104:B312="rare", 0.792892156862745, 1)))</f>
@@ -6101,10 +6101,10 @@
         <v>33</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="F105" s="3">
         <f>IF(B105:B313="common", 4, IF(B105:B313="uncommon", 3, IF(B105:B313="rare", 0.792892156862745, 1)))</f>
@@ -6154,10 +6154,10 @@
         <v>33</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="E106" s="3" t="n">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="F106" s="3">
         <f>IF(B106:B314="common", 4, IF(B106:B314="uncommon", 3, IF(B106:B314="rare", 0.792892156862745, 1)))</f>
@@ -6207,10 +6207,10 @@
         <v>46</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E107" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F107" s="3">
         <f>IF(B107:B315="common", 4, IF(B107:B315="uncommon", 3, IF(B107:B315="rare", 0.792892156862745, 1)))</f>
@@ -6260,10 +6260,10 @@
         <v>21</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="F108" s="3">
         <f>IF(B108:B316="common", 4, IF(B108:B316="uncommon", 3, IF(B108:B316="rare", 0.792892156862745, 1)))</f>
@@ -6313,10 +6313,10 @@
         <v>33</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E109" s="3" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="F109" s="3">
         <f>IF(B109:B317="common", 4, IF(B109:B317="uncommon", 3, IF(B109:B317="rare", 0.792892156862745, 1)))</f>
@@ -6366,7 +6366,7 @@
         <v>188</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>9.07</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3">
@@ -6417,10 +6417,10 @@
         <v>46</v>
       </c>
       <c r="D111" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F111" s="3">
         <f>IF(B111:B319="common", 4, IF(B111:B319="uncommon", 3, IF(B111:B319="rare", 0.792892156862745, 1)))</f>
@@ -6473,7 +6473,7 @@
         <v>0.09</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F112" s="3">
         <f>IF(B112:B320="common", 4, IF(B112:B320="uncommon", 3, IF(B112:B320="rare", 0.792892156862745, 1)))</f>
@@ -6523,10 +6523,10 @@
         <v>46</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="F113" s="3">
         <f>IF(B113:B321="common", 4, IF(B113:B321="uncommon", 3, IF(B113:B321="rare", 0.792892156862745, 1)))</f>
@@ -6576,10 +6576,10 @@
         <v>46</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F114" s="3">
         <f>IF(B114:B322="common", 4, IF(B114:B322="uncommon", 3, IF(B114:B322="rare", 0.792892156862745, 1)))</f>
@@ -6629,10 +6629,10 @@
         <v>33</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F115" s="3">
         <f>IF(B115:B323="common", 4, IF(B115:B323="uncommon", 3, IF(B115:B323="rare", 0.792892156862745, 1)))</f>
@@ -6682,10 +6682,10 @@
         <v>46</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E116" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F116" s="3">
         <f>IF(B116:B324="common", 4, IF(B116:B324="uncommon", 3, IF(B116:B324="rare", 0.792892156862745, 1)))</f>
@@ -6735,10 +6735,10 @@
         <v>21</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="F117" s="3">
         <f>IF(B117:B325="common", 4, IF(B117:B325="uncommon", 3, IF(B117:B325="rare", 0.792892156862745, 1)))</f>
@@ -6788,10 +6788,10 @@
         <v>46</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="F118" s="3">
         <f>IF(B118:B326="common", 4, IF(B118:B326="uncommon", 3, IF(B118:B326="rare", 0.792892156862745, 1)))</f>
@@ -6841,10 +6841,10 @@
         <v>46</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="F119" s="3">
         <f>IF(B119:B327="common", 4, IF(B119:B327="uncommon", 3, IF(B119:B327="rare", 0.792892156862745, 1)))</f>
@@ -6894,7 +6894,7 @@
         <v>90</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>8.68</v>
+        <v>6.41</v>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3">
@@ -6945,7 +6945,7 @@
         <v>248</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>19.31</v>
+        <v>18.51</v>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
       <c r="F121" s="3">
@@ -6996,7 +6996,7 @@
         <v>154</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>12.75</v>
+        <v>12.65</v>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
       <c r="F122" s="3">
@@ -7047,7 +7047,7 @@
         <v>90</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>9.609999999999999</v>
+        <v>10.27</v>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
       <c r="F123" s="3">
@@ -7098,10 +7098,10 @@
         <v>21</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="F124" s="3">
         <f>IF(B124:B332="common", 4, IF(B124:B332="uncommon", 3, IF(B124:B332="rare", 0.792892156862745, 1)))</f>
@@ -7151,10 +7151,10 @@
         <v>21</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="F125" s="3">
         <f>IF(B125:B333="common", 4, IF(B125:B333="uncommon", 3, IF(B125:B333="rare", 0.792892156862745, 1)))</f>
@@ -7204,10 +7204,10 @@
         <v>21</v>
       </c>
       <c r="D126" s="3" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E126" s="3" t="n">
-        <v>0.51</v>
+        <v>0.57</v>
       </c>
       <c r="F126" s="3">
         <f>IF(B126:B334="common", 4, IF(B126:B334="uncommon", 3, IF(B126:B334="rare", 0.792892156862745, 1)))</f>
@@ -7257,7 +7257,7 @@
         <v>188</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>5.86</v>
+        <v>5.65</v>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3">
@@ -7308,10 +7308,10 @@
         <v>33</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E128" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F128" s="3">
         <f>IF(B128:B336="common", 4, IF(B128:B336="uncommon", 3, IF(B128:B336="rare", 0.792892156862745, 1)))</f>
@@ -7361,10 +7361,10 @@
         <v>21</v>
       </c>
       <c r="D129" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="F129" s="3">
         <f>IF(B129:B337="common", 4, IF(B129:B337="uncommon", 3, IF(B129:B337="rare", 0.792892156862745, 1)))</f>
@@ -7414,7 +7414,7 @@
         <v>188</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>9.27</v>
+        <v>9.49</v>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3">
@@ -7465,7 +7465,7 @@
         <v>33</v>
       </c>
       <c r="D131" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E131" s="3" t="n">
         <v>0.17</v>
@@ -7518,10 +7518,10 @@
         <v>46</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="F132" s="3">
         <f>IF(B132:B340="common", 4, IF(B132:B340="uncommon", 3, IF(B132:B340="rare", 0.792892156862745, 1)))</f>
@@ -7574,7 +7574,7 @@
         <v>0.1</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="F133" s="3">
         <f>IF(B133:B341="common", 4, IF(B133:B341="uncommon", 3, IF(B133:B341="rare", 0.792892156862745, 1)))</f>
@@ -7624,10 +7624,10 @@
         <v>33</v>
       </c>
       <c r="D134" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E134" s="3" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F134" s="3">
         <f>IF(B134:B342="common", 4, IF(B134:B342="uncommon", 3, IF(B134:B342="rare", 0.792892156862745, 1)))</f>
@@ -7677,10 +7677,10 @@
         <v>33</v>
       </c>
       <c r="D135" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E135" s="3" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F135" s="3">
         <f>IF(B135:B343="common", 4, IF(B135:B343="uncommon", 3, IF(B135:B343="rare", 0.792892156862745, 1)))</f>
@@ -7730,7 +7730,7 @@
         <v>90</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3">
@@ -7781,7 +7781,7 @@
         <v>248</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>7.61</v>
+        <v>7.37</v>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3">
@@ -7832,10 +7832,10 @@
         <v>46</v>
       </c>
       <c r="D138" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E138" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F138" s="3">
         <f>IF(B138:B346="common", 4, IF(B138:B346="uncommon", 3, IF(B138:B346="rare", 0.792892156862745, 1)))</f>
@@ -7888,7 +7888,7 @@
         <v>0.09</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="F139" s="3">
         <f>IF(B139:B347="common", 4, IF(B139:B347="uncommon", 3, IF(B139:B347="rare", 0.792892156862745, 1)))</f>
@@ -7938,7 +7938,7 @@
         <v>188</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>5.48</v>
+        <v>5.82</v>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3">
@@ -7989,10 +7989,10 @@
         <v>21</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="F141" s="3">
         <f>IF(B141:B349="common", 4, IF(B141:B349="uncommon", 3, IF(B141:B349="rare", 0.792892156862745, 1)))</f>
@@ -8042,10 +8042,10 @@
         <v>33</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="F142" s="3">
         <f>IF(B142:B350="common", 4, IF(B142:B350="uncommon", 3, IF(B142:B350="rare", 0.792892156862745, 1)))</f>
@@ -8148,10 +8148,10 @@
         <v>33</v>
       </c>
       <c r="D144" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E144" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F144" s="3">
         <f>IF(B144:B352="common", 4, IF(B144:B352="uncommon", 3, IF(B144:B352="rare", 0.792892156862745, 1)))</f>
@@ -8201,10 +8201,10 @@
         <v>33</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F145" s="3">
         <f>IF(B145:B353="common", 4, IF(B145:B353="uncommon", 3, IF(B145:B353="rare", 0.792892156862745, 1)))</f>
@@ -8257,7 +8257,7 @@
         <v>0.09</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F146" s="3">
         <f>IF(B146:B354="common", 4, IF(B146:B354="uncommon", 3, IF(B146:B354="rare", 0.792892156862745, 1)))</f>
@@ -8310,7 +8310,7 @@
         <v>0.15</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="F147" s="3">
         <f>IF(B147:B355="common", 4, IF(B147:B355="uncommon", 3, IF(B147:B355="rare", 0.792892156862745, 1)))</f>
@@ -8360,10 +8360,10 @@
         <v>46</v>
       </c>
       <c r="D148" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="F148" s="3">
         <f>IF(B148:B356="common", 4, IF(B148:B356="uncommon", 3, IF(B148:B356="rare", 0.792892156862745, 1)))</f>
@@ -8413,10 +8413,10 @@
         <v>46</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="F149" s="3">
         <f>IF(B149:B357="common", 4, IF(B149:B357="uncommon", 3, IF(B149:B357="rare", 0.792892156862745, 1)))</f>
@@ -8466,7 +8466,7 @@
         <v>188</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>26.2</v>
+        <v>24.97</v>
       </c>
       <c r="E150" s="3" t="inlineStr"/>
       <c r="F150" s="3">
@@ -8517,10 +8517,10 @@
         <v>33</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="F151" s="3">
         <f>IF(B151:B359="common", 4, IF(B151:B359="uncommon", 3, IF(B151:B359="rare", 0.792892156862745, 1)))</f>
@@ -8573,7 +8573,7 @@
         <v>0.05</v>
       </c>
       <c r="E152" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F152" s="3">
         <f>IF(B152:B360="common", 4, IF(B152:B360="uncommon", 3, IF(B152:B360="rare", 0.792892156862745, 1)))</f>
@@ -8626,7 +8626,7 @@
         <v>0.13</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="F153" s="3">
         <f>IF(B153:B361="common", 4, IF(B153:B361="uncommon", 3, IF(B153:B361="rare", 0.792892156862745, 1)))</f>
@@ -8676,7 +8676,7 @@
         <v>188</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>15.85</v>
+        <v>17.04</v>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3">
@@ -8780,10 +8780,10 @@
         <v>46</v>
       </c>
       <c r="D156" s="3" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E156" s="3" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F156" s="3">
         <f>IF(B156:B364="common", 4, IF(B156:B364="uncommon", 3, IF(B156:B364="rare", 0.792892156862745, 1)))</f>
@@ -8833,10 +8833,10 @@
         <v>46</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F157" s="3">
         <f>IF(B157:B365="common", 4, IF(B157:B365="uncommon", 3, IF(B157:B365="rare", 0.792892156862745, 1)))</f>
@@ -8886,10 +8886,10 @@
         <v>33</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E158" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F158" s="3">
         <f>IF(B158:B366="common", 4, IF(B158:B366="uncommon", 3, IF(B158:B366="rare", 0.792892156862745, 1)))</f>
@@ -8942,7 +8942,7 @@
         <v>0.12</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="F159" s="3">
         <f>IF(B159:B367="common", 4, IF(B159:B367="uncommon", 3, IF(B159:B367="rare", 0.792892156862745, 1)))</f>
@@ -8995,7 +8995,7 @@
         <v>0.08</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F160" s="3">
         <f>IF(B160:B368="common", 4, IF(B160:B368="uncommon", 3, IF(B160:B368="rare", 0.792892156862745, 1)))</f>
@@ -9045,7 +9045,7 @@
         <v>188</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>17.69</v>
+        <v>18.79</v>
       </c>
       <c r="E161" s="3" t="inlineStr"/>
       <c r="F161" s="3">
@@ -9096,10 +9096,10 @@
         <v>21</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>0.89</v>
+        <v>1.19</v>
       </c>
       <c r="F162" s="3">
         <f>IF(B162:B370="common", 4, IF(B162:B370="uncommon", 3, IF(B162:B370="rare", 0.792892156862745, 1)))</f>
@@ -9152,7 +9152,7 @@
         <v>0.08</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F163" s="3">
         <f>IF(B163:B371="common", 4, IF(B163:B371="uncommon", 3, IF(B163:B371="rare", 0.792892156862745, 1)))</f>
@@ -9205,7 +9205,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E164" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F164" s="3">
         <f>IF(B164:B372="common", 4, IF(B164:B372="uncommon", 3, IF(B164:B372="rare", 0.792892156862745, 1)))</f>
@@ -9258,7 +9258,7 @@
         <v>0.05</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F165" s="3">
         <f>IF(B165:B373="common", 4, IF(B165:B373="uncommon", 3, IF(B165:B373="rare", 0.792892156862745, 1)))</f>
@@ -9308,10 +9308,10 @@
         <v>33</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E166" s="3" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F166" s="3">
         <f>IF(B166:B374="common", 4, IF(B166:B374="uncommon", 3, IF(B166:B374="rare", 0.792892156862745, 1)))</f>
@@ -9361,7 +9361,7 @@
         <v>46</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E167" s="3" t="n">
         <v>0.13</v>
@@ -9414,10 +9414,10 @@
         <v>33</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F168" s="3">
         <f>IF(B168:B376="common", 4, IF(B168:B376="uncommon", 3, IF(B168:B376="rare", 0.792892156862745, 1)))</f>
@@ -9470,7 +9470,7 @@
         <v>0.05</v>
       </c>
       <c r="E169" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F169" s="3">
         <f>IF(B169:B377="common", 4, IF(B169:B377="uncommon", 3, IF(B169:B377="rare", 0.792892156862745, 1)))</f>
@@ -9520,10 +9520,10 @@
         <v>33</v>
       </c>
       <c r="D170" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F170" s="3">
         <f>IF(B170:B378="common", 4, IF(B170:B378="uncommon", 3, IF(B170:B378="rare", 0.792892156862745, 1)))</f>
@@ -9576,7 +9576,7 @@
         <v>0.09</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="F171" s="3">
         <f>IF(B171:B379="common", 4, IF(B171:B379="uncommon", 3, IF(B171:B379="rare", 0.792892156862745, 1)))</f>
@@ -9629,7 +9629,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F172" s="3">
         <f>IF(B172:B380="common", 4, IF(B172:B380="uncommon", 3, IF(B172:B380="rare", 0.792892156862745, 1)))</f>
@@ -9682,7 +9682,7 @@
         <v>0.1</v>
       </c>
       <c r="E173" s="3" t="n">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="F173" s="3">
         <f>IF(B173:B381="common", 4, IF(B173:B381="uncommon", 3, IF(B173:B381="rare", 0.792892156862745, 1)))</f>
@@ -9735,7 +9735,7 @@
         <v>0.05</v>
       </c>
       <c r="E174" s="3" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F174" s="3">
         <f>IF(B174:B382="common", 4, IF(B174:B382="uncommon", 3, IF(B174:B382="rare", 0.792892156862745, 1)))</f>
@@ -9788,7 +9788,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F175" s="3">
         <f>IF(B175:B383="common", 4, IF(B175:B383="uncommon", 3, IF(B175:B383="rare", 0.792892156862745, 1)))</f>
@@ -9838,10 +9838,10 @@
         <v>33</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E176" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F176" s="3">
         <f>IF(B176:B384="common", 4, IF(B176:B384="uncommon", 3, IF(B176:B384="rare", 0.792892156862745, 1)))</f>
@@ -9944,10 +9944,10 @@
         <v>33</v>
       </c>
       <c r="D178" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E178" s="3" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="F178" s="3">
         <f>IF(B178:B386="common", 4, IF(B178:B386="uncommon", 3, IF(B178:B386="rare", 0.792892156862745, 1)))</f>
@@ -9997,10 +9997,10 @@
         <v>46</v>
       </c>
       <c r="D179" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="F179" s="3">
         <f>IF(B179:B387="common", 4, IF(B179:B387="uncommon", 3, IF(B179:B387="rare", 0.792892156862745, 1)))</f>
@@ -10050,10 +10050,10 @@
         <v>46</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E180" s="3" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="F180" s="3">
         <f>IF(B180:B388="common", 4, IF(B180:B388="uncommon", 3, IF(B180:B388="rare", 0.792892156862745, 1)))</f>
@@ -10103,7 +10103,7 @@
         <v>188</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>42.27</v>
+        <v>40</v>
       </c>
       <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="3">
@@ -10154,10 +10154,10 @@
         <v>21</v>
       </c>
       <c r="D182" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F182" s="3">
         <f>IF(B182:B390="common", 4, IF(B182:B390="uncommon", 3, IF(B182:B390="rare", 0.792892156862745, 1)))</f>
@@ -10210,7 +10210,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F183" s="3">
         <f>IF(B183:B391="common", 4, IF(B183:B391="uncommon", 3, IF(B183:B391="rare", 0.792892156862745, 1)))</f>
@@ -10260,7 +10260,7 @@
         <v>154</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="E184" s="3" t="inlineStr"/>
       <c r="F184" s="3">
@@ -10314,7 +10314,7 @@
         <v>0.05</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F185" s="3">
         <f>IF(B185:B393="common", 4, IF(B185:B393="uncommon", 3, IF(B185:B393="rare", 0.792892156862745, 1)))</f>
@@ -10364,7 +10364,7 @@
         <v>188</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>6.11</v>
+        <v>6.7</v>
       </c>
       <c r="E186" s="3" t="inlineStr"/>
       <c r="F186" s="3">
@@ -10415,7 +10415,7 @@
         <v>33</v>
       </c>
       <c r="D187" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E187" s="3" t="n">
         <v>0.87</v>
@@ -10468,7 +10468,7 @@
         <v>46</v>
       </c>
       <c r="D188" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E188" s="3" t="n">
         <v>0.11</v>
@@ -10521,10 +10521,10 @@
         <v>33</v>
       </c>
       <c r="D189" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E189" s="3" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F189" s="3">
         <f>IF(B189:B397="common", 4, IF(B189:B397="uncommon", 3, IF(B189:B397="rare", 0.792892156862745, 1)))</f>
@@ -10574,10 +10574,10 @@
         <v>21</v>
       </c>
       <c r="D190" s="3" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="F190" s="3">
         <f>IF(B190:B398="common", 4, IF(B190:B398="uncommon", 3, IF(B190:B398="rare", 0.792892156862745, 1)))</f>
@@ -10627,7 +10627,7 @@
         <v>33</v>
       </c>
       <c r="D191" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E191" s="3" t="n">
         <v>0.17</v>
@@ -10733,7 +10733,7 @@
         <v>90</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>0.73</v>
+        <v>0.55</v>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3">
@@ -10784,7 +10784,7 @@
         <v>248</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>9.779999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="E194" s="3" t="inlineStr"/>
       <c r="F194" s="3">
@@ -10835,7 +10835,7 @@
         <v>225</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>59.53</v>
+        <v>57.96</v>
       </c>
       <c r="E195" s="3" t="inlineStr"/>
       <c r="F195" s="3">
@@ -10889,7 +10889,7 @@
         <v>0.08</v>
       </c>
       <c r="E196" s="3" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F196" s="3">
         <f>IF(B196:B404="common", 4, IF(B196:B404="uncommon", 3, IF(B196:B404="rare", 0.792892156862745, 1)))</f>
@@ -10939,10 +10939,10 @@
         <v>21</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="E197" s="3" t="n">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="F197" s="3">
         <f>IF(B197:B405="common", 4, IF(B197:B405="uncommon", 3, IF(B197:B405="rare", 0.792892156862745, 1)))</f>
@@ -10992,10 +10992,10 @@
         <v>46</v>
       </c>
       <c r="D198" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E198" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F198" s="3">
         <f>IF(B198:B406="common", 4, IF(B198:B406="uncommon", 3, IF(B198:B406="rare", 0.792892156862745, 1)))</f>
@@ -11048,7 +11048,7 @@
         <v>0.05</v>
       </c>
       <c r="E199" s="3" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="F199" s="3">
         <f>IF(B199:B407="common", 4, IF(B199:B407="uncommon", 3, IF(B199:B407="rare", 0.792892156862745, 1)))</f>
@@ -11101,7 +11101,7 @@
         <v>0.1</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="F200" s="3">
         <f>IF(B200:B408="common", 4, IF(B200:B408="uncommon", 3, IF(B200:B408="rare", 0.792892156862745, 1)))</f>
@@ -11151,7 +11151,7 @@
         <v>188</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>25.79</v>
+        <v>24.22</v>
       </c>
       <c r="E201" s="3" t="inlineStr"/>
       <c r="F201" s="3">
@@ -11202,7 +11202,7 @@
         <v>46</v>
       </c>
       <c r="D202" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E202" s="3" t="n">
         <v>0.13</v>
@@ -11255,10 +11255,10 @@
         <v>46</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E203" s="3" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="F203" s="3">
         <f>IF(B203:B411="common", 4, IF(B203:B411="uncommon", 3, IF(B203:B411="rare", 0.792892156862745, 1)))</f>
@@ -11311,7 +11311,7 @@
         <v>0.13</v>
       </c>
       <c r="E204" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F204" s="3">
         <f>IF(B204:B412="common", 4, IF(B204:B412="uncommon", 3, IF(B204:B412="rare", 0.792892156862745, 1)))</f>
@@ -11361,7 +11361,7 @@
         <v>90</v>
       </c>
       <c r="D205" s="3" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="E205" s="3" t="inlineStr"/>
       <c r="F205" s="3">
@@ -11412,7 +11412,7 @@
         <v>248</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>6.57</v>
+        <v>6.9</v>
       </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="3">
@@ -11463,7 +11463,7 @@
         <v>90</v>
       </c>
       <c r="D207" s="3" t="n">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="E207" s="3" t="inlineStr"/>
       <c r="F207" s="3">
@@ -11514,7 +11514,7 @@
         <v>248</v>
       </c>
       <c r="D208" s="3" t="n">
-        <v>7.56</v>
+        <v>7.15</v>
       </c>
       <c r="E208" s="3" t="inlineStr"/>
       <c r="F208" s="3">
@@ -11565,7 +11565,7 @@
         <v>225</v>
       </c>
       <c r="D209" s="3" t="n">
-        <v>47.94</v>
+        <v>46.15</v>
       </c>
       <c r="E209" s="3" t="inlineStr"/>
       <c r="F209" s="3">
@@ -11616,10 +11616,10 @@
         <v>46</v>
       </c>
       <c r="D210" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E210" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F210" s="3">
         <f>IF(B210:B418="common", 4, IF(B210:B418="uncommon", 3, IF(B210:B418="rare", 0.792892156862745, 1)))</f>
@@ -18308,7 +18308,7 @@
         </is>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.44</v>
+        <v>0.4304347826086957</v>
       </c>
     </row>
     <row r="3">
@@ -18318,7 +18318,7 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.4936363636363635</v>
+        <v>0.4881818181818181</v>
       </c>
     </row>
     <row r="4">
@@ -18328,7 +18328,7 @@
         </is>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.1970903361344538</v>
+        <v>0.2016211484593838</v>
       </c>
     </row>
     <row r="5">
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>5.123054663482653</v>
+        <v>5.329323789133571</v>
       </c>
     </row>
     <row r="6">
@@ -18378,7 +18378,7 @@
         </is>
       </c>
       <c r="B9" s="13" t="n">
-        <v>1.801808510638298</v>
+        <v>1.740372340425532</v>
       </c>
     </row>
     <row r="10">
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="B10" s="13" t="n">
-        <v>1.998</v>
+        <v>1.954666666666667</v>
       </c>
     </row>
     <row r="11">
@@ -18398,7 +18398,7 @@
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.3487777777777778</v>
+        <v>0.3157777777777778</v>
       </c>
     </row>
     <row r="12">
@@ -18408,7 +18408,7 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0.1273376623376623</v>
+        <v>0.1305844155844156</v>
       </c>
     </row>
     <row r="13">
@@ -18418,7 +18418,7 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0.5482258064516129</v>
+        <v>0.5363709677419355</v>
       </c>
     </row>
     <row r="14">
@@ -18448,7 +18448,7 @@
         </is>
       </c>
       <c r="B16" s="13" t="n">
-        <v>4.824149757205351</v>
+        <v>4.677772168196328</v>
       </c>
     </row>
     <row r="17">
@@ -18458,7 +18458,7 @@
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>11.07793112045882</v>
+        <v>11.12733370657979</v>
       </c>
     </row>
     <row r="18">
@@ -18468,7 +18468,7 @@
         </is>
       </c>
       <c r="B18" s="13" t="n">
-        <v>1.517931120458821</v>
+        <v>1.397333706579793</v>
       </c>
     </row>
     <row r="19">
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="B19" s="14" t="n">
-        <v>1.158779405905734</v>
+        <v>1.14361086398559</v>
       </c>
     </row>
     <row r="20">
@@ -18488,7 +18488,7 @@
         </is>
       </c>
       <c r="B20" s="15" t="n">
-        <v>0.1587794059057344</v>
+        <v>0.1436108639855902</v>
       </c>
     </row>
     <row r="21">

--- a/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
+++ b/Expected Value and Cost Ratio Calculator Pokemon/excelDocs/scarletAndViolet151/pokemon_data.xlsx
@@ -667,7 +667,7 @@
         <v>0.06</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F2" s="3">
         <f>IF(B2:B210="common", 4, IF(B2:B210="uncommon", 3, IF(B2:B210="rare", 0.792892156862745, 1)))</f>
@@ -682,20 +682,20 @@
         <v/>
       </c>
       <c r="I2" s="3" t="n">
-        <v>9.73</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>65.38</v>
+        <v>65.62</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>232.49</v>
+        <v>232.98</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>5.93</v>
+        <v>6.19</v>
       </c>
       <c r="M2" s="3" t="n"/>
       <c r="N2" s="3" t="n">
-        <v>372.1</v>
+        <v>372.92</v>
       </c>
       <c r="R2" s="3" t="n"/>
       <c r="S2" s="3" t="n"/>
@@ -733,10 +733,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
       <c r="F3" s="3">
         <f>IF(B3:B211="common", 4, IF(B3:B211="uncommon", 3, IF(B3:B211="rare", 0.792892156862745, 1)))</f>
@@ -843,7 +843,7 @@
         <v>248</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>7.41</v>
+        <v>7.01</v>
       </c>
       <c r="E5" s="3" t="inlineStr"/>
       <c r="F5" s="3">
@@ -897,7 +897,7 @@
         <v>225</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>36.43</v>
+        <v>36.5</v>
       </c>
       <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3">
@@ -951,7 +951,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>0.58</v>
@@ -1007,10 +1007,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F8" s="3">
         <f>IF(B8:B216="common", 4, IF(B8:B216="uncommon", 3, IF(B8:B216="rare", 0.792892156862745, 1)))</f>
@@ -1063,10 +1063,10 @@
         <v>46</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="F9" s="3">
         <f>IF(B9:B217="common", 4, IF(B9:B217="uncommon", 3, IF(B9:B217="rare", 0.792892156862745, 1)))</f>
@@ -1119,7 +1119,7 @@
         <v>90</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E10" s="3" t="inlineStr"/>
       <c r="F10" s="3">
@@ -1173,7 +1173,7 @@
         <v>248</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>5.38</v>
+        <v>4.77</v>
       </c>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3">
@@ -1227,7 +1227,7 @@
         <v>0.06</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F12" s="3">
         <f>IF(B12:B220="common", 4, IF(B12:B220="uncommon", 3, IF(B12:B220="rare", 0.792892156862745, 1)))</f>
@@ -1277,10 +1277,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="F13" s="3">
         <f>IF(B13:B221="common", 4, IF(B13:B221="uncommon", 3, IF(B13:B221="rare", 0.792892156862745, 1)))</f>
@@ -1330,7 +1330,7 @@
         <v>154</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>4.61</v>
+        <v>4.45</v>
       </c>
       <c r="E14" s="3" t="inlineStr"/>
       <c r="F14" s="3">
@@ -1381,10 +1381,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F15" s="3">
         <f>IF(B15:B223="common", 4, IF(B15:B223="uncommon", 3, IF(B15:B223="rare", 0.792892156862745, 1)))</f>
@@ -1434,7 +1434,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>0.11</v>
@@ -1490,7 +1490,7 @@
         <v>0.09</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="F17" s="3">
         <f>IF(B17:B225="common", 4, IF(B17:B225="uncommon", 3, IF(B17:B225="rare", 0.792892156862745, 1)))</f>
@@ -1543,7 +1543,7 @@
         <v>0.11</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="F18" s="3">
         <f>IF(B18:B226="common", 4, IF(B18:B226="uncommon", 3, IF(B18:B226="rare", 0.792892156862745, 1)))</f>
@@ -1593,7 +1593,7 @@
         <v>248</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>3.06</v>
+        <v>2.85</v>
       </c>
       <c r="E19" s="3" t="inlineStr"/>
       <c r="F19" s="3">
@@ -1644,7 +1644,7 @@
         <v>90</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="E20" s="3" t="inlineStr"/>
       <c r="F20" s="3">
@@ -1695,7 +1695,7 @@
         <v>248</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>13.25</v>
+        <v>13.09</v>
       </c>
       <c r="E21" s="3" t="inlineStr"/>
       <c r="F21" s="3">
@@ -1746,7 +1746,7 @@
         <v>225</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>65.98</v>
+        <v>65.44</v>
       </c>
       <c r="E22" s="3" t="inlineStr"/>
       <c r="F22" s="3">
@@ -1797,10 +1797,10 @@
         <v>46</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F23" s="3">
         <f>IF(B23:B231="common", 4, IF(B23:B231="uncommon", 3, IF(B23:B231="rare", 0.792892156862745, 1)))</f>
@@ -1850,7 +1850,7 @@
         <v>188</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>33.97</v>
+        <v>34.54</v>
       </c>
       <c r="E24" s="3" t="inlineStr"/>
       <c r="F24" s="3">
@@ -1901,7 +1901,7 @@
         <v>33</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>0.14</v>
@@ -1954,10 +1954,10 @@
         <v>46</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F26" s="3">
         <f>IF(B26:B234="common", 4, IF(B26:B234="uncommon", 3, IF(B26:B234="rare", 0.792892156862745, 1)))</f>
@@ -2007,7 +2007,7 @@
         <v>188</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>7.77</v>
+        <v>7.19</v>
       </c>
       <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3">
@@ -2061,7 +2061,7 @@
         <v>0.18</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F28" s="3">
         <f>IF(B28:B236="common", 4, IF(B28:B236="uncommon", 3, IF(B28:B236="rare", 0.792892156862745, 1)))</f>
@@ -2111,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>3.86</v>
+        <v>4.25</v>
       </c>
       <c r="E29" s="3" t="inlineStr"/>
       <c r="F29" s="3">
@@ -2162,7 +2162,7 @@
         <v>248</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>25.18</v>
+        <v>26.9</v>
       </c>
       <c r="E30" s="3" t="inlineStr"/>
       <c r="F30" s="3">
@@ -2213,7 +2213,7 @@
         <v>225</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>206.26</v>
+        <v>198.4</v>
       </c>
       <c r="E31" s="3" t="inlineStr"/>
       <c r="F31" s="3">
@@ -2264,10 +2264,10 @@
         <v>46</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E32" s="3" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F32" s="3">
         <f>IF(B32:B240="common", 4, IF(B32:B240="uncommon", 3, IF(B32:B240="rare", 0.792892156862745, 1)))</f>
@@ -2317,7 +2317,7 @@
         <v>188</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>42.53</v>
+        <v>42.66</v>
       </c>
       <c r="E33" s="3" t="inlineStr"/>
       <c r="F33" s="3">
@@ -2368,10 +2368,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E34" s="3" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F34" s="3">
         <f>IF(B34:B242="common", 4, IF(B34:B242="uncommon", 3, IF(B34:B242="rare", 0.792892156862745, 1)))</f>
@@ -2421,7 +2421,7 @@
         <v>188</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>32.92</v>
+        <v>32.18</v>
       </c>
       <c r="E35" s="3" t="inlineStr"/>
       <c r="F35" s="3">
@@ -2472,10 +2472,10 @@
         <v>33</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E36" s="3" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="F36" s="3">
         <f>IF(B36:B244="common", 4, IF(B36:B244="uncommon", 3, IF(B36:B244="rare", 0.792892156862745, 1)))</f>
@@ -2525,7 +2525,7 @@
         <v>46</v>
       </c>
       <c r="D37" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>0.13</v>
@@ -2578,7 +2578,7 @@
         <v>33</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>0.18</v>
@@ -2631,10 +2631,10 @@
         <v>46</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E39" s="3" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F39" s="3">
         <f>IF(B39:B247="common", 4, IF(B39:B247="uncommon", 3, IF(B39:B247="rare", 0.792892156862745, 1)))</f>
@@ -2687,7 +2687,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="F40" s="3">
         <f>IF(B40:B248="common", 4, IF(B40:B248="uncommon", 3, IF(B40:B248="rare", 0.792892156862745, 1)))</f>
@@ -2740,7 +2740,7 @@
         <v>0.09</v>
       </c>
       <c r="E41" s="3" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="F41" s="3">
         <f>IF(B41:B249="common", 4, IF(B41:B249="uncommon", 3, IF(B41:B249="rare", 0.792892156862745, 1)))</f>
@@ -2790,7 +2790,7 @@
         <v>248</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
       <c r="F42" s="3">
@@ -2841,10 +2841,10 @@
         <v>33</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E43" s="3" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F43" s="3">
         <f>IF(B43:B251="common", 4, IF(B43:B251="uncommon", 3, IF(B43:B251="rare", 0.792892156862745, 1)))</f>
@@ -2894,7 +2894,7 @@
         <v>46</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E44" s="3" t="n">
         <v>0.14</v>
@@ -2947,10 +2947,10 @@
         <v>21</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="E45" s="3" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="F45" s="3">
         <f>IF(B45:B253="common", 4, IF(B45:B253="uncommon", 3, IF(B45:B253="rare", 0.792892156862745, 1)))</f>
@@ -3000,7 +3000,7 @@
         <v>21</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="E46" s="3" t="inlineStr"/>
       <c r="F46" s="3">
@@ -3051,10 +3051,10 @@
         <v>21</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="F47" s="3">
         <f>IF(B47:B255="common", 4, IF(B47:B255="uncommon", 3, IF(B47:B255="rare", 0.792892156862745, 1)))</f>
@@ -3104,10 +3104,10 @@
         <v>46</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E48" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F48" s="3">
         <f>IF(B48:B256="common", 4, IF(B48:B256="uncommon", 3, IF(B48:B256="rare", 0.792892156862745, 1)))</f>
@@ -3157,10 +3157,10 @@
         <v>33</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="F49" s="3">
         <f>IF(B49:B257="common", 4, IF(B49:B257="uncommon", 3, IF(B49:B257="rare", 0.792892156862745, 1)))</f>
@@ -3210,7 +3210,7 @@
         <v>188</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>20.09</v>
+        <v>20.11</v>
       </c>
       <c r="E50" s="3" t="inlineStr"/>
       <c r="F50" s="3">
@@ -3261,10 +3261,10 @@
         <v>21</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="E51" s="3" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="F51" s="3">
         <f>IF(B51:B259="common", 4, IF(B51:B259="uncommon", 3, IF(B51:B259="rare", 0.792892156862745, 1)))</f>
@@ -3317,7 +3317,7 @@
         <v>0.1</v>
       </c>
       <c r="E52" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F52" s="3">
         <f>IF(B52:B260="common", 4, IF(B52:B260="uncommon", 3, IF(B52:B260="rare", 0.792892156862745, 1)))</f>
@@ -3367,10 +3367,10 @@
         <v>46</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F53" s="3">
         <f>IF(B53:B261="common", 4, IF(B53:B261="uncommon", 3, IF(B53:B261="rare", 0.792892156862745, 1)))</f>
@@ -3420,10 +3420,10 @@
         <v>33</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E54" s="3" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="F54" s="3">
         <f>IF(B54:B262="common", 4, IF(B54:B262="uncommon", 3, IF(B54:B262="rare", 0.792892156862745, 1)))</f>
@@ -3476,7 +3476,7 @@
         <v>0.12</v>
       </c>
       <c r="E55" s="3" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F55" s="3">
         <f>IF(B55:B263="common", 4, IF(B55:B263="uncommon", 3, IF(B55:B263="rare", 0.792892156862745, 1)))</f>
@@ -3529,7 +3529,7 @@
         <v>0.06</v>
       </c>
       <c r="E56" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F56" s="3">
         <f>IF(B56:B264="common", 4, IF(B56:B264="uncommon", 3, IF(B56:B264="rare", 0.792892156862745, 1)))</f>
@@ -3632,10 +3632,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E58" s="3" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="F58" s="3">
         <f>IF(B58:B266="common", 4, IF(B58:B266="uncommon", 3, IF(B58:B266="rare", 0.792892156862745, 1)))</f>
@@ -3685,10 +3685,10 @@
         <v>33</v>
       </c>
       <c r="D59" s="3" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="E59" s="3" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="F59" s="3">
         <f>IF(B59:B267="common", 4, IF(B59:B267="uncommon", 3, IF(B59:B267="rare", 0.792892156862745, 1)))</f>
@@ -3791,7 +3791,7 @@
         <v>248</v>
       </c>
       <c r="D61" s="3" t="n">
-        <v>5.88</v>
+        <v>5.56</v>
       </c>
       <c r="E61" s="3" t="inlineStr"/>
       <c r="F61" s="3">
@@ -3842,7 +3842,7 @@
         <v>225</v>
       </c>
       <c r="D62" s="3" t="n">
-        <v>13.84</v>
+        <v>13.57</v>
       </c>
       <c r="E62" s="3" t="inlineStr"/>
       <c r="F62" s="3">
@@ -3893,10 +3893,10 @@
         <v>46</v>
       </c>
       <c r="D63" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E63" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F63" s="3">
         <f>IF(B63:B271="common", 4, IF(B63:B271="uncommon", 3, IF(B63:B271="rare", 0.792892156862745, 1)))</f>
@@ -3946,10 +3946,10 @@
         <v>33</v>
       </c>
       <c r="D64" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E64" s="3" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="F64" s="3">
         <f>IF(B64:B272="common", 4, IF(B64:B272="uncommon", 3, IF(B64:B272="rare", 0.792892156862745, 1)))</f>
@@ -4002,7 +4002,7 @@
         <v>0.05</v>
       </c>
       <c r="E65" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F65" s="3">
         <f>IF(B65:B273="common", 4, IF(B65:B273="uncommon", 3, IF(B65:B273="rare", 0.792892156862745, 1)))</f>
@@ -4052,10 +4052,10 @@
         <v>33</v>
       </c>
       <c r="D66" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E66" s="3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F66" s="3">
         <f>IF(B66:B274="common", 4, IF(B66:B274="uncommon", 3, IF(B66:B274="rare", 0.792892156862745, 1)))</f>
@@ -4105,10 +4105,10 @@
         <v>21</v>
       </c>
       <c r="D67" s="3" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="E67" s="3" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="F67" s="3">
         <f>IF(B67:B275="common", 4, IF(B67:B275="uncommon", 3, IF(B67:B275="rare", 0.792892156862745, 1)))</f>
@@ -4161,7 +4161,7 @@
         <v>0.08</v>
       </c>
       <c r="E68" s="3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F68" s="3">
         <f>IF(B68:B276="common", 4, IF(B68:B276="uncommon", 3, IF(B68:B276="rare", 0.792892156862745, 1)))</f>
@@ -4211,10 +4211,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="3" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="E69" s="3" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="F69" s="3">
         <f>IF(B69:B277="common", 4, IF(B69:B277="uncommon", 3, IF(B69:B277="rare", 0.792892156862745, 1)))</f>
@@ -4264,10 +4264,10 @@
         <v>46</v>
       </c>
       <c r="D70" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E70" s="3" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F70" s="3">
         <f>IF(B70:B278="common", 4, IF(B70:B278="uncommon", 3, IF(B70:B278="rare", 0.792892156862745, 1)))</f>
@@ -4317,10 +4317,10 @@
         <v>33</v>
       </c>
       <c r="D71" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E71" s="3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F71" s="3">
         <f>IF(B71:B279="common", 4, IF(B71:B279="uncommon", 3, IF(B71:B279="rare", 0.792892156862745, 1)))</f>
@@ -4370,7 +4370,7 @@
         <v>248</v>
       </c>
       <c r="D72" s="3" t="n">
-        <v>5.54</v>
+        <v>4.99</v>
       </c>
       <c r="E72" s="3" t="inlineStr"/>
       <c r="F72" s="3">
@@ -4421,7 +4421,7 @@
         <v>225</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>13.18</v>
+        <v>12.98</v>
       </c>
       <c r="E73" s="3" t="inlineStr"/>
       <c r="F73" s="3">
@@ -4472,10 +4472,10 @@
         <v>33</v>
       </c>
       <c r="D74" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E74" s="3" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F74" s="3">
         <f>IF(B74:B282="common", 4, IF(B74:B282="uncommon", 3, IF(B74:B282="rare", 0.792892156862745, 1)))</f>
@@ -4631,7 +4631,7 @@
         <v>33</v>
       </c>
       <c r="D77" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E77" s="3" t="n">
         <v>0.16</v>
@@ -4684,7 +4684,7 @@
         <v>90</v>
       </c>
       <c r="D78" s="3" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
       <c r="F78" s="3">
@@ -4735,7 +4735,7 @@
         <v>248</v>
       </c>
       <c r="D79" s="3" t="n">
-        <v>5.37</v>
+        <v>5.26</v>
       </c>
       <c r="E79" s="3" t="inlineStr"/>
       <c r="F79" s="3">
@@ -4789,7 +4789,7 @@
         <v>0.12</v>
       </c>
       <c r="E80" s="3" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="F80" s="3">
         <f>IF(B80:B288="common", 4, IF(B80:B288="uncommon", 3, IF(B80:B288="rare", 0.792892156862745, 1)))</f>
@@ -4842,7 +4842,7 @@
         <v>0.06</v>
       </c>
       <c r="E81" s="3" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="F81" s="3">
         <f>IF(B81:B289="common", 4, IF(B81:B289="uncommon", 3, IF(B81:B289="rare", 0.792892156862745, 1)))</f>
@@ -4892,10 +4892,10 @@
         <v>46</v>
       </c>
       <c r="D82" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E82" s="3" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F82" s="3">
         <f>IF(B82:B290="common", 4, IF(B82:B290="uncommon", 3, IF(B82:B290="rare", 0.792892156862745, 1)))</f>
@@ -4948,7 +4948,7 @@
         <v>0.05</v>
       </c>
       <c r="E83" s="3" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="F83" s="3">
         <f>IF(B83:B291="common", 4, IF(B83:B291="uncommon", 3, IF(B83:B291="rare", 0.792892156862745, 1)))</f>
@@ -4998,10 +4998,10 @@
         <v>21</v>
       </c>
       <c r="D84" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E84" s="3" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F84" s="3">
         <f>IF(B84:B292="common", 4, IF(B84:B292="uncommon", 3, IF(B84:B292="rare", 0.792892156862745, 1)))</f>
@@ -5051,10 +5051,10 @@
         <v>33</v>
       </c>
       <c r="D85" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="F85" s="3">
         <f>IF(B85:B293="common", 4, IF(B85:B293="uncommon", 3, IF(B85:B293="rare", 0.792892156862745, 1)))</f>
@@ -5107,7 +5107,7 @@
         <v>0.11</v>
       </c>
       <c r="E86" s="3" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="F86" s="3">
         <f>IF(B86:B294="common", 4, IF(B86:B294="uncommon", 3, IF(B86:B294="rare", 0.792892156862745, 1)))</f>
@@ -5157,10 +5157,10 @@
         <v>33</v>
       </c>
       <c r="D87" s="3" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E87" s="3" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="F87" s="3">
         <f>IF(B87:B295="common", 4, IF(B87:B295="uncommon", 3, IF(B87:B295="rare", 0.792892156862745, 1)))</f>
@@ -5210,7 +5210,7 @@
         <v>46</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="E88" s="3" t="n">
         <v>0.14</v>
@@ -5263,10 +5263,10 @@
         <v>33</v>
       </c>
       <c r="D89" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E89" s="3" t="n">
-        <v>1.18</v>
+        <v>1.05</v>
       </c>
       <c r="F89" s="3">
         <f>IF(B89:B297="common", 4, IF(B89:B297="uncommon", 3, IF(B89:B297="rare", 0.792892156862745, 1)))</f>
@@ -5319,7 +5319,7 @@
         <v>0.1</v>
       </c>
       <c r="E90" s="3" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="F90" s="3">
         <f>IF(B90:B298="common", 4, IF(B90:B298="uncommon", 3, IF(B90:B298="rare", 0.792892156862745, 1)))</f>
@@ -5369,7 +5369,7 @@
         <v>188</v>
       </c>
       <c r="D91" s="3" t="n">
-        <v>27.43</v>
+        <v>27.57</v>
       </c>
       <c r="E91" s="3" t="inlineStr"/>
       <c r="F91" s="3">
@@ -5420,10 +5420,10 @@
         <v>46</v>
       </c>
       <c r="D92" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E92" s="3" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="F92" s="3">
         <f>IF(B92:B300="common", 4, IF(B92:B300="uncommon", 3, IF(B92:B300="rare", 0.792892156862745, 1)))</f>
@@ -5473,10 +5473,10 @@
         <v>21</v>
       </c>
       <c r="D93" s="3" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E93" s="3" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="F93" s="3">
         <f>IF(B93:B301="common", 4, IF(B93:B301="uncommon", 3, IF(B93:B301="rare", 0.792892156862745, 1)))</f>
@@ -5526,7 +5526,7 @@
         <v>90</v>
       </c>
       <c r="D94" s="3" t="n">
-        <v>1.06</v>
+        <v>0.82</v>
       </c>
       <c r="E94" s="3" t="inlineStr"/>
       <c r="F94" s="3">
@@ -5577,7 +5577,7 @@
         <v>248</v>
       </c>
       <c r="D95" s="3" t="n">
-        <v>4.34</v>
+        <v>4.23</v>
       </c>
       <c r="E95" s="3" t="inlineStr"/>
       <c r="F95" s="3">
@@ -5631,7 +5631,7 @@
         <v>0.08</v>
       </c>
       <c r="E96" s="3" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="F96" s="3">
         <f>IF(B96:B304="common", 4, IF(B96:B304="uncommon", 3, IF(B96:B304="rare", 0.792892156862745, 1)))</f>
@@ -5681,10 +5681,10 @@
         <v>21</v>
       </c>
       <c r="D97" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E97" s="3" t="n">
-        <v>1.07</v>
+        <v>0.96</v>
       </c>
       <c r="F97" s="3">
         <f>IF(B97:B305="common", 4, IF(B97:B305="uncommon", 3, IF(B97:B305="rare", 0.792892156862745, 1)))</f>
@@ -5734,10 +5734,10 @@
         <v>33</v>
       </c>
       <c r="D98" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E98" s="3" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F98" s="3">
         <f>IF(B98:B306="common", 4, IF(B98:B306="uncommon", 3, IF(B98:B306="rare", 0.792892156862745, 1)))</f>
@@ -5787,10 +5787,10 @@
         <v>46</v>
       </c>
       <c r="D99" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E99" s="3" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="F99" s="3">
         <f>IF(B99:B307="common", 4, IF(B99:B307="uncommon", 3, IF(B99:B307="rare", 0.792892156862745, 1)))</f>
@@ -5840,7 +5840,7 @@
         <v>90</v>
       </c>
       <c r="D100" s="3" t="n">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="E100" s="3" t="inlineStr"/>
       <c r="F100" s="3">
@@ -5891,7 +5891,7 @@
         <v>248</v>
       </c>
       <c r="D101" s="3" t="n">
-        <v>4.81</v>
+        <v>4.89</v>
       </c>
       <c r="E101" s="3" t="inlineStr"/>
       <c r="F101" s="3">
@@ -5942,10 +5942,10 @@
         <v>33</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="F102" s="3">
         <f>IF(B102:B310="common", 4, IF(B102:B310="uncommon", 3, IF(B102:B310="rare", 0.792892156862745, 1)))</f>
@@ -5995,10 +5995,10 @@
         <v>46</v>
       </c>
       <c r="D103" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E103" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F103" s="3">
         <f>IF(B103:B311="common", 4, IF(B103:B311="uncommon", 3, IF(B103:B311="rare", 0.792892156862745, 1)))</f>
@@ -6048,7 +6048,7 @@
         <v>46</v>
       </c>
       <c r="D104" s="3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E104" s="3" t="n">
         <v>0.16</v>
@@ -6104,7 +6104,7 @@
         <v>0.09</v>
       </c>
       <c r="E105" s="3" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="F105" s="3">
         <f>IF(B105:B313="common", 4, IF(B105:B313="uncommon", 3, IF(B105:B313="rare", 0.792892156862745, 1)))</f>
@@ -6154,10 +6154,10 @@
         <v>33</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E106" s="3" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="F106" s="3">
         <f>IF(B106:B314="common", 4, IF(B106:B314="uncommon", 3, IF(B106:B314="rare", 0.792892156862745, 1)))</f>
@@ -6207,7 +6207,7 @@
         <v>46</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E107" s="3" t="n">
         <v>0.14</v>
@@ -6263,7 +6263,7 @@
         <v>0.18</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="F108" s="3">
         <f>IF(B108:B316="common", 4, IF(B108:B316="uncommon", 3, IF(B108:B316="rare", 0.792892156862745, 1)))</f>
@@ -6313,7 +6313,7 @@
         <v>33</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E109" s="3" t="n">
         <v>0.17</v>
@@ -6366,7 +6366,7 @@
         <v>188</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="E110" s="3" t="inlineStr"/>
       <c r="F110" s="3">
@@ -6420,7 +6420,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E111" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F111" s="3">
         <f>IF(B111:B319="common", 4, IF(B111:B319="uncommon", 3, IF(B111:B319="rare", 0.792892156862745, 1)))</f>
@@ -6470,10 +6470,10 @@
         <v>46</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E112" s="3" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F112" s="3">
         <f>IF(B112:B320="common", 4, IF(B112:B320="uncommon", 3, IF(B112:B320="rare", 0.792892156862745, 1)))</f>
@@ -6523,10 +6523,10 @@
         <v>46</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E113" s="3" t="n">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="F113" s="3">
         <f>IF(B113:B321="common", 4, IF(B113:B321="uncommon", 3, IF(B113:B321="rare", 0.792892156862745, 1)))</f>
@@ -6576,10 +6576,10 @@
         <v>46</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E114" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F114" s="3">
         <f>IF(B114:B322="common", 4, IF(B114:B322="uncommon", 3, IF(B114:B322="rare", 0.792892156862745, 1)))</f>
@@ -6632,7 +6632,7 @@
         <v>0.09</v>
       </c>
       <c r="E115" s="3" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="F115" s="3">
         <f>IF(B115:B323="common", 4, IF(B115:B323="uncommon", 3, IF(B115:B323="rare", 0.792892156862745, 1)))</f>
@@ -6682,7 +6682,7 @@
         <v>46</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E116" s="3" t="n">
         <v>0.12</v>
@@ -6735,10 +6735,10 @@
         <v>21</v>
       </c>
       <c r="D117" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E117" s="3" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="F117" s="3">
         <f>IF(B117:B325="common", 4, IF(B117:B325="uncommon", 3, IF(B117:B325="rare", 0.792892156862745, 1)))</f>
@@ -6791,7 +6791,7 @@
         <v>0.08</v>
       </c>
       <c r="E118" s="3" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F118" s="3">
         <f>IF(B118:B326="common", 4, IF(B118:B326="uncommon", 3, IF(B118:B326="rare", 0.792892156862745, 1)))</f>
@@ -6844,7 +6844,7 @@
         <v>0.1</v>
       </c>
       <c r="E119" s="3" t="n">
-        <v>2.18</v>
+        <v>2.61</v>
       </c>
       <c r="F119" s="3">
         <f>IF(B119:B327="common", 4, IF(B119:B327="uncommon", 3, IF(B119:B327="rare", 0.792892156862745, 1)))</f>
@@ -6894,7 +6894,7 @@
         <v>90</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>6.41</v>
+        <v>6.32</v>
       </c>
       <c r="E120" s="3" t="inlineStr"/>
       <c r="F120" s="3">
@@ -6945,7 +6945,7 @@
         <v>248</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>18.51</v>
+        <v>17.12</v>
       </c>
       <c r="E121" s="3" t="inlineStr"/>
       <c r="F121" s="3">
@@ -6996,7 +6996,7 @@
         <v>154</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>12.65</v>
+        <v>12</v>
       </c>
       <c r="E122" s="3" t="inlineStr"/>
       <c r="F122" s="3">
@@ -7047,7 +7047,7 @@
         <v>90</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>10.27</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E123" s="3" t="inlineStr"/>
       <c r="F123" s="3">
@@ -7098,10 +7098,10 @@
         <v>21</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="E124" s="3" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="F124" s="3">
         <f>IF(B124:B332="common", 4, IF(B124:B332="uncommon", 3, IF(B124:B332="rare", 0.792892156862745, 1)))</f>
@@ -7154,7 +7154,7 @@
         <v>0.24</v>
       </c>
       <c r="E125" s="3" t="n">
-        <v>0.74</v>
+        <v>0.63</v>
       </c>
       <c r="F125" s="3">
         <f>IF(B125:B333="common", 4, IF(B125:B333="uncommon", 3, IF(B125:B333="rare", 0.792892156862745, 1)))</f>
@@ -7204,10 +7204,10 @@
         <v>21</v>
       </c>
       <c r="D126" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E126" s="3" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F126" s="3">
         <f>IF(B126:B334="common", 4, IF(B126:B334="uncommon", 3, IF(B126:B334="rare", 0.792892156862745, 1)))</f>
@@ -7257,7 +7257,7 @@
         <v>188</v>
       </c>
       <c r="D127" s="3" t="n">
-        <v>5.65</v>
+        <v>5.29</v>
       </c>
       <c r="E127" s="3" t="inlineStr"/>
       <c r="F127" s="3">
@@ -7308,10 +7308,10 @@
         <v>33</v>
       </c>
       <c r="D128" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E128" s="3" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F128" s="3">
         <f>IF(B128:B336="common", 4, IF(B128:B336="uncommon", 3, IF(B128:B336="rare", 0.792892156862745, 1)))</f>
@@ -7364,7 +7364,7 @@
         <v>0.16</v>
       </c>
       <c r="E129" s="3" t="n">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F129" s="3">
         <f>IF(B129:B337="common", 4, IF(B129:B337="uncommon", 3, IF(B129:B337="rare", 0.792892156862745, 1)))</f>
@@ -7414,7 +7414,7 @@
         <v>188</v>
       </c>
       <c r="D130" s="3" t="n">
-        <v>9.49</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E130" s="3" t="inlineStr"/>
       <c r="F130" s="3">
@@ -7468,7 +7468,7 @@
         <v>0.09</v>
       </c>
       <c r="E131" s="3" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F131" s="3">
         <f>IF(B131:B339="common", 4, IF(B131:B339="uncommon", 3, IF(B131:B339="rare", 0.792892156862745, 1)))</f>
@@ -7518,10 +7518,10 @@
         <v>46</v>
       </c>
       <c r="D132" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="F132" s="3">
         <f>IF(B132:B340="common", 4, IF(B132:B340="uncommon", 3, IF(B132:B340="rare", 0.792892156862745, 1)))</f>
@@ -7574,7 +7574,7 @@
         <v>0.1</v>
       </c>
       <c r="E133" s="3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="F133" s="3">
         <f>IF(B133:B341="common", 4, IF(B133:B341="uncommon", 3, IF(B133:B341="rare", 0.792892156862745, 1)))</f>
@@ -7680,7 +7680,7 @@
         <v>0.05</v>
       </c>
       <c r="E135" s="3" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F135" s="3">
         <f>IF(B135:B343="common", 4, IF(B135:B343="uncommon", 3, IF(B135:B343="rare", 0.792892156862745, 1)))</f>
@@ -7730,7 +7730,7 @@
         <v>90</v>
       </c>
       <c r="D136" s="3" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="E136" s="3" t="inlineStr"/>
       <c r="F136" s="3">
@@ -7781,7 +7781,7 @@
         <v>248</v>
       </c>
       <c r="D137" s="3" t="n">
-        <v>7.37</v>
+        <v>7.43</v>
       </c>
       <c r="E137" s="3" t="inlineStr"/>
       <c r="F137" s="3">
@@ -7832,7 +7832,7 @@
         <v>46</v>
       </c>
       <c r="D138" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E138" s="3" t="n">
         <v>0.14</v>
@@ -7888,7 +7888,7 @@
         <v>0.09</v>
       </c>
       <c r="E139" s="3" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="F139" s="3">
         <f>IF(B139:B347="common", 4, IF(B139:B347="uncommon", 3, IF(B139:B347="rare", 0.792892156862745, 1)))</f>
@@ -7938,7 +7938,7 @@
         <v>188</v>
       </c>
       <c r="D140" s="3" t="n">
-        <v>5.82</v>
+        <v>5.73</v>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3">
@@ -7989,10 +7989,10 @@
         <v>21</v>
       </c>
       <c r="D141" s="3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E141" s="3" t="n">
-        <v>0.68</v>
+        <v>0.57</v>
       </c>
       <c r="F141" s="3">
         <f>IF(B141:B349="common", 4, IF(B141:B349="uncommon", 3, IF(B141:B349="rare", 0.792892156862745, 1)))</f>
@@ -8042,10 +8042,10 @@
         <v>33</v>
       </c>
       <c r="D142" s="3" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E142" s="3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="F142" s="3">
         <f>IF(B142:B350="common", 4, IF(B142:B350="uncommon", 3, IF(B142:B350="rare", 0.792892156862745, 1)))</f>
@@ -8098,7 +8098,7 @@
         <v>0.05</v>
       </c>
       <c r="E143" s="3" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F143" s="3">
         <f>IF(B143:B351="common", 4, IF(B143:B351="uncommon", 3, IF(B143:B351="rare", 0.792892156862745, 1)))</f>
@@ -8151,7 +8151,7 @@
         <v>0.06</v>
       </c>
       <c r="E144" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F144" s="3">
         <f>IF(B144:B352="common", 4, IF(B144:B352="uncommon", 3, IF(B144:B352="rare", 0.792892156862745, 1)))</f>
@@ -8201,10 +8201,10 @@
         <v>33</v>
       </c>
       <c r="D145" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E145" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F145" s="3">
         <f>IF(B145:B353="common", 4, IF(B145:B353="uncommon", 3, IF(B145:B353="rare", 0.792892156862745, 1)))</f>
@@ -8254,10 +8254,10 @@
         <v>33</v>
       </c>
       <c r="D146" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E146" s="3" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F146" s="3">
         <f>IF(B146:B354="common", 4, IF(B146:B354="uncommon", 3, IF(B146:B354="rare", 0.792892156862745, 1)))</f>
@@ -8307,10 +8307,10 @@
         <v>46</v>
       </c>
       <c r="D147" s="3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E147" s="3" t="n">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="F147" s="3">
         <f>IF(B147:B355="common", 4, IF(B147:B355="uncommon", 3, IF(B147:B355="rare", 0.792892156862745, 1)))</f>
@@ -8363,7 +8363,7 @@
         <v>0.1</v>
       </c>
       <c r="E148" s="3" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="F148" s="3">
         <f>IF(B148:B356="common", 4, IF(B148:B356="uncommon", 3, IF(B148:B356="rare", 0.792892156862745, 1)))</f>
@@ -8413,10 +8413,10 @@
         <v>46</v>
       </c>
       <c r="D149" s="3" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E149" s="3" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F149" s="3">
         <f>IF(B149:B357="common", 4, IF(B149:B357="uncommon", 3, IF(B149:B357="rare", 0.792892156862745, 1)))</f>
@@ -8466,7 +8466,7 @@
         <v>188</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>24.97</v>
+        <v>24.78</v>
       </c>
       <c r="E150" s="3" t="inlineStr"/>
       <c r="F150" s="3">
@@ -8517,10 +8517,10 @@
         <v>33</v>
       </c>
       <c r="D151" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E151" s="3" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="F151" s="3">
         <f>IF(B151:B359="common", 4, IF(B151:B359="uncommon", 3, IF(B151:B359="rare", 0.792892156862745, 1)))</f>
@@ -8623,10 +8623,10 @@
         <v>46</v>
       </c>
       <c r="D153" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E153" s="3" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="F153" s="3">
         <f>IF(B153:B361="common", 4, IF(B153:B361="uncommon", 3, IF(B153:B361="rare", 0.792892156862745, 1)))</f>
@@ -8676,7 +8676,7 @@
         <v>188</v>
       </c>
       <c r="D154" s="3" t="n">
-        <v>17.04</v>
+        <v>16.93</v>
       </c>
       <c r="E154" s="3" t="inlineStr"/>
       <c r="F154" s="3">
@@ -8727,10 +8727,10 @@
         <v>33</v>
       </c>
       <c r="D155" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E155" s="3" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F155" s="3">
         <f>IF(B155:B363="common", 4, IF(B155:B363="uncommon", 3, IF(B155:B363="rare", 0.792892156862745, 1)))</f>
@@ -8783,7 +8783,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E156" s="3" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F156" s="3">
         <f>IF(B156:B364="common", 4, IF(B156:B364="uncommon", 3, IF(B156:B364="rare", 0.792892156862745, 1)))</f>
@@ -8836,7 +8836,7 @@
         <v>0.06</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F157" s="3">
         <f>IF(B157:B365="common", 4, IF(B157:B365="uncommon", 3, IF(B157:B365="rare", 0.792892156862745, 1)))</f>
@@ -8886,7 +8886,7 @@
         <v>33</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E158" s="3" t="n">
         <v>0.16</v>
@@ -8939,10 +8939,10 @@
         <v>33</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E159" s="3" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="F159" s="3">
         <f>IF(B159:B367="common", 4, IF(B159:B367="uncommon", 3, IF(B159:B367="rare", 0.792892156862745, 1)))</f>
@@ -8992,10 +8992,10 @@
         <v>46</v>
       </c>
       <c r="D160" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E160" s="3" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F160" s="3">
         <f>IF(B160:B368="common", 4, IF(B160:B368="uncommon", 3, IF(B160:B368="rare", 0.792892156862745, 1)))</f>
@@ -9045,7 +9045,7 @@
         <v>188</v>
       </c>
       <c r="D161" s="3" t="n">
-        <v>18.79</v>
+        <v>18.6</v>
       </c>
       <c r="E161" s="3" t="inlineStr"/>
       <c r="F161" s="3">
@@ -9096,10 +9096,10 @@
         <v>21</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E162" s="3" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="F162" s="3">
         <f>IF(B162:B370="common", 4, IF(B162:B370="uncommon", 3, IF(B162:B370="rare", 0.792892156862745, 1)))</f>
@@ -9149,10 +9149,10 @@
         <v>33</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E163" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F163" s="3">
         <f>IF(B163:B371="common", 4, IF(B163:B371="uncommon", 3, IF(B163:B371="rare", 0.792892156862745, 1)))</f>
@@ -9202,10 +9202,10 @@
         <v>33</v>
       </c>
       <c r="D164" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E164" s="3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F164" s="3">
         <f>IF(B164:B372="common", 4, IF(B164:B372="uncommon", 3, IF(B164:B372="rare", 0.792892156862745, 1)))</f>
@@ -9258,7 +9258,7 @@
         <v>0.05</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="F165" s="3">
         <f>IF(B165:B373="common", 4, IF(B165:B373="uncommon", 3, IF(B165:B373="rare", 0.792892156862745, 1)))</f>
@@ -9308,10 +9308,10 @@
         <v>33</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E166" s="3" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F166" s="3">
         <f>IF(B166:B374="common", 4, IF(B166:B374="uncommon", 3, IF(B166:B374="rare", 0.792892156862745, 1)))</f>
@@ -9361,10 +9361,10 @@
         <v>46</v>
       </c>
       <c r="D167" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F167" s="3">
         <f>IF(B167:B375="common", 4, IF(B167:B375="uncommon", 3, IF(B167:B375="rare", 0.792892156862745, 1)))</f>
@@ -9414,10 +9414,10 @@
         <v>33</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E168" s="3" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F168" s="3">
         <f>IF(B168:B376="common", 4, IF(B168:B376="uncommon", 3, IF(B168:B376="rare", 0.792892156862745, 1)))</f>
@@ -9467,7 +9467,7 @@
         <v>46</v>
       </c>
       <c r="D169" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E169" s="3" t="n">
         <v>0.17</v>
@@ -9523,7 +9523,7 @@
         <v>0.05</v>
       </c>
       <c r="E170" s="3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F170" s="3">
         <f>IF(B170:B378="common", 4, IF(B170:B378="uncommon", 3, IF(B170:B378="rare", 0.792892156862745, 1)))</f>
@@ -9573,10 +9573,10 @@
         <v>33</v>
       </c>
       <c r="D171" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E171" s="3" t="n">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="F171" s="3">
         <f>IF(B171:B379="common", 4, IF(B171:B379="uncommon", 3, IF(B171:B379="rare", 0.792892156862745, 1)))</f>
@@ -9626,10 +9626,10 @@
         <v>33</v>
       </c>
       <c r="D172" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E172" s="3" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="F172" s="3">
         <f>IF(B172:B380="common", 4, IF(B172:B380="uncommon", 3, IF(B172:B380="rare", 0.792892156862745, 1)))</f>
@@ -9679,10 +9679,10 @@
         <v>33</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E173" s="3" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F173" s="3">
         <f>IF(B173:B381="common", 4, IF(B173:B381="uncommon", 3, IF(B173:B381="rare", 0.792892156862745, 1)))</f>
@@ -9785,10 +9785,10 @@
         <v>46</v>
       </c>
       <c r="D175" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E175" s="3" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="F175" s="3">
         <f>IF(B175:B383="common", 4, IF(B175:B383="uncommon", 3, IF(B175:B383="rare", 0.792892156862745, 1)))</f>
@@ -9838,10 +9838,10 @@
         <v>33</v>
       </c>
       <c r="D176" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E176" s="3" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F176" s="3">
         <f>IF(B176:B384="common", 4, IF(B176:B384="uncommon", 3, IF(B176:B384="rare", 0.792892156862745, 1)))</f>
@@ -9891,10 +9891,10 @@
         <v>46</v>
       </c>
       <c r="D177" s="3" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F177" s="3">
         <f>IF(B177:B385="common", 4, IF(B177:B385="uncommon", 3, IF(B177:B385="rare", 0.792892156862745, 1)))</f>
@@ -9944,10 +9944,10 @@
         <v>33</v>
       </c>
       <c r="D178" s="3" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E178" s="3" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="F178" s="3">
         <f>IF(B178:B386="common", 4, IF(B178:B386="uncommon", 3, IF(B178:B386="rare", 0.792892156862745, 1)))</f>
@@ -9997,10 +9997,10 @@
         <v>46</v>
       </c>
       <c r="D179" s="3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E179" s="3" t="n">
-        <v>0.83</v>
+        <v>1.07</v>
       </c>
       <c r="F179" s="3">
         <f>IF(B179:B387="common", 4, IF(B179:B387="uncommon", 3, IF(B179:B387="rare", 0.792892156862745, 1)))</f>
@@ -10050,7 +10050,7 @@
         <v>46</v>
       </c>
       <c r="D180" s="3" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E180" s="3" t="n">
         <v>0.18</v>
@@ -10103,7 +10103,7 @@
         <v>188</v>
       </c>
       <c r="D181" s="3" t="n">
-        <v>40</v>
+        <v>38.56</v>
       </c>
       <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="3">
@@ -10157,7 +10157,7 @@
         <v>0.16</v>
       </c>
       <c r="E182" s="3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="F182" s="3">
         <f>IF(B182:B390="common", 4, IF(B182:B390="uncommon", 3, IF(B182:B390="rare", 0.792892156862745, 1)))</f>
@@ -10207,10 +10207,10 @@
         <v>46</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E183" s="3" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="F183" s="3">
         <f>IF(B183:B391="common", 4, IF(B183:B391="uncommon", 3, IF(B183:B391="rare", 0.792892156862745, 1)))</f>
@@ -10260,7 +10260,7 @@
         <v>154</v>
       </c>
       <c r="D184" s="3" t="n">
-        <v>2.85</v>
+        <v>2.19</v>
       </c>
       <c r="E184" s="3" t="inlineStr"/>
       <c r="F184" s="3">
@@ -10311,10 +10311,10 @@
         <v>46</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F185" s="3">
         <f>IF(B185:B393="common", 4, IF(B185:B393="uncommon", 3, IF(B185:B393="rare", 0.792892156862745, 1)))</f>
@@ -10364,7 +10364,7 @@
         <v>188</v>
       </c>
       <c r="D186" s="3" t="n">
-        <v>6.7</v>
+        <v>6.47</v>
       </c>
       <c r="E186" s="3" t="inlineStr"/>
       <c r="F186" s="3">
@@ -10418,7 +10418,7 @@
         <v>0.1</v>
       </c>
       <c r="E187" s="3" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="F187" s="3">
         <f>IF(B187:B395="common", 4, IF(B187:B395="uncommon", 3, IF(B187:B395="rare", 0.792892156862745, 1)))</f>
@@ -10471,7 +10471,7 @@
         <v>0.06</v>
       </c>
       <c r="E188" s="3" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="F188" s="3">
         <f>IF(B188:B396="common", 4, IF(B188:B396="uncommon", 3, IF(B188:B396="rare", 0.792892156862745, 1)))</f>
@@ -10521,10 +10521,10 @@
         <v>33</v>
       </c>
       <c r="D189" s="3" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E189" s="3" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F189" s="3">
         <f>IF(B189:B397="common", 4, IF(B189:B397="uncommon", 3, IF(B189:B397="rare", 0.792892156862745, 1)))</f>
@@ -10574,10 +10574,10 @@
         <v>21</v>
       </c>
       <c r="D190" s="3" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E190" s="3" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="F190" s="3">
         <f>IF(B190:B398="common", 4, IF(B190:B398="uncommon", 3, IF(B190:B398="rare", 0.792892156862745, 1)))</f>
@@ -10627,10 +10627,10 @@
         <v>33</v>
       </c>
       <c r="D191" s="3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E191" s="3" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F191" s="3">
         <f>IF(B191:B399="common", 4, IF(B191:B399="uncommon", 3, IF(B191:B399="rare", 0.792892156862745, 1)))</f>
@@ -10680,10 +10680,10 @@
         <v>46</v>
       </c>
       <c r="D192" s="3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E192" s="3" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F192" s="3">
         <f>IF(B192:B400="common", 4, IF(B192:B400="uncommon", 3, IF(B192:B400="rare", 0.792892156862745, 1)))</f>
@@ -10733,7 +10733,7 @@
         <v>90</v>
       </c>
       <c r="D193" s="3" t="n">
-        <v>0.55</v>
+        <v>0.73</v>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3">
@@ -10784,7 +10784,7 @@
         <v>248</v>
       </c>
       <c r="D194" s="3" t="n">
-        <v>9.69</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="E194" s="3" t="inlineStr"/>
       <c r="F194" s="3">
@@ -10835,7 +10835,7 @@
         <v>225</v>
       </c>
       <c r="D195" s="3" t="n">
-        <v>57.96</v>
+        <v>57.55</v>
       </c>
       <c r="E195" s="3" t="inlineStr"/>
       <c r="F195" s="3">
@@ -10939,7 +10939,7 @@
         <v>21</v>
       </c>
       <c r="D197" s="3" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="E197" s="3" t="n">
         <v>0.77</v>
@@ -10995,7 +10995,7 @@
         <v>0.06</v>
       </c>
       <c r="E198" s="3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F198" s="3">
         <f>IF(B198:B406="common", 4, IF(B198:B406="uncommon", 3, IF(B198:B406="rare", 0.792892156862745, 1)))</f>
@@ -11045,10 +11045,10 @@
         <v>46</v>
       </c>
       <c r="D199" s="3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E199" s="3" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F199" s="3">
         <f>IF(B199:B407="common", 4, IF(B199:B407="uncommon", 3, IF(B199:B407="rare", 0.792892156862745, 1)))</f>
@@ -11101,7 +11101,7 @@
         <v>0.1</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F200" s="3">
         <f>IF(B200:B408="common", 4, IF(B200:B408="uncommon", 3, IF(B200:B408="rare", 0.792892156862745, 1)))</f>
@@ -11151,7 +11151,7 @@
         <v>188</v>
       </c>
       <c r="D201" s="3" t="n">
-        <v>24.22</v>
+        <v>23.06</v>
       </c>
       <c r="E201" s="3" t="inlineStr"/>
       <c r="F201" s="3">
@@ -11255,10 +11255,10 @@
         <v>46</v>
       </c>
       <c r="D203" s="3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E203" s="3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="F203" s="3">
         <f>IF(B203:B411="common", 4, IF(B203:B411="uncommon", 3, IF(B203:B411="rare", 0.792892156862745, 1)))</f>
@@ -11311,7 +11311,7 @@
         <v>0.13</v>
       </c>
       <c r="E204" s="3" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="F204" s="3">
         <f>IF(B204:B412="common", 4, IF(B204:B412="uncommon", 3, IF(B204:B412="rare", 0.792892156862745, 1)))</f>
@@ -11361,7 +11361,7 @@
         <v>90</v>
       </c>
       <c r="D205" s="3" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="E205" s="3" t="inlineStr"/>
       <c r="F205" s="3">
@@ -11412,7 +11412,7 @@
         <v>248</v>
       </c>
       <c r="D206" s="3" t="n">
-        <v>6.9</v>
+        <v>6.27</v>
       </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="3">
@@ -11463,7 +11463,7 @@
         <v>90</v>
       </c>
       <c r="D207" s="3" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="E207" s="3" t="inlineStr"/>
       <c r="F207" s="3">
@@ -11514,7 +11514,7 @@
         <v>248</v>
       </c>
       <c r="D208" s="3" t="n">
-        <v>7.15</v>
+        <v>7.23</v>
       </c>
       <c r="E208" s="3" t="inlineStr"/>
       <c r="F208" s="3">
@@ -11565,7 +11565,7 @@
         <v>225</v>
       </c>
       <c r="D209" s="3" t="n">
-        <v>46.15</v>
+        <v>47.08</v>
       </c>
       <c r="E209" s="3" t="inlineStr"/>
       <c r="F209" s="3">
@@ -18308,7 +18308,7 @@
         </is>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.4304347826086957</v>
+        <v>0.4008695652173913</v>
       </c>
     </row>
     <row r="3">
@@ -18318,7 +18318,7 @@
         </is>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.4881818181818181</v>
+        <v>0.4536363636363635</v>
       </c>
     </row>
     <row r="4">
@@ -18328,7 +18328,7 @@
         </is>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.2016211484593838</v>
+        <v>0.1925595238095238</v>
       </c>
     </row>
     <row r="5">
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="B5" s="13" t="n">
-        <v>5.329323789133571</v>
+        <v>5.212912706255096</v>
       </c>
     </row>
     <row r="6">
@@ -18378,7 +18378,7 @@
         </is>
       </c>
       <c r="B9" s="13" t="n">
-        <v>1.740372340425532</v>
+        <v>1.716223404255319</v>
       </c>
     </row>
     <row r="10">
@@ -18388,7 +18388,7 @@
         </is>
       </c>
       <c r="B10" s="13" t="n">
-        <v>1.954666666666667</v>
+        <v>1.917866666666667</v>
       </c>
     </row>
     <row r="11">
@@ -18398,7 +18398,7 @@
         </is>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.3157777777777778</v>
+        <v>0.3143333333333334</v>
       </c>
     </row>
     <row r="12">
@@ -18408,7 +18408,7 @@
         </is>
       </c>
       <c r="B12" s="13" t="n">
-        <v>0.1305844155844156</v>
+        <v>0.121038961038961</v>
       </c>
     </row>
     <row r="13">
@@ -18418,7 +18418,7 @@
         </is>
       </c>
       <c r="B13" s="13" t="n">
-        <v>0.5363709677419355</v>
+        <v>0.5255241935483871</v>
       </c>
     </row>
     <row r="14">
@@ -18448,7 +18448,7 @@
         </is>
       </c>
       <c r="B16" s="13" t="n">
-        <v>4.677772168196328</v>
+        <v>4.594986558842668</v>
       </c>
     </row>
     <row r="17">
@@ -18458,7 +18458,7 @@
         </is>
       </c>
       <c r="B17" s="13" t="n">
-        <v>11.12733370657979</v>
+        <v>10.85496471776104</v>
       </c>
     </row>
     <row r="18">
@@ -18468,7 +18468,7 @@
         </is>
       </c>
       <c r="B18" s="13" t="n">
-        <v>1.397333706579793</v>
+        <v>0.9649647177610419</v>
       </c>
     </row>
     <row r="19">
@@ -18478,7 +18478,7 @@
         </is>
       </c>
       <c r="B19" s="14" t="n">
-        <v>1.14361086398559</v>
+        <v>1.097569738904049</v>
       </c>
     </row>
     <row r="20">
@@ -18488,7 +18488,7 @@
         </is>
       </c>
       <c r="B20" s="15" t="n">
-        <v>0.1436108639855902</v>
+        <v>0.09756973890404863</v>
       </c>
     </row>
     <row r="21">
